--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="754">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -1100,6 +1100,1188 @@
   </si>
   <si>
     <t xml:space="preserve">ООО АРХИТЕКТУРНО-ПРОЕКТНАЯ МАСТЕРСКАЯ "ГОРИЗОНТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_11:17_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502202162021000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25022021620 21 000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ПРОФЕССИОНАЛЬНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "КОЛОМЕНСКИЙ АГРАРНЫЙ КОЛЛЕДЖ ИМЕНИ Н.Т. КОЗЛОВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБПОУ МО "КОЛОМЕНСКИЙ АГРАРНЫЙ КОЛЛЕДЖ ИМЕНИ Н.Т. КОЗЛОВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУЗЬМИН АЛЕКСЕЙ АЛЕКСАНДРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КУЗЬМИН АЛЕКСЕЙ АЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г КОЛОМНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7496-000-00-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAA@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500313323021000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003133230 21 000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ЛЕНИНСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ "ВИДНОВСКОЕ УПРАВЛЕНИЕ КАПИТАЛЬНОГО СТРОИТЕЛЬСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ВИДУКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙТЕХПРОЕКТ" (ООО "СТРОЙТЕХПРОЕКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙТЕХПРОЕКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248000, ОБЛ. КАЛУЖСКАЯ 40, Г. Калуга, УЛ. САЛТЫКОВА-ЩЕДРИНА, Д. 76, К. 4, ЭТАЖ 3 ПОМЕЩ. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xandranotas@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772812263121000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27728122631 21 000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 17"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТАРГЕТ" (ООО "ТАРГЕТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТАРГЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123242, Г МОСКВА 77, ПЕР ПРЕСНЕНСКИЙ, ДОМ 6, ЭТ 1 ПОМ 5 КОМ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (966) 121-94-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target-group@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771012805421000092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17710128054 21 000092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГОСУДАРСТВЕННОЕ УЧРЕЖДЕНИЕ ПО ЭКСПЛУАТАЦИИ АДМИНИСТРАТИВНЫХ ЗДАНИЙ И ДАЧНОГО ХОЗЯЙСТВА МИНИСТЕРСТВА ФИНАНСОВ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ГУ АЗ МИНФИНА РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧЕСТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧЕСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЧЕСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">428003, ЧУВАШИЯ ЧУВАШСКАЯ РЕСПУБЛИКА - 21, Г ЧЕБОКСАРЫ, ПРОЕЗД МОНТАЖНЫЙ, ДОМ 23, КАБИНЕТ 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8352-230523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender2179@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503200422221000159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35032004222 21 000159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ОДИНЦОВСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ОДИНЦОВСКОГО ГОРОДСКОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САБИТОВ ДАМИР ФАРИТОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП САБИТОВ ДАМИР ФАРИТОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСП ТАТАРСТАН 16, Г КАЗАНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-966-2409050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grinfleit@ya.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770540134021002738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705401340 21 002738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ФЕДЕРАЛЬНАЯ КАДАСТРОВАЯ ПАЛАТА ФЕДЕРАЛЬНОЙ СЛУЖБЫ ГОСУДАРСТВЕННОЙ РЕГИСТРАЦИИ, КАДАСТРА И КАРТОГРАФИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ФКП РОСРЕЕСТРА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БАРАНЦЕВ РОМАН ЕВГЕНЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП БАРАНЦЕВ РОМАН ЕВГЕНЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Удмуртская 18, Город Ижевск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-912-8566249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">webbb@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770540134021002026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705401340 21 002026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "ФИРМА УСЛУГИ ЧАСТНОЙ ОХРАНЫ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "ФИРМА УСЛУГИ ЧАСТНОЙ ОХРАНЫ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «ЧОП» "ФИРМА УСЛУГИ ЧАСТНОЙ ОХРАНЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650000, ОБЛ КЕМЕРОВСКАЯ ОБЛАСТЬ - КУЗБАСС 42, Г КЕМЕРОВО, УЛ ВЕСЕННЯЯ, 22, 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-3842-362663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fucho42@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500000152521000383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25000001525 21 000383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "МОСАВТОДОР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ МО "МОСАВТОДОР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГРУППА "АБРИС" (ООО "ГРУППА "АБРИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГРУППА "АБРИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121596, Г МОСКВА 77, УЛ ГОРБУНОВА, ДОМ 2, СТРОЕНИЕ 3, ОФИС В210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-3777622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pugachev@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500000152521000196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25000001525 21 000196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПЕЛЕНГ" (ООО "ПЕЛЕНГ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПЕЛЕНГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192029, Г. САНКТ-ПЕТЕРБУРГ 78, УЛ. ОЛЬГИ БЕРГГОЛЬЦ, Д. 9, К. 2 ЛИТЕРА Е, ПОМЕЩ. 3-Н КАБИНЕТ 4 РАБОЧЕЕ МЕСТО 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-914-2703509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooopeleng@gmail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770302103921000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27703021039 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ОБРАЗОВАНИЯ ГОРОДА МОСКВЫ "ЦЕНТР РАЗВИТИЯ ТВОРЧЕСТВА ДЕТЕЙ И ЮНОШЕСТВА "ПРЕСНЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ДО ЦРТДЮ "ПРЕСНЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СУДАРИКОВ МИХАИЛ ГЕННАДЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП СУДАРИКОВ МИХАИЛ ГЕННАДЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Город Москва 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 642-32-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@videofonia.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1402506283121000210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14025062831 21 000210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "НАЛОГ-СЕРВИС" ФЕДЕРАЛЬНОЙ НАЛОГОВОЙ СЛУЖБЫ (Г. МОСКВА)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "НАЛОГ-СЕРВИС" ФНС РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВТОНОМНАЯ НЕКОММЕРЧЕСКАЯ ОРГАНИЗАЦИЯ СОДЕЙСТВИЯ ОТДЫХУ И ЛЕЧЕНИЮ ОРГАНИЗАЦИЯМ ИНВАЛИДОВ "ИНВАТУР" (АВТОНОМНАЯ НЕКОММЕРЧЕСКАЯ ОРГАНИЗАЦИЯ СОДЕЙСТВИЯ ОТДЫХУ И ЛЕЧЕНИЮ ОРГАНИЗАЦИЯМ ИНВАЛИДОВ "ИНВАТУР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНО СОДЕЙСТВИЯ ОТДЫХУ И ЛЕЧЕНИЮ ОРГАНИЗАЦИЯМ ИНВАЛИДОВ "ИНВАТУР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450103, РЕСП БАШКОРТОСТАН 02, Г УФА, УЛ МЕНДЕЛЕЕВА, ДОМ 23, ОФИС 104Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-937-3088599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ano.invatur@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503615476521000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35036154765 21 000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМИТЕТ ПО СТРОИТЕЛЬСТВУ И АРХИТЕКТУРЕ АДМИНИСТРАЦИИ ГОРОДСКОГО ОКРУГА ПОДОЛЬСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭРЕДАС" (ООО "ЭРЕДАС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭРЕДАС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141002, ОБЛ МОСКОВСКАЯ 50, Г МЫТИЩИ, УЛ КОЛПАКОВА, ДОМ 2, КОРПУС 15, ОФИС 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-040-21-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zaikoff.mitya@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507502129321000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35075021293 21 000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "УПРАВЛЯЮЩАЯ КОМПАНИЯ РУЗСКОГО ГОРОДСКОГО ОКРУГА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "УК РГО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОНТРСТРОЙ" (ООО "КОНТРСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОНТРСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143402, ОБЛ МОСКОВСКАЯ 50, Г КРАСНОГОРСК, УЛ ПИОНЕРСКАЯ, ДОМ 1, ПОМЕЩЕНИЕ 2,ЦОКОЛЬНЫЙ ЭТАЖ, КОМНАТА 1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8498-505-65-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@ya.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770801462021000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17708014620 21 000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НОВОЕ ИЗМЕРЕНИЕ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НОВОЕ ИЗМЕРЕНИЕ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НОВОЕ ИЗМЕРЕНИЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">428038, ЧУВАШИЯ ЧУВАШСКАЯ РЕСПУБЛИКА - 21, Г ЧЕБОКСАРЫ, УЛ ГРАЖДАНСКАЯ, ДОМ 47, ПОМЕЩЕНИЕ 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-906-3848474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subaruturbo@rambler.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770621374021000069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706213740 21 000069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЮРО СПЕЦИАЛЬНЫХ ТЕХНИЧЕСКИХ МЕРОПРИЯТИЙ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БСТМ МВД РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭЛИТ КОМФОРТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭЛИТ КОМФОРТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭЛИТ КОМФОРТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390010, ОБЛ РЯЗАНСКАЯ 62, Г РЯЗАНЬ, УЛ ПИРОГОВА, ДОМ 8, ПОМ/ОФ Н17/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-952-1255173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elitekomfort@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770405509420000594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704055094 20 000594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНАЯ СЛУЖБА ОХРАНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФСО РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОРЛОВ ВЛАДИСЛАВ АРКАДЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ГОРЛОВ ВЛАДИСЛАВ АРКАДЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Г САНКТ-ПЕТЕРБУРГ 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-964-3869434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contract21v@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773204143121000045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17732041431 21 000045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВНУКОВСКАЯ ТАМОЖНЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОЩИН ИВАН ПЕТРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП РОЩИН ИВАН ПЕТРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г РАМЕНСКОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-7831121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roschin_85@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770913382121000047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17709133821 21 000047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ ФЕЛЬДЪЕГЕРСКАЯ СЛУЖБА РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГФС РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-906-3848474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subaruturbo@rambler.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503103439021000071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15031034390 21 000071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "НОГИНСКИЙ СПАСАТЕЛЬНЫЙ ЦЕНТР МИНИСТЕРСТВА РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ДЕЛАМ ГРАЖДАНСКОЙ ОБОРОНЫ, ЧРЕЗВЫЧАЙНЫМ СИТУАЦИЯМ И ЛИКВИДАЦИИ ПОСЛЕДСТВИЙ СТИХИЙНЫХ БЕДСТВИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГКУ "НОГИНСКИЙ СЦ МЧС РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТОПЛИВНАЯ НЕФТЯНАЯ КОМПАНИЯ НАФТА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТОПЛИВНАЯ НЕФТЯНАЯ КОМПАНИЯ НАФТА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТОПЛИВНАЯ НЕФТЯНАЯ КОМПАНИЯ НАФТА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142402, ОБЛ МОСКОВСКАЯ 50, Г НОГИНСК, УЛ ГАРАЖНАЯ, ДОМ 4, ОФИС 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-5453639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tnknafta@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770929051021000035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17709290510 21 000035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ФЕДЕРАЛЬНЫЙ МЕДИЦИНСКИЙ ЦЕНТР" ФЕДЕРАЛЬНОГО АГЕНТСТВА ПО УПРАВЛЕНИЮ ГОСУДАРСТВЕННЫМ ИМУЩЕСТВОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ФЕДЕРАЛЬНЫЙ МЕДИЦИНСКИЙ ЦЕНТР" РОСИМУЩЕСТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СМС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СМС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СМС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124489, Г МОСКВА 77, Г ЗЕЛЕНОГРАД, КОРПУС 602, ПОМ. III КОМ. 1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-3919562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sms0412@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770929051021000040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17709290510 21 000040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДТОРГСНАБ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДТОРГСНАБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕДТОРГСНАБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302009, ОБЛ ОРЛОВСКАЯ 57, Г ОРЁЛ, УЛ ГАЙДАРА, ДОМ 54, ОФИС 206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-900-4840032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medtorgsnab@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3501901089021000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35019010890 21 000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ "БОГАТИЩЕВСКАЯ СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБОУ "БОГАТИЩЕВСКАЯ СОШ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КБК" (ООО "КБК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КБК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192019, Г. САНКТ-ПЕТЕРБУРГ 78, УЛ. 2-Й ЛУЧ, Д. 3, ЛИТЕРА А, ПОМЕЩ. 1-Н КОМ. 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-3399612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kbkltdspb@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2774394681021000083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27743946810 21 000083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ЖИЛИЩНИК РАЙОНА КОПТЕВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ "ЖИЛИЩНИК РАЙОНА КОПТЕВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВС ГРУПП" (ООО "ВС ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВС ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105264, Г МОСКВА 77, УЛ 10-Я ПАРКОВАЯ, ДОМ 18, КОМНАТА 5А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (906) 718-61-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vsgrupp2018@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500506764021000074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35005067640 21 000074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ВОСКРЕСЕНСК МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ВОСКРЕСЕНСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРАВИЛЬНЫЕ РЕШЕНИЯ" (ООО "ПРАВИЛЬНЫЕ РЕШЕНИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПРАВИЛЬНЫЕ РЕШЕНИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141506, ОБЛ МОСКОВСКАЯ 50, Г СОЛНЕЧНОГОРСК, УЛ БАНКОВСКАЯ, ДОМ 15, КОМ/ПОМ 216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-985-2141628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vreshenia@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770751698820000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707516988 20 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ АГЕНТСТВО МОРСКОГО И РЕЧНОГО ТРАНСПОРТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОСМОРРЕЧФЛОТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Специальное проектное и конструкторско-технологическое бюро «Ленгидросталь» - филиал АО «Трест Гидромонтаж» (СПКТБ «Ленгидросталь»")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СПКТБ «Ленгидросталь»"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196084, г. Санкт-Петербург, ул. Заозерная, д. 1, литер «Б»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-3311150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@aothm.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2773148629021000112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27731486290 21 000112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ЖИЛИЩНИК РАЙОНА КУНЦЕВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ "ЖИЛИЩНИК РАЙОНА КУНЦЕВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОСПЕКТ" (ООО "ПРОСПЕКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПРОСПЕКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153008, ОБЛ. ИВАНОВСКАЯ 37, Г. Иваново, УЛ. МОСКОВСКАЯ, Д. 62, ОФИС 5В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (960) 512-12-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prospekt-37@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770190367721000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17701903677 21 000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФОРМАЦИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-903-1826883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770779516021000106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707795160 21 000106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГЛАВНЫЙ ЦЕНТР ХОЗЯЙСТВЕННОГО, ТРАНСПОРТНОГО И СЕРВИСНОГО ОБЕСПЕЧЕНИЯ ГЛАВНОГО УПРАВЛЕНИЯ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ ПО Г. МОСКВЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ГЦХТИСО ГУ МВД РОССИИ ПО Г. МОСКВЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТЕЛЛА И ПАРТНЕРЫ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТЕЛЛА И ПАРТНЕРЫ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТЕЛЛА И ПАРТНЕРЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143541, ОБЛ МОСКОВСКАЯ 50, Г ИСТРА, П СТАНЦИИ МАНИХИНО, УЛ ГАГАРИНА, ДОМ 20/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-5178043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empire.building@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503503282021000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35035032820 21 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДСКОГО ОКРУГА ПАВЛОВСКИЙ ПОСАД МОСКОВСКОЙ ОБЛАСТИ "СТАДИОН "СТАРОПАВЛОВСКИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУ "СТАДИОН "СТАРОПАВЛОВСКИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СИТИ КОМПЛЕКС" (ООО "СИТИ КОМПЛЕКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СИТИ КОМПЛЕКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142500, ОБЛ. МОСКОВСКАЯ 50, Г. Павловский Посад, УЛ. КАЛЯЕВА, Д. 3, ОФИС 43/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-9625708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byrykin.alex@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770419282321000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704192823 21 000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "МОСКОВСКИЙ ДОМ НАЦИОНАЛЬНОСТЕЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ "МДН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИДАС" (ООО "МИДАС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МИДАС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196084, Г САНКТ-ПЕТЕРБУРГ 78, УЛ ТАШКЕНТСКАЯ, ДОМ 1, ЛИТЕРА А, ПОМЕЩЕНИЕ 16Н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (812) 448-84-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info.midas@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504805294421000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35048052944 21 000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА №8 С УГЛУБЛЕННЫМ ИЗУЧЕНИЕМ ОТДЕЛЬНЫХ ПРЕДМЕТОВ ИМЕНИ ГЕРОЯ СОВЕТСКОГО СОЮЗА А.И. МАРКОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБОУ СОШ №8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАЙТУКИЕВ АЛАУДИН РУСЛАНОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ГАЙТУКИЕВ АЛАУДИН РУСЛАНОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ РОСТОВСКАЯ 61, Г РОСТОВ-НА-ДОНУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-938-0051494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gatida_13@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504102008321000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25041020083 21 000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "ДИРЕКЦИЯ ЕДИНОГО ЗАКАЗЧИКА МИНИСТЕРСТВА СОЦИАЛЬНОГО РАЗВИТИЯ МОСКОВСКОЙ ОБЛАСТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ МО "ДИРЕКЦИЯ ЕДИНОГО ЗАКАЗЧИКА МИНСОЦРАЗВИТИЯ МО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭНЕРГИЯ" (ООО "ЭНЕРГИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭНЕРГИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141008, ОБЛ МОСКОВСКАЯ 50, Г МЫТИЩИ, УЛ МИРА, ДОМ 16/9, ПОМ. IV ОФИС 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-110-92-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@antifire-energy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504102008321000078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25041020083 21 000078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКСПЕРТГРУПП" (ООО "ЭКСПЕРТГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-7385454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net@net.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=166971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507272297421000040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35072722974 21 000040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛИДЕР СТРОЙКАП" (ООО "ЛИДЕР СК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЛИДЕР СК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140408, ОБЛ. МОСКОВСКАЯ 50, Г. Коломна, УЛ. МИТЯЕВО, Д. 150, ОФИС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-262-53-40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,11,21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770100252021000137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17701002520 21 000137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "МОСКОВСКИЙ ГОСУДАРСТВЕННЫЙ ТЕХНИЧЕСКИЙ УНИВЕРСИТЕТ ИМЕНИ Н.Э. БАУМАНА (НАЦИОНАЛЬНЫЙ ИССЛЕДОВАТЕЛЬСКИЙ УНИВЕРСИТЕТ)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МГТУ ИМ. Н.Э. БАУМАНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БАЗИС ГРУПП-М" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БАЗИС ГРУПП-М")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "БАЗИС ГРУПП-М"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108811, Г МОСКВА 77, Г МОСКОВСКИЙ, УЛ ЛАПТЕВА, ДОМ 8, КОРПУС 3, КВАРТИРА 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-966-1001009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitnikovaes2020@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1971008825321000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19710088253 21 000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ " ИНФОРМАЦИОННЫЕ ТЕХНОЛОГИИ В СОЦИАЛЬНОЙ СФЕРЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "СОЦТЕХ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИР ТЕНДЕРА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИР ТЕНДЕРА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МИР ТЕНДЕРА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105484, Г. МОСКВА 77, УЛ. 16-Я ПАРКОВАЯ, Д. 14, КВ. 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-499-3980305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worldoftender@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770541232718000260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27705412327 18 000260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ДИРЕКЦИЯ ПО ЭКСПЛУАТАЦИИ СПОРТИВНЫХ ЗДАНИЙ И СООРУЖЕНИЙ" ДЕПАРТАМЕНТА СПОРТА И ТУРИЗМА ГОРОДА МОСКВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ "ДЭСЗС" МОСКОМСПОРТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «ДИРЕКЦИЯ СКБ»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «ДИРЕКЦИЯ СКБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119180, Российская Федерация, г. Москва, ул. Большая Полянка, д. 7/10, стр. 3, офис (квартира) пом. 2,  комн. 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 767-54-99 доб. 499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direkciaskb@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770541232718000228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27705412327 18 000228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ДИРЕКЦИЯ ПО ЭКСПЛУАТАЦИИ СПОРТИВНЫХ ЗДАНИЙ И СООРУЖЕНИЙ" ДЕПАРТАМЕНТА СПОРТА ГОРОДА МОСКВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772404418921000509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17724044189 21 000509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ФЕДЕРАЛЬНЫЙ НАУЧНО-КЛИНИЧЕСКИЙ ЦЕНТР СПЕЦИАЛИЗИРОВАННЫХ ВИДОВ МЕДИЦИНСКОЙ ПОМОЩИ И МЕДИЦИНСКИХ ТЕХНОЛОГИЙ ФЕДЕРАЛЬНОГО МЕДИКО-БИОЛОГИЧЕСКОГО АГЕНТСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ ФНКЦ ФМБА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МВ-ЦИТРИН" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МВ-ЦИТРИН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МВ-ЦИТРИН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445044, ОБЛ САМАРСКАЯ 63, Г ТОЛЬЯТТИ, Б-Р КОСМОНАВТОВ, ДОМ 16, КВАРТИРА 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-903-3306483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mv-citrin@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770405509421000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704055094 21 000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Глава крестьянского (фермерского) хозяйства БОРИСОВ ДМИТРИЙ ВЛАДИМИРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Глава крестьянского (фермерского) хозяйства ИП БОРИСОВ ДМИТРИЙ ВЛАДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241519, Брянская область, Брянский р-н, мкр. Мегаполис-парк, д. 4, кв. 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-900-3661155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32@агродоверие.рф</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770731910821000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707319108 21 000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЕЖРЕГИОНАЛЬНАЯ ИНСПЕКЦИЯ ФЕДЕРАЛЬНОЙ НАЛОГОВОЙ СЛУЖБЫ ПО КАМЕРАЛЬНОМУ КОНТРОЛЮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИ ФНС РОССИИ ПО КАМЕРАЛЬНОМУ КОНТРОЛЮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРОЛЬ СВЕТЛАНА АЛЕКСАНДРОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КОРОЛЬ СВЕТЛАНА АЛЕКСАНДРОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ КРАСНОДАРСКИЙ 23, Г КРАСНОДАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-918-3980001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvetlana.kr@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770404028121000464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704040281 21 000464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ МЕДИЦИНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР РЕАБИЛИТАЦИИ И КУРОРТОЛОГИИ" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "НМИЦ РК" МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СВЕТКОМПЛЕКТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СВЕТКОМПЛЕКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СВЕТКОМПЛЕКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346863, ОБЛ РОСТОВСКАЯ 61, Р-Н НЕКЛИНОВСКИЙ, С НАТАЛЬЕВКА, УЛ ОСТРОВСКОГО, ДОМ 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-863-4615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ole444ka85@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503103439021000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15031034390 21 000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goskontrakt@fermapetuhova.ru</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +2411,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A87" activeCellId="0" sqref="87:87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2759,7 +3941,7 @@
       <c r="C32" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="2" t="n">
         <v>135939865.04</v>
       </c>
       <c r="E32" s="3" t="n">
@@ -2812,7 +3994,7 @@
       <c r="C33" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D33" s="6" t="n">
+      <c r="D33" s="2" t="n">
         <v>375758.48</v>
       </c>
       <c r="E33" s="3" t="n">
@@ -2865,7 +4047,7 @@
       <c r="C34" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="6" t="n">
+      <c r="D34" s="2" t="n">
         <v>169495.9</v>
       </c>
       <c r="E34" s="3" t="n">
@@ -2918,7 +4100,7 @@
       <c r="C35" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D35" s="6" t="n">
+      <c r="D35" s="2" t="n">
         <v>149786</v>
       </c>
       <c r="E35" s="3" t="n">
@@ -2971,7 +4153,7 @@
       <c r="C36" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D36" s="6" t="n">
+      <c r="D36" s="2" t="n">
         <v>1863072.89</v>
       </c>
       <c r="E36" s="3" t="n">
@@ -3024,7 +4206,7 @@
       <c r="C37" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="2" t="n">
         <v>241519577.63</v>
       </c>
       <c r="E37" s="3" t="n">
@@ -3077,7 +4259,7 @@
       <c r="C38" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="2" t="n">
         <v>978077.69</v>
       </c>
       <c r="E38" s="3" t="n">
@@ -3130,7 +4312,7 @@
       <c r="C39" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="2" t="n">
         <v>2142036.74</v>
       </c>
       <c r="E39" s="3" t="n">
@@ -3183,7 +4365,7 @@
       <c r="C40" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="2" t="n">
         <v>109316.21</v>
       </c>
       <c r="E40" s="3" t="n">
@@ -3236,7 +4418,7 @@
       <c r="C41" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="2" t="n">
         <v>757740.32</v>
       </c>
       <c r="E41" s="3" t="n">
@@ -3289,7 +4471,7 @@
       <c r="C42" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="2" t="n">
         <v>5734216.88</v>
       </c>
       <c r="E42" s="3" t="n">
@@ -3342,7 +4524,7 @@
       <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="2" t="n">
         <v>6429.35</v>
       </c>
       <c r="E43" s="3" t="n">
@@ -3395,7 +4577,7 @@
       <c r="C44" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="2" t="n">
         <v>525230</v>
       </c>
       <c r="E44" s="3" t="n">
@@ -3446,7 +4628,7 @@
       <c r="C45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="2" t="n">
         <v>11740000</v>
       </c>
       <c r="E45" s="3" t="n">
@@ -3499,7 +4681,7 @@
       <c r="C46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="6" t="n">
+      <c r="D46" s="2" t="n">
         <v>276679.65</v>
       </c>
       <c r="E46" s="3" t="n">
@@ -3552,7 +4734,7 @@
       <c r="C47" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="6" t="n">
+      <c r="D47" s="2" t="n">
         <v>1599479.28</v>
       </c>
       <c r="E47" s="3" t="n">
@@ -3605,7 +4787,7 @@
       <c r="C48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="2" t="n">
         <v>25108078.56</v>
       </c>
       <c r="E48" s="3" t="n">
@@ -3658,7 +4840,7 @@
       <c r="C49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" s="2" t="n">
         <v>259886.15</v>
       </c>
       <c r="E49" s="3" t="n">
@@ -3711,7 +4893,7 @@
       <c r="C50" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="2" t="n">
         <v>1540000</v>
       </c>
       <c r="E50" s="3" t="n">
@@ -3752,6 +4934,2294 @@
       </c>
       <c r="Q50" s="5" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>1290000</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>44545</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>44435</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>44434</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>5022021620</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>502204299040</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>3170000</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>44295</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>44299</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>44298</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>5003133230</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <v>4027128372</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="P53" s="1" t="n">
+        <v>74842335533</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>8524707.35</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>44358</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>44423</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>44358</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>44475</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>7728122631</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <v>9703009483</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>2766553.62</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>44333</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>44607</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>44334</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>44333</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>7710128054</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N55" s="1" t="n">
+        <v>2127026081</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>1676398.68</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>44419</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>5032004222</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="N56" s="1" t="n">
+        <v>165718144030</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>218781.84</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>44414</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>44470</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>44417</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>44414</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>7705401340</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="N57" s="1" t="n">
+        <v>183204916094</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>1333966.65</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>44368</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>44585</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>44372</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>44371</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>7705401340</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="N58" s="1" t="n">
+        <v>4207005468</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>9282585.13</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>44396</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>44399</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>44398</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>5000001525</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="N59" s="1" t="n">
+        <v>7731477056</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>150270304.72</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>44316</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>44321</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>44467</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>5000001525</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="N60" s="1" t="n">
+        <v>7734685174</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>258427.5</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>44298</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>44865</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>44300</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>44515</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>7703021039</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N61" s="1" t="n">
+        <v>773010973142</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>2791527.63</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>44475</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>44483</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>44482</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>4025062831</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>274952925</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>3386093.79</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>44453</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>44461</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>44510</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>5036154765</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="N63" s="1" t="n">
+        <v>7716592569</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>10987041.57</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>44404</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>44406</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>44406</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>5075021293</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="N64" s="1" t="n">
+        <v>5024091662</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>329948.67</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>44453</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>44454</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>44453</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>7708014620</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>2130205115</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>667722.97</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>44510</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>44445</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>7706213740</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>6229092676</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>742742.88</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>44141</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>44144</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>44222</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>7704055094</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <v>780451650266</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>2089500</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>44470</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>44550</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>44473</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>44470</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>7732041431</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <v>420592682610</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>160795.31</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>44460</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>44592</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>44461</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>44466</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>7709133821</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="N69" s="1" t="n">
+        <v>2130205115</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>6705599.22</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>44308</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>44309</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>44343</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>5031034390</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <v>5031099743</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>311880.56</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>44433</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>44582</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>44435</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>44434</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>7709290510</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="N71" s="1" t="n">
+        <v>7715918352</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>341603.61</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>44585</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>44442</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>7709290510</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <v>5720022381</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>229000</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>44400</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>44404</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>44474</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>5019010890</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>7811757073</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>64021245.54</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>44295</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>44320</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>44494</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>7743946810</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="N74" s="1" t="n">
+        <v>7720709763</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>3234718.14</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>44397</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>44400</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>44405</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>5005067640</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>5044119210</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>662773.19</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>43896</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>43900</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>44222</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>7707516988</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <v>7734047608</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>4073965</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>44452</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>44452</v>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>44452</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>7731486290</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>3702256070</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>81115.16</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>44413</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>44417</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>44428</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>7701903677</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>9729291019</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>3109409.36</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>44680</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>44460</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>7707795160</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>5017118546</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>528840</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>44474</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>44480</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>44480</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>5035032820</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>5035041631</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>15900000</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>44355</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>44356</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>44480</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>7704192823</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <v>7813184156</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>560000</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>44495</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>44516</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>44515</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>5048052944</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="N83" s="1" t="n">
+        <v>60301146308</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>6498928.18</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>44355</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>44355</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>44515</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>5041020083</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>5029191251</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>1259670</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>44314</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>44495</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>5041020083</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="N85" s="1" t="n">
+        <v>7702444610</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>3170751.19</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>44417</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>44418</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>44454</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>5072722974</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="N86" s="1" t="n">
+        <v>5022050607</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="87" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D88" s="6" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>44236</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>44602</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>44242</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>44239</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="K88" s="5" t="n">
+        <v>7701002520</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="N88" s="5" t="n">
+        <v>7731351889</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q88" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="D89" s="6" t="n">
+        <v>1045605</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>44494</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>44496</v>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>44495</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="K89" s="5" t="n">
+        <v>9710088253</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="N89" s="5" t="n">
+        <v>9719012185</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q89" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D90" s="6" t="n">
+        <v>903380.4</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>43304</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>43465</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>43306</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>43690</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="K90" s="5" t="n">
+        <v>7705412327</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="M90" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="N90" s="5" t="n">
+        <v>7706768661</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q90" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="D91" s="6" t="n">
+        <v>1338917</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>43290</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>43500</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>43291</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>43650</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="K91" s="5" t="n">
+        <v>7705412327</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="M91" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="N91" s="5" t="n">
+        <v>7706768661</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q91" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="D92" s="6" t="n">
+        <v>434693</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>44365</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>44612</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>44370</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>44369</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="K92" s="5" t="n">
+        <v>7724044189</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="N92" s="5" t="n">
+        <v>6321440340</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D93" s="6" t="n">
+        <v>1382000</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>44232</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>44232</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>44232</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="K93" s="5" t="n">
+        <v>7704055094</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="M93" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="N93" s="5" t="n">
+        <v>320801497434</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="P93" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q93" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="D94" s="6" t="n">
+        <v>317596.61</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>44435</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>44484</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>44438</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>44435</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="K94" s="5" t="n">
+        <v>7707319108</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="N94" s="5" t="n">
+        <v>230901318467</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q94" s="5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="D95" s="6" t="n">
+        <v>89000</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>44375</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>44432</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>44431</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="K95" s="5" t="n">
+        <v>7704040281</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="N95" s="5" t="n">
+        <v>6123024676</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="P95" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q95" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="D96" s="6" t="n">
+        <v>1219323</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>44285</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>44286</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>44314</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="K96" s="5" t="n">
+        <v>5031034390</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N96" s="5" t="n">
+        <v>7721297336</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="851">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -2282,17 +2282,307 @@
   </si>
   <si>
     <t xml:space="preserve">goskontrakt@fermapetuhova.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11-22.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500802812721000972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15008028127 21 000972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ВОДОХОЗЯЙСТВЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТРРЕГИОНВОДХОЗ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБВУ "ЦЕНТРРЕГИОНВОДХОЗ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАУЧНО-ПРОИЗВОДСТВЕННОЕ ОБЪЕДИНЕНИЕ "СИСТЕМА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАУЧНО-ПРОИЗВОДСТВЕННОЕ ОБЪЕДИНЕНИЕ "СИСТЕМА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НАУЧНО-ПРОИЗВОДСТВЕННОЕ ОБЪЕДИНЕНИЕ "СИСТЕМА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350042, КРАЙ КРАСНОДАРСКИЙ 23, Г КРАСНОДАР, УЛ КОЛХОЗНАЯ, 26, 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-861-2488724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nposistema2015@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770757556721000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707575567 21 000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "МЕДИКО-САНИТАРНАЯ ЧАСТЬ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ ПО Г. МОСКВЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУЗ "МСЧ МВД РОССИИ ПО Г. МОСКВЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "АВИАПРОМСТРОЙ" (АКЦИОНЕРНОЕ ОБЩЕСТВО "АВИАПРОМСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "АВИАПРОМСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129090, Г. МОСКВА 77, УЛ. КАЛАНЧЕВСКАЯ, Д. 16, СТР. 1, ЭТАЖ 1 КОМ. 4А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-6074278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aps@apsgk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505200212821000065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35052002128 21 000065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ФРЯЗИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НОВА" (ООО "НОВА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НОВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108811, Г МОСКВА 77, Г МОСКОВСКИЙ, МКР 1-Й, ДОМ 5 Ж, ЭТАЖ 2 ПОМЕЩЕНИЕ 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-937-5440321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">igolca@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773017661021000060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17730176610 21 000060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНАЯ ТАМОЖЕННАЯ СЛУЖБА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНВЕСТПРОМСНАБ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНВЕСТПРОМСНАБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИНВЕСТПРОМСНАБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">394040, ОБЛ ВОРОНЕЖСКАЯ 36, Г ВОРОНЕЖ, УЛ КРЕЙЗЕРА, ДОМ 4 А, ОФИС 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-4732-439844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">investpromsnabvrn@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1471400427020001029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14714004270 20 001029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "ФЕДЕРАЛЬНЫЙ ЭКОЛОГИЧЕСКИЙ ОПЕРАТОР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГУП "ФЭО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕВНИВЦЕВ ПЕТР ИВАНОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП РЕВНИВЦЕВ ПЕТР ИВАНОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ СВЕРДЛОВСКАЯ 66, Г ЕКАТЕРИНБУРГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-343-3743844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiat85@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771406175621000580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17714061756 21 000580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ МЕДИЦИНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР ГЕМАТОЛОГИИ" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "НМИЦ ГЕМАТОЛОГИИ" МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "М-ТРЕЙД" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "М-ТРЕЙД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "М-ТРЕЙД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101000, Г. МОСКВА 77, ПЕР. АРМЯНСКИЙ, Д. 9, СТР. 1, ЭТАЖ/ОФИС 1/108-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-967-0375095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.trade.official1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771406175621000464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17714061756 21 000464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬФА БРОКЕР КОНСАЛТИНГ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬФА БРОКЕР КОНСАЛТИНГ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛЬФА БРОКЕР КОНСАЛТИНГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620143, ОБЛ. СВЕРДЛОВСКАЯ 66, Г. Екатеринбург, УЛ. МАШИНОСТРОИТЕЛЕЙ, СТР. 19, ОФИС 270/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-950-5441707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abk-ekb@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2501700365821000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25017003658 21 000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ МОСКОВСКОЙ ОБЛАСТИ "ГОСУДАРСТВЕННЫЙ ИСТОРИКО-ХУДОЖЕСТВЕННЫЙ МУЗЕЙ "НОВЫЙ ИЕРУСАЛИМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУК МО "МУЗЕЙ "НОВЫЙ ИЕРУСАЛИМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЗЕЛЕНИНВЕСТ СТРОЙ" (ООО "ЗЕЛЕНИНВЕСТ СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЗЕЛЕНИНВЕСТ СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107150, Г МОСКВА 77, Б-Р МАРШАЛА РОКОССОВСКОГО, ДОМ 26, СТРОЕНИЕ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7736445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7736545@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500906131021000152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15009061310 21 000152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ОЗДОРОВИТЕЛЬНЫЙ КОМПЛЕКС "БОР" УПРАВЛЕНИЯ ДЕЛАМИ ПРЕЗИДЕНТА РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ОК "БОР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РУДАКОВА ОЛЕСЯ АНДРЕЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП РУДАКОВА ОЛЕСЯ АНДРЕЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ ЧЕЛЯБИНСКАЯ 74, Г ЧЕЛЯБИНСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-951-1256906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iprudakova85@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770957692921000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17709576929 21 000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНАЯ СЛУЖБА СУДЕБНЫХ ПРИСТАВОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФССП РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЕРВИСНЫЙ ЦЕНТР ЛНТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЕРВИСНЫЙ ЦЕНТР ЛНТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СЕРВИСНЫЙ ЦЕНТР ЛНТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123242, Г МОСКВА 77, УЛ ГРУЗИНСКАЯ М., 20/13, СТР 1, ОФИС 308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-2522494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@Lntcenter.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2365,7 +2655,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2390,10 +2680,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2411,10 +2697,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A87" activeCellId="0" sqref="87:87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6757,7 +7043,7 @@
       <c r="C88" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="D88" s="6" t="n">
+      <c r="D88" s="2" t="n">
         <v>1500000</v>
       </c>
       <c r="E88" s="3" t="n">
@@ -6810,7 +7096,7 @@
       <c r="C89" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="D89" s="6" t="n">
+      <c r="D89" s="2" t="n">
         <v>1045605</v>
       </c>
       <c r="E89" s="3" t="n">
@@ -6863,7 +7149,7 @@
       <c r="C90" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="D90" s="6" t="n">
+      <c r="D90" s="2" t="n">
         <v>903380.4</v>
       </c>
       <c r="E90" s="3" t="n">
@@ -6916,7 +7202,7 @@
       <c r="C91" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="D91" s="6" t="n">
+      <c r="D91" s="2" t="n">
         <v>1338917</v>
       </c>
       <c r="E91" s="3" t="n">
@@ -6969,7 +7255,7 @@
       <c r="C92" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="D92" s="6" t="n">
+      <c r="D92" s="2" t="n">
         <v>434693</v>
       </c>
       <c r="E92" s="3" t="n">
@@ -7022,7 +7308,7 @@
       <c r="C93" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="D93" s="6" t="n">
+      <c r="D93" s="2" t="n">
         <v>1382000</v>
       </c>
       <c r="E93" s="3" t="n">
@@ -7075,7 +7361,7 @@
       <c r="C94" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="D94" s="6" t="n">
+      <c r="D94" s="2" t="n">
         <v>317596.61</v>
       </c>
       <c r="E94" s="3" t="n">
@@ -7128,7 +7414,7 @@
       <c r="C95" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="D95" s="6" t="n">
+      <c r="D95" s="2" t="n">
         <v>89000</v>
       </c>
       <c r="E95" s="3" t="n">
@@ -7181,7 +7467,7 @@
       <c r="C96" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="D96" s="6" t="n">
+      <c r="D96" s="2" t="n">
         <v>1219323</v>
       </c>
       <c r="E96" s="3" t="n">
@@ -7222,6 +7508,538 @@
       </c>
       <c r="Q96" s="5" t="s">
         <v>753</v>
+      </c>
+    </row>
+    <row r="97" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>44530</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>44316</v>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>44315</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>5008028127</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="N98" s="1" t="n">
+        <v>2310180540</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>36385489.39</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>44328</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>44604</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>44329</v>
+      </c>
+      <c r="H99" s="3" t="n">
+        <v>44365</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>7707575567</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="N99" s="1" t="n">
+        <v>7708728600</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>838000</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>44411</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>44414</v>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>44414</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>5052002128</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="N100" s="1" t="n">
+        <v>7751179900</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>7983746.44</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>44545</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="H101" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>7730176610</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="N101" s="1" t="n">
+        <v>3665122822</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>638260.34</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>44138</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>44526</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>44146</v>
+      </c>
+      <c r="H102" s="3" t="n">
+        <v>44144</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>4714004270</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="N102" s="1" t="n">
+        <v>666000132267</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>2309333.22</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>44480</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>44581</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>44484</v>
+      </c>
+      <c r="H103" s="3" t="n">
+        <v>44483</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>7714061756</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="N103" s="1" t="n">
+        <v>9701182718</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>79565.43</v>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>44620</v>
+      </c>
+      <c r="G104" s="3" t="n">
+        <v>44384</v>
+      </c>
+      <c r="H104" s="3" t="n">
+        <v>44383</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="K104" s="1" t="n">
+        <v>7714061756</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="N104" s="1" t="n">
+        <v>6685028171</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>2917329.75</v>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>44300</v>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>44554</v>
+      </c>
+      <c r="G105" s="3" t="n">
+        <v>44305</v>
+      </c>
+      <c r="H105" s="3" t="n">
+        <v>44302</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>5017003658</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="N105" s="1" t="n">
+        <v>9718082616</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>1597450.17</v>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>44431</v>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>44473</v>
+      </c>
+      <c r="G106" s="3" t="n">
+        <v>44431</v>
+      </c>
+      <c r="H106" s="3" t="n">
+        <v>44431</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>5009061310</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="N106" s="1" t="n">
+        <v>452400981146</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>18111023.67</v>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>44382</v>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G107" s="3" t="n">
+        <v>44382</v>
+      </c>
+      <c r="H107" s="3" t="n">
+        <v>44382</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="K107" s="1" t="n">
+        <v>7709576929</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <v>7715583561</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>850</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="892">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -2573,6 +2573,129 @@
   </si>
   <si>
     <t xml:space="preserve">info@Lntcenter.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505304589321000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35053045893 21 000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМИТЕТ ПО СТРОИТЕЛЬСТВУ, ДОРОЖНОЙ ДЕЯТЕЛЬНОСТИ И БЛАГОУСТРОЙСТВА АДМИНИСТРАЦИИ ГОРОДСКОГО ОКРУГА ЭЛЕКТРОСТАЛЬ МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КСДДИБ АДМИНИСТРАЦИИ ГОРОДСКОГО ОКРУГА ЭЛЕКТРОСТАЛЬ МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИЛК ОПТ ЛОГИСТИК" (ООО "МИЛК ОПТ ЛОГИСТИК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МИЛК ОПТ ЛОГИСТИК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109559, Г МОСКВА 77, УЛ ЦИМЛЯНСКАЯ, ДОМ 14, ОФИС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-496-4321001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goryinova@milkopt.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770544364619000191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705443646 19 000191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНИСТЕРСТВО КУЛЬТУРЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНКУЛЬТУРЫ РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙГРАД" (ООО "СТРОЙГРАД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙГРАД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153002, ОБЛ ИВАНОВСКАЯ 37, Г ИВАНОВО, УЛ ДЕМИДОВА, ДОМ 15, ПОМЕЩЕНИЕ 1002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-4932-373042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sg373042@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507502703021000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35075027030 21 000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ПОХОРОННОЕ ДЕЛО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ПОХОРОННОЕ ДЕЛО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТРЕБУХОВ СЕРГЕЙ АЛЕКСАНДРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ТРЕБУХОВ СЕРГЕЙ АЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ КОСТРОМСКАЯ 44, Г КОСТРОМА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-920-6408258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssertr@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500304238221000160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003042382 21 000160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ВИДНОВСКИЙ ПЕРИНАТАЛЬНЫЙ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "ВПЦ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНСКАЯ КОМПАНИЯ "НАДЕЖДА" (ООО "МЕДИЦИНСКАЯ КОМПАНИЯ "НАДЕЖДА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕДИЦИНСКАЯ КОМПАНИЯ "НАДЕЖДА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620143, ОБЛ. СВЕРДЛОВСКАЯ 66, Г. Екатеринбург, УЛ. МАШИНОСТРОИТЕЛЕЙ, СТР. 19, ОФИС 263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-950-5439802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hope.med@bk.ru</t>
   </si>
 </sst>
 </file>
@@ -2697,10 +2820,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A98" activeCellId="0" sqref="A98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B111" activeCellId="0" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8042,6 +8165,223 @@
         <v>850</v>
       </c>
     </row>
+    <row r="108" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>1781825</v>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>44362</v>
+      </c>
+      <c r="F109" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G109" s="3" t="n">
+        <v>44362</v>
+      </c>
+      <c r="H109" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="K109" s="1" t="n">
+        <v>5053045893</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="N109" s="1" t="n">
+        <v>7723391976</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>33037295.74</v>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>43672</v>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>44378</v>
+      </c>
+      <c r="G110" s="3" t="n">
+        <v>43676</v>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>44382</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>7705851331</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="N110" s="1" t="n">
+        <v>3702572685</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>2639044</v>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="H111" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="K111" s="1" t="n">
+        <v>5075027030</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="N111" s="1" t="n">
+        <v>440122230907</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>206300</v>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>44555</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="H112" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="K112" s="1" t="n">
+        <v>5003042382</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="N112" s="1" t="n">
+        <v>6686034298</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="996">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -2696,16 +2696,329 @@
   </si>
   <si>
     <t xml:space="preserve">hope.med@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503603458821000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35036034588 21 000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ ДОШКОЛЬНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ДЕТСКИЙ САД КОМБИНИРОВАННОГО ВИДА №  44 "МАЛЫШ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МДОУ ДЕТСКИЙ САД КОМБИНИРОВАННОГО ВИДА  № 44  "МАЛЫШ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СТОЛЯРОВА ИРИНА МАРКОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП СТОЛЯРОВА ИРИНА МАРКОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ КРАСНОДАРСКИЙ 23, Г. КРАСНОДАР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-909-4448037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Istol1@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770100579320000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17701005793 20 000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ НАУЧНОЕ УЧРЕЖДЕНИЕ "НАУЧНО-ИССЛЕДОВАТЕЛЬСКИЙ ИНСТИТУТ - РЕСПУБЛИКАНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ НАУЧНО-КОНСУЛЬТАЦИОННЫЙ ЦЕНТР ЭКСПЕРТИЗЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБНУ НИИ РИНКЦЭ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙИНВЕСТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙИНВЕСТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙИНВЕСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109652, Г МОСКВА 77, Б-Р МЯЧКОВСКИЙ, ДОМ 18, КОРПУС 1, КВАРТИРА 176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-968-4005050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5329029@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770645850021000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27706458500 21 000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ КРАСНОДАРСКОГО КРАЯ "ПОСТОЯННОЕ ПРЕДСТАВИТЕЛЬСТВО АДМИНИСТРАЦИИ КРАСНОДАРСКОГО КРАЯ ПРИ ПРАВИТЕЛЬСТВЕ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ КК "ПОСТОЯННОЕ ПРЕДСТАВИТЕЛЬСТВО АДМИНИСТРАЦИИ КРАСНОДАРСКОГО КРАЯ ПРИ ПРАВИТЕЛЬСТВЕ РФ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РМ ЦЕНТР" (ООО "РМ ЦЕНТР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РМ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107553, Г МОСКВА 77, УЛ ЧЕРКИЗОВСКАЯ Б., 20, СТР.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7376730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opt@alirgroup.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504101975421000464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25041019754 21 000464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПЬЮТЕРНЫЙ ЛЕКАРЬ И ТЕХНОЛОГИИ" (ООО "КОМПЛЕКТЕХ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОМПЛЕКТЕХ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630049, ОБЛ. НОВОСИБИРСКАЯ 54, Г. Новосибирск, УЛ. ГАЛУЩАКА, Д. 11, ПОМЕЩ. IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-923-1445533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complektech@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504101975421000454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25041019754 21 000454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАПИТЕЦКАЯ ИРИНА МИХАЙЛОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЗАПИТЕЦКАЯ ИРИНА МИХАЙЛОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ САМАРСКАЯ 63, Г ТОЛЬЯТТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-937-2342905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lmva@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504101226921000041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15041012269 21 000041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УФСИН РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТПК МОСКОВСКИЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТПК МОСКОВСКИЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТПК МОСКОВСКИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141006, ОБЛ МОСКОВСКАЯ 50, Г МЫТИЩИ, УЛ РОЖДЕСТВЕНСКАЯ, ДОМ 5, ПОМЕЩЕНИЕ  I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-6425615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tpkmos@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771200865121000070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17712008651 21 000070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НПО АКВАБИОМ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НПО АКВАБИОМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НПО АКВАБИОМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117303, Г. МОСКВА 77, УЛ. МАЛАЯ ЮШУНЬСКАЯ, Д. 1, К. 1, ЭТАЖ/ПОМЕЩЕНИЕ 16/1 КОМ. 116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-7684483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office@akvabiom.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770709270721000069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707092707 21 000069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ЦЕНТРАЛЬНАЯ ПОЛИКЛИНИКА № 1 МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУЗ "ЦП № 1 МВД РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХАЧИРОВ ТЕМИРЛАН ЮСУФОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ХАЧИРОВ ТЕМИРЛАН ЮСУФОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСП КАРАЧАЕВО-ЧЕРКЕССКАЯ 09, Г УСТЬ-ДЖЕГУТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-928-3833857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temirlanhachirov@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770809864521000066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17708098645 21 000066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕГИОНАЛЬНОЕ ТАМОЖЕННОЕ УПРАВЛЕНИЕ РАДИОЭЛЕКТРОННОЙ БЕЗОПАСНОСТИ ОБЪЕКТОВ ТАМОЖЕННОЙ ИНФРАСТРУКТУРЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РТУ РЭБОТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПОИНТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПОИНТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПОИНТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">398046, ОБЛ ЛИПЕЦКАЯ 48, Г ЛИПЕЦК, ПР-КТ ПОБЕДЫ, ДОМ 103, ПОМЕЩЕНИЕ 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-4742-905502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stoneblack@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТРАЛЬНОЕ ОКРУЖНОЕ УПРАВЛЕНИЕ МАТЕРИАЛЬНО-ТЕХНИЧЕСКОГО СНАБЖЕНИЯ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ЦОУМТС МВД РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЕРВЕРНЫЕ СИСТЕМЫ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЕРВЕРНЫЕ СИСТЕМЫ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СЕРВЕРНЫЕ СИСТЕМЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248000, ОБЛ КАЛУЖСКАЯ 40, Г КАЛУГА, УЛ АКАДЕМИКА КОРОЛЕВА, ДОМ 51, ПОМЕЩЕНИЕ 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-905-6431597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serversyst@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1970505810121000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19705058101 21 000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ГЛАВНЫЙ ИНФОРМАЦИОННО-ВЫЧИСЛИТЕЛЬНЫЙ ЦЕНТР МИНИСТЕРСТВА КУЛЬТУРЫ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ГИВЦ МИНКУЛЬТУРЫ РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАНСУРОВА ОЛЬГА МАРЛИСОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП МАНСУРОВА ОЛЬГА МАРЛИСОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ ПЕРМСКИЙ 59, Г. БЕРЕЗНИКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-992-2374797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mansurovabrz@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2778,7 +3091,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2803,6 +3116,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2820,10 +3141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B111" activeCellId="0" sqref="B111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8382,6 +8703,590 @@
         <v>891</v>
       </c>
     </row>
+    <row r="113" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="6" t="n">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="D114" s="7" t="n">
+        <v>24390.25</v>
+      </c>
+      <c r="E114" s="3" t="n">
+        <v>44445</v>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>44560</v>
+      </c>
+      <c r="G114" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="H114" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="K114" s="5" t="n">
+        <v>5036034588</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="N114" s="5" t="n">
+        <v>231119060853</v>
+      </c>
+      <c r="O114" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q114" s="5" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="D115" s="7" t="n">
+        <v>1528229.64</v>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>44187</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>44400</v>
+      </c>
+      <c r="G115" s="3" t="n">
+        <v>44194</v>
+      </c>
+      <c r="H115" s="3" t="n">
+        <v>44223</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="K115" s="5" t="n">
+        <v>7701005793</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="N115" s="5" t="n">
+        <v>7723878720</v>
+      </c>
+      <c r="O115" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="P115" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q115" s="5" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="D116" s="7" t="n">
+        <v>13399.7</v>
+      </c>
+      <c r="E116" s="3" t="n">
+        <v>44508</v>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>44535</v>
+      </c>
+      <c r="G116" s="3" t="n">
+        <v>44510</v>
+      </c>
+      <c r="H116" s="3" t="n">
+        <v>44509</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="K116" s="5" t="n">
+        <v>7706458500</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="N116" s="5" t="n">
+        <v>7718868981</v>
+      </c>
+      <c r="O116" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="P116" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q116" s="5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="D117" s="7" t="n">
+        <v>512027.04</v>
+      </c>
+      <c r="E117" s="3" t="n">
+        <v>44487</v>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G117" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="H117" s="3" t="n">
+        <v>44488</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5" t="n">
+        <v>5041019754</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="M117" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="N117" s="5" t="n">
+        <v>5424403637</v>
+      </c>
+      <c r="O117" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q117" s="5" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="D118" s="7" t="n">
+        <v>2373908.08</v>
+      </c>
+      <c r="E118" s="3" t="n">
+        <v>44476</v>
+      </c>
+      <c r="F118" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G118" s="3" t="n">
+        <v>44480</v>
+      </c>
+      <c r="H118" s="3" t="n">
+        <v>44490</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5" t="n">
+        <v>5041019754</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="N118" s="5" t="n">
+        <v>632124076731</v>
+      </c>
+      <c r="O118" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q118" s="5" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="D119" s="7" t="n">
+        <v>254982</v>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G119" s="3" t="n">
+        <v>44349</v>
+      </c>
+      <c r="H119" s="3" t="n">
+        <v>44349</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="K119" s="5" t="n">
+        <v>5041012269</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="M119" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="N119" s="5" t="n">
+        <v>5029241470</v>
+      </c>
+      <c r="O119" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="P119" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="Q119" s="5" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="D120" s="7" t="n">
+        <v>1801586</v>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>44476</v>
+      </c>
+      <c r="F120" s="3" t="n">
+        <v>44550</v>
+      </c>
+      <c r="G120" s="3" t="n">
+        <v>44487</v>
+      </c>
+      <c r="H120" s="3" t="n">
+        <v>44484</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="K120" s="5" t="n">
+        <v>7712008651</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="M120" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="N120" s="5" t="n">
+        <v>7327073578</v>
+      </c>
+      <c r="O120" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="P120" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q120" s="5" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="s">
+        <v>956</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="D121" s="7" t="n">
+        <v>1049027.9</v>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>44488</v>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>44554</v>
+      </c>
+      <c r="G121" s="3" t="n">
+        <v>44494</v>
+      </c>
+      <c r="H121" s="3" t="n">
+        <v>44491</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="K121" s="5" t="n">
+        <v>7707092707</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="N121" s="5" t="n">
+        <v>91603225003</v>
+      </c>
+      <c r="O121" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="P121" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q121" s="5" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="D122" s="7" t="n">
+        <v>645486.32</v>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>44392</v>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>44756</v>
+      </c>
+      <c r="G122" s="3" t="n">
+        <v>44405</v>
+      </c>
+      <c r="H122" s="3" t="n">
+        <v>44404</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="K122" s="5" t="n">
+        <v>7708098645</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="N122" s="5" t="n">
+        <v>4824064200</v>
+      </c>
+      <c r="O122" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="P122" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q122" s="5" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="D123" s="7" t="n">
+        <v>6475550.53</v>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>44333</v>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>44555</v>
+      </c>
+      <c r="G123" s="3" t="n">
+        <v>44334</v>
+      </c>
+      <c r="H123" s="3" t="n">
+        <v>44488</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="K123" s="5" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="N123" s="5" t="n">
+        <v>4027133291</v>
+      </c>
+      <c r="O123" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="P123" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="Q123" s="5" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="D124" s="7" t="n">
+        <v>545335.76</v>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>44508</v>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>44546</v>
+      </c>
+      <c r="G124" s="3" t="n">
+        <v>44510</v>
+      </c>
+      <c r="H124" s="3" t="n">
+        <v>44509</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="K124" s="5" t="n">
+        <v>9705058101</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="N124" s="5" t="n">
+        <v>591153576154</v>
+      </c>
+      <c r="O124" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="P124" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>995</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1177">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -3008,6 +3008,549 @@
   </si>
   <si>
     <t xml:space="preserve">mansurovabrz@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500300810221000208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15003008102 21 000208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ПО ПРОВЕДЕНИЮ СПАСАТЕЛЬНЫХ ОПЕРАЦИЙ ОСОБОГО РИСКА "ЛИДЕР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГКУ "ЦСООР "ЛИДЕР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОФАУДИТКОНСАЛТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОФАУДИТКОНСАЛТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПРОФАУДИТКОНСАЛТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129075, Г МОСКВА 77, УЛ ШЕРЕМЕТЬЕВСКАЯ, ДОМ 85, СТР 2, ОФИС 606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-3904668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@profaucons.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503615483921000090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35036154839 21 000090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМИТЕТ ПО БЛАГОУСТРОЙСТВУ, ДОРОЖНОМУ ХОЗЯЙСТВУ И ТРАНСПОРТУ АДМИНИСТРАЦИИ ГОРОДСКОГО ОКРУГА ПОДОЛЬСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГРАНИТ 001" (ООО "ГРАНИТ 001")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГРАНИТ 001"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141732, ОБЛ МОСКОВСКАЯ 50, Г ЛОБНЯ, УЛ ЛОБНЕНСКИЙ БУЛЬВАР, ДОМ 9, КВАРТИРА 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-1113851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">granit001a@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2773506919221000523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27735069192 21 000523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА ИМЕНИ М.П. КОНЧАЛОВСКОГО ДЕПАРТАМЕНТА ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ "ГКБ ИМ. М.П. КОНЧАЛОВСКОГО ДЗМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПАНИЯ ЭДТА" (ООО "КОМПАНИЯ ЭДТА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОМПАНИЯ ЭДТА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241019, ОБЛ БРЯНСКАЯ 32, Г БРЯНСК, УЛ 2-Я ПОЧЕПСКАЯ, СТРОЕНИЕ 42/1, ОФИС 4-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (483) 232-07-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oooedta@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1782549764319000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17825497643 19 000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АНФИЛАДА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АНФИЛАДА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АНФИЛАДА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196105, Г САНКТ-ПЕТЕРБУРГ 78, УЛ БЛАГОДАТНАЯ, ДОМ 63, КОРПУС 1 ЛИТЕР Д, ЭТАЖ 3 ПОМЕЩЕНИЕ 310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-921-9451813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anf-to@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504003610821000062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15040036108 21 000062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ КОМБИНАТ "ЛЕСНОЙ" ФЕДЕРАЛЬНОГО АГЕНТСТВА ПО ГОСУДАРСТВЕННЫМ РЕЗЕРВАМ (С ОБЪЕКТОМ № 5027)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГКУ КОМБИНАТ "ЛЕСНОЙ" РОСРЕЗЕРВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РВН-ГРУПП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РВН-ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РВН-ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141703, ОБЛ МОСКОВСКАЯ 50, Г ДОЛГОПРУДНЫЙ, УЛ НАБЕРЕЖНАЯ, ДОМ 29, КОРПУС 1, КВАРТИРА 345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-3748484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211@rvn-group.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771437236721000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17714372367 21 000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "РОССИЙСКИЙ ФЕДЕРАЛЬНЫЙ ГЕОЛОГИЧЕСКИЙ ФОНД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "РОСГЕОЛФОНД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОФТВЕРНЫЕ БИЗНЕС-ТЕХНОЛОГИИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОФТВЕРНЫЕ БИЗНЕС-ТЕХНОЛОГИИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СОФТВЕРНЫЕ БИЗНЕС-ТЕХНОЛОГИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125008, Г МОСКВА 77, ПРОЕЗД 3-Й НОВОМИХАЛКОВСКИЙ, 7, 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-7522175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">musixoid@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770544364619000173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705443646 19 000173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НСТ" (ООО "НСТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101000, Г МОСКВА 77, ПРОЕЗД ЛУБЯНСКИЙ, ДОМ 19, СТРОЕНИЕ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-7050286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nststroy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771808396920000310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17718083969 20 000310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "КЛИНИЧЕСКАЯ БОЛЬНИЦА" УПРАВЛЕНИЯ ДЕЛАМИ ПРЕЗИДЕНТА РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "КЛИНИЧЕСКАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭЛАРА ПРАЙМ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭЛАРА ПРАЙМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭЛАРА ПРАЙМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141207, ОБЛ МОСКОВСКАЯ 50, Г ПУШКИНО, УЛ 1-Я СЕРЕБРЯНСКАЯ, ДОМ 2, ПОМЕЩЕНИЕ 254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-926-2249185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9262249185@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3501001075121000074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35010010751 21 000074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ДУБНА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ Г.О. ДУБНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИРИЛЛОВ АНДРЕЙ ЮРЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КИРИЛЛОВ АНДРЕЙ ЮРЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Свердловская 66, - Екатеринбург</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-963-2709082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow.10@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2501709985421000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25017099854 21 000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ   ОБЛАСТИ "СПОРТИВНАЯ ШКОЛА ОЛИМПИЙСКОГО РЕЗЕРВА    "ИСТИНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ МО "СШОР "ИСТИНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПОРТИВНАЯ КОМПАНИЯ" (ООО "СПОРТИВНАЯ КОМПАНИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СПОРТИВНАЯ КОМПАНИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">644033, ОБЛ ОМСКАЯ 55, Г ОМСК, УЛ 2-Я ДАЧНАЯ, ДОМ 10, КВАРТИРА 148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-913-9616141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkarant91@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507403042521000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35074030425 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ "ДОМ КУЛЬТУРЫ "МЕТАЛЛУРГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУК "ДОМ КУЛЬТУРЫ "МЕТАЛЛУРГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГК "ПГС" (ООО "ГК "ПГС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГК "ПГС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111675, Г. МОСКВА 77, УЛ. РУДНЁВКА, Д. 33, КВ. 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-5605609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgs-grup@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503100773521000045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15031007735 21 000045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ НАУКИ ИНСТИТУТ ПРОБЛЕМ ХИМИЧЕСКОЙ ФИЗИКИ РОССИЙСКОЙ АКАДЕМИИ НАУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИПХФ РАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПЕТРАКОВ ВЛАДИМИР ПАВЛОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ПЕТРАКОВ ВЛАДИМИР ПАВЛОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МУРМАНСКАЯ 51, Г МУРМАНСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-99606-27272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@prof-kom.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770540134021003630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705401340 21 003630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИКСПРО" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИКСПРО")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИКСПРО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650002, ОБЛ КЕМЕРОВСКАЯ ОБЛАСТЬ - КУЗБАСС 42, Г КЕМЕРОВО, ПР-КТ ШАХТЕРОВ, ДОМ 75, КВАРТИРА 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-905-9037927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xpro.2020@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771302054921000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17713020549 21 000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ НАУКИ ИНСТИТУТ ТЕОРЕТИЧЕСКОЙ И ПРИКЛАДНОЙ ЭЛЕКТРОДИНАМИКИ РОССИЙСКОЙ АКАДЕМИИ НАУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИТПЭ РАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИР ОБОРУДОВАНИЯ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИР ОБОРУДОВАНИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МИР ОБОРУДОВАНИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195030, Г САНКТ-ПЕТЕРБУРГ 78, УЛ КОММУНЫ, ДОМ 67, ЛИТЕР АД, ПОМЕЩЕНИЕ 1-Н КОМНАТА 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-9561869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oborudovanie-z@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770757556721000035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707575567 21 000035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИКРОН" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИКРОН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МИКРОН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214016, ОБЛ СМОЛЕНСКАЯ 67, Г СМОЛЕНСК, УЛ ПОКРОВСКОГО, 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-910-7884017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efremovvladimir2008@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773310856920000915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17733108569 20 000915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ МЕДИКО-ХИРУРГИЧЕСКИЙ ЦЕНТР ИМЕНИ Н.И.ПИРОГОВА" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "НМХЦ ИМ. Н.И. ПИРОГОВА" МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Усанов Александр АлександровичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Усанов Александр Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Российская Федерация, Москва г, Строительный проезд, д. 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-916-001-33-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usanaa@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3501900219121000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35019002191 21 000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ ОБРАЗОВАНИЯ АДМИНИСТРАЦИИ ГОРОДСКОГО ОКРУГА КАШИРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ ОБРАЗОВАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СМАРТ КУБ" (ООО "СМАРТ КУБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СМАРТ КУБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111675, Г МОСКВА 77, УЛ СВЯТООЗЕРСКАЯ, ДОМ 32, ПОМ. XI КОМН. 7А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-496-0000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahmetganova78@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770317288820000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17703172888 20 000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЦЕНТР РЕАЛИЗАЦИИ БЮДЖЕТНОЙ ПОЛИТИКИ И ОБЕСПЕЧЕНИЯ ДЕЯТЕЛЬНОСТИ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ПО ГИДРОМЕТЕОРОЛОГИИ И МОНИТОРИНГУ ОКРУЖАЮЩЕЙ СРЕДЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ГИДРОМЕТСЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМДЕ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМДЕ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОМДЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199057, Г САНКТ-ПЕТЕРБУРГ 78, ПР-КТ КИМА, 26, ЛИТЕР А, ПОМ. 1Н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-911-9261815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filippov@comde-derenda.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772459896621000636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27724598966 21 000636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ "ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА ИМЕНИ В.М. БУЯНОВА ДЕПАРТАМЕНТА ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ "ГКБ ИМЕНИ В.М. БУЯНОВА ДЗМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Осокин Александр ФедосеевичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Осокин Александр Федосеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г ОДИНЦОВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 232-00-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip.osokin.af@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3141,10 +3684,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q124"/>
+  <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8718,7 +9261,7 @@
       <c r="C114" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="D114" s="7" t="n">
+      <c r="D114" s="2" t="n">
         <v>24390.25</v>
       </c>
       <c r="E114" s="3" t="n">
@@ -8771,7 +9314,7 @@
       <c r="C115" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="D115" s="7" t="n">
+      <c r="D115" s="2" t="n">
         <v>1528229.64</v>
       </c>
       <c r="E115" s="3" t="n">
@@ -8824,7 +9367,7 @@
       <c r="C116" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="D116" s="7" t="n">
+      <c r="D116" s="2" t="n">
         <v>13399.7</v>
       </c>
       <c r="E116" s="3" t="n">
@@ -8877,7 +9420,7 @@
       <c r="C117" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="D117" s="7" t="n">
+      <c r="D117" s="2" t="n">
         <v>512027.04</v>
       </c>
       <c r="E117" s="3" t="n">
@@ -8928,7 +9471,7 @@
       <c r="C118" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="D118" s="7" t="n">
+      <c r="D118" s="2" t="n">
         <v>2373908.08</v>
       </c>
       <c r="E118" s="3" t="n">
@@ -8979,7 +9522,7 @@
       <c r="C119" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="D119" s="7" t="n">
+      <c r="D119" s="2" t="n">
         <v>254982</v>
       </c>
       <c r="E119" s="3" t="n">
@@ -9032,7 +9575,7 @@
       <c r="C120" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="D120" s="7" t="n">
+      <c r="D120" s="2" t="n">
         <v>1801586</v>
       </c>
       <c r="E120" s="3" t="n">
@@ -9085,7 +9628,7 @@
       <c r="C121" s="5" t="s">
         <v>958</v>
       </c>
-      <c r="D121" s="7" t="n">
+      <c r="D121" s="2" t="n">
         <v>1049027.9</v>
       </c>
       <c r="E121" s="3" t="n">
@@ -9138,7 +9681,7 @@
       <c r="C122" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="D122" s="7" t="n">
+      <c r="D122" s="2" t="n">
         <v>645486.32</v>
       </c>
       <c r="E122" s="3" t="n">
@@ -9191,7 +9734,7 @@
       <c r="C123" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="D123" s="7" t="n">
+      <c r="D123" s="2" t="n">
         <v>6475550.53</v>
       </c>
       <c r="E123" s="3" t="n">
@@ -9244,7 +9787,7 @@
       <c r="C124" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="D124" s="7" t="n">
+      <c r="D124" s="2" t="n">
         <v>545335.76</v>
       </c>
       <c r="E124" s="3" t="n">
@@ -9285,6 +9828,1023 @@
       </c>
       <c r="Q124" s="5" t="s">
         <v>995</v>
+      </c>
+    </row>
+    <row r="125" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="6" t="n">
+        <v>24.11</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>22380.88</v>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>44491</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>44592</v>
+      </c>
+      <c r="G126" s="3" t="n">
+        <v>44494</v>
+      </c>
+      <c r="H126" s="3" t="n">
+        <v>44491</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K126" s="5" t="n">
+        <v>5003008102</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M126" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N126" s="5" t="n">
+        <v>7716874274</v>
+      </c>
+      <c r="O126" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P126" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Q126" s="5" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>10712940.64</v>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>44432</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G127" s="3" t="n">
+        <v>44448</v>
+      </c>
+      <c r="H127" s="3" t="n">
+        <v>44445</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K127" s="5" t="n">
+        <v>5036154839</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N127" s="5" t="n">
+        <v>5047223192</v>
+      </c>
+      <c r="O127" s="5" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P127" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="Q127" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>9545500</v>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>44473</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>44620</v>
+      </c>
+      <c r="G128" s="3" t="n">
+        <v>44473</v>
+      </c>
+      <c r="H128" s="3" t="n">
+        <v>44524</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K128" s="5" t="n">
+        <v>7735069192</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="N128" s="5" t="n">
+        <v>3257073630</v>
+      </c>
+      <c r="O128" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P128" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q128" s="5" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>37983641.21</v>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>43627</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>44545</v>
+      </c>
+      <c r="G129" s="3" t="n">
+        <v>43629</v>
+      </c>
+      <c r="H129" s="3" t="n">
+        <v>44515</v>
+      </c>
+      <c r="I129" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="K129" s="5" t="n">
+        <v>7705851331</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M129" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N129" s="5" t="n">
+        <v>7839479468</v>
+      </c>
+      <c r="O129" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P129" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q129" s="5" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>283741.8</v>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>44287</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>44554</v>
+      </c>
+      <c r="G130" s="3" t="n">
+        <v>44293</v>
+      </c>
+      <c r="H130" s="3" t="n">
+        <v>44288</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K130" s="5" t="n">
+        <v>5040036108</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M130" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N130" s="5" t="n">
+        <v>5047216438</v>
+      </c>
+      <c r="O130" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P130" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q130" s="5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>44358</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>44586</v>
+      </c>
+      <c r="G131" s="3" t="n">
+        <v>44364</v>
+      </c>
+      <c r="H131" s="3" t="n">
+        <v>44363</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K131" s="5" t="n">
+        <v>7714372367</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M131" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="N131" s="5" t="n">
+        <v>7743753582</v>
+      </c>
+      <c r="O131" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="P131" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q131" s="5" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>51404838.34</v>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>43657</v>
+      </c>
+      <c r="F132" s="3" t="n">
+        <v>44378</v>
+      </c>
+      <c r="G132" s="3" t="n">
+        <v>43661</v>
+      </c>
+      <c r="H132" s="3" t="n">
+        <v>44229</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="K132" s="5" t="n">
+        <v>7705851331</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N132" s="5" t="n">
+        <v>7709475712</v>
+      </c>
+      <c r="O132" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="P132" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q132" s="5" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="133" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="6" t="n">
+        <v>25.11</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D134" s="7" t="n">
+        <v>9971977.44</v>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>44183</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G134" s="3" t="n">
+        <v>44189</v>
+      </c>
+      <c r="H134" s="3" t="n">
+        <v>44256</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K134" s="1" t="n">
+        <v>7718083969</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N134" s="1" t="n">
+        <v>5038132245</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D135" s="7" t="n">
+        <v>205322</v>
+      </c>
+      <c r="E135" s="3" t="n">
+        <v>44495</v>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G135" s="3" t="n">
+        <v>44495</v>
+      </c>
+      <c r="H135" s="3" t="n">
+        <v>44495</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K135" s="1" t="n">
+        <v>5010010751</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N135" s="1" t="n">
+        <v>667354851990</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q135" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D136" s="7" t="n">
+        <v>1775000</v>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>44508</v>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G136" s="3" t="n">
+        <v>44508</v>
+      </c>
+      <c r="H136" s="3" t="n">
+        <v>44525</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K136" s="1" t="n">
+        <v>5017099854</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="N136" s="1" t="n">
+        <v>5503190580</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D137" s="7" t="n">
+        <v>1324323.03</v>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>44334</v>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G137" s="3" t="n">
+        <v>44342</v>
+      </c>
+      <c r="H137" s="3" t="n">
+        <v>44341</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K137" s="1" t="n">
+        <v>5074030425</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N137" s="1" t="n">
+        <v>7720845879</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D138" s="7" t="n">
+        <v>450000</v>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>44435</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>44473</v>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>44439</v>
+      </c>
+      <c r="H138" s="3" t="n">
+        <v>44435</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K138" s="1" t="n">
+        <v>5031007735</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="N138" s="1" t="n">
+        <v>519017776214</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D139" s="7" t="n">
+        <v>29200</v>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>44508</v>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>44560</v>
+      </c>
+      <c r="G139" s="3" t="n">
+        <v>44509</v>
+      </c>
+      <c r="H139" s="3" t="n">
+        <v>44508</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K139" s="1" t="n">
+        <v>7705401340</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="N139" s="1" t="n">
+        <v>4205391803</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="Q139" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D140" s="7" t="n">
+        <v>1071727.33</v>
+      </c>
+      <c r="E140" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="F140" s="3" t="n">
+        <v>44529</v>
+      </c>
+      <c r="G140" s="3" t="n">
+        <v>44447</v>
+      </c>
+      <c r="H140" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="K140" s="1" t="n">
+        <v>7713020549</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N140" s="1" t="n">
+        <v>7806285146</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Q140" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D141" s="7" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>44224</v>
+      </c>
+      <c r="F141" s="3" t="n">
+        <v>44604</v>
+      </c>
+      <c r="G141" s="3" t="n">
+        <v>44228</v>
+      </c>
+      <c r="H141" s="3" t="n">
+        <v>44230</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K141" s="1" t="n">
+        <v>7707575567</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N141" s="1" t="n">
+        <v>7709626390</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="Q141" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D142" s="7" t="n">
+        <v>1387990.89</v>
+      </c>
+      <c r="E142" s="3" t="n">
+        <v>44144</v>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>44581</v>
+      </c>
+      <c r="G142" s="3" t="n">
+        <v>44146</v>
+      </c>
+      <c r="H142" s="3" t="n">
+        <v>44228</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K142" s="1" t="n">
+        <v>7733108569</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N142" s="1" t="n">
+        <v>772081866339</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="Q142" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D143" s="7" t="n">
+        <v>599485.44</v>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>44370</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>44370</v>
+      </c>
+      <c r="H143" s="3" t="n">
+        <v>44477</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K143" s="1" t="n">
+        <v>5019002191</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="N143" s="1" t="n">
+        <v>7720497773</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="Q143" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D144" s="7" t="n">
+        <v>4995000</v>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>43839</v>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>44012</v>
+      </c>
+      <c r="G144" s="3" t="n">
+        <v>43843</v>
+      </c>
+      <c r="H144" s="3" t="n">
+        <v>43840</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K144" s="1" t="n">
+        <v>7703172888</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N144" s="1" t="n">
+        <v>7801527320</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="Q144" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D145" s="7" t="n">
+        <v>1583888</v>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>44494</v>
+      </c>
+      <c r="F145" s="3" t="n">
+        <v>44550</v>
+      </c>
+      <c r="G145" s="3" t="n">
+        <v>44496</v>
+      </c>
+      <c r="H145" s="3" t="n">
+        <v>44496</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K145" s="1" t="n">
+        <v>7724598966</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N145" s="1" t="n">
+        <v>503208083421</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Q145" s="1" t="s">
+        <v>1176</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1712">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -3551,6 +3551,1611 @@
   </si>
   <si>
     <t xml:space="preserve">ip.osokin.af@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-28.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770419318220000178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704193182 20 000178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕГИОНАЛЬНОЕ ОПЕРАТИВНО-ПОИСКОВОЕ УПРАВЛЕНИЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОПУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зобнин Валерий ВладимировичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Зобнин Валерий Владимирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105082, г. Москва, Переведеновский пер., дом 6А, кв.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-499-1712701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perevedenovka@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500502922821000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35005029228 21 000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ "СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА № 26"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОУ "СОШ № 26"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОНАТА" (ООО "СОНАТА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СОНАТА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162623, ОБЛ. ВОЛОГОДСКАЯ 35, Г. Череповец, УЛ. ОЛИМПИЙСКАЯ, Д. 77, ОФИС 127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-820-2301650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conata-35@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772283031721000070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722830317 21 000070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОЙСКОВАЯ ЧАСТЬ 66631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛИКОН РУС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛИКОН РУС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЛИКОН РУС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115114, Г МОСКВА 77, УЛ КОЖЕВНИЧЕСКАЯ, 16, СТР.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-6607727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@liconrus.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772800895321000608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728008953 21 000608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ МЕДИЦИНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР ДЕТСКОЙ ГЕМАТОЛОГИИ, ОНКОЛОГИИ И ИММУНОЛОГИИ ИМЕНИ ДМИТРИЯ РОГАЧЕВА" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "НМИЦ ДГОИ ИМ. ДМИТРИЯ РОГАЧЕВА" МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНСКАЯ КОМПАНИЯ "НАДЕЖДА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНСКАЯ КОМПАНИЯ "НАДЕЖДА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507306056121000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35073060561 21 000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ДАВЫДОВСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "ДАВЫДОВСКАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕРЕНЬКОВСКИЕ ЗОРИ" (ООО "ТЕРЕНЬКОВСКИЕ ЗОРИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127055, ГОРОД МОСКВА, УЛИЦА ОБРАЗЦОВА, ДОМ 7, ЭТАЖ 2 ПОМ 217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-1111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m.pir@fermapetuhova.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503800814221000181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038008142 21 000181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЦЕНТРАЛЬНАЯ БАЗА АВИАЦИОННОЙ ОХРАНЫ ЛЕСОВ "АВИАЛЕСООХРАНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФБУ "АВИАЛЕСООХРАНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РМ ЦЕНТР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РМ ЦЕНТР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770336386821000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17703363868 21 000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ УЧРЕЖДЕНИЕ - ОТДЕЛЕНИЕ ПЕНСИОННОГО ФОНДА РОССИЙСКОЙ ФЕДЕРАЦИИ ПО Г. МОСКВЕ И МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОПФР ПО Г. МОСКВЕ И МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОПТИМА КОНСАЛТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОПТИМА КОНСАЛТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ОПТИМА КОНСАЛТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214031, ОБЛ СМОЛЕНСКАЯ 67, Г СМОЛЕНСК, УЛ РЫЛЕНКОВА, ДОМ 15, ОФИС 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-800-7075040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optima.consalt@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=167966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770767119721000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707671197 21 000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ КАПИТАЛЬНОГО СТРОИТЕЛЬСТВА МЧС РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "УКС МЧС РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙСИСТЕМА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙСИСТЕМА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙСИСТЕМА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141104, ОБЛ. МОСКОВСКАЯ 50, Г. Щёлково, УЛ. БЕЛЯЕВА, Д. 7А, КВ. 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-967-2040897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroysistema88@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1502705322421000335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15027053224 21 000335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "РОССИЙСКАЯ ТАМОЖЕННАЯ АКАДЕМИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОССИЙСКАЯ ТАМОЖЕННАЯ АКАДЕМИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХ-ГРУПП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХ-ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕХ-ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142701, ОБЛ МОСКОВСКАЯ 50, Г ВИДНОЕ, УЛ ЗАВИДНАЯ, ДОМ 18, КВАРТИРА 111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-963-9215588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@teh-grupp.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771412589721000076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17714125897 21 000076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ФЕДЕРАЛЬНОЕ УПРАВЛЕНИЕ АВТОМОБИЛЬНЫХ ДОРОГ "ЦЕНТРАЛЬНАЯ РОССИЯ" ФЕДЕРАЛЬНОГО ДОРОЖНОГО АГЕНТСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ЦЕНТРАВТОМАГИСТРАЛЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКСПЕРТСТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКСПЕРТСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭКСПЕРТСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187110, ОБЛ ЛЕНИНГРАДСКАЯ 47, Г КИРИШИ, УЛ ЛЕНИНГРАДСКАЯ, ДОМ 14, ОФИС 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-4822-396013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ekspertstroy_69@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505004265421000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35050042654 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ОБРАЗОВАНИЯ ДЕТСКО-ЮНОШЕСКАЯ СПОРТИВНАЯ ШКОЛА ГОРОДСКОГО ОКРУГА ЛОСИНО-ПЕТРОВСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУДО ДЮСШ Г.О. ЛОСИНО-ПЕТРОВСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЫРТЫЧНЫЙ НИКОЛАЙ АЛЕКСАНДРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ТЫРТЫЧНЫЙ НИКОЛАЙ АЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ КРАСНОДАРСКИЙ 23, Р-Н ЛАБИНСКИЙ, С. ГОРНОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-918-2743895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipnik94@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770100252021000413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17701002520 21 000413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СВСТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СВСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СВСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141204, ОБЛ МОСКОВСКАЯ 50, Г ПУШКИНО, УЛ ГРИБОЕДОВА, ДОМ 7, ЭТ/ПОМ/КОМ 4/415/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-985-7634303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">osrosstroi@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773413512419000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734135124 19 000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "ГОСУДАРСТВЕННАЯ КОРПОРАЦИЯ ПО ОРГАНИЗАЦИИ ВОЗДУШНОГО ДВИЖЕНИЯ В РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГУП "ГОСКОРПОРАЦИЯ ПО ОРВД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИНАНСОВАЯ СТРОИТЕЛЬНАЯ КОМПАНИЯ ГЕНСТРОЙ" (ООО "ФСК ГЕНСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФСК ГЕНСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119270, Г МОСКВА 77, ПР-КТ КОМСОМОЛЬСКИЙ, ДОМ 41, ПОМ I КОМ 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-5402281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsk-genstroy@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771307021121000132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27713070211 21 000132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ОБРАЗОВАНИЯ ГОРОДА МОСКВЫ "ЦЕНТР РАЗВИТИЯ ТВОРЧЕСТВА ДЕТЕЙ И ЮНОШЕСТВА "ГЕРМЕС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ДО ЦРТДЮ "ГЕРМЕС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОРОСЯНЦ ЛУИЗА МИХАЙЛОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ТОРОСЯНЦ ЛУИЗА МИХАЙЛОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ КАЛУЖСКАЯ 40, Г КАЛУГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (930) 755-44-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tm8777@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502408055821000111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024080558 21 000111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "УПРАВЛЕНИЕ МАТЕРИАЛЬНО-ТЕХНИЧЕСКОГО, ТРАНСПОРТНОГО И САНАТОРНОГО ОБЕСПЕЧЕНИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ УПРАВЛЕНИЕ МТСО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХНОМОНТАЖ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХНОМОНТАЖ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕХНОМОНТАЖ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127238, Г МОСКВА 77, Ш ДМИТРОВСКОЕ, ДОМ 71Б, ЭТ 2 КОМ 21 ОФ 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-915280-9432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771012805421000186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17710128054 21 000186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШИШКОВА ОЛЬГА ВАСИЛЬЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ШИШКОВА ОЛЬГА ВАСИЛЬЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ ТУЛЬСКАЯ 71, Г БОГОРОДИЦК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-909-9756867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip.shishkova@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505003941121000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35050039411 21 000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ОБРАЗОВАНИЯ ЦЕНТР ДЕТСКОГО ТВОРЧЕСТВА ГОРОДСКОГО ОКРУГА ЛОСИНО-ПЕТРОВСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУДО ЦДТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛИБИ-ФИЛЬМ" (ООО "АЛИБИ-ФИЛЬМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛИБИ-ФИЛЬМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127051, Г МОСКВА 77, УЛ САДОВАЯ-СУХАРЕВСКАЯ, ДОМ 2/34, СТРОЕНИЕ 1, ЭТ. 4 ПОМЕЩЕНИЕ I, КОМ.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-977-7732443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender.ru2020@gmail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1970201372021000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19702013720 21 000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "ЦЕНТР ЭКСПЛУАТАЦИИ ОБЪЕКТОВ НАЗЕМНОЙ КОСМИЧЕСКОЙ ИНФРАСТРУКТУРЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "ЦЭНКИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "В.В ЭВЕРЕСТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "В.В ЭВЕРЕСТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "В.В ЭВЕРЕСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127576, Г МОСКВА 77, УЛ АБРАМЦЕВСКАЯ, ДОМ 8А, Э 1/ПОМ 3/К 47/ОФ Б8Е</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-1115512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abramova782@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1782549764319000107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17825497643 19 000107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АВК ГРУПП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АВК ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АВК ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191144, г. Санкт-Петербург, ул. Моисеенко, д.24, литер А, помещение 2-Н, офис 207-211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-3399627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office@avk-spb.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1782549764319000066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17825497643 19 000066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191144, Г САНКТ-ПЕТЕРБУРГ 78, УЛ МОИСЕЕНКО, ДОМ 24, ЛИТЕР А, ПОМ 2-Н, офис 207-211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-921-3949944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office@avk’spb.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕЛЕГРУПП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕЛЕГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕЛЕГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129085, Г. МОСКВА 77, ПР-Д ОЛЬМИНСКОГО, Д. 3А, СТР. 3, ЭТАЖ/ПОМЕЩ. 8/1 КОМ. 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-916-4401819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sam_pav@rambler.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771409779121000403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27714097791 21 000403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окружное управление социальной защиты населения Министерства социального развития Московской области</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окружное УСЗН Минсоцразвития МО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОНОЛИТ-СЕРВИС" (ООО "МОНОЛИТ-СЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МОНОЛИТ-СЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117105, Г МОСКВА 77, УЛ НАГАТИНСКАЯ, ДОМ 1, СТРОЕНИЕ 14, ЭТ. 1 ОФИС 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-5370074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monolit-service@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771518673321000254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27715186733 21 000254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "МОСКОВСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ ПРОТИВОТУБЕРКУЛЕЗНЫЙ ДИСПАНСЕР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "МОКПТД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АУРА ВИВИ" (ООО "АУРА ВИВИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АУРА ВИВИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620110, ОБЛ. СВЕРДЛОВСКАЯ 66, Г. Екатеринбург, УЛ. ЧКАЛОВА, Д. 250, ПОМЕЩ. 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-912-0517828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avivi@internet.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503200163021000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15032001630 21 000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ РЕАБИЛИТАЦИОННЫЙ И УЧЕБНЫЙ ЦЕНТР ФОНДА СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФБУ РЕАБИЛИТАЦИОННЫЙ И УЧЕБНЫЙ ЦЕНТР ФОНДА СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВОСТОК СИТИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВОСТОК СИТИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВОСТОК СИТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109156, Г МОСКВА 77, УЛ ГЕНЕРАЛА КУЗНЕЦОВА, 18, 2, 135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-5451005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtoins@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771593628821000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27715936288 21 000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ ТЕРРИТОРИАЛЬНЫЙ ЦЕНТР СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ "БИБИРЕВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ ТЦСО "БИБИРЕВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВАССЕР ГРУПП ИНЖИНИРИНГ" (ООО "ВАССЕР ГРУПП ИНЖИНИРИНГ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВАССЕР ГРУПП ИНЖИНИРИНГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630112, ОБЛ НОВОСИБИРСКАЯ 54, Г НОВОСИБИРСК, УЛ ИППОДРОМСКАЯ, ДОМ 22/2, ПОМЕЩЕНИЕ 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (383) 3-195-195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gulik@wassergroup.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504504308121000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35045043081 21 000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ АВТОНОМНОЕ УЧРЕЖДЕНИЕ "ЕДИНЫЙ СЕРВИСНЫЙ ЦЕНТР" ГОРОДСКОГО ОКРУГА СТУПИНО МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАУ "ЕСЦ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМСТРОЙ" (ООО "КОМСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОМСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117546, Г МОСКВА 77, УЛ ПОДОЛЬСКИХ КУРСАНТОВ, ДОМ 34, СТРОЕНИЕ 2, ЭТ 3 ПОМ IV КОМ 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7558832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504401330219000087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35044013302 19 000087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА СОЛНЕЧНОГОРСК МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА СОЛНЕЧНОГОРСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РОСЮГРАПРОЕКТ" (ООО "РОСЮГРАПРОЕКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РОСЮГРАПРОЕКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">628617,  АО ХАНТЫ-МАНСИЙСКИЙ АВТОНОМНЫЙ ОКРУГ - ЮГРА86,  Г НИЖНЕВАРТОВСК,  УЛ ИНТЕРНАЦИОНАЛЬНАЯ,  67,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruproekt@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500400389021000132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35004003890 21 000132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ВОЛОКОЛАМСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ВОЛОКОЛАМСКОГО ГОРОДСКОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПОИНТ" (ООО "ПОИНТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-474-2210200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771544147921000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27715441479 21 000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 1482"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 1482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПАРТНЁР" (ООО "ПАРТНЁР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПАРТНЁР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301130, ОБЛ ТУЛЬСКАЯ 71, Р-Н ЛЕНИНСКИЙ, СЕЛЬСКИЙ П ЛЕНИНСКИЙ, УЛ ЦИОЛКОВСКОГО, ДОМ 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-910-167-38-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partner71tula@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772407516221000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17724075162 21 000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ МЕДИЦИНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР ОНКОЛОГИИ ИМЕНИ Н.Н. БЛОХИНА" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "НМИЦ ОНКОЛОГИИ ИМ. Н.Н. БЛОХИНА" МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АВИНИР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АВИНИР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АВИНИР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460035, ОБЛ ОРЕНБУРГСКАЯ 56, Г ОРЕНБУРГ, ПЛ 1 МАЯ, ДОМ 4, ЭТАЖ/ПОМ 1/1-1Г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-4977-7550910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avinir56@gmail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770303703921000216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17703037039 21 000216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЛАВНОЕ УПРАВЛЕНИЕ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГУ МВД РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПАНИЯ ТЕКТОН" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПАНИЯ ТЕКТОН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОМПАНИЯ ТЕКТОН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248002, ОБЛ КАЛУЖСКАЯ 40, Г КАЛУГА, УЛ ФРИДРИХА ЭНГЕЛЬСА, ДОМ 147, ОФИС 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-920-8880141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">te-kton@ro.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772812263121000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27728122631 21 000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГРИНТЕХ" (ООО "ГРИНТЕХ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГРИНТЕХ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603105, ОБЛ. НИЖЕГОРОДСКАЯ 52, Г. Нижний Новгород, УЛ. САЛГАНСКАЯ, Д. 30, ОФИС 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (831) 220-04-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo.greentex@ya.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773323136120000144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17733231361 20 000144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "КАНАЛ ИМЕНИ МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "КАНАЛ ИМЕНИ МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СК АЛЬЯНС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СК АЛЬЯНС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СК АЛЬЯНС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115191, Г МОСКВА 77, УЛ РОЩИНСКАЯ 2-Я, ДОМ 4, ЭТ/П/КОМ/К 5/1А/1/501,Р.М.№11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-928-5077923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muslim.skalyans@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771822032621000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27718220326 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 319"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Анашина Ирина СергеевнаИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Анашина Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г Новокуйбышевск, ул Бочарикова, 104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (903) 302-72-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sk-avtodor@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500707960121000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35007079601 21 000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ДМИТРОВСКАЯ СПЕЦИАЛИЗИРОВАННАЯ СЛУЖБА ПО ВОПРОСАМ ПОХОРОННОГО ДЕЛА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ДСС ПО ВОПРОСАМ ПОХОРОННОГО ДЕЛА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЦЕНТР ЖКХ" (ООО "ЦЖКХ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЦЖКХ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141801, ОБЛ МОСКОВСКАЯ 50, Г ДМИТРОВ, УЛ ПРОФЕССИОНАЛЬНАЯ, ДОМ 4, КАБИНЕТ 314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-496-2254999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centr1zhkh@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770756551221000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707565512 21 000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "АППАРАТ ОБЩЕСТВЕННОЙ ПАЛАТЫ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "АППАРАТ ОБЩЕСТВЕННОЙ ПАЛАТЫ РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВИП-КОНЦЕРТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВИП-КОНЦЕРТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВИП-КОНЦЕРТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121096, Г МОСКВА 77, УЛ ФИЛЕВСКАЯ 2-Я, ДОМ 7, КОРПУС 6, ЭТ 1 ПОМ III  КОМ 6А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-2345111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vip-concert@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504605066021000330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15046050660 21 000330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ БОЛЬНИЦА РОССИЙСКОЙ АКАДЕМИИ НАУК (Г. ТРОИЦК)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОЛЬНИЦА РАН (Г. ТРОИЦК)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИРОШНИЧЕНКО КАТАРИНА ОЛЕГОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП МИРОШНИЧЕНКО КАТАРИНА ОЛЕГОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ ПРИМОРСКИЙ 25, Г ВЛАДИВОСТОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-914-3262174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bermudaooo@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504411967621000428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25044119676 21 000428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "СОЛНЕЧНОГОРСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "СОЛНЕЧНОГОРСКАЯ ОБЛАСТНАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЕМЛ" (ООО "ЕМЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЕМЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191119, Г САНКТ-ПЕТЕРБУРГ 78, УЛ ДНЕПРОПЕТРОВСКАЯ, ДОМ 33, ЛИТЕР А, ПОМ.  3Н КАБ. №3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-921-9568038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsa@e-m-l.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503900284120000071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15039002841 20 000071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ НАУКИ "ФЕДЕРАЛЬНЫЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР "ПУЩИНСКИЙ НАУЧНЫЙ ЦЕНТР БИОЛОГИЧЕСКИХ ИССЛЕДОВАНИЙ РОССИЙСКОЙ АКАДЕМИИ НАУК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИЦ ПНЦБИ РАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ПРОЕКТНО-СТРОИТЕЛЬНАЯ КОМПАНИЯ "ПСГ-ПРОЕКТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ПРОЕКТНО-СТРОИТЕЛЬНАЯ КОМПАНИЯ "ПСГ-ПРОЕКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ПРОЕКТНО-СТРОИТЕЛЬНАЯ КОМПАНИЯ "ПСГ-ПРОЕКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630005, ОБЛ НОВОСИБИРСКАЯ 54, Г НОВОСИБИРСК, УЛ НЕКРАСОВА, ДОМ 54, ОФИС 603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-913-3790069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@psg-proekt.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502206238421000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35022062384 21 000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА КОЛОМНА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА КОЛОМНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АРТСТРОЙ" (ООО "АРТСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АРТСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127422, Г МОСКВА 77, УЛ ТИМИРЯЗЕВСКАЯ, ДОМ 2/3, ПОМЕЩЕНИЕ XXV КОМНАТА 3 (Б,В) ЭТАЖ 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-6889909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6889909@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770283417621000057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17702834176 21 000057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОДУЛЬ ЭКСКЛЮЗИВ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОДУЛЬ ЭКСКЛЮЗИВ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МОДУЛЬ ЭКСКЛЮЗИВ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195248, Г САНКТ-ПЕТЕРБУРГ 78, УЛ ДЕГТЯРЁВА, ДОМ 4, ЛИТЕР А, ПОМЕЩЕНИЕ 215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-921-4336322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alekseev@module-exclusive.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771818289621000168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17718182896 21 000168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕФОРМА КОНСАЛТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕФОРМА КОНСАЛТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕФОРМА КОНСАЛТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195112, Г САНКТ-ПЕТЕРБУРГ 78, ПР-КТ НОВОЧЕРКАССКИЙ, ДОМ 1, ЛИТЕР К, ПОМЕЩЕНИЕ 8-Н, КОМНАТА №1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-812-4412847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spb.reforma@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503615499821000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25036154998 21 000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ПРОФЕССИОНАЛЬНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "ПОДОЛЬСКИЙ КОЛЛЕДЖ ИМЕНИ А.В. НИКУЛИНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБПОУ МО "ПОДОЛЬСКИЙ КОЛЛЕДЖ ИМЕНИ А.В. НИКУЛИНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЕКСА" (ООО "АЛЕКСА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛЕКСА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">607018, ОБЛ НИЖЕГОРОДСКАЯ 52, Г КУЛЕБАКИ, УЛ ЕСИНА, ДОМ 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-9818142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOO-AleksA-NN@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕГАТРОН НН" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕГАТРОН НН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕГАТРОН НН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">606029, ОБЛ НИЖЕГОРОДСКАЯ 52, Г ДЗЕРЖИНСК, ПР-КТ ЦИОЛКОВСКОГО, ДОМ 42, КВАРТИРА 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-925-4522077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@megatron-nn.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503222957921000058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35032229579 21 000058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ОДИНЦОВСКОЕ ГОРОДСКОЕ ХОЗЯЙСТВО" ОДИНЦОВСКОГО ГОРОДСКОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "ОДИНЦОВСКОЕ ГОРОДСКОЕ ХОЗЯЙСТВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕАГЕНТЫ" (ООО "РЕАГЕНТЫ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕАГЕНТЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107076, Г МОСКВА 77, УЛ СТРОМЫНКА, ДОМ 19, КОРПУС 2, ПОМЕЩЕНИЕ IV Б КОМНАТА 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7292864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503000817221000051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25030008172 21 000051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА № 23"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО ПБ 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИЛАЕВ КИРИЛЛ НИКОЛАЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП СИЛАЕВ КИРИЛЛ НИКОЛАЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г ИВАНТЕЕВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip.silaev@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503000817221000053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25030008172 21 000053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504803081321000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35048030813 21 000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "МНОГОФУНКЦИОНАЛЬНЫЙ ЦЕНТР ПРЕДОСТАВЛЕНИЯ ГОСУДАРСТВЕННЫХ И МУНИЦИПАЛЬНЫХ УСЛУГ ГОРОДСКОГО ОКРУГА ЧЕХОВ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "МФЦ ГО ЧЕХОВ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОЗЕРОВ ДМИТРИЙ ВЛАДИМИРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ОЗЕРОВ ДМИТРИЙ ВЛАДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Г. МОСКВА 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-7765866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veles_k@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773424161221000090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734241612 21 000090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ МЕДИЦИНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР ОТОРИНОЛАРИНГОЛОГИИ ФЕДЕРАЛЬНОГО МЕДИКО-БИОЛОГИЧЕСКОГО АГЕНТСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ НМИЦО ФМБА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛИРА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛИРА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЛИРА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119071, Г МОСКВА 77, УЛ СТАСОВОЙ, ДОМ 5, Э ПОДВАЛ ПО I КО 5 ОФ 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-4505531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo_lira_2016@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773008740921000266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17730087409 21 000266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГОСУДАРСТВЕННОЕ УЧРЕЖДЕНИЕ ПО ФОРМИРОВАНИЮ ГОСУДАРСТВЕННОГО ФОНДА ДРАГОЦЕННЫХ МЕТАЛЛОВ И ДРАГОЦЕННЫХ КАМНЕЙ РОССИЙСКОЙ ФЕДЕРАЦИИ, ХРАНЕНИЮ, ОТПУСКУ И ИСПОЛЬЗОВАНИЮ ДРАГОЦЕННЫХ МЕТАЛЛОВ И ДРАГОЦЕННЫХ КАМНЕЙ (ГОХРАН РОССИИ) ПРИ МИНИСТЕРСТВЕ ФИНАНСОВ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОХРАН РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АРКАДИЯ СТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АРКАДИЯ СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АРКАДИЯ СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108841, Г. МОСКВА 77, Г. Троицк, МКР. В, Д. 55, ПОМЕЩ. 201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-967-0083555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arkadiya.stroy@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770659360521000177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706593605 21 000177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГЛАВНЫЙ ЦЕНТР ИНЖЕНЕРНО-ТЕХНИЧЕСКОГО ОБЕСПЕЧЕНИЯ И СВЯЗИ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ ГЦИТОИС ФСИН РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭЛЛИНГ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭЛЛИНГ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭЛЛИНГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107564, Г МОСКВА 77, УЛ КРАСНОБОГАТЫРСКАЯ, ДОМ 38, СТРОЕНИЕ 2, ЭТ 2 КОМН 17 ОФ 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-965-2338899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eling2020@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773602970021000053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17736029700 21 000053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ НАУКИ ФЕДЕРАЛЬНЫЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР "ИНСТИТУТ ОБЩЕЙ ФИЗИКИ ИМ. А.М. ПРОХОРОВА РОССИЙСКОЙ АКАДЕМИИ НАУК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИОФ РАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПОЛИКОМ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПОЛИКОМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПОЛИКОМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142432, ОБЛ МОСКОВСКАЯ 50, Г ЧЕРНОГОЛОВКА, УЛ ЛЕСНАЯ, ДОМ 9, ПОМЕЩЕНИЕ 229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9297131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@fuelcell.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770408456021000105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704084560 21 000105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НИКИТИНА ЛАРИСА ВЛАДИМИРОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП НИКИТИНА ЛАРИСА ВЛАДИМИРОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Край Пермский, Город Пермь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-342-2157159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nikofarm@nikofarmperm.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503111476921000065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35031114769 21 000065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "СЛУЖБА БЛАГОУСТРОЙСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "СЛУЖБА БЛАГОУСТРОЙСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УРАЛКОТЛОСЕРВИС" (ООО "УКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "УКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454080, ОБЛ. ЧЕЛЯБИНСКАЯ 74, Г. Челябинск, УЛ. ЭНГЕЛЬСА, Д. 41, КВ. 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-951-1109215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74kotel@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771406175621000596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17714061756 21 000596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГРИН ЛАЙФ ЦЕНТР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГРИН ЛАЙФ ЦЕНТР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГРИН ЛАЙФ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109341, Г. МОСКВА 77, Б-Р МЯЧКОВСКИЙ, Д. 8, К. 2, КВ. 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-6789362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@medatron.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503003218221000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25030032182 21 000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 2057"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 2057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДОРСТРОЙСЕРВИС" (ООО "ДОРСТРОЙСЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДОРСТРОЙСЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">453303, РЕСП БАШКОРТОСТАН 02, Г КУМЕРТАУ, УЛ БАБАЕВСКАЯ, ДОМ 16, ОФИС 2/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (937) 319-12-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooostroyservis2017@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503003218221000050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25030032182 21 000050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЖИМБЕЕВ БАДМА БОРИСОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ДЖИМБЕЕВ БАДМА БОРИСОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Калмыкия 08, Город Элиста</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (903) 663-57-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master-stroy888@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=168991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770540134021003239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705401340 21 003239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧЕСТНЫЙ СОФТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧЕСТНЫЙ СОФТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЧЕСТНЫЙ СОФТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430000, РЕСП МОРДОВИЯ 13, Г САРАНСК, УЛ ВАСЕНКО, ДОМ 38Б, ПОМЕЩЕНИЕ 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-834-2338416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chest-soft-tender@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -3563,7 +5168,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3584,6 +5189,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3634,7 +5245,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3663,6 +5274,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3684,10 +5311,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q210"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A205" activeCellId="0" sqref="205:205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10221,7 +11848,7 @@
       <c r="C134" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="D134" s="7" t="n">
+      <c r="D134" s="2" t="n">
         <v>9971977.44</v>
       </c>
       <c r="E134" s="3" t="n">
@@ -10274,7 +11901,7 @@
       <c r="C135" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="D135" s="7" t="n">
+      <c r="D135" s="2" t="n">
         <v>205322</v>
       </c>
       <c r="E135" s="3" t="n">
@@ -10327,7 +11954,7 @@
       <c r="C136" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="D136" s="7" t="n">
+      <c r="D136" s="2" t="n">
         <v>1775000</v>
       </c>
       <c r="E136" s="3" t="n">
@@ -10380,7 +12007,7 @@
       <c r="C137" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="D137" s="7" t="n">
+      <c r="D137" s="2" t="n">
         <v>1324323.03</v>
       </c>
       <c r="E137" s="3" t="n">
@@ -10433,7 +12060,7 @@
       <c r="C138" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="D138" s="7" t="n">
+      <c r="D138" s="2" t="n">
         <v>450000</v>
       </c>
       <c r="E138" s="3" t="n">
@@ -10486,7 +12113,7 @@
       <c r="C139" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="D139" s="7" t="n">
+      <c r="D139" s="2" t="n">
         <v>29200</v>
       </c>
       <c r="E139" s="3" t="n">
@@ -10539,7 +12166,7 @@
       <c r="C140" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="D140" s="7" t="n">
+      <c r="D140" s="2" t="n">
         <v>1071727.33</v>
       </c>
       <c r="E140" s="3" t="n">
@@ -10592,7 +12219,7 @@
       <c r="C141" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D141" s="7" t="n">
+      <c r="D141" s="2" t="n">
         <v>2800000</v>
       </c>
       <c r="E141" s="3" t="n">
@@ -10645,7 +12272,7 @@
       <c r="C142" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="D142" s="7" t="n">
+      <c r="D142" s="2" t="n">
         <v>1387990.89</v>
       </c>
       <c r="E142" s="3" t="n">
@@ -10698,7 +12325,7 @@
       <c r="C143" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="D143" s="7" t="n">
+      <c r="D143" s="2" t="n">
         <v>599485.44</v>
       </c>
       <c r="E143" s="3" t="n">
@@ -10751,7 +12378,7 @@
       <c r="C144" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="D144" s="7" t="n">
+      <c r="D144" s="2" t="n">
         <v>4995000</v>
       </c>
       <c r="E144" s="3" t="n">
@@ -10804,7 +12431,7 @@
       <c r="C145" s="1" t="s">
         <v>1169</v>
       </c>
-      <c r="D145" s="7" t="n">
+      <c r="D145" s="2" t="n">
         <v>1583888</v>
       </c>
       <c r="E145" s="3" t="n">
@@ -10845,6 +12472,3115 @@
       </c>
       <c r="Q145" s="1" t="s">
         <v>1176</v>
+      </c>
+    </row>
+    <row r="146" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>6750000</v>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>44195</v>
+      </c>
+      <c r="F147" s="3" t="n">
+        <v>44550</v>
+      </c>
+      <c r="G147" s="3" t="n">
+        <v>44196</v>
+      </c>
+      <c r="H147" s="3" t="n">
+        <v>44413</v>
+      </c>
+      <c r="I147" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="J147" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K147" s="5" t="n">
+        <v>7704193182</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M147" s="5" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N147" s="5" t="n">
+        <v>503406614339</v>
+      </c>
+      <c r="O147" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="P147" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q147" s="5" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>85499</v>
+      </c>
+      <c r="E148" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="F148" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G148" s="3" t="n">
+        <v>44462</v>
+      </c>
+      <c r="H148" s="3" t="n">
+        <v>44488</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J148" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K148" s="5" t="n">
+        <v>5005029228</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N148" s="5" t="n">
+        <v>3528330620</v>
+      </c>
+      <c r="O148" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="P148" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="Q148" s="5" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>3367696.7</v>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>44445</v>
+      </c>
+      <c r="F149" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G149" s="3" t="n">
+        <v>44448</v>
+      </c>
+      <c r="H149" s="3" t="n">
+        <v>44447</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J149" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K149" s="5" t="n">
+        <v>7722830317</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M149" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="N149" s="5" t="n">
+        <v>7725717158</v>
+      </c>
+      <c r="O149" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="P149" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q149" s="5" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>1185000</v>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>44481</v>
+      </c>
+      <c r="F150" s="3" t="n">
+        <v>44579</v>
+      </c>
+      <c r="G150" s="3" t="n">
+        <v>44483</v>
+      </c>
+      <c r="H150" s="3" t="n">
+        <v>44482</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K150" s="5" t="n">
+        <v>7728008953</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="N150" s="5" t="n">
+        <v>6686034298</v>
+      </c>
+      <c r="O150" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="P150" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q150" s="5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>1163309</v>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>44195</v>
+      </c>
+      <c r="F151" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G151" s="3" t="n">
+        <v>44209</v>
+      </c>
+      <c r="H151" s="3" t="n">
+        <v>44516</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="K151" s="5" t="n">
+        <v>5073060561</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M151" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="N151" s="5" t="n">
+        <v>7721297336</v>
+      </c>
+      <c r="O151" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="P151" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Q151" s="5" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>244807.49</v>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>44456</v>
+      </c>
+      <c r="F152" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G152" s="3" t="n">
+        <v>44456</v>
+      </c>
+      <c r="H152" s="3" t="n">
+        <v>44462</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K152" s="5" t="n">
+        <v>5038008142</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="M152" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="N152" s="5" t="n">
+        <v>7718868981</v>
+      </c>
+      <c r="O152" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="P152" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q152" s="5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>617293.08</v>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>44195</v>
+      </c>
+      <c r="F153" s="3" t="n">
+        <v>44596</v>
+      </c>
+      <c r="G153" s="3" t="n">
+        <v>44208</v>
+      </c>
+      <c r="H153" s="3" t="n">
+        <v>44523</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J153" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K153" s="5" t="n">
+        <v>7703363868</v>
+      </c>
+      <c r="L153" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M153" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="N153" s="5" t="n">
+        <v>6732192277</v>
+      </c>
+      <c r="O153" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="P153" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Q153" s="5" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>799975.2</v>
+      </c>
+      <c r="E154" s="3" t="n">
+        <v>44375</v>
+      </c>
+      <c r="F154" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G154" s="3" t="n">
+        <v>44377</v>
+      </c>
+      <c r="H154" s="3" t="n">
+        <v>44376</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K154" s="5" t="n">
+        <v>7707671197</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M154" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="N154" s="5" t="n">
+        <v>5050149936</v>
+      </c>
+      <c r="O154" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P154" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Q154" s="5" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="155" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="6" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>1059864.34</v>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="F156" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G156" s="3" t="n">
+        <v>44442</v>
+      </c>
+      <c r="H156" s="3" t="n">
+        <v>44442</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K156" s="5" t="n">
+        <v>5027053224</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M156" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="N156" s="5" t="n">
+        <v>5003129523</v>
+      </c>
+      <c r="O156" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P156" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Q156" s="5" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>1566270.29</v>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>44477</v>
+      </c>
+      <c r="F157" s="3" t="n">
+        <v>44926</v>
+      </c>
+      <c r="G157" s="3" t="n">
+        <v>44481</v>
+      </c>
+      <c r="H157" s="3" t="n">
+        <v>44501</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K157" s="5" t="n">
+        <v>7714125897</v>
+      </c>
+      <c r="L157" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M157" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="N157" s="5" t="n">
+        <v>6950204099</v>
+      </c>
+      <c r="O157" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="P157" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="Q157" s="5" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>340000</v>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>44494</v>
+      </c>
+      <c r="F158" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G158" s="3" t="n">
+        <v>44497</v>
+      </c>
+      <c r="H158" s="3" t="n">
+        <v>44496</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K158" s="5" t="n">
+        <v>5050042654</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="N158" s="5" t="n">
+        <v>231409263750</v>
+      </c>
+      <c r="O158" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="P158" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="Q158" s="5" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="159" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="6" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D160" s="8" t="n">
+        <v>875189.55</v>
+      </c>
+      <c r="E160" s="9" t="n">
+        <v>44428</v>
+      </c>
+      <c r="F160" s="9" t="n">
+        <v>44510</v>
+      </c>
+      <c r="G160" s="9" t="n">
+        <v>44432</v>
+      </c>
+      <c r="H160" s="9" t="n">
+        <v>44431</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="J160" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="K160" s="7" t="n">
+        <v>7701002520</v>
+      </c>
+      <c r="L160" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M160" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N160" s="7" t="n">
+        <v>5038101134</v>
+      </c>
+      <c r="O160" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="P160" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Q160" s="7" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D161" s="8" t="n">
+        <v>47017708.11</v>
+      </c>
+      <c r="E161" s="9" t="n">
+        <v>43462</v>
+      </c>
+      <c r="F161" s="9" t="n">
+        <v>43563</v>
+      </c>
+      <c r="G161" s="9" t="n">
+        <v>43474</v>
+      </c>
+      <c r="H161" s="9" t="n">
+        <v>43530</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J161" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K161" s="7" t="n">
+        <v>7734135124</v>
+      </c>
+      <c r="L161" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M161" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="N161" s="7" t="n">
+        <v>7704397235</v>
+      </c>
+      <c r="O161" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="P161" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Q161" s="7" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D162" s="8" t="n">
+        <v>6648936.43</v>
+      </c>
+      <c r="E162" s="9" t="n">
+        <v>44400</v>
+      </c>
+      <c r="F162" s="9" t="n">
+        <v>45138</v>
+      </c>
+      <c r="G162" s="9" t="n">
+        <v>44404</v>
+      </c>
+      <c r="H162" s="9" t="n">
+        <v>44530</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J162" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K162" s="7" t="n">
+        <v>7713070211</v>
+      </c>
+      <c r="L162" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M162" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="N162" s="7" t="n">
+        <v>402911168450</v>
+      </c>
+      <c r="O162" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="P162" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Q162" s="7" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D163" s="8" t="n">
+        <v>4210184.34</v>
+      </c>
+      <c r="E163" s="9" t="n">
+        <v>44407</v>
+      </c>
+      <c r="F163" s="9" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G163" s="9" t="n">
+        <v>44410</v>
+      </c>
+      <c r="H163" s="9" t="n">
+        <v>44526</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J163" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K163" s="7" t="n">
+        <v>5024080558</v>
+      </c>
+      <c r="L163" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="M163" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="N163" s="7" t="n">
+        <v>7743243951</v>
+      </c>
+      <c r="O163" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="P163" s="7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="Q163" s="7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D164" s="8" t="n">
+        <v>467828.48</v>
+      </c>
+      <c r="E164" s="9" t="n">
+        <v>44487</v>
+      </c>
+      <c r="F164" s="9" t="n">
+        <v>44550</v>
+      </c>
+      <c r="G164" s="9" t="n">
+        <v>44488</v>
+      </c>
+      <c r="H164" s="9" t="n">
+        <v>44487</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="J164" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K164" s="7" t="n">
+        <v>7710128054</v>
+      </c>
+      <c r="L164" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="M164" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N164" s="7" t="n">
+        <v>711205330215</v>
+      </c>
+      <c r="O164" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="P164" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="Q164" s="7" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D165" s="8" t="n">
+        <v>648311.64</v>
+      </c>
+      <c r="E165" s="9" t="n">
+        <v>44495</v>
+      </c>
+      <c r="F165" s="9" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G165" s="9" t="n">
+        <v>44496</v>
+      </c>
+      <c r="H165" s="9" t="n">
+        <v>44496</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J165" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K165" s="7" t="n">
+        <v>5050039411</v>
+      </c>
+      <c r="L165" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="M165" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N165" s="7" t="n">
+        <v>7702402296</v>
+      </c>
+      <c r="O165" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="P165" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="Q165" s="7" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D166" s="8" t="n">
+        <v>121000000</v>
+      </c>
+      <c r="E166" s="9" t="n">
+        <v>44390</v>
+      </c>
+      <c r="F166" s="9" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G166" s="9" t="n">
+        <v>44396</v>
+      </c>
+      <c r="H166" s="9" t="n">
+        <v>44392</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K166" s="7" t="n">
+        <v>9702013720</v>
+      </c>
+      <c r="L166" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="M166" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="N166" s="7" t="n">
+        <v>9715314033</v>
+      </c>
+      <c r="O166" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="P166" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q166" s="7" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D167" s="8" t="n">
+        <v>5740898.3</v>
+      </c>
+      <c r="E167" s="9" t="n">
+        <v>43780</v>
+      </c>
+      <c r="F167" s="9" t="n">
+        <v>44378</v>
+      </c>
+      <c r="G167" s="9" t="n">
+        <v>43781</v>
+      </c>
+      <c r="H167" s="9" t="n">
+        <v>44279</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="K167" s="7" t="n">
+        <v>7705851331</v>
+      </c>
+      <c r="L167" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M167" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="N167" s="7" t="n">
+        <v>7842109971</v>
+      </c>
+      <c r="O167" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="P167" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="Q167" s="7" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D168" s="8" t="n">
+        <v>21900542.43</v>
+      </c>
+      <c r="E168" s="9" t="n">
+        <v>43703</v>
+      </c>
+      <c r="F168" s="9" t="n">
+        <v>44311</v>
+      </c>
+      <c r="G168" s="9" t="n">
+        <v>43705</v>
+      </c>
+      <c r="H168" s="9" t="n">
+        <v>44313</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="J168" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="K168" s="7" t="n">
+        <v>7705851331</v>
+      </c>
+      <c r="L168" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M168" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="N168" s="7" t="n">
+        <v>7842109971</v>
+      </c>
+      <c r="O168" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P168" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="Q168" s="7" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="169" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="6" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>1070800</v>
+      </c>
+      <c r="E170" s="3" t="n">
+        <v>44396</v>
+      </c>
+      <c r="F170" s="3" t="n">
+        <v>44555</v>
+      </c>
+      <c r="G170" s="3" t="n">
+        <v>44398</v>
+      </c>
+      <c r="H170" s="3" t="n">
+        <v>44397</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="J170" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="K170" s="5" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M170" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="N170" s="5" t="n">
+        <v>9717100446</v>
+      </c>
+      <c r="O170" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="P170" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="Q170" s="5" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>921000</v>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>44390</v>
+      </c>
+      <c r="F171" s="3" t="n">
+        <v>44530</v>
+      </c>
+      <c r="G171" s="3" t="n">
+        <v>44390</v>
+      </c>
+      <c r="H171" s="3" t="n">
+        <v>44390</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="J171" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K171" s="5" t="n">
+        <v>7714097791</v>
+      </c>
+      <c r="L171" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="M171" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="N171" s="5" t="n">
+        <v>7726754113</v>
+      </c>
+      <c r="O171" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="P171" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="Q171" s="5" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>231807.12</v>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="F172" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G172" s="3" t="n">
+        <v>44473</v>
+      </c>
+      <c r="H172" s="3" t="n">
+        <v>44470</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K172" s="5" t="n">
+        <v>7715186733</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="M172" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="N172" s="5" t="n">
+        <v>6671165474</v>
+      </c>
+      <c r="O172" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="P172" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="Q172" s="5" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>46981.06</v>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>44245</v>
+      </c>
+      <c r="F173" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G173" s="3" t="n">
+        <v>44245</v>
+      </c>
+      <c r="H173" s="3" t="n">
+        <v>44245</v>
+      </c>
+      <c r="I173" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J173" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K173" s="5" t="n">
+        <v>5032001630</v>
+      </c>
+      <c r="L173" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="M173" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N173" s="5" t="n">
+        <v>7721796399</v>
+      </c>
+      <c r="O173" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="P173" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q173" s="5" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>42200</v>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>44351</v>
+      </c>
+      <c r="F174" s="3" t="n">
+        <v>44554</v>
+      </c>
+      <c r="G174" s="3" t="n">
+        <v>44370</v>
+      </c>
+      <c r="H174" s="3" t="n">
+        <v>44370</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="K174" s="5" t="n">
+        <v>7715936288</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="N174" s="5" t="n">
+        <v>5406624030</v>
+      </c>
+      <c r="O174" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="P174" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q174" s="5" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>4639451.08</v>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>44481</v>
+      </c>
+      <c r="F175" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G175" s="3" t="n">
+        <v>44490</v>
+      </c>
+      <c r="H175" s="3" t="n">
+        <v>44488</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K175" s="5" t="n">
+        <v>5045043081</v>
+      </c>
+      <c r="L175" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M175" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="N175" s="5" t="n">
+        <v>7724806542</v>
+      </c>
+      <c r="O175" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="P175" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="Q175" s="5" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="E176" s="3" t="n">
+        <v>43616</v>
+      </c>
+      <c r="F176" s="3" t="n">
+        <v>44012</v>
+      </c>
+      <c r="G176" s="3" t="n">
+        <v>43622</v>
+      </c>
+      <c r="H176" s="3" t="n">
+        <v>44281</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K176" s="5" t="n">
+        <v>5044013302</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="M176" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="N176" s="5" t="n">
+        <v>8603159490</v>
+      </c>
+      <c r="O176" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="P176" s="5" t="n">
+        <v>73466296218</v>
+      </c>
+      <c r="Q176" s="5" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="177" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="6" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>333444.37</v>
+      </c>
+      <c r="E178" s="3" t="n">
+        <v>44460</v>
+      </c>
+      <c r="F178" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G178" s="3" t="n">
+        <v>44462</v>
+      </c>
+      <c r="H178" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K178" s="5" t="n">
+        <v>5004003890</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="N178" s="5" t="n">
+        <v>4824064200</v>
+      </c>
+      <c r="O178" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="P178" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="Q178" s="5" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>163423.06</v>
+      </c>
+      <c r="E179" s="3" t="n">
+        <v>44397</v>
+      </c>
+      <c r="F179" s="3" t="n">
+        <v>45169</v>
+      </c>
+      <c r="G179" s="3" t="n">
+        <v>44398</v>
+      </c>
+      <c r="H179" s="3" t="n">
+        <v>44532</v>
+      </c>
+      <c r="I179" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J179" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K179" s="5" t="n">
+        <v>7715441479</v>
+      </c>
+      <c r="L179" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="M179" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="N179" s="5" t="n">
+        <v>7130506136</v>
+      </c>
+      <c r="O179" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="P179" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="Q179" s="5" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>3158883</v>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>44193</v>
+      </c>
+      <c r="F180" s="3" t="n">
+        <v>44592</v>
+      </c>
+      <c r="G180" s="3" t="n">
+        <v>44214</v>
+      </c>
+      <c r="H180" s="3" t="n">
+        <v>44334</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J180" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K180" s="5" t="n">
+        <v>7724075162</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M180" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="N180" s="5" t="n">
+        <v>5611086177</v>
+      </c>
+      <c r="O180" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="P180" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="Q180" s="5" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>856088</v>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="F181" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G181" s="3" t="n">
+        <v>44525</v>
+      </c>
+      <c r="H181" s="3" t="n">
+        <v>44523</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J181" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K181" s="5" t="n">
+        <v>7703037039</v>
+      </c>
+      <c r="L181" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="M181" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="N181" s="5" t="n">
+        <v>4028021907</v>
+      </c>
+      <c r="O181" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="P181" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Q181" s="5" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>1989940.2</v>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>44460</v>
+      </c>
+      <c r="F182" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G182" s="3" t="n">
+        <v>44461</v>
+      </c>
+      <c r="H182" s="3" t="n">
+        <v>44532</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J182" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="K182" s="5" t="n">
+        <v>7728122631</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="M182" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="N182" s="5" t="n">
+        <v>5262378342</v>
+      </c>
+      <c r="O182" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="P182" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Q182" s="5" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>1194419.88</v>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>43929</v>
+      </c>
+      <c r="F183" s="3" t="n">
+        <v>43951</v>
+      </c>
+      <c r="G183" s="3" t="n">
+        <v>43934</v>
+      </c>
+      <c r="H183" s="3" t="n">
+        <v>43931</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J183" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K183" s="5" t="n">
+        <v>7733231361</v>
+      </c>
+      <c r="L183" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M183" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="N183" s="5" t="n">
+        <v>7725362064</v>
+      </c>
+      <c r="O183" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="P183" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="Q183" s="5" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>480171.99</v>
+      </c>
+      <c r="E184" s="3" t="n">
+        <v>44285</v>
+      </c>
+      <c r="F184" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G184" s="3" t="n">
+        <v>44286</v>
+      </c>
+      <c r="H184" s="3" t="n">
+        <v>44532</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K184" s="5" t="n">
+        <v>7718220326</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="N184" s="5" t="n">
+        <v>633064798749</v>
+      </c>
+      <c r="O184" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="P184" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="Q184" s="5" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E185" s="3" t="n">
+        <v>44463</v>
+      </c>
+      <c r="F185" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G185" s="3" t="n">
+        <v>44463</v>
+      </c>
+      <c r="H185" s="3" t="n">
+        <v>44463</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J185" s="5" t="s">
+        <v>1497</v>
+      </c>
+      <c r="K185" s="5" t="n">
+        <v>5007079601</v>
+      </c>
+      <c r="L185" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M185" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="N185" s="5" t="n">
+        <v>5007101085</v>
+      </c>
+      <c r="O185" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="P185" s="5" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Q185" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>19900000</v>
+      </c>
+      <c r="E186" s="3" t="n">
+        <v>44327</v>
+      </c>
+      <c r="F186" s="3" t="n">
+        <v>44592</v>
+      </c>
+      <c r="G186" s="3" t="n">
+        <v>44328</v>
+      </c>
+      <c r="H186" s="3" t="n">
+        <v>44327</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K186" s="5" t="n">
+        <v>7707565512</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="M186" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N186" s="5" t="n">
+        <v>7717654017</v>
+      </c>
+      <c r="O186" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="P186" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="Q186" s="5" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>897705.33</v>
+      </c>
+      <c r="E187" s="3" t="n">
+        <v>44508</v>
+      </c>
+      <c r="F187" s="3" t="n">
+        <v>44578</v>
+      </c>
+      <c r="G187" s="3" t="n">
+        <v>44509</v>
+      </c>
+      <c r="H187" s="3" t="n">
+        <v>44508</v>
+      </c>
+      <c r="I187" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J187" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K187" s="5" t="n">
+        <v>5046050660</v>
+      </c>
+      <c r="L187" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M187" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N187" s="5" t="n">
+        <v>253912092890</v>
+      </c>
+      <c r="O187" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="P187" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="Q187" s="5" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>3570542.3</v>
+      </c>
+      <c r="E188" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="F188" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G188" s="3" t="n">
+        <v>44470</v>
+      </c>
+      <c r="H188" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K188" s="5" t="n">
+        <v>5044119676</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M188" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="N188" s="5" t="n">
+        <v>7816243748</v>
+      </c>
+      <c r="O188" s="5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="P188" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="Q188" s="5" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="189" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="6" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E190" s="3" t="n">
+        <v>44004</v>
+      </c>
+      <c r="F190" s="3" t="n">
+        <v>44094</v>
+      </c>
+      <c r="G190" s="3" t="n">
+        <v>44004</v>
+      </c>
+      <c r="H190" s="3" t="n">
+        <v>44231</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="K190" s="5" t="n">
+        <v>5039002841</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M190" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="N190" s="5" t="n">
+        <v>5406805439</v>
+      </c>
+      <c r="O190" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P190" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="Q190" s="5" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="5" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>10432666.19</v>
+      </c>
+      <c r="E191" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="F191" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G191" s="3" t="n">
+        <v>44474</v>
+      </c>
+      <c r="H191" s="3" t="n">
+        <v>44474</v>
+      </c>
+      <c r="I191" s="5" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J191" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K191" s="5" t="n">
+        <v>5022062384</v>
+      </c>
+      <c r="L191" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M191" s="5" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N191" s="5" t="n">
+        <v>9717038413</v>
+      </c>
+      <c r="O191" s="10" t="s">
+        <v>1551</v>
+      </c>
+      <c r="P191" s="10" t="s">
+        <v>1552</v>
+      </c>
+      <c r="Q191" s="10" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>5999794.63</v>
+      </c>
+      <c r="E192" s="3" t="n">
+        <v>44447</v>
+      </c>
+      <c r="F192" s="3" t="n">
+        <v>44498</v>
+      </c>
+      <c r="G192" s="3" t="n">
+        <v>44449</v>
+      </c>
+      <c r="H192" s="3" t="n">
+        <v>44448</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J192" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K192" s="5" t="n">
+        <v>7702834176</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M192" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N192" s="5" t="n">
+        <v>7806257533</v>
+      </c>
+      <c r="O192" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P192" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="Q192" s="5" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>103309.79</v>
+      </c>
+      <c r="E193" s="3" t="n">
+        <v>44488</v>
+      </c>
+      <c r="F193" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G193" s="3" t="n">
+        <v>44494</v>
+      </c>
+      <c r="H193" s="3" t="n">
+        <v>44491</v>
+      </c>
+      <c r="I193" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J193" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K193" s="5" t="n">
+        <v>7718182896</v>
+      </c>
+      <c r="L193" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="M193" s="5" t="s">
+        <v>1566</v>
+      </c>
+      <c r="N193" s="5" t="n">
+        <v>7806089737</v>
+      </c>
+      <c r="O193" s="5" t="s">
+        <v>1567</v>
+      </c>
+      <c r="P193" s="5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="Q193" s="5" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>1987909.86</v>
+      </c>
+      <c r="E194" s="3" t="n">
+        <v>44330</v>
+      </c>
+      <c r="F194" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G194" s="3" t="n">
+        <v>44330</v>
+      </c>
+      <c r="H194" s="3" t="n">
+        <v>44330</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J194" s="5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K194" s="5" t="n">
+        <v>5036154998</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="M194" s="5" t="s">
+        <v>1576</v>
+      </c>
+      <c r="N194" s="5" t="n">
+        <v>5251011342</v>
+      </c>
+      <c r="O194" s="5" t="s">
+        <v>1577</v>
+      </c>
+      <c r="P194" s="5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="Q194" s="5" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>1155600</v>
+      </c>
+      <c r="E195" s="3" t="n">
+        <v>44341</v>
+      </c>
+      <c r="F195" s="3" t="n">
+        <v>44555</v>
+      </c>
+      <c r="G195" s="3" t="n">
+        <v>44342</v>
+      </c>
+      <c r="H195" s="3" t="n">
+        <v>44518</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="J195" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="K195" s="5" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L195" s="5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M195" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N195" s="5" t="n">
+        <v>5249163588</v>
+      </c>
+      <c r="O195" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="P195" s="5" t="s">
+        <v>1586</v>
+      </c>
+      <c r="Q195" s="5" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>2717280</v>
+      </c>
+      <c r="E196" s="3" t="n">
+        <v>44441</v>
+      </c>
+      <c r="F196" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G196" s="3" t="n">
+        <v>44447</v>
+      </c>
+      <c r="H196" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="J196" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K196" s="5" t="n">
+        <v>5032229579</v>
+      </c>
+      <c r="L196" s="5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="M196" s="5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="N196" s="5" t="n">
+        <v>9718050420</v>
+      </c>
+      <c r="O196" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="P196" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q196" s="5" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>245889.6</v>
+      </c>
+      <c r="E197" s="3" t="n">
+        <v>44480</v>
+      </c>
+      <c r="F197" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G197" s="3" t="n">
+        <v>44480</v>
+      </c>
+      <c r="H197" s="3" t="n">
+        <v>44480</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="J197" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K197" s="5" t="n">
+        <v>5030008172</v>
+      </c>
+      <c r="L197" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="M197" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="N197" s="5" t="n">
+        <v>503818471626</v>
+      </c>
+      <c r="O197" s="5" t="s">
+        <v>1605</v>
+      </c>
+      <c r="P197" s="5" t="n">
+        <v>74993940575</v>
+      </c>
+      <c r="Q197" s="5" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>309925.2</v>
+      </c>
+      <c r="E198" s="3" t="n">
+        <v>44480</v>
+      </c>
+      <c r="F198" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G198" s="3" t="n">
+        <v>44481</v>
+      </c>
+      <c r="H198" s="3" t="n">
+        <v>44480</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="K198" s="5" t="n">
+        <v>5030008172</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="N198" s="5" t="n">
+        <v>503818471626</v>
+      </c>
+      <c r="O198" s="5" t="s">
+        <v>1605</v>
+      </c>
+      <c r="P198" s="5" t="n">
+        <v>74993940575</v>
+      </c>
+      <c r="Q198" s="5" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="5" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>464869.32</v>
+      </c>
+      <c r="E199" s="3" t="n">
+        <v>44495</v>
+      </c>
+      <c r="F199" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G199" s="3" t="n">
+        <v>44498</v>
+      </c>
+      <c r="H199" s="3" t="n">
+        <v>44525</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="J199" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K199" s="5" t="n">
+        <v>5048030813</v>
+      </c>
+      <c r="L199" s="5" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M199" s="5" t="s">
+        <v>1616</v>
+      </c>
+      <c r="N199" s="5" t="n">
+        <v>771540958107</v>
+      </c>
+      <c r="O199" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="P199" s="5" t="s">
+        <v>1618</v>
+      </c>
+      <c r="Q199" s="5" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>736345.13</v>
+      </c>
+      <c r="E200" s="3" t="n">
+        <v>44336</v>
+      </c>
+      <c r="F200" s="3" t="n">
+        <v>44571</v>
+      </c>
+      <c r="G200" s="3" t="n">
+        <v>44341</v>
+      </c>
+      <c r="H200" s="3" t="n">
+        <v>44340</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>1623</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>1624</v>
+      </c>
+      <c r="K200" s="5" t="n">
+        <v>7734241612</v>
+      </c>
+      <c r="L200" s="5" t="s">
+        <v>1625</v>
+      </c>
+      <c r="M200" s="5" t="s">
+        <v>1626</v>
+      </c>
+      <c r="N200" s="5" t="n">
+        <v>7725342452</v>
+      </c>
+      <c r="O200" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="P200" s="5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="Q200" s="5" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>307609.74</v>
+      </c>
+      <c r="E201" s="3" t="n">
+        <v>44488</v>
+      </c>
+      <c r="F201" s="3" t="n">
+        <v>44560</v>
+      </c>
+      <c r="G201" s="3" t="n">
+        <v>44490</v>
+      </c>
+      <c r="H201" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="I201" s="5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J201" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K201" s="5" t="n">
+        <v>7730087409</v>
+      </c>
+      <c r="L201" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="M201" s="5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="N201" s="5" t="n">
+        <v>7751176498</v>
+      </c>
+      <c r="O201" s="5" t="s">
+        <v>1637</v>
+      </c>
+      <c r="P201" s="5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="Q201" s="5" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="5" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>835507</v>
+      </c>
+      <c r="E202" s="3" t="n">
+        <v>44488</v>
+      </c>
+      <c r="F202" s="3" t="n">
+        <v>44591</v>
+      </c>
+      <c r="G202" s="3" t="n">
+        <v>44490</v>
+      </c>
+      <c r="H202" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>1644</v>
+      </c>
+      <c r="K202" s="5" t="n">
+        <v>7706593605</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>1645</v>
+      </c>
+      <c r="M202" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="N202" s="5" t="n">
+        <v>9718151330</v>
+      </c>
+      <c r="O202" s="5" t="s">
+        <v>1647</v>
+      </c>
+      <c r="P202" s="5" t="s">
+        <v>1648</v>
+      </c>
+      <c r="Q202" s="5" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="5" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>15591906.67</v>
+      </c>
+      <c r="E203" s="3" t="n">
+        <v>44445</v>
+      </c>
+      <c r="F203" s="3" t="n">
+        <v>44531</v>
+      </c>
+      <c r="G203" s="3" t="n">
+        <v>44446</v>
+      </c>
+      <c r="H203" s="3" t="n">
+        <v>44445</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J203" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K203" s="5" t="n">
+        <v>7736029700</v>
+      </c>
+      <c r="L203" s="5" t="s">
+        <v>1655</v>
+      </c>
+      <c r="M203" s="5" t="s">
+        <v>1656</v>
+      </c>
+      <c r="N203" s="5" t="n">
+        <v>7723835519</v>
+      </c>
+      <c r="O203" s="5" t="s">
+        <v>1657</v>
+      </c>
+      <c r="P203" s="5" t="s">
+        <v>1658</v>
+      </c>
+      <c r="Q203" s="5" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>1437157.41</v>
+      </c>
+      <c r="E204" s="3" t="n">
+        <v>44410</v>
+      </c>
+      <c r="F204" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G204" s="3" t="n">
+        <v>44411</v>
+      </c>
+      <c r="H204" s="3" t="n">
+        <v>44411</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K204" s="5" t="n">
+        <v>7704084560</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M204" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="N204" s="5" t="n">
+        <v>590613218744</v>
+      </c>
+      <c r="O204" s="5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="P204" s="5" t="s">
+        <v>1666</v>
+      </c>
+      <c r="Q204" s="5" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="205" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="6" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D206" s="11" t="n">
+        <v>289336.03</v>
+      </c>
+      <c r="E206" s="3" t="n">
+        <v>44508</v>
+      </c>
+      <c r="F206" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G206" s="3" t="n">
+        <v>44510</v>
+      </c>
+      <c r="H206" s="3" t="n">
+        <v>44509</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K206" s="5" t="n">
+        <v>5031114769</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>1673</v>
+      </c>
+      <c r="M206" s="5" t="s">
+        <v>1674</v>
+      </c>
+      <c r="N206" s="5" t="n">
+        <v>7453285597</v>
+      </c>
+      <c r="O206" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="P206" s="5" t="s">
+        <v>1676</v>
+      </c>
+      <c r="Q206" s="5" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="5" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D207" s="11" t="n">
+        <v>167488.32</v>
+      </c>
+      <c r="E207" s="3" t="n">
+        <v>44491</v>
+      </c>
+      <c r="F207" s="3" t="n">
+        <v>44581</v>
+      </c>
+      <c r="G207" s="3" t="n">
+        <v>44494</v>
+      </c>
+      <c r="H207" s="3" t="n">
+        <v>44491</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="J207" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="K207" s="5" t="n">
+        <v>7714061756</v>
+      </c>
+      <c r="L207" s="5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M207" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N207" s="5" t="n">
+        <v>9723113980</v>
+      </c>
+      <c r="O207" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="P207" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="Q207" s="5" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="5" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D208" s="11" t="n">
+        <v>2210054.72</v>
+      </c>
+      <c r="E208" s="3" t="n">
+        <v>44305</v>
+      </c>
+      <c r="F208" s="3" t="n">
+        <v>45077</v>
+      </c>
+      <c r="G208" s="3" t="n">
+        <v>44308</v>
+      </c>
+      <c r="H208" s="3" t="n">
+        <v>44536</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J208" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="K208" s="5" t="n">
+        <v>5030032182</v>
+      </c>
+      <c r="L208" s="5" t="s">
+        <v>1691</v>
+      </c>
+      <c r="M208" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="N208" s="5" t="n">
+        <v>262031905</v>
+      </c>
+      <c r="O208" s="5" t="s">
+        <v>1693</v>
+      </c>
+      <c r="P208" s="5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="Q208" s="5" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="5" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D209" s="11" t="n">
+        <v>8449249.25</v>
+      </c>
+      <c r="E209" s="3" t="n">
+        <v>44426</v>
+      </c>
+      <c r="F209" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="G209" s="3" t="n">
+        <v>44427</v>
+      </c>
+      <c r="H209" s="3" t="n">
+        <v>44536</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J209" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="K209" s="5" t="n">
+        <v>5030032182</v>
+      </c>
+      <c r="L209" s="5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="M209" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N209" s="5" t="n">
+        <v>81406895933</v>
+      </c>
+      <c r="O209" s="5" t="s">
+        <v>1701</v>
+      </c>
+      <c r="P209" s="5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="Q209" s="5" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="5" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D210" s="11" t="n">
+        <v>9926975</v>
+      </c>
+      <c r="E210" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="F210" s="3" t="n">
+        <v>44531</v>
+      </c>
+      <c r="G210" s="3" t="n">
+        <v>44463</v>
+      </c>
+      <c r="H210" s="3" t="n">
+        <v>44461</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="K210" s="5" t="n">
+        <v>7705401340</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>1707</v>
+      </c>
+      <c r="M210" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="N210" s="5" t="n">
+        <v>1327035204</v>
+      </c>
+      <c r="O210" s="5" t="s">
+        <v>1709</v>
+      </c>
+      <c r="P210" s="5" t="s">
+        <v>1710</v>
+      </c>
+      <c r="Q210" s="5" t="s">
+        <v>1711</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1872">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -5156,6 +5156,486 @@
   </si>
   <si>
     <t xml:space="preserve">chest-soft-tender@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770801462021000075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17708014620 21 000075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЯЛЬКА АНДРЕЙ СЕРГЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЛЯЛЬКА АНДРЕЙ СЕРГЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ. СВЕРДЛОВСКАЯ 66, Г. ЕКАТЕРИНБУРГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-912-0437888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@tendersgroup.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500710213821000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35007102138 21 000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЖКХ И БЛАГОУСТРОЙСТВО" ДМИТРОВСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "ЖКХ И БЛАГОУСТРОЙСТВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АВЕТИСЯН СИРАНУШ ГРАЧОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АВЕТИСЯН СИРАНУШ ГРАЧОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ РОСТОВСКАЯ 61, Р-Н НЕКЛИНОВСКИЙ, С РУССКАЯ СЛОБОДКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip_avetisyan87@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1505001554820000044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15050015548 20 000044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ САНАТОРИЙ ИМЕНИ ГОРЬКОГО МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ САНАТОРИЙ ИМ. ГОРЬКОГО МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "НАВИГАТОР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "НАВИГАТОР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "НАВИГАТОР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140000, ОБЛ МОСКОВСКАЯ 50, Г ЛЮБЕРЦЫ, ПР-КТ ОКТЯБРЬСКИЙ, ДОМ 141, ЛИТЕР А, ПОМЕЩЕНИЕ III КОМНАТА 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-965-2831506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigator3892@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772409353121000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27724093531 21 000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ ГОРОДА МОСКВЫ "МОСКОВСКИЙ ГОСУДАРСТВЕННЫЙ ОБЪЕДИНЕННЫЙ ХУДОЖЕСТВЕННЫЙ ИСТОРИКО-АРХИТЕКТУРНЫЙ И ПРИРОДНО-ЛАНДШАФТНЫЙ МУЗЕЙ-ЗАПОВЕДНИК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОСКОВСКИЙ ГОСУДАРСТВЕННЫЙ ОБЪЕДИНЕННЫЙ МУЗЕЙ-ЗАПОВЕДНИК, МГОМЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «АИСТ»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «АИСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Москва, Варшавское шоссе, дом 129, корпус 2, эт. 3, пом. I, ком. 8Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (499) 559-99-85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aist2010aist@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770407777121000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704077771 21 000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "МОСКОВСКИЙ ПЕДАГОГИЧЕСКИЙ ГОСУДАРСТВЕННЫЙ УНИВЕРСИТЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОСКОВСКИЙ ПЕДАГОГИЧЕСКИЙ ГОСУДАРСТВЕННЫЙ УНИВЕРСИТЕТ, ФГБОУ ВО "МПГУ", МПГУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СНЕГОВИК" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СНЕГОВИК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СНЕГОВИК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127591, Г МОСКВА 77, ПРОЕЗД КЕРАМИЧЕСКИЙ, ДОМ 51, КОРПУС 2, КВАРТИРА 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-2024340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7662552@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503203769021000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25032037690 21 000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ РЕСПУБЛИКИ САХА (ЯКУТИЯ) "САНАТОРИЙ "БЭС ЧАГДА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ РС (Я) "САНАТОРИЙ "БЭС ЧАГДА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВОСТОК СИТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВОСТОК СИТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109156, Российская Федерация,  Г МОСКВА,  УЛ ГЕНЕРАЛА КУЗНЕЦОВА,  18,  2, 135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772706124921000021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17727061249 21 000021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ГОСУДАРСТВЕННЫЙ РЕГИОНАЛЬНЫЙ ЦЕНТР СТАНДАРТИЗАЦИИ, МЕТРОЛОГИИ И ИСПЫТАНИЙ В Г. МОСКВЕ И МОСКОВСКОЙ ОБЛАСТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФБУ "РОСТЕСТ-МОСКВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕТРОТЕКС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕТРОТЕКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕТРОТЕКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141551, ОБЛ МОСКОВСКАЯ 50, Г СОЛНЕЧНОГОРСК, РП АНДРЕЕВКА, СТРОЕНИЕ 3А, КОРПУС 4, КОМНАТА 220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9025490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@metrotex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500906131021000243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15009061310 21 000243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙИНВЕСТГРУПП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙИНВЕСТГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙИНВЕСТГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">618740, КРАЙ ПЕРМСКИЙ 59, Г. Добрянка, УЛ. ТРУДОВЫЕ РЕЗЕРВЫ, Д. 7, КВ. 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-912-7830503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sk.region59@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771375704321000050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27713757043 21 000050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 627 ИМЕНИ ГЕНЕРАЛА Д.Д. ЛЕЛЮШЕНКО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕТИСОВА ТАТЬЯНА ГЕННАДИЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ФЕТИСОВА ТАТЬЯНА ГЕННАДИЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Город Москва 77, Город Зеленоград</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (916) 794-18-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ftg83@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2507403531021000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25074035310 21 000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ МОСКОВСКОЙ ОБЛАСТИ "ЦЕНТР СОЦИАЛЬНО-МЕДИЦИНСКОЙ РЕАБИЛИТАЦИИ ИНВАЛИДОВ И ВЕТЕРАНОВ БОЕВЫХ ДЕЙСТВИЙ "ЯСЕНКИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУСО МО "ЦЕНТР СОЦИАЛЬНО-МЕДИЦИНСКОЙ РЕАБИЛИТАЦИИ ИНВАЛИДОВ И ВЕТЕРАНОВ БОЕВЫХ ДЕЙСТВИЙ "ЯСЕНКИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНТЕГРАЛ" (ООО "ИНТЕГРАЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИНТЕГРАЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198099, Г САНКТ-ПЕТЕРБУРГ 78, УЛ ПРОМЫШЛЕННАЯ, ДОМ 14А, ЛИТЕР А, ПОМ 22-Н-109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-6482445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo-integral.spb@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772804541921000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728045419 21 000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ НАУКИ ИНСТИТУТ БИООРГАНИЧЕСКОЙ ХИМИИ ИМ. АКАДЕМИКОВ М.М. ШЕМЯКИНА И Ю.А. ОВЧИННИКОВА РОССИЙСКОЙ АКАДЕМИИ НАУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИБХ РАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХАРИТОНОВ МАТВЕЙ ВАСИЛЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ХАРИТОНОВ МАТВЕЙ ВАСИЛЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСП БАШКОРТОСТАН 02, Р-Н ДУВАНСКИЙ, С МЕСЯГУТОВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-917-7464295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ufabaskiriya2015@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503221178021000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35032211780 21 000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ВЛАСИХА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ВЛАСИХА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЯЩЕНКО НИКИТА ВИТАЛЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЛЯЩЕНКО НИКИТА ВИТАЛЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Г МОСКВА 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-995-5076249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln-tender@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503807703321000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35038077033 21 000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЁННОЕ УЧРЕЖДЕНИЕ ГОРОДСКОГО ОКРУГА ПУШКИНСКИЙ МОСКОВСКОЙ ОБЛАСТИ "СЕРВИС-ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "СЕРВИС-ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭЛЕКТРОПРОФ" (ООО "ЭЛЕКТРОПРОФ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭЛЕКТРОПРОФ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390011, ОБЛ РЯЗАНСКАЯ 62, Г РЯЗАНЬ, ПРОЕЗД ЯБЛОЧКОВА, ДОМ 6, ПОМЕЩЕНИЕ Н65, ЭТАЖ/ОФИС 7/707А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-920-9894625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el-pf62@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2501805182321000085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25018051823 21 000085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ МОСКОВСКОЙ ОБЛАСТИ "ТЕХНОЛОГИЧЕСКИЙ УНИВЕРСИТЕТ ИМЕНИ ДВАЖДЫ ГЕРОЯ СОВЕТСКОГО СОЮЗА, ЛЕТЧИКА-КОСМОНАВТА А.А.ЛЕОНОВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ВО МО "ТЕХНОЛОГИЧЕСКИЙ УНИВЕРСИТЕТ", "ТЕХНОЛОГИЧЕСКИЙ УНИВЕРСИТЕТ", "МГОТУ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СИСТЕМЫ БЕЗОПАСНОСТИ" (ООО "СИСТЕМЫ БЕЗОПАСНОСТИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СИСТЕМЫ БЕЗОПАСНОСТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127018, Г МОСКВА 77, УЛ СУЩЁВСКИЙ ВАЛ, ДОМ 43, ЭТАЖ/ПОМЕЩ 2/214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-496-5864726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772706124921000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17727061249 21 000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СКАНЛАБ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СКАНЛАБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СКАНЛАБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142600, ОБЛ МОСКОВСКАЯ 50, Г ОРЕХОВО-ЗУЕВО, УЛ МОСКОВСКАЯ, ДОМ 2, ЛИТЕР А, ОФИС 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-2121404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skanlab@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503107028621000093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25031070286 21 000093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "МОСКОВСКАЯ ОБЛАСТНАЯ СПЕЦИАЛИЗИРОВАННАЯ АВАРИЙНО-ВОССТАНОВИТЕЛЬНАЯ СЛУЖБА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ МО "МОС АВС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АБАЕВ ЕВГЕНИЙ АНАТОЛЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АБАЕВ ЕВГЕНИЙ АНАТОЛЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕСП МОРДОВИЯ 13, Р-Н РУЗАЕВСКИЙ, С ОГАРЕВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-1235502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender_dizgen@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770605585421000626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27706055854 21 000626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 1 ИМ. Н.И.ПИРОГОВА ДЕПАРТАМЕНТА ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКБ № 1 ИМ. Н.И.ПИРОГОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУЛБУЖЕВ МАГОМЕД ОСМАНОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КУЛБУЖЕВ МАГОМЕД ОСМАНОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (916) 771-59-77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-d2008@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -5311,10 +5791,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q210"/>
+  <dimension ref="A1:Q228"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A205" activeCellId="0" sqref="205:205"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A211" activeCellId="0" sqref="211:211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15328,7 +15808,7 @@
       <c r="C206" s="5" t="s">
         <v>1670</v>
       </c>
-      <c r="D206" s="11" t="n">
+      <c r="D206" s="2" t="n">
         <v>289336.03</v>
       </c>
       <c r="E206" s="3" t="n">
@@ -15381,7 +15861,7 @@
       <c r="C207" s="5" t="s">
         <v>1680</v>
       </c>
-      <c r="D207" s="11" t="n">
+      <c r="D207" s="2" t="n">
         <v>167488.32</v>
       </c>
       <c r="E207" s="3" t="n">
@@ -15434,7 +15914,7 @@
       <c r="C208" s="5" t="s">
         <v>1688</v>
       </c>
-      <c r="D208" s="11" t="n">
+      <c r="D208" s="2" t="n">
         <v>2210054.72</v>
       </c>
       <c r="E208" s="3" t="n">
@@ -15487,7 +15967,7 @@
       <c r="C209" s="5" t="s">
         <v>1698</v>
       </c>
-      <c r="D209" s="11" t="n">
+      <c r="D209" s="2" t="n">
         <v>8449249.25</v>
       </c>
       <c r="E209" s="3" t="n">
@@ -15540,7 +16020,7 @@
       <c r="C210" s="5" t="s">
         <v>1706</v>
       </c>
-      <c r="D210" s="11" t="n">
+      <c r="D210" s="2" t="n">
         <v>9926975</v>
       </c>
       <c r="E210" s="3" t="n">
@@ -15581,6 +16061,912 @@
       </c>
       <c r="Q210" s="5" t="s">
         <v>1711</v>
+      </c>
+    </row>
+    <row r="211" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="6" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="5" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D212" s="11" t="n">
+        <v>243532.41</v>
+      </c>
+      <c r="E212" s="3" t="n">
+        <v>44383</v>
+      </c>
+      <c r="F212" s="3" t="n">
+        <v>44530</v>
+      </c>
+      <c r="G212" s="3" t="n">
+        <v>44384</v>
+      </c>
+      <c r="H212" s="3" t="n">
+        <v>44383</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J212" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K212" s="5" t="n">
+        <v>7708014620</v>
+      </c>
+      <c r="L212" s="5" t="s">
+        <v>1716</v>
+      </c>
+      <c r="M212" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="N212" s="5" t="n">
+        <v>667222640263</v>
+      </c>
+      <c r="O212" s="5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="P212" s="5" t="s">
+        <v>1719</v>
+      </c>
+      <c r="Q212" s="5" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="5" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D213" s="11" t="n">
+        <v>2804632.52</v>
+      </c>
+      <c r="E213" s="3" t="n">
+        <v>44417</v>
+      </c>
+      <c r="F213" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G213" s="3" t="n">
+        <v>44419</v>
+      </c>
+      <c r="H213" s="3" t="n">
+        <v>44470</v>
+      </c>
+      <c r="I213" s="5" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J213" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K213" s="5" t="n">
+        <v>5007102138</v>
+      </c>
+      <c r="L213" s="5" t="s">
+        <v>1726</v>
+      </c>
+      <c r="M213" s="5" t="s">
+        <v>1727</v>
+      </c>
+      <c r="N213" s="5" t="n">
+        <v>612308826212</v>
+      </c>
+      <c r="O213" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="P213" s="5" t="n">
+        <v>79154932266</v>
+      </c>
+      <c r="Q213" s="5" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D214" s="11" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="E214" s="3" t="n">
+        <v>44193</v>
+      </c>
+      <c r="F214" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G214" s="3" t="n">
+        <v>44195</v>
+      </c>
+      <c r="H214" s="3" t="n">
+        <v>44491</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J214" s="5" t="s">
+        <v>1734</v>
+      </c>
+      <c r="K214" s="5" t="n">
+        <v>5050015548</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>1735</v>
+      </c>
+      <c r="M214" s="5" t="s">
+        <v>1736</v>
+      </c>
+      <c r="N214" s="5" t="n">
+        <v>5027123827</v>
+      </c>
+      <c r="O214" s="5" t="s">
+        <v>1737</v>
+      </c>
+      <c r="P214" s="5" t="s">
+        <v>1738</v>
+      </c>
+      <c r="Q214" s="5" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="5" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D215" s="11" t="n">
+        <v>11744940.2</v>
+      </c>
+      <c r="E215" s="3" t="n">
+        <v>44235</v>
+      </c>
+      <c r="F215" s="3" t="n">
+        <v>44407</v>
+      </c>
+      <c r="G215" s="3" t="n">
+        <v>44237</v>
+      </c>
+      <c r="H215" s="3" t="n">
+        <v>44502</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J215" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K215" s="5" t="n">
+        <v>7724093531</v>
+      </c>
+      <c r="L215" s="5" t="s">
+        <v>1745</v>
+      </c>
+      <c r="M215" s="5" t="s">
+        <v>1746</v>
+      </c>
+      <c r="N215" s="5" t="n">
+        <v>7724740330</v>
+      </c>
+      <c r="O215" s="5" t="s">
+        <v>1747</v>
+      </c>
+      <c r="P215" s="5" t="s">
+        <v>1748</v>
+      </c>
+      <c r="Q215" s="5" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="5" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D216" s="11" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="E216" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="F216" s="3" t="n">
+        <v>44713</v>
+      </c>
+      <c r="G216" s="3" t="n">
+        <v>44523</v>
+      </c>
+      <c r="H216" s="3" t="n">
+        <v>44522</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J216" s="5" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K216" s="5" t="n">
+        <v>7704077771</v>
+      </c>
+      <c r="L216" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="M216" s="5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="N216" s="5" t="n">
+        <v>7723717219</v>
+      </c>
+      <c r="O216" s="5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="P216" s="5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="Q216" s="5" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="5" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D217" s="11" t="n">
+        <v>102312</v>
+      </c>
+      <c r="E217" s="3" t="n">
+        <v>44284</v>
+      </c>
+      <c r="F217" s="3" t="n">
+        <v>44651</v>
+      </c>
+      <c r="G217" s="3" t="n">
+        <v>44286</v>
+      </c>
+      <c r="H217" s="3" t="n">
+        <v>44285</v>
+      </c>
+      <c r="I217" s="5" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J217" s="5" t="s">
+        <v>1764</v>
+      </c>
+      <c r="K217" s="5" t="n">
+        <v>5032037690</v>
+      </c>
+      <c r="L217" s="5" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M217" s="5" t="s">
+        <v>1766</v>
+      </c>
+      <c r="N217" s="5" t="n">
+        <v>7721796399</v>
+      </c>
+      <c r="O217" s="5" t="s">
+        <v>1767</v>
+      </c>
+      <c r="P217" s="5" t="n">
+        <v>79254930594</v>
+      </c>
+      <c r="Q217" s="5" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="5" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D218" s="11" t="n">
+        <v>825000</v>
+      </c>
+      <c r="E218" s="3" t="n">
+        <v>44242</v>
+      </c>
+      <c r="F218" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G218" s="3" t="n">
+        <v>44244</v>
+      </c>
+      <c r="H218" s="3" t="n">
+        <v>44495</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J218" s="5" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K218" s="5" t="n">
+        <v>7727061249</v>
+      </c>
+      <c r="L218" s="5" t="s">
+        <v>1773</v>
+      </c>
+      <c r="M218" s="5" t="s">
+        <v>1774</v>
+      </c>
+      <c r="N218" s="5" t="n">
+        <v>5044075147</v>
+      </c>
+      <c r="O218" s="5" t="s">
+        <v>1775</v>
+      </c>
+      <c r="P218" s="5" t="s">
+        <v>1776</v>
+      </c>
+      <c r="Q218" s="5" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="5" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D219" s="11" t="n">
+        <v>1616800</v>
+      </c>
+      <c r="E219" s="3" t="n">
+        <v>44509</v>
+      </c>
+      <c r="F219" s="3" t="n">
+        <v>44553</v>
+      </c>
+      <c r="G219" s="3" t="n">
+        <v>44511</v>
+      </c>
+      <c r="H219" s="3" t="n">
+        <v>44511</v>
+      </c>
+      <c r="I219" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="J219" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="K219" s="5" t="n">
+        <v>5009061310</v>
+      </c>
+      <c r="L219" s="5" t="s">
+        <v>1781</v>
+      </c>
+      <c r="M219" s="5" t="s">
+        <v>1782</v>
+      </c>
+      <c r="N219" s="5" t="n">
+        <v>5948062247</v>
+      </c>
+      <c r="O219" s="5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="P219" s="5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="Q219" s="5" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D220" s="11" t="n">
+        <v>552736.8</v>
+      </c>
+      <c r="E220" s="3" t="n">
+        <v>44361</v>
+      </c>
+      <c r="F220" s="3" t="n">
+        <v>45138</v>
+      </c>
+      <c r="G220" s="3" t="n">
+        <v>44365</v>
+      </c>
+      <c r="H220" s="3" t="n">
+        <v>44365</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="J220" s="5" t="s">
+        <v>1790</v>
+      </c>
+      <c r="K220" s="5" t="n">
+        <v>7713757043</v>
+      </c>
+      <c r="L220" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="M220" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="N220" s="5" t="n">
+        <v>344809290047</v>
+      </c>
+      <c r="O220" s="5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="P220" s="5" t="s">
+        <v>1794</v>
+      </c>
+      <c r="Q220" s="5" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="5" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D221" s="11" t="n">
+        <v>230000</v>
+      </c>
+      <c r="E221" s="3" t="n">
+        <v>44435</v>
+      </c>
+      <c r="F221" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G221" s="3" t="n">
+        <v>44435</v>
+      </c>
+      <c r="H221" s="3" t="n">
+        <v>44435</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>1799</v>
+      </c>
+      <c r="J221" s="5" t="s">
+        <v>1800</v>
+      </c>
+      <c r="K221" s="5" t="n">
+        <v>5074035310</v>
+      </c>
+      <c r="L221" s="5" t="s">
+        <v>1801</v>
+      </c>
+      <c r="M221" s="5" t="s">
+        <v>1802</v>
+      </c>
+      <c r="N221" s="5" t="n">
+        <v>7802790638</v>
+      </c>
+      <c r="O221" s="5" t="s">
+        <v>1803</v>
+      </c>
+      <c r="P221" s="5" t="s">
+        <v>1804</v>
+      </c>
+      <c r="Q221" s="5" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="5" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D222" s="11" t="n">
+        <v>1985719.83</v>
+      </c>
+      <c r="E222" s="3" t="n">
+        <v>44487</v>
+      </c>
+      <c r="F222" s="3" t="n">
+        <v>44536</v>
+      </c>
+      <c r="G222" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="H222" s="3" t="n">
+        <v>44488</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J222" s="5" t="s">
+        <v>1810</v>
+      </c>
+      <c r="K222" s="5" t="n">
+        <v>7728045419</v>
+      </c>
+      <c r="L222" s="5" t="s">
+        <v>1811</v>
+      </c>
+      <c r="M222" s="5" t="s">
+        <v>1812</v>
+      </c>
+      <c r="N222" s="5" t="n">
+        <v>22003091813</v>
+      </c>
+      <c r="O222" s="5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="P222" s="5" t="s">
+        <v>1814</v>
+      </c>
+      <c r="Q222" s="5" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D223" s="11" t="n">
+        <v>705966.69</v>
+      </c>
+      <c r="E223" s="3" t="n">
+        <v>44351</v>
+      </c>
+      <c r="F223" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G223" s="3" t="n">
+        <v>44351</v>
+      </c>
+      <c r="H223" s="3" t="n">
+        <v>44351</v>
+      </c>
+      <c r="I223" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="K223" s="5" t="n">
+        <v>5032211780</v>
+      </c>
+      <c r="L223" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="M223" s="5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="N223" s="5" t="n">
+        <v>772586159444</v>
+      </c>
+      <c r="O223" s="5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P223" s="5" t="s">
+        <v>1824</v>
+      </c>
+      <c r="Q223" s="5" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="5" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D224" s="11" t="n">
+        <v>223775</v>
+      </c>
+      <c r="E224" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="F224" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G224" s="3" t="n">
+        <v>44490</v>
+      </c>
+      <c r="H224" s="3" t="n">
+        <v>44529</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J224" s="5" t="s">
+        <v>1830</v>
+      </c>
+      <c r="K224" s="5" t="n">
+        <v>5038077033</v>
+      </c>
+      <c r="L224" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="M224" s="5" t="s">
+        <v>1832</v>
+      </c>
+      <c r="N224" s="5" t="n">
+        <v>6230101124</v>
+      </c>
+      <c r="O224" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="P224" s="5" t="s">
+        <v>1834</v>
+      </c>
+      <c r="Q224" s="5" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="5" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>1838</v>
+      </c>
+      <c r="D225" s="11" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E225" s="3" t="n">
+        <v>44490</v>
+      </c>
+      <c r="F225" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G225" s="3" t="n">
+        <v>44490</v>
+      </c>
+      <c r="H225" s="3" t="n">
+        <v>44516</v>
+      </c>
+      <c r="I225" s="5" t="s">
+        <v>1839</v>
+      </c>
+      <c r="J225" s="5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K225" s="5" t="n">
+        <v>5018051823</v>
+      </c>
+      <c r="L225" s="5" t="s">
+        <v>1841</v>
+      </c>
+      <c r="M225" s="5" t="s">
+        <v>1842</v>
+      </c>
+      <c r="N225" s="5" t="n">
+        <v>9715386528</v>
+      </c>
+      <c r="O225" s="5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="P225" s="5" t="s">
+        <v>1844</v>
+      </c>
+      <c r="Q225" s="5" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="5" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D226" s="11" t="n">
+        <v>2600040</v>
+      </c>
+      <c r="E226" s="3" t="n">
+        <v>44247</v>
+      </c>
+      <c r="F226" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G226" s="3" t="n">
+        <v>44251</v>
+      </c>
+      <c r="H226" s="3" t="n">
+        <v>44405</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J226" s="5" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K226" s="5" t="n">
+        <v>7727061249</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>1848</v>
+      </c>
+      <c r="M226" s="5" t="s">
+        <v>1849</v>
+      </c>
+      <c r="N226" s="5" t="n">
+        <v>5034017883</v>
+      </c>
+      <c r="O226" s="5" t="s">
+        <v>1850</v>
+      </c>
+      <c r="P226" s="5" t="s">
+        <v>1851</v>
+      </c>
+      <c r="Q226" s="5" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="5" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D227" s="11" t="n">
+        <v>282143.47</v>
+      </c>
+      <c r="E227" s="3" t="n">
+        <v>44502</v>
+      </c>
+      <c r="F227" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G227" s="3" t="n">
+        <v>44503</v>
+      </c>
+      <c r="H227" s="3" t="n">
+        <v>44502</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J227" s="5" t="s">
+        <v>1857</v>
+      </c>
+      <c r="K227" s="5" t="n">
+        <v>5031070286</v>
+      </c>
+      <c r="L227" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="M227" s="5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N227" s="5" t="n">
+        <v>132401574946</v>
+      </c>
+      <c r="O227" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="P227" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="Q227" s="5" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D228" s="11" t="n">
+        <v>2990000</v>
+      </c>
+      <c r="E228" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="F228" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G228" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="H228" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J228" s="5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K228" s="5" t="n">
+        <v>7706055854</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="M228" s="5" t="s">
+        <v>1869</v>
+      </c>
+      <c r="N228" s="5" t="n">
+        <v>770803559343</v>
+      </c>
+      <c r="O228" s="5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P228" s="5" t="s">
+        <v>1870</v>
+      </c>
+      <c r="Q228" s="5" t="s">
+        <v>1871</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1916">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -5636,6 +5636,138 @@
   </si>
   <si>
     <t xml:space="preserve">s-d2008@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502406865621001705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024068656 21 001705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "ДИРЕКЦИЯ ЕДИНОГО ЗАКАЗЧИКА МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ МО "ДЕЗ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГРИН ЛАЙФ ЦЕНТР" (ООО "ГРИН ЛАЙФ ЦЕНТР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">themiesha@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770802123320000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17708021233 20 000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ПОЛИКЛИНИКА № 3" УПРАВЛЕНИЯ ДЕЛАМИ ПРЕЗИДЕНТА РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ПОЛИКЛИНИКА № 3"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОКТО ГРУП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОКТО ГРУП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ОКТО ГРУП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141407, ОБЛ МОСКОВСКАЯ 50, Г ХИМКИ, ПР-КТ ЮБИЛЕЙНЫЙ, ДОМ 36А, ОФИС 105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-6645519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office@octogroup.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500700347221000041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25007003472 21 000041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ПСИХИАТРИЧЕСКАЯ БОЛЬНИЦА № 9"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "ПБ № 9"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЕМОНТ" (ООО "АЛЕМОНТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛЕМОНТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109462, Г МОСКВА 77, УЛ ЮНЫХ ЛЕНИНЦЕВ, ДОМ 34, КВАРТИРА 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-1255454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo.alemont@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770989550921004297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17709895509 21 004297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГАРАНТ-СЕРВИС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГАРАНТ-СЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГАРАНТ-СЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143900, Область Московская 50, Город Балашиха, Улица Трубецкая, 50А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-3508314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gs-bal@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504101226921000074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15041012269 21 000074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФЕНИКС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФЕНИКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФЕНИКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360004, РЕСП КАБАРДИНО-БАЛКАРСКАЯ 07, Г. Нальчик, УЛ. ТУРГЕНЕВА, ЗД. 21, ОФИС 112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-928-7038678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feniks07kbr@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -5791,10 +5923,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q228"/>
+  <dimension ref="A1:Q234"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A211" activeCellId="0" sqref="211:211"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A229" activeCellId="0" sqref="229:229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16078,7 +16210,7 @@
       <c r="C212" s="5" t="s">
         <v>1715</v>
       </c>
-      <c r="D212" s="11" t="n">
+      <c r="D212" s="2" t="n">
         <v>243532.41</v>
       </c>
       <c r="E212" s="3" t="n">
@@ -16131,7 +16263,7 @@
       <c r="C213" s="5" t="s">
         <v>1723</v>
       </c>
-      <c r="D213" s="11" t="n">
+      <c r="D213" s="2" t="n">
         <v>2804632.52</v>
       </c>
       <c r="E213" s="3" t="n">
@@ -16184,7 +16316,7 @@
       <c r="C214" s="5" t="s">
         <v>1732</v>
       </c>
-      <c r="D214" s="11" t="n">
+      <c r="D214" s="2" t="n">
         <v>2160000</v>
       </c>
       <c r="E214" s="3" t="n">
@@ -16237,7 +16369,7 @@
       <c r="C215" s="5" t="s">
         <v>1742</v>
       </c>
-      <c r="D215" s="11" t="n">
+      <c r="D215" s="2" t="n">
         <v>11744940.2</v>
       </c>
       <c r="E215" s="3" t="n">
@@ -16290,7 +16422,7 @@
       <c r="C216" s="5" t="s">
         <v>1752</v>
       </c>
-      <c r="D216" s="11" t="n">
+      <c r="D216" s="2" t="n">
         <v>3700000</v>
       </c>
       <c r="E216" s="3" t="n">
@@ -16343,7 +16475,7 @@
       <c r="C217" s="5" t="s">
         <v>1762</v>
       </c>
-      <c r="D217" s="11" t="n">
+      <c r="D217" s="2" t="n">
         <v>102312</v>
       </c>
       <c r="E217" s="3" t="n">
@@ -16396,7 +16528,7 @@
       <c r="C218" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="D218" s="11" t="n">
+      <c r="D218" s="2" t="n">
         <v>825000</v>
       </c>
       <c r="E218" s="3" t="n">
@@ -16449,7 +16581,7 @@
       <c r="C219" s="5" t="s">
         <v>1780</v>
       </c>
-      <c r="D219" s="11" t="n">
+      <c r="D219" s="2" t="n">
         <v>1616800</v>
       </c>
       <c r="E219" s="3" t="n">
@@ -16502,7 +16634,7 @@
       <c r="C220" s="5" t="s">
         <v>1788</v>
       </c>
-      <c r="D220" s="11" t="n">
+      <c r="D220" s="2" t="n">
         <v>552736.8</v>
       </c>
       <c r="E220" s="3" t="n">
@@ -16555,7 +16687,7 @@
       <c r="C221" s="5" t="s">
         <v>1798</v>
       </c>
-      <c r="D221" s="11" t="n">
+      <c r="D221" s="2" t="n">
         <v>230000</v>
       </c>
       <c r="E221" s="3" t="n">
@@ -16608,7 +16740,7 @@
       <c r="C222" s="5" t="s">
         <v>1808</v>
       </c>
-      <c r="D222" s="11" t="n">
+      <c r="D222" s="2" t="n">
         <v>1985719.83</v>
       </c>
       <c r="E222" s="3" t="n">
@@ -16661,7 +16793,7 @@
       <c r="C223" s="5" t="s">
         <v>1818</v>
       </c>
-      <c r="D223" s="11" t="n">
+      <c r="D223" s="2" t="n">
         <v>705966.69</v>
       </c>
       <c r="E223" s="3" t="n">
@@ -16714,7 +16846,7 @@
       <c r="C224" s="5" t="s">
         <v>1828</v>
       </c>
-      <c r="D224" s="11" t="n">
+      <c r="D224" s="2" t="n">
         <v>223775</v>
       </c>
       <c r="E224" s="3" t="n">
@@ -16767,7 +16899,7 @@
       <c r="C225" s="5" t="s">
         <v>1838</v>
       </c>
-      <c r="D225" s="11" t="n">
+      <c r="D225" s="2" t="n">
         <v>220000</v>
       </c>
       <c r="E225" s="3" t="n">
@@ -16820,7 +16952,7 @@
       <c r="C226" s="5" t="s">
         <v>1847</v>
       </c>
-      <c r="D226" s="11" t="n">
+      <c r="D226" s="2" t="n">
         <v>2600040</v>
       </c>
       <c r="E226" s="3" t="n">
@@ -16873,7 +17005,7 @@
       <c r="C227" s="5" t="s">
         <v>1855</v>
       </c>
-      <c r="D227" s="11" t="n">
+      <c r="D227" s="2" t="n">
         <v>282143.47</v>
       </c>
       <c r="E227" s="3" t="n">
@@ -16926,7 +17058,7 @@
       <c r="C228" s="5" t="s">
         <v>1865</v>
       </c>
-      <c r="D228" s="11" t="n">
+      <c r="D228" s="2" t="n">
         <v>2990000</v>
       </c>
       <c r="E228" s="3" t="n">
@@ -16967,6 +17099,276 @@
       </c>
       <c r="Q228" s="5" t="s">
         <v>1871</v>
+      </c>
+    </row>
+    <row r="229" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="6" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="5" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D230" s="11" t="n">
+        <v>250912.18</v>
+      </c>
+      <c r="E230" s="3" t="n">
+        <v>44498</v>
+      </c>
+      <c r="F230" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G230" s="3" t="n">
+        <v>44503</v>
+      </c>
+      <c r="H230" s="3" t="n">
+        <v>44532</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="J230" s="5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="K230" s="5" t="n">
+        <v>5024068656</v>
+      </c>
+      <c r="L230" s="5" t="s">
+        <v>1878</v>
+      </c>
+      <c r="M230" s="5" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N230" s="5" t="n">
+        <v>9723113980</v>
+      </c>
+      <c r="O230" s="5" t="s">
+        <v>1683</v>
+      </c>
+      <c r="P230" s="5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="Q230" s="5" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="D231" s="11" t="n">
+        <v>549823.4</v>
+      </c>
+      <c r="E231" s="3" t="n">
+        <v>44146</v>
+      </c>
+      <c r="F231" s="3" t="n">
+        <v>44610</v>
+      </c>
+      <c r="G231" s="3" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H231" s="3" t="n">
+        <v>44405</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="J231" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="K231" s="5" t="n">
+        <v>7708021233</v>
+      </c>
+      <c r="L231" s="5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="M231" s="5" t="s">
+        <v>1886</v>
+      </c>
+      <c r="N231" s="5" t="n">
+        <v>5047237188</v>
+      </c>
+      <c r="O231" s="5" t="s">
+        <v>1887</v>
+      </c>
+      <c r="P231" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="Q231" s="5" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="5" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D232" s="11" t="n">
+        <v>1501980.39</v>
+      </c>
+      <c r="E232" s="3" t="n">
+        <v>44469</v>
+      </c>
+      <c r="F232" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G232" s="3" t="n">
+        <v>44477</v>
+      </c>
+      <c r="H232" s="3" t="n">
+        <v>44476</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J232" s="5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="K232" s="5" t="n">
+        <v>5007003472</v>
+      </c>
+      <c r="L232" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="M232" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="N232" s="5" t="n">
+        <v>5018156135</v>
+      </c>
+      <c r="O232" s="5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="P232" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="Q232" s="5" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D233" s="11" t="n">
+        <v>166544.4</v>
+      </c>
+      <c r="E233" s="3" t="n">
+        <v>44452</v>
+      </c>
+      <c r="F233" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G233" s="3" t="n">
+        <v>44459</v>
+      </c>
+      <c r="H233" s="3" t="n">
+        <v>44455</v>
+      </c>
+      <c r="I233" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J233" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K233" s="5" t="n">
+        <v>7709895509</v>
+      </c>
+      <c r="L233" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="M233" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="N233" s="5" t="n">
+        <v>5001072776</v>
+      </c>
+      <c r="O233" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="P233" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="Q233" s="5" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D234" s="11" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="E234" s="3" t="n">
+        <v>44487</v>
+      </c>
+      <c r="F234" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="G234" s="3" t="n">
+        <v>44489</v>
+      </c>
+      <c r="H234" s="3" t="n">
+        <v>44487</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="K234" s="5" t="n">
+        <v>5041012269</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>1911</v>
+      </c>
+      <c r="M234" s="5" t="s">
+        <v>1912</v>
+      </c>
+      <c r="N234" s="5" t="n">
+        <v>725030073</v>
+      </c>
+      <c r="O234" s="5" t="s">
+        <v>1913</v>
+      </c>
+      <c r="P234" s="5" t="s">
+        <v>1914</v>
+      </c>
+      <c r="Q234" s="5" t="s">
+        <v>1915</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="2124">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -5768,6 +5768,630 @@
   </si>
   <si>
     <t xml:space="preserve">feniks07kbr@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502400207721000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024002077 21 000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">585 438 151,01 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ГОРОДСКОГО ОКРУГА КРАСНОГОРСК "УПРАВЛЕНИЕ КАПИТАЛЬНОГО СТРОИТЕЛЬСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "УКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙ ГРУПП" (ООО "СТРОЙ ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙ ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770500102021000051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705001020 21 000051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 550 277,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "РОССИЙСКИЙ ГОСУДАРСТВЕННЫЙ УНИВЕРСИТЕТ ИМ. А.Н. КОСЫГИНА (ТЕХНОЛОГИИ. ДИЗАЙН. ИСКУССТВО)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБОУ ВО "РГУ ИМ. А.Н. КОСЫГИНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВОЛНА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВОЛНА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВОЛНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236039, ОБЛ КАЛИНИНГРАДСКАЯ 39, Г КАЛИНИНГРАД, УЛ БАГРАТИОНА, ДОМ 98, КВАРТИРА 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-901-3649138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kirrsam@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503107821420000068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35031078214 20 000068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 847 887,80 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА АДМИНИСТРАЦИИ БОГОРОДСКОГО ГОРОДСКОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ ЖКХ АДМИНИСТРАЦИИ БОГОРОДСКОГО ГОРОДСКОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКОСТРОЙИНВЕСТ" (ООО "ЭКОСТРОЙИНВЕСТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭКОСТРОЙИНВЕСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142100, Московская область, г.Подольск, ул.Комсомольская, д.1, этаж 9, оф.911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-2572069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office@eco-si.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772913835221000066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17729138352 21 000066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЁННОЕ УЧРЕЖДЕНИЕ "ВОЙСКОВАЯ ЧАСТЬ 95006"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ВОЙСКОВАЯ ЧАСТЬ 95006"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЦДО ПРОФСТАНДАРТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЦДО ПРОФСТАНДАРТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЦДО ПРОФСТАНДАРТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">644122, ОБЛ. ОМСКАЯ 55, Г. Омск, УЛ ВОЛХОВСТРОЯ, Д. 24, КВ. 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-3812-382280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@profstand.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503107821420000064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35031078214 20 000064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 276 439,49 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503107821420000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35031078214 20 000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 943 377,05 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.08.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.08.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770599041620000157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27705990416 20 000157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 006 109,09 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "МОСКОВСКИЙ ЦЕНТР НЕДВИЖИМОСТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ "МОСКОВСКИЙ ЦЕНТР НЕДВИЖИМОСТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РАДСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РАДСТРОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Москва, МОСКВА, "ЭЛЕКТРОДНАЯ ул, ДОМ 2 корп стр 12-13-14, оф ЭТ. 3 ПОМ.IV КОМ.16 ОФ.67"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (999) 967-18-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender-radstroi@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772706124921000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17727061249 21 000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">860 867,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОМЕД" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОМЕД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПРОМЕД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195009, Г. САНКТ-ПЕТЕРБУРГ 78, УЛ. КОМСОМОЛА, Д. 1-3, ЛИТЕРА АР, ПОМЕЩ. ЧАСТЬ 9-Н (Ч.П. 1,2,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-911-2845270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo.promed@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502205220221000099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25022052202 21 000099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">696 444,80 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "КОЛОМЕНСКИЙ ПЕРИНАТАЛЬНЫЙ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "КПЦ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИДОРЕНКО СОФЬЯ ВИТАЛЬЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП СИДОРЕНКО СОФЬЯ ВИТАЛЬЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ. МОСКОВСКАЯ 50, Г. КАШИРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-917-5505225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iulia.sid@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770407612921000089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704076129 21 000089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 196 215,97 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ДИРЕКЦИЯ РАЗВИТИЯ ОБЪЕКТОВ ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ "ДИРЕКЦИЯ РАЗВИТИЯ ОБЪЕКТОВ ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕМСТРОЙГАРАНТ" (ООО "РЕМСТРОЙГАРАНТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕМСТРОЙГАРАНТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121596, Г МОСКВА 77, УЛ ГОРБУНОВА, ДОМ 2, СТРОЕНИЕ 3, ЭТ/КОМ/ОФ 8/38Д/67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (499) 193-54-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsg2010@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773422302820000554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734223028 20 000554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 665 573,84 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ИНФОРМАЦИОННО-МЕТОДИЧЕСКИЙ ЦЕНТР ПО ЭКСПЕРТИЗЕ, УЧЕТУ И АНАЛИЗУ ОБРАЩЕНИЯ СРЕДСТВ МЕДИЦИНСКОГО ПРИМЕНЕНИЯ" ФЕДЕРАЛЬНОЙ СЛУЖБЫ ПО НАДЗОРУ В СФЕРЕ ЗДРАВООХРАНЕНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ИМЦЭУАОСМП" РОСЗДРАВНАДЗОРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ЭВЕНТ-БЕЗОПАСНОСТЬ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ЭВЕНТ-БЕЗОПАСНОСТЬ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ЭВЕНТ-БЕЗОПАСНОСТЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354340, КРАЙ КРАСНОДАРСКИЙ 23, Г СОЧИ, ПЕР ЕРЕВАНСКИЙ, ДОМ 8, КОРПУС А, ЛИТЕР А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-938-8693405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">event.bezopasnost@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2501100593021000040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25011005930 21 000040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 814 087,37 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ СТАЦИОНАРНОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ МОСКОВСКОЙ ОБЛАСТИ "КОЛЫЧЕВСКИЙ ПСИХОНЕВРОЛОГИЧЕСКИЙ ИНТЕРНАТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБСУСО МО КПНИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГОРОДСКИЕ СТРОИТЕЛЬНЫЕ ТЕХНОЛОГИИ" (ООО "ГОСТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГОСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630129, ОБЛ НОВОСИБИРСКАЯ 54, Г НОВОСИБИРСК, УЛ ТАЙГИНСКАЯ, ДОМ 13/1, ОФИС 306-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-923-6038308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gost-54@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770407612921000103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704076129 21 000103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 981 530,58 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770407612921000113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704076129 21 000113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 398 656,79 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770407612921000077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704076129 21 000077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 161 793,18 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500503885721000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35005038857 21 000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">951 263,26 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ УЧРЕЖДЕНИЕ "ВОСКРЕСЕНСКИЙ КООРДИНАЦИОННО-МЕТОДИЧЕСКИЙ ЦЕНТР КУЛЬТУРЫ И ТВОРЧЕСТВА "ИСТОКИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУ "ВКМЦК И Т "ИСТОКИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕНЬКОВА АНАСТАСИЯ АЛЕКСАНДРОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП СЕНЬКОВА АНАСТАСИЯ АЛЕКСАНДРОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-1284864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasti.may@ya.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502413702821000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024137028 21 000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 112 940,81 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "МНОГОФУНКЦИОНАЛЬНЫЙ ЦЕНТР ПРЕДОСТАВЛЕНИЯ ГОСУДАРСТВЕННЫХ И МУНИЦИПАЛЬНЫХ УСЛУГ ГОРОДСКОГО ОКРУГА КРАСНОГОРСК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "МФЦ ГО КРАСНОГОРСК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДОРМОСТИЗЫСКАНИЯ" (ООО "ДОРМОСТИЗЫСКАНИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДОРМОСТИЗЫСКАНИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">394053, ОБЛ. ВОРОНЕЖСКАЯ 36, Г. Воронеж, МКР. ЖИЛОЙ МАССИВ ОЛИМПИЙСКИЙ, Д. 3, КВ. 419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dormostiz@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500800007221000142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25008000072 21 000142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84 206,39 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ДОЛГОПРУДНЕНСКАЯ ЦЕНТРАЛЬНАЯ ГОРОДСКАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "ДЦГБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬФА БРОКЕР КОНСАЛТИНГ" (ООО "А Б К")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "А Б К"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504100148221000167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35041001482 21 000167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 952 039,78 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА РЕУТОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДА РЕУТОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОДУЛЬ ЭКСКЛЮЗИВ" (ООО "МОДУЛЬ ЭКСКЛЮЗИВ")</t>
   </si>
 </sst>
 </file>
@@ -5778,7 +6402,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -5902,7 +6526,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5923,10 +6547,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q234"/>
+  <dimension ref="A1:Q254"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A229" activeCellId="0" sqref="229:229"/>
+      <selection pane="topLeft" activeCell="A235" activeCellId="0" sqref="235:235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17116,7 +17740,7 @@
       <c r="C230" s="5" t="s">
         <v>1875</v>
       </c>
-      <c r="D230" s="11" t="n">
+      <c r="D230" s="2" t="n">
         <v>250912.18</v>
       </c>
       <c r="E230" s="3" t="n">
@@ -17169,7 +17793,7 @@
       <c r="C231" s="5" t="s">
         <v>1882</v>
       </c>
-      <c r="D231" s="11" t="n">
+      <c r="D231" s="2" t="n">
         <v>549823.4</v>
       </c>
       <c r="E231" s="3" t="n">
@@ -17222,7 +17846,7 @@
       <c r="C232" s="5" t="s">
         <v>1892</v>
       </c>
-      <c r="D232" s="11" t="n">
+      <c r="D232" s="2" t="n">
         <v>1501980.39</v>
       </c>
       <c r="E232" s="3" t="n">
@@ -17275,7 +17899,7 @@
       <c r="C233" s="5" t="s">
         <v>1902</v>
       </c>
-      <c r="D233" s="11" t="n">
+      <c r="D233" s="2" t="n">
         <v>166544.4</v>
       </c>
       <c r="E233" s="3" t="n">
@@ -17328,7 +17952,7 @@
       <c r="C234" s="5" t="s">
         <v>1910</v>
       </c>
-      <c r="D234" s="11" t="n">
+      <c r="D234" s="2" t="n">
         <v>2200000</v>
       </c>
       <c r="E234" s="3" t="n">
@@ -17369,15 +17993,1021 @@
       </c>
       <c r="Q234" s="5" t="s">
         <v>1915</v>
+      </c>
+    </row>
+    <row r="235" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="6" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="5" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F236" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G236" s="11" t="s">
+        <v>1921</v>
+      </c>
+      <c r="H236" s="11" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>1924</v>
+      </c>
+      <c r="J236" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="K236" s="5" t="n">
+        <v>5024210479</v>
+      </c>
+      <c r="L236" s="5" t="s">
+        <v>1926</v>
+      </c>
+      <c r="M236" s="5" t="s">
+        <v>1927</v>
+      </c>
+      <c r="N236" s="5" t="n">
+        <v>5024168072</v>
+      </c>
+      <c r="O236" s="5"/>
+      <c r="P236" s="5"/>
+      <c r="Q236" s="5"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="D237" s="11" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F237" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G237" s="11" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H237" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I237" s="5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J237" s="5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="K237" s="5" t="n">
+        <v>7705001020</v>
+      </c>
+      <c r="L237" s="5" t="s">
+        <v>1937</v>
+      </c>
+      <c r="M237" s="5" t="s">
+        <v>1938</v>
+      </c>
+      <c r="N237" s="5" t="n">
+        <v>3906336615</v>
+      </c>
+      <c r="O237" s="5" t="s">
+        <v>1939</v>
+      </c>
+      <c r="P237" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="Q237" s="5" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F238" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G238" s="11" t="s">
+        <v>1946</v>
+      </c>
+      <c r="H238" s="11" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I238" s="5" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="K238" s="5" t="n">
+        <v>5031078214</v>
+      </c>
+      <c r="L238" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="M238" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="N238" s="5" t="n">
+        <v>7729715680</v>
+      </c>
+      <c r="O238" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="P238" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="Q238" s="5" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F239" s="11" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G239" s="11" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H239" s="11" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J239" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="K239" s="5" t="n">
+        <v>7729138352</v>
+      </c>
+      <c r="L239" s="5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="M239" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="N239" s="5" t="n">
+        <v>5504067268</v>
+      </c>
+      <c r="O239" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="P239" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="Q239" s="5" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F240" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G240" s="11" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H240" s="11" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J240" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="K240" s="5" t="n">
+        <v>5031078214</v>
+      </c>
+      <c r="L240" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="M240" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="N240" s="5" t="n">
+        <v>7729715680</v>
+      </c>
+      <c r="O240" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="P240" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="Q240" s="5" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>1979</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F241" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G241" s="11" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H241" s="11" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I241" s="5" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J241" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="K241" s="5" t="n">
+        <v>5031078214</v>
+      </c>
+      <c r="L241" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="M241" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="N241" s="5" t="n">
+        <v>7729715680</v>
+      </c>
+      <c r="O241" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="P241" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="Q241" s="5" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D242" s="11" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F242" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G242" s="11" t="s">
+        <v>1987</v>
+      </c>
+      <c r="H242" s="11" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J242" s="5" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K242" s="5" t="n">
+        <v>7705990416</v>
+      </c>
+      <c r="L242" s="5" t="s">
+        <v>1990</v>
+      </c>
+      <c r="M242" s="5" t="s">
+        <v>1991</v>
+      </c>
+      <c r="N242" s="5" t="n">
+        <v>7720643400</v>
+      </c>
+      <c r="O242" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="P242" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="Q242" s="5" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D243" s="11" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E243" s="11" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G243" s="11" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H243" s="11" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I243" s="5" t="s">
+        <v>1771</v>
+      </c>
+      <c r="J243" s="5" t="s">
+        <v>1772</v>
+      </c>
+      <c r="K243" s="5" t="n">
+        <v>7727061249</v>
+      </c>
+      <c r="L243" s="5" t="s">
+        <v>2001</v>
+      </c>
+      <c r="M243" s="5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="N243" s="5" t="n">
+        <v>7839127949</v>
+      </c>
+      <c r="O243" s="5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="P243" s="5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="Q243" s="5" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="5" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>2009</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G244" s="11" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H244" s="11" t="s">
+        <v>2011</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>2012</v>
+      </c>
+      <c r="J244" s="5" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K244" s="5" t="n">
+        <v>5022052202</v>
+      </c>
+      <c r="L244" s="5" t="s">
+        <v>2014</v>
+      </c>
+      <c r="M244" s="5" t="s">
+        <v>2015</v>
+      </c>
+      <c r="N244" s="5" t="n">
+        <v>501905335351</v>
+      </c>
+      <c r="O244" s="5" t="s">
+        <v>2016</v>
+      </c>
+      <c r="P244" s="5" t="s">
+        <v>2017</v>
+      </c>
+      <c r="Q244" s="5" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="5" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F245" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G245" s="11" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H245" s="11" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I245" s="5" t="s">
+        <v>2025</v>
+      </c>
+      <c r="J245" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K245" s="5" t="n">
+        <v>7704076129</v>
+      </c>
+      <c r="L245" s="5" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M245" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="N245" s="5" t="n">
+        <v>7733721976</v>
+      </c>
+      <c r="O245" s="5" t="s">
+        <v>2029</v>
+      </c>
+      <c r="P245" s="5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="Q245" s="5" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="5" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>2034</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>2035</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G246" s="11" t="s">
+        <v>2038</v>
+      </c>
+      <c r="H246" s="11" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J246" s="5" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K246" s="5" t="n">
+        <v>7734223028</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>2042</v>
+      </c>
+      <c r="M246" s="5" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N246" s="5" t="n">
+        <v>2367005783</v>
+      </c>
+      <c r="O246" s="5" t="s">
+        <v>2044</v>
+      </c>
+      <c r="P246" s="5" t="s">
+        <v>2045</v>
+      </c>
+      <c r="Q246" s="5" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="5" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>2049</v>
+      </c>
+      <c r="D247" s="11" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F247" s="11" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G247" s="11" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H247" s="11" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I247" s="5" t="s">
+        <v>2054</v>
+      </c>
+      <c r="J247" s="5" t="s">
+        <v>2055</v>
+      </c>
+      <c r="K247" s="5" t="n">
+        <v>5011005930</v>
+      </c>
+      <c r="L247" s="5" t="s">
+        <v>2056</v>
+      </c>
+      <c r="M247" s="5" t="s">
+        <v>2057</v>
+      </c>
+      <c r="N247" s="5" t="n">
+        <v>5403054784</v>
+      </c>
+      <c r="O247" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="P247" s="5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="Q247" s="5" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="5" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D248" s="11" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G248" s="11" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H248" s="11" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>2025</v>
+      </c>
+      <c r="J248" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K248" s="5" t="n">
+        <v>7704076129</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M248" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="N248" s="5" t="n">
+        <v>7733721976</v>
+      </c>
+      <c r="O248" s="5" t="s">
+        <v>2029</v>
+      </c>
+      <c r="P248" s="5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="Q248" s="5" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="5" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D249" s="11" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F249" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G249" s="11" t="s">
+        <v>2072</v>
+      </c>
+      <c r="H249" s="11" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I249" s="5" t="s">
+        <v>2025</v>
+      </c>
+      <c r="J249" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K249" s="5" t="n">
+        <v>7704076129</v>
+      </c>
+      <c r="L249" s="5" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M249" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="N249" s="5" t="n">
+        <v>7733721976</v>
+      </c>
+      <c r="O249" s="5" t="s">
+        <v>2029</v>
+      </c>
+      <c r="P249" s="5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="Q249" s="5" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="5" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G250" s="11" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H250" s="11" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>2025</v>
+      </c>
+      <c r="J250" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K250" s="5" t="n">
+        <v>7704076129</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M250" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="N250" s="5" t="n">
+        <v>7733721976</v>
+      </c>
+      <c r="O250" s="5" t="s">
+        <v>2029</v>
+      </c>
+      <c r="P250" s="5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="Q250" s="5" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="5" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G251" s="11" t="s">
+        <v>2084</v>
+      </c>
+      <c r="H251" s="11" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I251" s="5" t="s">
+        <v>2086</v>
+      </c>
+      <c r="J251" s="5" t="s">
+        <v>2087</v>
+      </c>
+      <c r="K251" s="5" t="n">
+        <v>5005038857</v>
+      </c>
+      <c r="L251" s="5" t="s">
+        <v>2088</v>
+      </c>
+      <c r="M251" s="5" t="s">
+        <v>2089</v>
+      </c>
+      <c r="N251" s="5" t="n">
+        <v>772072328623</v>
+      </c>
+      <c r="O251" s="5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P251" s="5" t="s">
+        <v>2090</v>
+      </c>
+      <c r="Q251" s="5" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="5" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G252" s="11" t="s">
+        <v>2097</v>
+      </c>
+      <c r="H252" s="11" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="J252" s="5" t="s">
+        <v>2099</v>
+      </c>
+      <c r="K252" s="5" t="n">
+        <v>5024137028</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="M252" s="5" t="s">
+        <v>2101</v>
+      </c>
+      <c r="N252" s="5" t="n">
+        <v>3664217180</v>
+      </c>
+      <c r="O252" s="5" t="s">
+        <v>2102</v>
+      </c>
+      <c r="P252" s="5" t="n">
+        <v>79081312507</v>
+      </c>
+      <c r="Q252" s="5" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="5" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>2106</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G253" s="11" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H253" s="11" t="s">
+        <v>2109</v>
+      </c>
+      <c r="I253" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="J253" s="5" t="s">
+        <v>2111</v>
+      </c>
+      <c r="K253" s="5" t="n">
+        <v>5008000072</v>
+      </c>
+      <c r="L253" s="5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M253" s="5" t="s">
+        <v>2113</v>
+      </c>
+      <c r="N253" s="5" t="n">
+        <v>6685028171</v>
+      </c>
+      <c r="O253" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="P253" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q253" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="5" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H254" s="11" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J254" s="5" t="s">
+        <v>2122</v>
+      </c>
+      <c r="K254" s="5" t="n">
+        <v>5041001482</v>
+      </c>
+      <c r="L254" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M254" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="N254" s="5" t="n">
+        <v>7806257533</v>
+      </c>
+      <c r="O254" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P254" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="Q254" s="5" t="s">
+        <v>1561</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="2124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="2241">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -6392,6 +6392,357 @@
   </si>
   <si>
     <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОДУЛЬ ЭКСКЛЮЗИВ" (ООО "МОДУЛЬ ЭКСКЛЮЗИВ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502203733121000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35022037331 21 000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 550 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГОРОДСКАЯ РИТУАЛЬНАЯ СЛУЖБА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АБСОЛЮТ-СТРОЙ" (ООО "АБСОЛЮТ-СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АБСОЛЮТ-СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141009, ОБЛ Московская 50, Г. Мытищи, УЛ. КАРЛА МАРКСА, Д. 4, ЭТАЖ ЦОКОЛЬНЫЙ ОФИС 137 ЛИТЕРА Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-977-7023009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petrosyan@absolyt-stroy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770605585421000664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27706055854 21 000664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 566 903,51 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МГМ-ЛАБОРАТОРИЯ" (ООО "МГМ-ЛАБОРАТОРИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МГМ-ЛАБОРАТОРИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142412, ОБЛ МОСКОВСКАЯ 50, Г НОГИНСК, УЛ КЛИМОВА, ДОМ 26, ПОМЕЩЕНИЕ 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 532-54-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitean93@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773301215121000236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17733012151 21 000236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">857 291,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.04.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МГМ-ЛАБОРАТОРИЯ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МГМ-ЛАБОРАТОРИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-3568507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkm-lab@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770767119721000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707671197 21 000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 114 845,60 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПЕКТОРСТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПЕКТОРСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СПЕКТОРСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117447, Г МОСКВА 77, УЛ ВИНОКУРОВА, 20А, СТР.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-905-7771579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fadeev.spector@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504805086621000189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25048050866 21 000189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 365 558,99 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ "ПСИХИАТРИЧЕСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА № 5 ДЕПАРТАМЕНТА ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ "ПКБ № 5 ДЗМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕРРА" (ООО "ТЕРРА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕРРА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450078, РЕСП БАШКОРТОСТАН 02, Г УФА, УЛ РЕВОЛЮЦИОННАЯ, ДОМ 221, ОФИС 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (917) 793-69-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prestobusiness01@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772913833821000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17729138338 21 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 850 980,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ НАУКИ ИНСТИТУТ ПРОБЛЕМ МЕХАНИКИ ИМ. А.Ю. ИШЛИНСКОГО РОССИЙСКОЙ АКАДЕМИИ НАУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИПМЕХ РАН, ИНСТИТУТ ПРОБЛЕМ МЕХАНИКИ ИМ. А.Ю. ИШЛИНСКОГО РАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ " ПРОИЗВОДСТВЕННОЕ ОБЪЕДИНЕНИЕ "ДЕКО" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ " ПРОИЗВОДСТВЕННОЕ ОБЪЕДИНЕНИЕ "ДЕКО")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО " ПРОИЗВОДСТВЕННОЕ ОБЪЕДИНЕНИЕ "ДЕКО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">614013, КРАЙ ПЕРМСКИЙ 59, Г ПЕРМЬ, УЛ НАБЕРЕЖНАЯ 3-Я, ДОМ 44А, ОФИС 201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-919-4816730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">podeko@ya.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675389821000186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706753898 21 000186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">895 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГЛАВНЫЙ ЦЕНТР АДМИНИСТРАТИВНО-ХОЗЯЙСТВЕННОГО И ТРАНСПОРТНОГО ОБЕСПЕЧЕНИЯ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ГЦАХИТО МВД РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРНИЕЦ ИГОРЬ АНДРЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КОРНИЕЦ ИГОРЬ АНДРЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-000-0000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770605585421000640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27706055854 21 000640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 299 825,83 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХСТРОЙ" (ООО "ТЕХСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕХСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129128, Г МОСКВА 77, УЛ БАЖОВА, ДОМ 17, СТРОЕНИЕ 1, ПОМЕЩЕНИЕ 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (965) 385-00-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tehstroy2021@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 880 361,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДИДЖИТАЛ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДИДЖИТАЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДИДЖИТАЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603105, ОБЛ НИЖЕГОРОДСКАЯ 52, Г НИЖНИЙ НОВГОРОД, УЛ САЛГАНСКАЯ, ДОМ 30, ОФИС 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-831-2200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo.digital@ya.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771518673321000250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27715186733 21 000250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 357 500,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "А-ЛИГА" (ООО "А-ЛИГА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "А-ЛИГА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300028, ОБЛ ТУЛЬСКАЯ 71, Г ТУЛА, УЛ БОЛДИНА, ДОМ 106, ОФИС 11/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-5918483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A_Liga_service77@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -6547,10 +6898,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q254"/>
+  <dimension ref="A1:Q265"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A235" activeCellId="0" sqref="235:235"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A220" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A256" activeCellId="0" sqref="A256:Q265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19001,6 +19352,539 @@
         <v>1561</v>
       </c>
     </row>
+    <row r="255" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="6" t="n">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="5" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I256" s="5" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J256" s="5"/>
+      <c r="K256" s="5" t="n">
+        <v>5022037331</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>2130</v>
+      </c>
+      <c r="M256" s="5" t="s">
+        <v>2131</v>
+      </c>
+      <c r="N256" s="5" t="n">
+        <v>5029260579</v>
+      </c>
+      <c r="O256" s="5" t="s">
+        <v>2132</v>
+      </c>
+      <c r="P256" s="5" t="s">
+        <v>2133</v>
+      </c>
+      <c r="Q256" s="5" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="5" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H257" s="5" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I257" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J257" s="5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K257" s="5" t="n">
+        <v>7706055854</v>
+      </c>
+      <c r="L257" s="5" t="s">
+        <v>2143</v>
+      </c>
+      <c r="M257" s="5" t="s">
+        <v>2144</v>
+      </c>
+      <c r="N257" s="5" t="n">
+        <v>5031126789</v>
+      </c>
+      <c r="O257" s="5" t="s">
+        <v>2145</v>
+      </c>
+      <c r="P257" s="5" t="s">
+        <v>2146</v>
+      </c>
+      <c r="Q257" s="5" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="5" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>2097</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J258" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="K258" s="5" t="n">
+        <v>7733012151</v>
+      </c>
+      <c r="L258" s="5" t="s">
+        <v>2155</v>
+      </c>
+      <c r="M258" s="5" t="s">
+        <v>2144</v>
+      </c>
+      <c r="N258" s="5" t="n">
+        <v>5031126789</v>
+      </c>
+      <c r="O258" s="5" t="s">
+        <v>2145</v>
+      </c>
+      <c r="P258" s="5" t="s">
+        <v>2156</v>
+      </c>
+      <c r="Q258" s="5" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="5" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I259" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J259" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K259" s="5" t="n">
+        <v>7707671197</v>
+      </c>
+      <c r="L259" s="5" t="s">
+        <v>2163</v>
+      </c>
+      <c r="M259" s="5" t="s">
+        <v>2164</v>
+      </c>
+      <c r="N259" s="5" t="n">
+        <v>7727782755</v>
+      </c>
+      <c r="O259" s="5" t="s">
+        <v>2165</v>
+      </c>
+      <c r="P259" s="5" t="s">
+        <v>2166</v>
+      </c>
+      <c r="Q259" s="5" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="5" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>2174</v>
+      </c>
+      <c r="J260" s="5" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K260" s="5" t="n">
+        <v>5048050866</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>2176</v>
+      </c>
+      <c r="M260" s="5" t="s">
+        <v>2177</v>
+      </c>
+      <c r="N260" s="5" t="n">
+        <v>278912151</v>
+      </c>
+      <c r="O260" s="5" t="s">
+        <v>2178</v>
+      </c>
+      <c r="P260" s="5" t="s">
+        <v>2179</v>
+      </c>
+      <c r="Q260" s="5" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="5" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E261" s="5" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G261" s="5" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H261" s="5" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I261" s="5" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J261" s="5" t="s">
+        <v>2190</v>
+      </c>
+      <c r="K261" s="5" t="n">
+        <v>7729138338</v>
+      </c>
+      <c r="L261" s="5" t="s">
+        <v>2191</v>
+      </c>
+      <c r="M261" s="5" t="s">
+        <v>2192</v>
+      </c>
+      <c r="N261" s="5" t="n">
+        <v>5905283435</v>
+      </c>
+      <c r="O261" s="5" t="s">
+        <v>2193</v>
+      </c>
+      <c r="P261" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="Q261" s="5" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="5" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J262" s="5" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K262" s="5" t="n">
+        <v>7706753898</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>2204</v>
+      </c>
+      <c r="M262" s="5" t="s">
+        <v>2205</v>
+      </c>
+      <c r="N262" s="5" t="n">
+        <v>772201585903</v>
+      </c>
+      <c r="O262" s="5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P262" s="5" t="s">
+        <v>2206</v>
+      </c>
+      <c r="Q262" s="5" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="5" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>2212</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="J263" s="5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K263" s="5" t="n">
+        <v>7706055854</v>
+      </c>
+      <c r="L263" s="5" t="s">
+        <v>2213</v>
+      </c>
+      <c r="M263" s="5" t="s">
+        <v>2214</v>
+      </c>
+      <c r="N263" s="5" t="n">
+        <v>7733295118</v>
+      </c>
+      <c r="O263" s="5" t="s">
+        <v>2215</v>
+      </c>
+      <c r="P263" s="5" t="s">
+        <v>2216</v>
+      </c>
+      <c r="Q263" s="5" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="5" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>2224</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="J264" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="K264" s="5" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>2226</v>
+      </c>
+      <c r="M264" s="5" t="s">
+        <v>2227</v>
+      </c>
+      <c r="N264" s="5" t="n">
+        <v>5262374958</v>
+      </c>
+      <c r="O264" s="5" t="s">
+        <v>2228</v>
+      </c>
+      <c r="P264" s="5" t="s">
+        <v>2229</v>
+      </c>
+      <c r="Q264" s="5" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="5" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E265" s="5" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G265" s="5" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H265" s="5" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I265" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J265" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K265" s="5" t="n">
+        <v>7715186733</v>
+      </c>
+      <c r="L265" s="5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="M265" s="5" t="s">
+        <v>2237</v>
+      </c>
+      <c r="N265" s="5" t="n">
+        <v>7729497256</v>
+      </c>
+      <c r="O265" s="5" t="s">
+        <v>2238</v>
+      </c>
+      <c r="P265" s="5" t="s">
+        <v>2239</v>
+      </c>
+      <c r="Q265" s="5" t="s">
+        <v>2240</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="2241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="2360">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -6743,6 +6743,363 @@
   </si>
   <si>
     <t xml:space="preserve">A_Liga_service77@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1971006293921000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19710062939 21 000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 628 224,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНИСТЕРСТВО НАУКИ И ВЫСШЕГО ОБРАЗОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНОБРНАУКИ РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОНИТОР КОМПАНИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОНИТОР КОМПАНИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МОНИТОР КОМПАНИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192019, Г САНКТ-ПЕТЕРБУРГ 78, УЛ СЕДОВА, ДОМ 11, ЛИТЕР А, ОФИС 1018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-6333390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monco@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773614481521000201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17736144815 21 000201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 769 200,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ НАУЧНОЕ УЧРЕЖДЕНИЕ ЦЕНТРАЛЬНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА РОССИЙСКОЙ АКАДЕМИИ НАУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦКБ РАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АМПИР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АМПИР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АМПИР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119049, Г. МОСКВА 77, УЛ. МЫТНАЯ, Д. 28, СТР. 3, ЭТАЖ 1 ПОМЕЩ. 2 КОМ. 5 ОФИС 1-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-965-3336464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta44@internet.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772227138721000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722271387 21 000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273 629 597,99 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГЛАВНЫЙ ЦЕНТР ИНФОРМАЦИОННЫХ ТЕХНОЛОГИЙ ВОЙСК НАЦИОНАЛЬНОЙ ГВАРДИИ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГКУ "ГЦИТ ВОЙСК НАЦИОНАЛЬНОЙ ГВАРДИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАУЧНО-ПРОИЗВОДСТВЕННОЕ ПРЕДПРИЯТИЕ "СПЕЦИАЛЬНЫЕ ВЫЧИСЛИТЕЛЬНЫЕ КОМПЛЕКСЫ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАУЧНО-ПРОИЗВОДСТВЕННОЕ ПРЕДПРИЯТИЕ "СПЕЦИАЛЬНЫЕ ВЫЧИСЛИТЕЛЬНЫЕ КОМПЛЕКСЫ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НАУЧНО-ПРОИЗВОДСТВЕННОЕ ПРЕДПРИЯТИЕ "СПЕЦИАЛЬНЫЕ ВЫЧИСЛИТЕЛЬНЫЕ КОМПЛЕКСЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127322, Г МОСКВА 77, ПРОЕЗД ОГОРОДНЫЙ, ДОМ 20, СТРОЕНИЕ 1, ПОМЕЩЕНИЕ I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9950424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gvv@h-lan.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500305773420000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003057734 20 000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 542 246,73 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ПОСЕЛЕНИЯ ВОСКРЕСЕНСКОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УПРАВЛЯЮЩАЯ КОМПАНИЯ СТРОЙЖИЛСЕРВИС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УПРАВЛЯЮЩАЯ КОМПАНИЯ СТРОЙЖИЛСЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "УПРАВЛЯЮЩАЯ КОМПАНИЯ СТРОЙЖИЛСЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142770, Г МОСКВА 77, ПОС. СОСЕНСКОЕ, П КОММУНАРКА, ДОМ 16, КВАРТИРА 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-8177431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukcgc@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770407612920000161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704076129 20 000161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 709 674,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СК "АЛЬЯНС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СК "АЛЬЯНС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Москва, пер. Ботанический, д. 7, этаж 3, помещение I, комната 21, офис Б6Г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (909) 904-41-94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKaljans3@inmessage.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771822032621000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27718220326 21 000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181 005,84 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УДАЛЬЦОВА ЕЛИЗАВЕТА МИХАЙЛОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП УДАЛЬЦОВА ЕЛИЗАВЕТА МИХАЙЛОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender@15sb.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770709270721000050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707092707 21 000050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 931 546,68 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДИАЛАБИКС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДИАЛАБИКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДИАЛАБИКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188544, ОБЛ ЛЕНИНГРАДСКАЯ 47, Г СОСНОВЫЙ БОР, УЛ СОЛНЕЧНАЯ, 43, 2, 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-952-2284734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sales@dialabix.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773437472521000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734374725 21 000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 076 746,32 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ГИДРОСПЕЦГЕОЛОГИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ГИДРОСПЕЦГЕОЛОГИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ГВАРДИЯ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ГВАРДИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ГВАРДИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117405, Г МОСКВА 77, УЛ КИРПИЧНЫЕ ВЫЕМКИ, ДОМ 2, КОРПУС 1, ЭТ 2 ПОМ X КОМ 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-7716363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vorobiev.63@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770213206421000187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27702132064 21 000187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 359 347,66 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.06.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "СТАНЦИЯ СКОРОЙ И НЕОТЛОЖНОЙ МЕДИЦИНСКОЙ ПОМОЩИ ИМ. А.С. ПУЧКОВА" ДЕПАРТАМЕНТА ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СС И НМП ИМ. А.С. ПУЧКОВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАЙОРОВ ВАСИЛИЙ ВИКТОРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП МАЙОРОВ ВАСИЛИЙ ВИКТОРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (925) 756-45-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servistorg88@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504302135721000086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35043021357 21 000086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 668,48 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "СЕРПУХОВСКАЯ СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА №2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "СТОМАТОЛОГИЯ №2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОЛСТОУСОВ СЕРГЕЙ ВЛАДИМИРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ТОЛСТОУСОВ СЕРГЕЙ ВЛАДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ ХАБАРОВСКИЙ 27, Р-Н ХАБАРОВСКИЙ, С МИРНОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-924-1058858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rpktut@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -6898,10 +7255,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q265"/>
+  <dimension ref="A1:Q276"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A220" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A256" activeCellId="0" sqref="A256:Q265"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A238" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A266" activeCellId="0" sqref="266:266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19354,7 +19711,7 @@
     </row>
     <row r="255" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="n">
-        <v>12.13</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19883,6 +20240,539 @@
       </c>
       <c r="Q265" s="5" t="s">
         <v>2240</v>
+      </c>
+    </row>
+    <row r="266" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="6" t="n">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="5" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H267" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>2245</v>
+      </c>
+      <c r="J267" s="5" t="s">
+        <v>2246</v>
+      </c>
+      <c r="K267" s="5" t="n">
+        <v>9710062939</v>
+      </c>
+      <c r="L267" s="5" t="s">
+        <v>2247</v>
+      </c>
+      <c r="M267" s="5" t="s">
+        <v>2248</v>
+      </c>
+      <c r="N267" s="5" t="n">
+        <v>7811538498</v>
+      </c>
+      <c r="O267" s="5" t="s">
+        <v>2249</v>
+      </c>
+      <c r="P267" s="5" t="s">
+        <v>2250</v>
+      </c>
+      <c r="Q267" s="5" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="5" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>2065</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>2257</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>2258</v>
+      </c>
+      <c r="J268" s="5" t="s">
+        <v>2259</v>
+      </c>
+      <c r="K268" s="5" t="n">
+        <v>7736144815</v>
+      </c>
+      <c r="L268" s="5" t="s">
+        <v>2260</v>
+      </c>
+      <c r="M268" s="5" t="s">
+        <v>2261</v>
+      </c>
+      <c r="N268" s="5" t="n">
+        <v>9706014971</v>
+      </c>
+      <c r="O268" s="5" t="s">
+        <v>2262</v>
+      </c>
+      <c r="P268" s="5" t="s">
+        <v>2263</v>
+      </c>
+      <c r="Q268" s="5" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G269" s="5" t="s">
+        <v>2269</v>
+      </c>
+      <c r="H269" s="5" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I269" s="5" t="s">
+        <v>2271</v>
+      </c>
+      <c r="J269" s="5" t="s">
+        <v>2272</v>
+      </c>
+      <c r="K269" s="5" t="n">
+        <v>7722271387</v>
+      </c>
+      <c r="L269" s="5" t="s">
+        <v>2273</v>
+      </c>
+      <c r="M269" s="5" t="s">
+        <v>2274</v>
+      </c>
+      <c r="N269" s="5" t="n">
+        <v>7717629042</v>
+      </c>
+      <c r="O269" s="5" t="s">
+        <v>2275</v>
+      </c>
+      <c r="P269" s="5" t="s">
+        <v>2276</v>
+      </c>
+      <c r="Q269" s="5" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="5" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>2282</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>2284</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>2285</v>
+      </c>
+      <c r="J270" s="5"/>
+      <c r="K270" s="5" t="n">
+        <v>5003057734</v>
+      </c>
+      <c r="L270" s="5" t="s">
+        <v>2286</v>
+      </c>
+      <c r="M270" s="5" t="s">
+        <v>2287</v>
+      </c>
+      <c r="N270" s="5" t="n">
+        <v>7751165383</v>
+      </c>
+      <c r="O270" s="5" t="s">
+        <v>2288</v>
+      </c>
+      <c r="P270" s="5" t="s">
+        <v>2289</v>
+      </c>
+      <c r="Q270" s="5" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="5" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>2296</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>2025</v>
+      </c>
+      <c r="J271" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K271" s="5" t="n">
+        <v>7704076129</v>
+      </c>
+      <c r="L271" s="5" t="s">
+        <v>2298</v>
+      </c>
+      <c r="M271" s="5" t="s">
+        <v>2299</v>
+      </c>
+      <c r="N271" s="5" t="n">
+        <v>7702437612</v>
+      </c>
+      <c r="O271" s="5" t="s">
+        <v>2300</v>
+      </c>
+      <c r="P271" s="5" t="s">
+        <v>2301</v>
+      </c>
+      <c r="Q271" s="5" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="5" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>2305</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>2308</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="J272" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="K272" s="5" t="n">
+        <v>7718220326</v>
+      </c>
+      <c r="L272" s="5" t="s">
+        <v>2310</v>
+      </c>
+      <c r="M272" s="5" t="s">
+        <v>2311</v>
+      </c>
+      <c r="N272" s="5" t="n">
+        <v>773136117358</v>
+      </c>
+      <c r="O272" s="5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P272" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q272" s="5" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="5" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>2315</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>2316</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H273" s="5" t="s">
+        <v>2317</v>
+      </c>
+      <c r="I273" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="J273" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="K273" s="5" t="n">
+        <v>7707092707</v>
+      </c>
+      <c r="L273" s="5" t="s">
+        <v>2318</v>
+      </c>
+      <c r="M273" s="5" t="s">
+        <v>2319</v>
+      </c>
+      <c r="N273" s="5" t="n">
+        <v>4714018113</v>
+      </c>
+      <c r="O273" s="5" t="s">
+        <v>2320</v>
+      </c>
+      <c r="P273" s="5" t="s">
+        <v>2321</v>
+      </c>
+      <c r="Q273" s="5" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="5" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>2325</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>2327</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>2328</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>2329</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>2330</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>2331</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>2332</v>
+      </c>
+      <c r="K274" s="5" t="n">
+        <v>7734374725</v>
+      </c>
+      <c r="L274" s="5" t="s">
+        <v>2333</v>
+      </c>
+      <c r="M274" s="5" t="s">
+        <v>2334</v>
+      </c>
+      <c r="N274" s="5" t="n">
+        <v>7724411960</v>
+      </c>
+      <c r="O274" s="5" t="s">
+        <v>2335</v>
+      </c>
+      <c r="P274" s="5" t="s">
+        <v>2336</v>
+      </c>
+      <c r="Q274" s="5" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="5" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H275" s="5" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>2343</v>
+      </c>
+      <c r="J275" s="5" t="s">
+        <v>2344</v>
+      </c>
+      <c r="K275" s="5" t="n">
+        <v>7702132064</v>
+      </c>
+      <c r="L275" s="5" t="s">
+        <v>2345</v>
+      </c>
+      <c r="M275" s="5" t="s">
+        <v>2346</v>
+      </c>
+      <c r="N275" s="5" t="n">
+        <v>772582623753</v>
+      </c>
+      <c r="O275" s="5" t="s">
+        <v>1617</v>
+      </c>
+      <c r="P275" s="5" t="s">
+        <v>2347</v>
+      </c>
+      <c r="Q275" s="5" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="5" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>2351</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>2353</v>
+      </c>
+      <c r="J276" s="5" t="s">
+        <v>2354</v>
+      </c>
+      <c r="K276" s="5" t="n">
+        <v>5043021357</v>
+      </c>
+      <c r="L276" s="5" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M276" s="5" t="s">
+        <v>2356</v>
+      </c>
+      <c r="N276" s="5" t="n">
+        <v>280444922902</v>
+      </c>
+      <c r="O276" s="5" t="s">
+        <v>2357</v>
+      </c>
+      <c r="P276" s="5" t="s">
+        <v>2358</v>
+      </c>
+      <c r="Q276" s="5" t="s">
+        <v>2359</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="2360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="2696">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -7100,6 +7100,1014 @@
   </si>
   <si>
     <t xml:space="preserve">rpktut@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502408055821000133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024080558 21 000133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 301 150,20 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙЭНЕРГОСЕРВИС" (ООО "СТРОЙЭНЕРГОСЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙЭНЕРГОСЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105118, Г МОСКВА 77, Ш ЭНТУЗИАСТОВ, ДОМ 34, ПОМЕЩЕНИЕ 1 КОМНАТА 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s_energo_servis@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771095815021000277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27710958150 21 000277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 543 547,52 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ДОРИНВЕСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ "ДОРИНВЕСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКРТЧЯН АРТУР АВЕТИКОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП МКРТЧЯН АРТУР АВЕТИКОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (922) 670-78-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcrtchan.ar@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772800895321000280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728008953 21 000280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504 911,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ГОСУДАРСТВЕННЫЙ РЕГИОНАЛЬНЫЙ ЦЕНТР СТАНДАРТИЗАЦИИ, МЕТРОЛОГИИ И ИСПЫТАНИЙ В Г. МОСКВЕ И МОСКОВСКОЙ ОБЛАСТИ" (ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ГОСУДАРСТВЕННЫЙ РЕГИОНАЛЬНЫЙ ЦЕНТР СТАНДАРТИЗАЦИИ, МЕТРОЛОГИИ И ИСПЫТАНИЙ В Г. МОСКВЕ И МОСКОВСКОЙ ОБЛАСТИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФБУ  "ГОСУДАРСТВЕННЫЙ РЕГИОНАЛЬНЫЙ ЦЕНТР СТАНДАРТИЗАЦИИ, МЕТРОЛОГИИ И ИСПЫТАНИЙ В Г. МОСКВЕ И МОСКОВСКОЙ ОБЛАСТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117418, Г МОСКВА 77, ПР-КТ НАХИМОВСКИЙ, 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-6682741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@rostest.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770100252021000455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17701002520 21 000455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">404 124,64 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Карант Михаил АлександровичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Карант Михаил Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Область Омская 55, Город Омск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-929-3631273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771003036221000290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17710030362 21 000290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 066 220,86 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ УЧРЕЖДЕНИЕ- МОСКОВСКОЕ ОБЛАСТНОЕ РЕГИОНАЛЬНОЕ ОТДЕЛЕНИЕ ФОНДА СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГУ-МОСКОВСКОЕ ОБЛАСТНОЕ РО ФОНДА СОЦИАЛЬНОГО СТРАХОВАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киршина Марина Михайловна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киршина Марина Михайловн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">625003, Российская Федерация, Тюменская обл., г. Тюмень, ул. Чернышевского, 2Б корп. 12, 1, ОКАТО: 71401000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-3452-283108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kirshinamarina@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503800814221000241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038008142 21 000241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">929 993,82 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КЛЕВЕР БРАЗЕРС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КЛЕВЕР БРАЗЕРС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КЛЕВЕР БРАЗЕРС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191036, Г. САНКТ-ПЕТЕРБУРГ 78, УЛ. 1-Я СОВЕТСКАЯ, Д. 6, ЛИТЕРА А, ПОМЕЩЕНИЕ 25-Н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-2444900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender@cleverbros.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503800814221000246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038008142 21 000246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 261 894,38 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПЬЮТЕРНЫЕ СИСТЕМЫ СВЯЗИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПЬЮТЕРНЫЕ СИСТЕМЫ СВЯЗИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОМПЬЮТЕРНЫЕ СИСТЕМЫ СВЯЗИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125476, Г МОСКВА 77, УЛ ВАСИЛИЯ ПЕТУШКОВА, ДОМ 31, СТРОЕНИЕ 2, ЭТ. 1, ПОМ.1, КОМ.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-7401110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender@cscomputer.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773413512419000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734135124 19 000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 151 598,59 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.02.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.07.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.02.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.07.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИНАНСОВАЯ СТРОИТЕЛЬНАЯ КОМПАНИЯ ГЕНСТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФИНАНСОВАЯ СТРОИТЕЛЬНАЯ КОМПАНИЯ ГЕНСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФИНАНСОВАЯ СТРОИТЕЛЬНАЯ КОМПАНИЯ ГЕНСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772607220921000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27726072209 21 000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212 572,24 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ НЕТИПОВОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "СПОРТИВНЫЙ ИНТЕРНАТ "ЧЕРТАНОВО" ДЕПАРТАМЕНТА СПОРТА ГОРОДА МОСКВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБНОУ "СПОРТИВНЫЙ ИНТЕРНАТ "ЧЕРТАНОВО" МОСКОМСПОРТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СИСТЕМА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СИСТЕМА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">город Москва, улица Металлургов, дом 60А,  строение1, комната 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (985) 712-57-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systema11@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505007901221000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35050079012 21 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107 324,26 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИНАНСОВОЕ УПРАВЛЕНИЕ АДМИНИСТРАЦИИ ГОРОДСКОГО ОКРУГА ЩЁЛКОВО МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФИНАНСОВОЕ УПРАВЛЕНИЕ АДМИНИСТРАЦИИ ГОРОДСКОГО ОКРУГА ЩЁЛКОВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАРПАЧЕВА ИРИНА СЕРГЕЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КАРПАЧЕВА ИРИНА СЕРГЕЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ ТУЛЬСКАЯ 71, Г ЩЕКИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irino4ka_krasnova@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770302103921000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27703021039 21 000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 318 843,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АХМЕДОВ МАГОМЕД ИНДАРБИЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АХМЕДОВ МАГОМЕД ИНДАРБИЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (925) 868-88-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adamanttender@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773458113621000353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734581136 21 000353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">540 631,92 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ГОСУДАРСТВЕННЫЙ НАУЧНЫЙ ЦЕНТР РОССИЙСКОЙ ФЕДЕРАЦИИ - ФЕДЕРАЛЬНЫЙ МЕДИЦИНСКИЙ БИОФИЗИЧЕСКИЙ ЦЕНТР ИМЕНИ А.И. БУРНАЗЯНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ ГНЦ ФМБЦ ИМ. А.И. БУРНАЗЯНА ФМБА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕСНА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕСНА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВЕСНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143582, ОБЛ. МОСКОВСКАЯ 50, Г. Истра, Д. Покровское, УЛ. МАЙСКАЯ, Д. 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-1131465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trimar.opt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3501900219121000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35019002191 21 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 901 845,80 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РУССКИЕ ПРОГРАММЫ" (ООО "РУССКИЕ ПРОГРАММЫ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РУССКИЕ ПРОГРАММЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127106, Г. МОСКВА 77, ПР-Д НОВОВЛАДЫКИНСКИЙ, Д. 8, СТР. 3, ЭТАЖ 1 КОМ. 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-799-6554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v.denisov@russian-programms.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504505517521000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15045055175 21 000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">877 534,61 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦЕНТР ОБЕСПЕЧЕНИЯ ИНФОРМАЦИЕЙ "ЭНЕРГИЯ" ФЕДЕРАЛЬНОЙ СЛУЖБЫ ОХРАНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦОИ "ЭНЕРГИЯ" ФСО РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПАРТНЕР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПАРТНЕР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПАРТНЕР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170008, ОБЛ ТВЕРСКАЯ 69, Г ТВЕРЬ, УЛ ОЗЕРНАЯ, ДОМ 14, ПОМЕЩЕНИЕ 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-962-2433933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@company-partner.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=169943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770641334821000211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706413348 21 000211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">884 300,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ КОРПОРАЦИЯ ПО АТОМНОЙ ЭНЕРГИИ "РОСАТОМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСКОРПОРАЦИЯ "РОСАТОМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЗАВОД УСМК" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЗАВОД УСМК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЗАВОД УСМК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454079, ОБЛ ЧЕЛЯБИНСКАЯ 74, Г ЧЕЛЯБИНСК, УЛ САМОХИНА, ДОМ 190, ОФИС 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-351-7298999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gor@usmk74.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770544364620000053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705443646 20 000053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 300 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.05.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.07.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.05.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙ ЦЕНТР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙ ЦЕНТР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119330, Г МОСКВА 77, УЛ МОСФИЛЬМОВСКАЯ, ДОМ 17Б, ЭТ 1 ПОМ I КОМ 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8172-787292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@scscentr.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770267952321000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17702679523 21 000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 515 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ АГЕНТСТВО ПО РЫБОЛОВСТВУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОСРЫБОЛОВСТВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВАЙРЕД ИТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВАЙРЕД ИТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВАЙРЕД ИТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190121, Г. САНКТ-ПЕТЕРБУРГ 78, НАБ. КАНАЛА ГРИБОЕДОВА, Д. 148-150, ЛИТЕРА А, ПОМЕЩЕНИЕ 5Н, ОФ. 1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-6796890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">office@wired-it.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773425815821000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734258158 21 000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 294 720,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "РОССИЙСКИЙ ФОНД ИНФОРМАЦИИ ПО ПРИРОДНЫМ РЕСУРСАМ И ОХРАНЕ ОКРУЖАЮЩЕЙ СРЕДЫ МИНПРИРОДЫ РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "РФИ МИНПРИРОДЫ РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕКТОР К" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕКТОР К")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВЕКТОР К"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-968-3559513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakup@vektork.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500400389020000173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35004003890 20 000173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 173 181,78 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙ ВЕК" (ООО "СТРОЙ ВЕК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙ ВЕК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московская обл, г Домодедово, мкр Северный, ул Энергетиков, д 7А, оф 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEK-2013@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500309629021000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25003096290 21 000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 779 004,05 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 2065"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 2065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Пасечник Наталья АнатольевнаИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ИП Пасечник Наталья Анатольевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140180,Россия, Московская обл., г. Жуковский ул. Дзержинского д.6 к.2 кв. 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (964) 523-74-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipns2019@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773456475821000067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734564758 21 000067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 125 125,37 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГЛАВНОЕ БЮРО МЕДИКО-СОЦИАЛЬНОЙ ЭКСПЕРТИЗЫ ФЕДЕРАЛЬНОГО МЕДИКО-БИОЛОГИЧЕСКОГО АГЕНТСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ГБ МСЭ ФМБА РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬФА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬФА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛЬФА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354057, КРАЙ КРАСНОДАРСКИЙ 23, Г СОЧИ, ПЕР ТРУНОВА (ЦЕНТРАЛЬНЫЙ Р-Н), ДОМ 7, ОФИС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-938-4477565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post@acompa.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771091497121000079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17710914971 21 000079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 693 726,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНИСТЕРСТВО ТРУДА И СОЦИАЛЬНОЙ ЗАЩИТЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЦЕНТР ПОЖАРНОЙ БЕЗОПАСНОСТИ +" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЦЕНТР ПОЖАРНОЙ БЕЗОПАСНОСТИ +")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЦЕНТР ПОЖАРНОЙ БЕЗОПАСНОСТИ +"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141008, ОБЛ МОСКОВСКАЯ 50, Г МЫТИЩИ, ПР-КТ НОВОМЫТИЩИНСКИЙ, ДОМ 19, ОФИС 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-000-000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000@000.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773323136121000224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17733231361 21 000224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193 285,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АКСИОМА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АКСИОМА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АКСИОМА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163072, ОБЛ АРХАНГЕЛЬСКАЯ 29, Г АРХАНГЕЛЬСК, УЛ КОМСОМОЛЬСКАЯ, 49, 139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-911-5542570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aksioma29@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502206635721000126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35022066357 21 000126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 621,33 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "КОНЬКОБЕЖНЫЙ ЦЕНТР "КОЛОМНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "КОНЬКОБЕЖНЫЙ ЦЕНТР "КОЛОМНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРЕДА НИКОЛАЙ АНДРЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП СЕРЕДА НИКОЛАЙ АНДРЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ РОСТОВСКАЯ 61, Г ТАГАНРОГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500703679921000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35007036799 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "СПОРТИВНЫЙ КОМПЛЕКС "БУДЕННОВЕЦ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "СК "БУДЕННОВЕЦ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОРИСОВ ДМИТРИЙ ВЛАДИМИРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП БОРИСОВ ДМИТРИЙ ВЛАДИМИРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ БРЯНСКАЯ 32, Р-Н БРЯНСКИЙ, П ПУТЕВКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-900-366-1155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1402506283121000233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14025062831 21 000233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 989 400,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.04.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "ИНКОМА" (АКЦИОНЕРНОЕ ОБЩЕСТВО "ИНКОМА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "ИНКОМА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115088, Г МОСКВА 77, УЛ УГРЕШСКАЯ, ДОМ 2, СТРОЕНИЕ 25, ЭТ 3 ПОМ I КОМ 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9269009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@incoma.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770659360521000155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706593605 21 000155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 510 720,15 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНТЕГРА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНТЕГРА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИНТЕГРА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">429330, ЧУВАШИЯ ЧУВАШСКАЯ РЕСПУБЛИКА - 21, Г КАНАШ, УЛ РАЗИНА, 6, ПОМ. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-835-3325600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@integra.ink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770601611821000115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706016118 21 000115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590 580,99 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ УЧРЕЖДЕНИЕ-ПЕНСИОННЫЙ ФОНД РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПФР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭНЕРГИЯ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭНЕРГИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123154, Г. МОСКВА 77, Б-Р ГЕНЕРАЛА КАРБЫШЕВА, Д. 13, К. 1, ЭТ./ПОМЕЩ. 1/VI КОМ. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-928-5344114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oooenergiya77@ya.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500305712421000033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003057124 21 000033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">905 452,24 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ПОСЕЛЕНИЯ ДЕСЕНОВСКОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕКТОР ПЛЮС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕКТОР ПЛЮС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВЕКТОР ПЛЮС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109004, Г. МОСКВА 77, ПЕР. ШЕЛАПУТИНСКИЙ, Д. 1, ПОДВАЛ №0, ПОМЕЩ.I КОМ./ОФИС 1А/А1Ж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-902-1813729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solyakov27@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502408055821000141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024080558 21 000141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 433 599,04 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРЮКОВА ЕЛЕНА ВАСИЛЬЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КРЮКОВА ЕЛЕНА ВАСИЛЬЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">А.ОКР. ХАНТЫ-МАНСИЙСКИЙ АВТОНОМНЫЙ ОКРУГ - ЮГРА 86, Р-Н СУРГУТСКИЙ, ПГТ. ФЕДОРОВСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-922-6541309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inklim@inbox.ru</t>
   </si>
 </sst>
 </file>
@@ -7189,7 +8197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7238,6 +8246,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7255,10 +8267,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q276"/>
+  <dimension ref="A1:Q308"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A238" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A266" activeCellId="0" sqref="266:266"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A294" activeCellId="0" sqref="A294:Q308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20775,6 +21787,1602 @@
         <v>2359</v>
       </c>
     </row>
+    <row r="277" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="6" t="n">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="12" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>2361</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>2362</v>
+      </c>
+      <c r="D278" s="12" t="s">
+        <v>2363</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F278" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G278" s="12" t="s">
+        <v>2072</v>
+      </c>
+      <c r="H278" s="12" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I278" s="12" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J278" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K278" s="12" t="n">
+        <v>5024080558</v>
+      </c>
+      <c r="L278" s="12" t="s">
+        <v>2365</v>
+      </c>
+      <c r="M278" s="12" t="s">
+        <v>2366</v>
+      </c>
+      <c r="N278" s="12" t="n">
+        <v>7720353443</v>
+      </c>
+      <c r="O278" s="12" t="s">
+        <v>2367</v>
+      </c>
+      <c r="P278" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q278" s="12" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="12" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D279" s="12" t="s">
+        <v>2372</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F279" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G279" s="12" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H279" s="12" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I279" s="12" t="s">
+        <v>2374</v>
+      </c>
+      <c r="J279" s="12" t="s">
+        <v>2375</v>
+      </c>
+      <c r="K279" s="12" t="n">
+        <v>7710958150</v>
+      </c>
+      <c r="L279" s="12" t="s">
+        <v>2376</v>
+      </c>
+      <c r="M279" s="12" t="s">
+        <v>2377</v>
+      </c>
+      <c r="N279" s="12" t="n">
+        <v>771683264403</v>
+      </c>
+      <c r="O279" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P279" s="12" t="s">
+        <v>2378</v>
+      </c>
+      <c r="Q279" s="12" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="12" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>2381</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D280" s="12" t="s">
+        <v>2383</v>
+      </c>
+      <c r="E280" s="12" t="s">
+        <v>2384</v>
+      </c>
+      <c r="F280" s="12" t="s">
+        <v>2385</v>
+      </c>
+      <c r="G280" s="12" t="s">
+        <v>2309</v>
+      </c>
+      <c r="H280" s="12" t="s">
+        <v>2384</v>
+      </c>
+      <c r="I280" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="J280" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K280" s="12" t="n">
+        <v>7728008953</v>
+      </c>
+      <c r="L280" s="12" t="s">
+        <v>2386</v>
+      </c>
+      <c r="M280" s="12" t="s">
+        <v>2387</v>
+      </c>
+      <c r="N280" s="12" t="n">
+        <v>7727061249</v>
+      </c>
+      <c r="O280" s="12" t="s">
+        <v>2388</v>
+      </c>
+      <c r="P280" s="12" t="s">
+        <v>2389</v>
+      </c>
+      <c r="Q280" s="12" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="12" t="s">
+        <v>2391</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>2392</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>2393</v>
+      </c>
+      <c r="D281" s="12" t="s">
+        <v>2394</v>
+      </c>
+      <c r="E281" s="12" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F281" s="12" t="s">
+        <v>2395</v>
+      </c>
+      <c r="G281" s="12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="H281" s="12" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I281" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="J281" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="K281" s="12" t="n">
+        <v>7701002520</v>
+      </c>
+      <c r="L281" s="12" t="s">
+        <v>2396</v>
+      </c>
+      <c r="M281" s="12" t="s">
+        <v>2397</v>
+      </c>
+      <c r="N281" s="12" t="n">
+        <v>550146480969</v>
+      </c>
+      <c r="O281" s="12" t="s">
+        <v>2398</v>
+      </c>
+      <c r="P281" s="12" t="s">
+        <v>2399</v>
+      </c>
+      <c r="Q281" s="12" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="12" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D282" s="12" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F282" s="12" t="s">
+        <v>2406</v>
+      </c>
+      <c r="G282" s="12" t="s">
+        <v>2405</v>
+      </c>
+      <c r="H282" s="12" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I282" s="12" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J282" s="12" t="s">
+        <v>2408</v>
+      </c>
+      <c r="K282" s="12" t="n">
+        <v>7710030362</v>
+      </c>
+      <c r="L282" s="12" t="s">
+        <v>2409</v>
+      </c>
+      <c r="M282" s="12" t="s">
+        <v>2410</v>
+      </c>
+      <c r="N282" s="12" t="n">
+        <v>20701291463</v>
+      </c>
+      <c r="O282" s="12" t="s">
+        <v>2411</v>
+      </c>
+      <c r="P282" s="12" t="s">
+        <v>2412</v>
+      </c>
+      <c r="Q282" s="12" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="12" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>2415</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>2416</v>
+      </c>
+      <c r="D283" s="12" t="s">
+        <v>2417</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F283" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G283" s="12" t="s">
+        <v>2418</v>
+      </c>
+      <c r="H283" s="12" t="s">
+        <v>2419</v>
+      </c>
+      <c r="I283" s="12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J283" s="12" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K283" s="12" t="n">
+        <v>5038008142</v>
+      </c>
+      <c r="L283" s="12" t="s">
+        <v>2420</v>
+      </c>
+      <c r="M283" s="12" t="s">
+        <v>2421</v>
+      </c>
+      <c r="N283" s="12" t="n">
+        <v>7842486497</v>
+      </c>
+      <c r="O283" s="12" t="s">
+        <v>2422</v>
+      </c>
+      <c r="P283" s="12" t="s">
+        <v>2423</v>
+      </c>
+      <c r="Q283" s="12" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="12" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F284" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G284" s="12" t="s">
+        <v>2429</v>
+      </c>
+      <c r="H284" s="12" t="s">
+        <v>2429</v>
+      </c>
+      <c r="I284" s="12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J284" s="12" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K284" s="12" t="n">
+        <v>5038008142</v>
+      </c>
+      <c r="L284" s="12" t="s">
+        <v>2430</v>
+      </c>
+      <c r="M284" s="12" t="s">
+        <v>2431</v>
+      </c>
+      <c r="N284" s="12" t="n">
+        <v>7733344527</v>
+      </c>
+      <c r="O284" s="12" t="s">
+        <v>2432</v>
+      </c>
+      <c r="P284" s="12" t="s">
+        <v>2433</v>
+      </c>
+      <c r="Q284" s="12" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="12" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>2436</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>2437</v>
+      </c>
+      <c r="D285" s="12" t="s">
+        <v>2438</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>2439</v>
+      </c>
+      <c r="F285" s="12" t="s">
+        <v>2440</v>
+      </c>
+      <c r="G285" s="12" t="s">
+        <v>2441</v>
+      </c>
+      <c r="H285" s="12" t="s">
+        <v>2442</v>
+      </c>
+      <c r="I285" s="12" t="s">
+        <v>1291</v>
+      </c>
+      <c r="J285" s="12" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K285" s="12" t="n">
+        <v>7734135124</v>
+      </c>
+      <c r="L285" s="12" t="s">
+        <v>2443</v>
+      </c>
+      <c r="M285" s="12" t="s">
+        <v>2444</v>
+      </c>
+      <c r="N285" s="12" t="n">
+        <v>7704397235</v>
+      </c>
+      <c r="O285" s="12" t="s">
+        <v>1295</v>
+      </c>
+      <c r="P285" s="12" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Q285" s="12" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="12" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F286" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G286" s="12" t="s">
+        <v>2450</v>
+      </c>
+      <c r="H286" s="12" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I286" s="12" t="s">
+        <v>2451</v>
+      </c>
+      <c r="J286" s="12" t="s">
+        <v>2452</v>
+      </c>
+      <c r="K286" s="12" t="n">
+        <v>7726072209</v>
+      </c>
+      <c r="L286" s="12" t="s">
+        <v>2453</v>
+      </c>
+      <c r="M286" s="12" t="s">
+        <v>2454</v>
+      </c>
+      <c r="N286" s="12" t="n">
+        <v>7720643181</v>
+      </c>
+      <c r="O286" s="12" t="s">
+        <v>2455</v>
+      </c>
+      <c r="P286" s="12" t="s">
+        <v>2456</v>
+      </c>
+      <c r="Q286" s="12" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="12" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F287" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G287" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H287" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I287" s="12" t="s">
+        <v>2462</v>
+      </c>
+      <c r="J287" s="12" t="s">
+        <v>2463</v>
+      </c>
+      <c r="K287" s="12" t="n">
+        <v>5050079012</v>
+      </c>
+      <c r="L287" s="12" t="s">
+        <v>2464</v>
+      </c>
+      <c r="M287" s="12" t="s">
+        <v>2465</v>
+      </c>
+      <c r="N287" s="12" t="n">
+        <v>711810307622</v>
+      </c>
+      <c r="O287" s="12" t="s">
+        <v>2466</v>
+      </c>
+      <c r="P287" s="12" t="n">
+        <v>79109477782</v>
+      </c>
+      <c r="Q287" s="12" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="12" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D288" s="12" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E288" s="12" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F288" s="12" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G288" s="12" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H288" s="12" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I288" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="J288" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="K288" s="12" t="n">
+        <v>7703021039</v>
+      </c>
+      <c r="L288" s="12" t="s">
+        <v>2475</v>
+      </c>
+      <c r="M288" s="12" t="s">
+        <v>2476</v>
+      </c>
+      <c r="N288" s="12" t="n">
+        <v>773127590624</v>
+      </c>
+      <c r="O288" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P288" s="12" t="s">
+        <v>2477</v>
+      </c>
+      <c r="Q288" s="12" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="12" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D289" s="12" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E289" s="12" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F289" s="12" t="s">
+        <v>2484</v>
+      </c>
+      <c r="G289" s="12" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H289" s="12" t="s">
+        <v>2317</v>
+      </c>
+      <c r="I289" s="12" t="s">
+        <v>2485</v>
+      </c>
+      <c r="J289" s="12" t="s">
+        <v>2486</v>
+      </c>
+      <c r="K289" s="12" t="n">
+        <v>7734581136</v>
+      </c>
+      <c r="L289" s="12" t="s">
+        <v>2487</v>
+      </c>
+      <c r="M289" s="12" t="s">
+        <v>2488</v>
+      </c>
+      <c r="N289" s="12" t="n">
+        <v>5017124966</v>
+      </c>
+      <c r="O289" s="12" t="s">
+        <v>2489</v>
+      </c>
+      <c r="P289" s="12" t="s">
+        <v>2490</v>
+      </c>
+      <c r="Q289" s="12" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="12" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>2493</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>2494</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>2495</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>2496</v>
+      </c>
+      <c r="F290" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G290" s="12" t="s">
+        <v>2497</v>
+      </c>
+      <c r="H290" s="12" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I290" s="12" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J290" s="12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K290" s="12" t="n">
+        <v>5019002191</v>
+      </c>
+      <c r="L290" s="12" t="s">
+        <v>2499</v>
+      </c>
+      <c r="M290" s="12" t="s">
+        <v>2500</v>
+      </c>
+      <c r="N290" s="12" t="n">
+        <v>7713409230</v>
+      </c>
+      <c r="O290" s="12" t="s">
+        <v>2501</v>
+      </c>
+      <c r="P290" s="12" t="s">
+        <v>2502</v>
+      </c>
+      <c r="Q290" s="12" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="12" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F291" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G291" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="H291" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I291" s="12" t="s">
+        <v>2509</v>
+      </c>
+      <c r="J291" s="12" t="s">
+        <v>2510</v>
+      </c>
+      <c r="K291" s="12" t="n">
+        <v>5045055175</v>
+      </c>
+      <c r="L291" s="12" t="s">
+        <v>2511</v>
+      </c>
+      <c r="M291" s="12" t="s">
+        <v>2512</v>
+      </c>
+      <c r="N291" s="12" t="n">
+        <v>6950238429</v>
+      </c>
+      <c r="O291" s="12" t="s">
+        <v>2513</v>
+      </c>
+      <c r="P291" s="12" t="s">
+        <v>2514</v>
+      </c>
+      <c r="Q291" s="12" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="12" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>2519</v>
+      </c>
+      <c r="E292" s="12" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F292" s="12" t="s">
+        <v>2521</v>
+      </c>
+      <c r="G292" s="12" t="s">
+        <v>2520</v>
+      </c>
+      <c r="H292" s="12" t="s">
+        <v>2520</v>
+      </c>
+      <c r="I292" s="12" t="s">
+        <v>2522</v>
+      </c>
+      <c r="J292" s="12" t="s">
+        <v>2523</v>
+      </c>
+      <c r="K292" s="12" t="n">
+        <v>7706413348</v>
+      </c>
+      <c r="L292" s="12" t="s">
+        <v>2524</v>
+      </c>
+      <c r="M292" s="12" t="s">
+        <v>2525</v>
+      </c>
+      <c r="N292" s="12" t="n">
+        <v>7452108997</v>
+      </c>
+      <c r="O292" s="12" t="s">
+        <v>2526</v>
+      </c>
+      <c r="P292" s="12" t="s">
+        <v>2527</v>
+      </c>
+      <c r="Q292" s="12" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="293" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="6" t="n">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="12" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>2531</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>2532</v>
+      </c>
+      <c r="E294" s="12" t="s">
+        <v>2533</v>
+      </c>
+      <c r="F294" s="12" t="s">
+        <v>2534</v>
+      </c>
+      <c r="G294" s="12" t="s">
+        <v>2535</v>
+      </c>
+      <c r="H294" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I294" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="J294" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="K294" s="12" t="n">
+        <v>7705851331</v>
+      </c>
+      <c r="L294" s="12" t="s">
+        <v>2536</v>
+      </c>
+      <c r="M294" s="12" t="s">
+        <v>2537</v>
+      </c>
+      <c r="N294" s="12" t="n">
+        <v>3525233515</v>
+      </c>
+      <c r="O294" s="12" t="s">
+        <v>2538</v>
+      </c>
+      <c r="P294" s="12" t="s">
+        <v>2539</v>
+      </c>
+      <c r="Q294" s="12" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="12" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>2542</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F295" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G295" s="12" t="s">
+        <v>2545</v>
+      </c>
+      <c r="H295" s="12" t="s">
+        <v>2545</v>
+      </c>
+      <c r="I295" s="12" t="s">
+        <v>2546</v>
+      </c>
+      <c r="J295" s="12" t="s">
+        <v>2547</v>
+      </c>
+      <c r="K295" s="12" t="n">
+        <v>7702679523</v>
+      </c>
+      <c r="L295" s="12" t="s">
+        <v>2548</v>
+      </c>
+      <c r="M295" s="12" t="s">
+        <v>2549</v>
+      </c>
+      <c r="N295" s="12" t="n">
+        <v>7838096230</v>
+      </c>
+      <c r="O295" s="12" t="s">
+        <v>2550</v>
+      </c>
+      <c r="P295" s="12" t="s">
+        <v>2551</v>
+      </c>
+      <c r="Q295" s="12" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="12" t="s">
+        <v>2553</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>2556</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F296" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G296" s="12" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H296" s="12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="I296" s="12" t="s">
+        <v>2559</v>
+      </c>
+      <c r="J296" s="12" t="s">
+        <v>2560</v>
+      </c>
+      <c r="K296" s="12" t="n">
+        <v>7734258158</v>
+      </c>
+      <c r="L296" s="12" t="s">
+        <v>2561</v>
+      </c>
+      <c r="M296" s="12" t="s">
+        <v>2562</v>
+      </c>
+      <c r="N296" s="12" t="n">
+        <v>7751187845</v>
+      </c>
+      <c r="O296" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="P296" s="12" t="s">
+        <v>2563</v>
+      </c>
+      <c r="Q296" s="12" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="12" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>2568</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F297" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G297" s="12" t="s">
+        <v>2570</v>
+      </c>
+      <c r="H297" s="12" t="s">
+        <v>2571</v>
+      </c>
+      <c r="I297" s="12" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J297" s="12" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K297" s="12" t="n">
+        <v>5004003890</v>
+      </c>
+      <c r="L297" s="12" t="s">
+        <v>2572</v>
+      </c>
+      <c r="M297" s="12" t="s">
+        <v>2573</v>
+      </c>
+      <c r="N297" s="12" t="n">
+        <v>5009088908</v>
+      </c>
+      <c r="O297" s="12" t="s">
+        <v>2574</v>
+      </c>
+      <c r="P297" s="12" t="n">
+        <v>84957921399</v>
+      </c>
+      <c r="Q297" s="12" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="12" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>2580</v>
+      </c>
+      <c r="F298" s="12" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G298" s="12" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H298" s="12" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I298" s="12" t="s">
+        <v>2582</v>
+      </c>
+      <c r="J298" s="12" t="s">
+        <v>2583</v>
+      </c>
+      <c r="K298" s="12" t="n">
+        <v>5003096290</v>
+      </c>
+      <c r="L298" s="12" t="s">
+        <v>2584</v>
+      </c>
+      <c r="M298" s="12" t="s">
+        <v>2585</v>
+      </c>
+      <c r="N298" s="12" t="n">
+        <v>645411732467</v>
+      </c>
+      <c r="O298" s="12" t="s">
+        <v>2586</v>
+      </c>
+      <c r="P298" s="12" t="s">
+        <v>2587</v>
+      </c>
+      <c r="Q298" s="12" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="12" t="s">
+        <v>2589</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>2592</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F299" s="12" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G299" s="12" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H299" s="12" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I299" s="12" t="s">
+        <v>2595</v>
+      </c>
+      <c r="J299" s="12" t="s">
+        <v>2596</v>
+      </c>
+      <c r="K299" s="12" t="n">
+        <v>7734564758</v>
+      </c>
+      <c r="L299" s="12" t="s">
+        <v>2597</v>
+      </c>
+      <c r="M299" s="12" t="s">
+        <v>2598</v>
+      </c>
+      <c r="N299" s="12" t="n">
+        <v>2366001345</v>
+      </c>
+      <c r="O299" s="12" t="s">
+        <v>2599</v>
+      </c>
+      <c r="P299" s="12" t="s">
+        <v>2600</v>
+      </c>
+      <c r="Q299" s="12" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="12" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>2605</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F300" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G300" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="H300" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="I300" s="12" t="s">
+        <v>2607</v>
+      </c>
+      <c r="J300" s="12"/>
+      <c r="K300" s="12" t="n">
+        <v>7710914971</v>
+      </c>
+      <c r="L300" s="12" t="s">
+        <v>2608</v>
+      </c>
+      <c r="M300" s="12" t="s">
+        <v>2609</v>
+      </c>
+      <c r="N300" s="12" t="n">
+        <v>5029190709</v>
+      </c>
+      <c r="O300" s="12" t="s">
+        <v>2610</v>
+      </c>
+      <c r="P300" s="12" t="s">
+        <v>2611</v>
+      </c>
+      <c r="Q300" s="12" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="12" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>2616</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F301" s="12" t="s">
+        <v>2618</v>
+      </c>
+      <c r="G301" s="12" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H301" s="12" t="s">
+        <v>2620</v>
+      </c>
+      <c r="I301" s="12" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J301" s="12" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K301" s="12" t="n">
+        <v>7733231361</v>
+      </c>
+      <c r="L301" s="12" t="s">
+        <v>2621</v>
+      </c>
+      <c r="M301" s="12" t="s">
+        <v>2622</v>
+      </c>
+      <c r="N301" s="12" t="n">
+        <v>2901222926</v>
+      </c>
+      <c r="O301" s="12" t="s">
+        <v>2623</v>
+      </c>
+      <c r="P301" s="12" t="s">
+        <v>2624</v>
+      </c>
+      <c r="Q301" s="12" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="12" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F302" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G302" s="12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="H302" s="12" t="s">
+        <v>2257</v>
+      </c>
+      <c r="I302" s="12" t="s">
+        <v>2630</v>
+      </c>
+      <c r="J302" s="12" t="s">
+        <v>2631</v>
+      </c>
+      <c r="K302" s="12" t="n">
+        <v>5022066357</v>
+      </c>
+      <c r="L302" s="12" t="s">
+        <v>2632</v>
+      </c>
+      <c r="M302" s="12" t="s">
+        <v>2633</v>
+      </c>
+      <c r="N302" s="12" t="n">
+        <v>615493375648</v>
+      </c>
+      <c r="O302" s="12" t="s">
+        <v>2634</v>
+      </c>
+      <c r="P302" s="12" t="n">
+        <v>79615263568</v>
+      </c>
+      <c r="Q302" s="12" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="12" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>2636</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D303" s="12" t="s">
+        <v>2638</v>
+      </c>
+      <c r="E303" s="12" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F303" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G303" s="12" t="s">
+        <v>2639</v>
+      </c>
+      <c r="H303" s="12" t="s">
+        <v>2639</v>
+      </c>
+      <c r="I303" s="12" t="s">
+        <v>2640</v>
+      </c>
+      <c r="J303" s="12" t="s">
+        <v>2641</v>
+      </c>
+      <c r="K303" s="12" t="n">
+        <v>5007036799</v>
+      </c>
+      <c r="L303" s="12" t="s">
+        <v>2642</v>
+      </c>
+      <c r="M303" s="12" t="s">
+        <v>2643</v>
+      </c>
+      <c r="N303" s="12" t="n">
+        <v>320801497434</v>
+      </c>
+      <c r="O303" s="12" t="s">
+        <v>2644</v>
+      </c>
+      <c r="P303" s="12" t="s">
+        <v>2645</v>
+      </c>
+      <c r="Q303" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="12" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D304" s="12" t="s">
+        <v>2649</v>
+      </c>
+      <c r="E304" s="12" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F304" s="12" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G304" s="12" t="s">
+        <v>2651</v>
+      </c>
+      <c r="H304" s="12" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I304" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="J304" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="K304" s="12" t="n">
+        <v>4025062831</v>
+      </c>
+      <c r="L304" s="12" t="s">
+        <v>2652</v>
+      </c>
+      <c r="M304" s="12" t="s">
+        <v>2653</v>
+      </c>
+      <c r="N304" s="12" t="n">
+        <v>7714086623</v>
+      </c>
+      <c r="O304" s="12" t="s">
+        <v>2654</v>
+      </c>
+      <c r="P304" s="12" t="s">
+        <v>2655</v>
+      </c>
+      <c r="Q304" s="12" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="12" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D305" s="12" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E305" s="12" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F305" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G305" s="12" t="s">
+        <v>2317</v>
+      </c>
+      <c r="H305" s="12" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I305" s="12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J305" s="12" t="s">
+        <v>1644</v>
+      </c>
+      <c r="K305" s="12" t="n">
+        <v>7706593605</v>
+      </c>
+      <c r="L305" s="12" t="s">
+        <v>2661</v>
+      </c>
+      <c r="M305" s="12" t="s">
+        <v>2662</v>
+      </c>
+      <c r="N305" s="12" t="n">
+        <v>2123012137</v>
+      </c>
+      <c r="O305" s="12" t="s">
+        <v>2663</v>
+      </c>
+      <c r="P305" s="12" t="s">
+        <v>2664</v>
+      </c>
+      <c r="Q305" s="12" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="12" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D306" s="12" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E306" s="12" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F306" s="12" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G306" s="12" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H306" s="12" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I306" s="12" t="s">
+        <v>2670</v>
+      </c>
+      <c r="J306" s="12" t="s">
+        <v>2671</v>
+      </c>
+      <c r="K306" s="12" t="n">
+        <v>7706016118</v>
+      </c>
+      <c r="L306" s="12" t="s">
+        <v>2672</v>
+      </c>
+      <c r="M306" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="N306" s="12" t="n">
+        <v>9710022982</v>
+      </c>
+      <c r="O306" s="12" t="s">
+        <v>2673</v>
+      </c>
+      <c r="P306" s="12" t="s">
+        <v>2674</v>
+      </c>
+      <c r="Q306" s="12" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="12" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>2679</v>
+      </c>
+      <c r="E307" s="12" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F307" s="12" t="s">
+        <v>2618</v>
+      </c>
+      <c r="G307" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H307" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I307" s="12" t="s">
+        <v>2680</v>
+      </c>
+      <c r="J307" s="12"/>
+      <c r="K307" s="12" t="n">
+        <v>5003057124</v>
+      </c>
+      <c r="L307" s="12" t="s">
+        <v>2681</v>
+      </c>
+      <c r="M307" s="12" t="s">
+        <v>2682</v>
+      </c>
+      <c r="N307" s="12" t="n">
+        <v>9709069440</v>
+      </c>
+      <c r="O307" s="12" t="s">
+        <v>2683</v>
+      </c>
+      <c r="P307" s="12" t="s">
+        <v>2684</v>
+      </c>
+      <c r="Q307" s="12" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="12" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>2687</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E308" s="12" t="s">
+        <v>2317</v>
+      </c>
+      <c r="F308" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G308" s="12" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H308" s="12" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I308" s="12" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J308" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K308" s="12" t="n">
+        <v>5024080558</v>
+      </c>
+      <c r="L308" s="12" t="s">
+        <v>2691</v>
+      </c>
+      <c r="M308" s="12" t="s">
+        <v>2692</v>
+      </c>
+      <c r="N308" s="12" t="n">
+        <v>861703155391</v>
+      </c>
+      <c r="O308" s="12" t="s">
+        <v>2693</v>
+      </c>
+      <c r="P308" s="12" t="s">
+        <v>2694</v>
+      </c>
+      <c r="Q308" s="12" t="s">
+        <v>2695</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="2696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="3035">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -8108,6 +8108,1023 @@
   </si>
   <si>
     <t xml:space="preserve">inklim@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364321000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 21 000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 513 139,09 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЕДИНАЯ СЛУЖБА ЗАКАЗЧИКА ГОРОДСКОГО ОКРУГА КРАСНОГОРСК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ЕСЗ ГО КРАСНОГОРСК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВОЗРОЖДЕНИЕ" (ООО "ВОЗРОЖДЕНИЕ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВОЗРОЖДЕНИЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121471, Г МОСКВА 77, УЛ РЯБИНОВАЯ, ДОМ 43, КОРПУС 2, ПОМЕЩЕНИЕ 2-1-4 КОМ 204 ЭТ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-963-6304116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOZROJDENIE2019@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364321000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 21 000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 748 454,59 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОНИКС" (ООО "ОНИКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ОНИКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143408, ОБЛ МОСКОВСКАЯ 50, Г КРАСНОГОРСК, УЛ ЛЕНИНА, ДОМ 63, КОМ/ЭТАЖ 2/ПОДВАЛЬНЫЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-400-70-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89257090982@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364321000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 21 000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 298 871,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ИНВЕСТИЦИОННАЯ КОМПАНИЯ "МАГНУМ" (ООО ИК "МАГНУМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ИК "МАГНУМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143405, ОБЛ МОСКОВСКАЯ, Г КРАСНОГОРСК, Ш ИЛЬИНСКОЕ, 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">792-659-12139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotom@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364321000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 21 000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 962 876,89 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сагайлюк Александр ГеннадиевичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Сагайлюк Александр Геннадиевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143405, Московская обл., г. Красногорск, ул. Ильинское шоссе, д. 12 кв. 256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-498-5684732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gorstroyservis@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364321000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 21 000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43 607 614,77 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФАВОРИТ СПЕЦТЕХНИКА" (ООО "ФАВОРИТ СПЕЦТЕХНИКА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФАВОРИТ СПЕЦТЕХНИКА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143432, ОБЛ МОСКОВСКАЯ, Г КРАСНОГОРСК, - НАХАБИНО, УЛ ПАНФИЛОВА, ДОМ 24Б, ОФИС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fst@favoritspectehnika.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364321000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 21 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 393 856,79 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КВАРТАЛ-М" (ООО "КВАРТАЛ-М")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КВАРТАЛ-М"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Российская Федерация, Московская обл., г. Красногорск, 143404, ул. Ленина, д 5Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7926-521-26-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvartal-m2020@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364321000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 21 000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 627 405,14 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Змиев Алексей СергеевичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Змиев Алексей Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143026, Московская область, Одинцовский район, с. Немчиновка, Советский проспект, д. 108, кв.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip_zmiev@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364321000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 602 765,52 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РВИФЭМИЛИ" (ООО "РВИФЭМИЛИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РВИФЭМИЛИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141410, Московская обл, Химки г, Юбилейный пр-кт, дом 77, помещение 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-929-6910119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89296910119@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502417364321000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024173643 21 000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 142 630,99 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РСУ-89" (ООО "РСУ-89")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РСУ-89"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г Москва, ул Семёновская М., д 15/17 к 4, кабинет 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8498-7158019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsy_89@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505305791621000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35053057916 21 000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">710 749,06 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЭЛЕКТРОСТАЛЬСКАЯ КОММУНАЛЬНАЯ КОМПАНИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "ЭЛЕКТРОСТАЛЬСКАЯ КОММУНАЛЬНАЯ КОМПАНИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙРФ И СО" (ООО "СТРОЙРФ И СО")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙРФ И СО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107497, Г. МОСКВА 77, УЛ. МОНТАЖНАЯ, Д. 9, СТР. 1, ЭТАЖ 2 ПОМЕЩ./КОМН./ОФИС III/12/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-7556570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me2581@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770584037921000285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27705840379 21 000285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452 222,22 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ ПО КАПИТАЛЬНОМУ РЕМОНТУ МНОГОКВАРТИРНЫХ ДОМОВ ГОРОДА МОСКВЫ "УКРИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ "УКРИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОНД РАЗВИТИЯ И ПОДДЕРЖКИ ПОЖАРНОЙ БЕЗОПАСНОСТИ (ФОНД ПОЖАРНОЙ БЕЗОПАСНОСТИ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОНД ПОЖАРНОЙ БЕЗОПАСНОСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302028, ОБЛ ОРЛОВСКАЯ 57, Г ОРЁЛ, УЛ СУРЕНА ШАУМЯНА, ДОМ 37, ПОМЕЩЕНИЕ 8А,8Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (486) 242-12-93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valeriy.nalivayko.70@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772180474821000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27721804748 21 000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">687 414,51 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.05.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 2090 ИМЕНИ ГЕРОЯ СОВЕТСКОГО СОЮЗА Л.Х. ПАПЕРНИКА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 2090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДСК XXI ВЕК" (ООО "ДСК XXI ВЕК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДСК XXI ВЕК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109387, Г МОСКВА 77, УЛ ТИХАЯ, ДОМ 4, КВАРТИРА 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (903) 722-99-85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsk@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502205470721000062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35022054707 21 000062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 500 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ КОЛОМЕНСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙИНДУСТРИЯ-В" (ООО "СТРОЙИНДУСТРИЯ-В")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙИНДУСТРИЯ-В"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140478, ОБЛ МОСКОВСКАЯ 50, Г КОЛОМНА, Д ИГНАТЬЕВО, ЗДАНИЕ АДМИНИСТРАТИВНОЕ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-6124215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psk_karer@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770721078121000025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707210781 21 000025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">786 742,62 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АППАРАТ ГОСУДАРСТВЕННОЙ ДУМЫ ФЕДЕРАЛЬНОГО СОБРАНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КИРИЛЛИЦА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КИРИЛЛИЦА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КИРИЛЛИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603105, ОБЛ НИЖЕГОРОДСКАЯ 52, Г НИЖНИЙ НОВГОРОД, УЛ ВАНЕЕВА, 24, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-950-3625997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ikirillica@gmail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770757556721000446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707575567 21 000446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">424 440,56 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КИРШИНА МАРИНА МИХАЙЛОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КИРШИНА МАРИНА МИХАЙЛОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ ТЮМЕНСКАЯ 72, Г ТЮМЕНЬ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0919ip@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675292921000044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706752929 21 000044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">645 334,08 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ГЛАВНЫЙ ЦЕНТР СВЯЗИ И ЗАЩИТЫ ИНФОРМАЦИИ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ГЦСИЗИ МВД РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "УРАЛЬСКИЕ ЗАВОДЫ" (АКЦИОНЕРНОЕ ОБЩЕСТВО "УРАЛЬСКИЕ ЗАВОДЫ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "УРАЛЬСКИЕ ЗАВОДЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">426057, РЕСП УДМУРТСКАЯ 18, Г ИЖЕВСК, УЛ МАКСИМА ГОРЬКОГО, ДОМ 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-3412-787211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mtm@uralradio.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500302799421000078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003027994 21 000078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 095 505,10 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ВИДНОВСКАЯ РАЙОННАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "ВРКБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДКОМЭКСПОТОРГ" (ООО "МЕДКОМЭКСПОТОРГ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕДКОМЭКСПОТОРГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Российская Федерация, Респ. Татарстан, г. Казань, 420094, ул. Силикатная, 31, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111-111-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulat@opht.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502101136221000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35021011362 21 000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 327 205,14 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ "ЛИЦЕЙ КЛИМОВСКА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБОУ "ЛИЦЕЙ КЛИМОВСКА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЛАДИН 2000" (ООО "АЛЛАДИН 2000")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛЛАДИН 2000"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142116, ОБЛ МОСКОВСКАЯ 50, Г ПОДОЛЬСК, УЛ ЛОБАЧЕВА, ДОМ 6, СТРОЕНИЕ 4, ПОМ/ОФ/ЭТ 1/152/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-6470932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alladin2000@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771433860921002011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27714338609 21 002011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">292 679,93 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "АГЕНТСТВО ПО ЗАКУПКАМ (КОНТРАКТНАЯ СЛУЖБА) ДЕПАРТАМЕНТА ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ АЗ (КС) ДЗМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ОФФИКС-НСК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ОФФИКС-НСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новосибирская область, НОВОСИБИРСК, "УЛИЦА БОЛЬШЕВИСТСКАЯ, ДОМ 131, ОФИС 702"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (903) 931-92-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offiks_nsk@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67 780,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПЬЮТЕР-ИМИДЖ ПЛЮС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПЬЮТЕР-ИМИДЖ ПЛЮС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОМПЬЮТЕР-ИМИДЖ ПЛЮС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600005, ОБЛ ВЛАДИМИРСКАЯ 33, Г ВЛАДИМИР, УЛ 850-ЛЕТИЯ, ДОМ 1/46, ПОМЕЩЕНИЕ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-915-7655999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zuza@computer-image.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507401938021000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35074019380 21 000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87 351,31 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ЛЬВОВСКАЯ СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА № 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОУ ЛЬВОВСКАЯ ШКОЛА № 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УРАЛСТРОЙЭКСПЕРТИЗА" (ООО "УРАЛСТРОЙЭКСПЕРТИЗА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "УРАЛСТРОЙЭКСПЕРТИЗА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117342, Г МОСКВА 77, УЛ ВВЕДЕНСКОГО, ДОМ 23А, СТРОЕНИЕ 3, ПОМ ХХ КОМ 64 ОФ 10Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-9048606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desertbearii@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771404850821000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27714048508 21 000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 570,17 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 152"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Биткаш Геннади ИраклиевичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ИП Биткаш Геннади Ираклиевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московская область, г. Химки, ул. Молодежная, д. 68, кв.  336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (965) 184-39-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7283536@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500805300321000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35008053003 21 000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 278 798,33 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ТЕХНИКО-ЭКСПЛУАТАЦИОННОЕ УПРАВЛЕНИЕ ОРГАНОВ МЕСТНОГО САМОУПРАВЛЕНИЯ ГОРОДА ДОЛГОПРУДНОГО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "ТЭУ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЮНИСНАБ" (ООО "ЮНИСНАБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЮНИСНАБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248010, ОБЛ КАЛУЖСКАЯ 40, Г КАЛУГА, УЛ ПИОНЕРСКАЯ, ДОМ 2, КВАРТИРА 114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-9734433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unisnab_info@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500000152521000643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25000001525 21 000643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 160 263,20 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МСБ-СТРОЙ" (ООО"МСБ-СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО"МСБ-СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445143, ОБЛ САМАРСКАЯ 63, Р-Н СТАВРОПОЛЬСКИЙ, С ПОДСТЕПКИ, УЛ СОЛНЕЧНАЯ, 131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-848-2788764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мsbstroi@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2773607658721000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27736076587 21 000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327 480,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.04.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 1514"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 1514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АГАДЖАНЯН САМВЕЛ АМАЯКОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АГАДЖАНЯН САМВЕЛ АМАЯКОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ КРАСНОДАРСКИЙ 23, Р-Н БРЮХОВЕЦКИЙ, СТ-ЦА ПЕРЕЯСЛОВСКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (985) 319-13-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9430600@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675292921000047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706752929 21 000047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 972 272,67 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНФОПРОФ-ИТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНФОПРОФ-ИТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИНФОПРОФ-ИТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143966, ОБЛ МОСКОВСКАЯ 50, Г РЕУТОВ, УЛ ПОБЕДЫ, ДОМ 7, ОФИС 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-2548487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infoprof-it@ya.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503800814221000152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038008142 21 000152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137 400 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "ГРАБОВСКИЙ АВТОМОБИЛЬНЫЙ ЗАВОД" (АКЦИОНЕРНОЕ ОБЩЕСТВО "ГРАБОВСКИЙ АВТОМОБИЛЬНЫЙ ЗАВОД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "ГРАБОВСКИЙ АВТОМОБИЛЬНЫЙ ЗАВОД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442770, ОБЛ ПЕНЗЕНСКАЯ 58, Р-Н БЕССОНОВСКИЙ, С ГРАБОВО, УЛ КИРПИЧНАЯ, 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8412-458343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenderzavod@graz.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507900143521000027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35079001435 21 000027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">947 911,11 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ШАХОВСКАЯ МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ШАХОВСКАЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКО-ПЛАНЕТА" (ООО "ЭКО-ПЛАНЕТА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭКО-ПЛАНЕТА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">398007, Российская Федерация, Липецкая область, город Липецк, ул.40 лет Октября, д.41, кв.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-960-1501281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772801351221000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728013512 21 000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 877 306,89 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ НАУКИ ИНСТИТУТ ПРОБЛЕМ УПРАВЛЕНИЯ ИМ. В.А. ТРАПЕЗНИКОВА РОССИЙСКОЙ АКАДЕМИИ НАУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИПУ РАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛАКИ ГРУПП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛАКИ ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЛАКИ ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123458, Г МОСКВА 77, УЛ ТВАРДОВСКОГО, ДОМ 14, КОРПУС 2, ПОМ. 3П КОМ. 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-915-3534777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmvstroy1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504101724221000075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15041017242 21 000075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164 809,51 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ПРОФЕССИОНАЛЬНОГО ОБРАЗОВАНИЯ "МЕЖРЕГИОНАЛЬНЫЙ УЧЕБНЫЙ ЦЕНТР УПРАВЛЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ ПО МОСКОВСКОЙ ОБЛАСТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ ДПО МУЦ УФСИН РОССИИ ПО МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОТОВ ОЛЕГ СТАНИСЛАВОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КОТОВ ОЛЕГ СТАНИСЛАВОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г КОРОЛЁВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-6199636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oleg-kotov05@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -8197,7 +9214,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8250,6 +9267,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8267,10 +9288,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q308"/>
+  <dimension ref="A1:Q340"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A268" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A294" activeCellId="0" sqref="A294:Q308"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A315" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A331" activeCellId="0" sqref="331:331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23383,6 +24404,1602 @@
         <v>2695</v>
       </c>
     </row>
+    <row r="309" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="6" t="n">
+        <v>20.12</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="7" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G310" s="7" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H310" s="7" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I310" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J310" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K310" s="7" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L310" s="7" t="s">
+        <v>2704</v>
+      </c>
+      <c r="M310" s="7" t="s">
+        <v>2705</v>
+      </c>
+      <c r="N310" s="7" t="n">
+        <v>9729275144</v>
+      </c>
+      <c r="O310" s="7" t="s">
+        <v>2706</v>
+      </c>
+      <c r="P310" s="7" t="s">
+        <v>2707</v>
+      </c>
+      <c r="Q310" s="7" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="7" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>2710</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E311" s="7" t="s">
+        <v>2713</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G311" s="7" t="s">
+        <v>2714</v>
+      </c>
+      <c r="H311" s="7" t="s">
+        <v>2715</v>
+      </c>
+      <c r="I311" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J311" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K311" s="7" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L311" s="7" t="s">
+        <v>2716</v>
+      </c>
+      <c r="M311" s="7" t="s">
+        <v>2717</v>
+      </c>
+      <c r="N311" s="7" t="n">
+        <v>5024168770</v>
+      </c>
+      <c r="O311" s="7" t="s">
+        <v>2718</v>
+      </c>
+      <c r="P311" s="7" t="s">
+        <v>2719</v>
+      </c>
+      <c r="Q311" s="7" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="7" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>2724</v>
+      </c>
+      <c r="E312" s="7" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F312" s="7" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G312" s="7" t="s">
+        <v>2727</v>
+      </c>
+      <c r="H312" s="7" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I312" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J312" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K312" s="7" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L312" s="7" t="s">
+        <v>2728</v>
+      </c>
+      <c r="M312" s="7" t="s">
+        <v>2729</v>
+      </c>
+      <c r="N312" s="7" t="n">
+        <v>5024128337</v>
+      </c>
+      <c r="O312" s="7" t="s">
+        <v>2730</v>
+      </c>
+      <c r="P312" s="7" t="s">
+        <v>2731</v>
+      </c>
+      <c r="Q312" s="7" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="7" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E313" s="7" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G313" s="7" t="s">
+        <v>2727</v>
+      </c>
+      <c r="H313" s="7" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I313" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J313" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K313" s="7" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L313" s="7" t="s">
+        <v>2737</v>
+      </c>
+      <c r="M313" s="7" t="s">
+        <v>2738</v>
+      </c>
+      <c r="N313" s="7" t="n">
+        <v>502407249863</v>
+      </c>
+      <c r="O313" s="7" t="s">
+        <v>2739</v>
+      </c>
+      <c r="P313" s="7" t="s">
+        <v>2740</v>
+      </c>
+      <c r="Q313" s="7" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="7" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>2745</v>
+      </c>
+      <c r="E314" s="7" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G314" s="7" t="s">
+        <v>2747</v>
+      </c>
+      <c r="H314" s="7" t="s">
+        <v>2748</v>
+      </c>
+      <c r="I314" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J314" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K314" s="7" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L314" s="7" t="s">
+        <v>2749</v>
+      </c>
+      <c r="M314" s="7" t="s">
+        <v>2750</v>
+      </c>
+      <c r="N314" s="7" t="n">
+        <v>5024174686</v>
+      </c>
+      <c r="O314" s="7" t="s">
+        <v>2751</v>
+      </c>
+      <c r="P314" s="7" t="n">
+        <v>79263011293</v>
+      </c>
+      <c r="Q314" s="7" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="7" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>2756</v>
+      </c>
+      <c r="E315" s="7" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G315" s="7" t="s">
+        <v>2727</v>
+      </c>
+      <c r="H315" s="7" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I315" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J315" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K315" s="7" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L315" s="7" t="s">
+        <v>2757</v>
+      </c>
+      <c r="M315" s="7" t="s">
+        <v>2758</v>
+      </c>
+      <c r="N315" s="7" t="n">
+        <v>5024155002</v>
+      </c>
+      <c r="O315" s="7" t="s">
+        <v>2759</v>
+      </c>
+      <c r="P315" s="7" t="s">
+        <v>2760</v>
+      </c>
+      <c r="Q315" s="7" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="7" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>2765</v>
+      </c>
+      <c r="E316" s="7" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G316" s="7" t="s">
+        <v>2767</v>
+      </c>
+      <c r="H316" s="7" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I316" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J316" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K316" s="7" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L316" s="7" t="s">
+        <v>2768</v>
+      </c>
+      <c r="M316" s="7" t="s">
+        <v>2769</v>
+      </c>
+      <c r="N316" s="7" t="n">
+        <v>503216494873</v>
+      </c>
+      <c r="O316" s="7" t="s">
+        <v>2770</v>
+      </c>
+      <c r="P316" s="7" t="n">
+        <v>84951001001</v>
+      </c>
+      <c r="Q316" s="7" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="7" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>2775</v>
+      </c>
+      <c r="E317" s="7" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F317" s="7" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G317" s="7" t="s">
+        <v>2727</v>
+      </c>
+      <c r="H317" s="7" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I317" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J317" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K317" s="7" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L317" s="7" t="s">
+        <v>2776</v>
+      </c>
+      <c r="M317" s="7" t="s">
+        <v>2777</v>
+      </c>
+      <c r="N317" s="7" t="n">
+        <v>5047196848</v>
+      </c>
+      <c r="O317" s="7" t="s">
+        <v>2778</v>
+      </c>
+      <c r="P317" s="7" t="s">
+        <v>2779</v>
+      </c>
+      <c r="Q317" s="7" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="7" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C318" s="7" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D318" s="7" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E318" s="7" t="s">
+        <v>2725</v>
+      </c>
+      <c r="F318" s="7" t="s">
+        <v>2726</v>
+      </c>
+      <c r="G318" s="7" t="s">
+        <v>2727</v>
+      </c>
+      <c r="H318" s="7" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I318" s="7" t="s">
+        <v>2702</v>
+      </c>
+      <c r="J318" s="7" t="s">
+        <v>2703</v>
+      </c>
+      <c r="K318" s="7" t="n">
+        <v>5024173643</v>
+      </c>
+      <c r="L318" s="7" t="s">
+        <v>2785</v>
+      </c>
+      <c r="M318" s="7" t="s">
+        <v>2786</v>
+      </c>
+      <c r="N318" s="7" t="n">
+        <v>5024107697</v>
+      </c>
+      <c r="O318" s="7" t="s">
+        <v>2787</v>
+      </c>
+      <c r="P318" s="7" t="s">
+        <v>2788</v>
+      </c>
+      <c r="Q318" s="7" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="7" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D319" s="7" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E319" s="7" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F319" s="7" t="s">
+        <v>2794</v>
+      </c>
+      <c r="G319" s="7" t="s">
+        <v>2795</v>
+      </c>
+      <c r="H319" s="7" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I319" s="7" t="s">
+        <v>2796</v>
+      </c>
+      <c r="J319" s="7" t="s">
+        <v>2797</v>
+      </c>
+      <c r="K319" s="7" t="n">
+        <v>5053057916</v>
+      </c>
+      <c r="L319" s="7" t="s">
+        <v>2798</v>
+      </c>
+      <c r="M319" s="7" t="s">
+        <v>2799</v>
+      </c>
+      <c r="N319" s="7" t="n">
+        <v>9718178389</v>
+      </c>
+      <c r="O319" s="7" t="s">
+        <v>2800</v>
+      </c>
+      <c r="P319" s="7" t="s">
+        <v>2801</v>
+      </c>
+      <c r="Q319" s="7" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="7" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D320" s="7" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E320" s="7" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G320" s="7" t="s">
+        <v>2520</v>
+      </c>
+      <c r="H320" s="7" t="s">
+        <v>2748</v>
+      </c>
+      <c r="I320" s="7" t="s">
+        <v>2807</v>
+      </c>
+      <c r="J320" s="7" t="s">
+        <v>2808</v>
+      </c>
+      <c r="K320" s="7" t="n">
+        <v>7705840379</v>
+      </c>
+      <c r="L320" s="7" t="s">
+        <v>2809</v>
+      </c>
+      <c r="M320" s="7" t="s">
+        <v>2810</v>
+      </c>
+      <c r="N320" s="7" t="n">
+        <v>5753073110</v>
+      </c>
+      <c r="O320" s="7" t="s">
+        <v>2811</v>
+      </c>
+      <c r="P320" s="7" t="s">
+        <v>2812</v>
+      </c>
+      <c r="Q320" s="7" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="7" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D321" s="7" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E321" s="7" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G321" s="7" t="s">
+        <v>2497</v>
+      </c>
+      <c r="H321" s="7" t="s">
+        <v>2748</v>
+      </c>
+      <c r="I321" s="7" t="s">
+        <v>2820</v>
+      </c>
+      <c r="J321" s="7" t="s">
+        <v>2821</v>
+      </c>
+      <c r="K321" s="7" t="n">
+        <v>7721804748</v>
+      </c>
+      <c r="L321" s="7" t="s">
+        <v>2822</v>
+      </c>
+      <c r="M321" s="7" t="s">
+        <v>2823</v>
+      </c>
+      <c r="N321" s="7" t="n">
+        <v>7723328332</v>
+      </c>
+      <c r="O321" s="7" t="s">
+        <v>2824</v>
+      </c>
+      <c r="P321" s="7" t="s">
+        <v>2825</v>
+      </c>
+      <c r="Q321" s="7" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="7" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D322" s="7" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E322" s="7" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F322" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G322" s="7" t="s">
+        <v>2224</v>
+      </c>
+      <c r="H322" s="7" t="s">
+        <v>2257</v>
+      </c>
+      <c r="I322" s="7" t="s">
+        <v>2831</v>
+      </c>
+      <c r="J322" s="7"/>
+      <c r="K322" s="7" t="n">
+        <v>5022054707</v>
+      </c>
+      <c r="L322" s="7" t="s">
+        <v>2832</v>
+      </c>
+      <c r="M322" s="7" t="s">
+        <v>2833</v>
+      </c>
+      <c r="N322" s="7" t="n">
+        <v>5022086522</v>
+      </c>
+      <c r="O322" s="13" t="s">
+        <v>2834</v>
+      </c>
+      <c r="P322" s="13" t="s">
+        <v>2835</v>
+      </c>
+      <c r="Q322" s="13" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="7" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D323" s="7" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E323" s="7" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F323" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G323" s="7" t="s">
+        <v>2818</v>
+      </c>
+      <c r="H323" s="7" t="s">
+        <v>2818</v>
+      </c>
+      <c r="I323" s="7" t="s">
+        <v>2842</v>
+      </c>
+      <c r="J323" s="7"/>
+      <c r="K323" s="7" t="n">
+        <v>7707210781</v>
+      </c>
+      <c r="L323" s="7" t="s">
+        <v>2843</v>
+      </c>
+      <c r="M323" s="7" t="s">
+        <v>2844</v>
+      </c>
+      <c r="N323" s="7" t="n">
+        <v>5262251787</v>
+      </c>
+      <c r="O323" s="7" t="s">
+        <v>2845</v>
+      </c>
+      <c r="P323" s="7" t="s">
+        <v>2846</v>
+      </c>
+      <c r="Q323" s="7" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="7" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>2849</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D324" s="7" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E324" s="7" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F324" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G324" s="7" t="s">
+        <v>2085</v>
+      </c>
+      <c r="H324" s="7" t="s">
+        <v>2852</v>
+      </c>
+      <c r="I324" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="J324" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="K324" s="7" t="n">
+        <v>7707575567</v>
+      </c>
+      <c r="L324" s="7" t="s">
+        <v>2853</v>
+      </c>
+      <c r="M324" s="7" t="s">
+        <v>2854</v>
+      </c>
+      <c r="N324" s="7" t="n">
+        <v>20701291463</v>
+      </c>
+      <c r="O324" s="7" t="s">
+        <v>2855</v>
+      </c>
+      <c r="P324" s="7" t="s">
+        <v>2412</v>
+      </c>
+      <c r="Q324" s="7" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="7" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C325" s="7" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D325" s="7" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E325" s="7" t="s">
+        <v>2861</v>
+      </c>
+      <c r="F325" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G325" s="7" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H325" s="7" t="s">
+        <v>2862</v>
+      </c>
+      <c r="I325" s="7" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J325" s="7" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K325" s="7" t="n">
+        <v>7706752929</v>
+      </c>
+      <c r="L325" s="7" t="s">
+        <v>2865</v>
+      </c>
+      <c r="M325" s="7" t="s">
+        <v>2866</v>
+      </c>
+      <c r="N325" s="7" t="n">
+        <v>1831174985</v>
+      </c>
+      <c r="O325" s="7" t="s">
+        <v>2867</v>
+      </c>
+      <c r="P325" s="7" t="s">
+        <v>2868</v>
+      </c>
+      <c r="Q325" s="7" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="7" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D326" s="7" t="s">
+        <v>2873</v>
+      </c>
+      <c r="E326" s="7" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F326" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G326" s="7" t="s">
+        <v>2875</v>
+      </c>
+      <c r="H326" s="7" t="s">
+        <v>2876</v>
+      </c>
+      <c r="I326" s="7" t="s">
+        <v>2877</v>
+      </c>
+      <c r="J326" s="7" t="s">
+        <v>2878</v>
+      </c>
+      <c r="K326" s="7" t="n">
+        <v>5003027994</v>
+      </c>
+      <c r="L326" s="7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="M326" s="7" t="s">
+        <v>2880</v>
+      </c>
+      <c r="N326" s="7" t="n">
+        <v>1657136391</v>
+      </c>
+      <c r="O326" s="7" t="s">
+        <v>2881</v>
+      </c>
+      <c r="P326" s="7" t="s">
+        <v>2882</v>
+      </c>
+      <c r="Q326" s="7" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="7" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E327" s="7" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G327" s="7" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H327" s="7" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I327" s="7" t="s">
+        <v>2889</v>
+      </c>
+      <c r="J327" s="7" t="s">
+        <v>2890</v>
+      </c>
+      <c r="K327" s="7" t="n">
+        <v>5021011362</v>
+      </c>
+      <c r="L327" s="7" t="s">
+        <v>2891</v>
+      </c>
+      <c r="M327" s="7" t="s">
+        <v>2892</v>
+      </c>
+      <c r="N327" s="7" t="n">
+        <v>7705143459</v>
+      </c>
+      <c r="O327" s="7" t="s">
+        <v>2893</v>
+      </c>
+      <c r="P327" s="7" t="s">
+        <v>2894</v>
+      </c>
+      <c r="Q327" s="7" t="s">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="7" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D328" s="7" t="s">
+        <v>2899</v>
+      </c>
+      <c r="E328" s="7" t="s">
+        <v>2900</v>
+      </c>
+      <c r="F328" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G328" s="7" t="s">
+        <v>2901</v>
+      </c>
+      <c r="H328" s="7" t="s">
+        <v>2748</v>
+      </c>
+      <c r="I328" s="7" t="s">
+        <v>2902</v>
+      </c>
+      <c r="J328" s="7" t="s">
+        <v>2903</v>
+      </c>
+      <c r="K328" s="7" t="n">
+        <v>7714338609</v>
+      </c>
+      <c r="L328" s="7" t="s">
+        <v>2904</v>
+      </c>
+      <c r="M328" s="7" t="s">
+        <v>2905</v>
+      </c>
+      <c r="N328" s="7" t="n">
+        <v>5405044781</v>
+      </c>
+      <c r="O328" s="7" t="s">
+        <v>2906</v>
+      </c>
+      <c r="P328" s="7" t="s">
+        <v>2907</v>
+      </c>
+      <c r="Q328" s="7" t="s">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="7" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D329" s="7" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E329" s="7" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F329" s="7" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G329" s="7" t="s">
+        <v>2913</v>
+      </c>
+      <c r="H329" s="7" t="s">
+        <v>2795</v>
+      </c>
+      <c r="I329" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="J329" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="K329" s="7" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L329" s="7" t="s">
+        <v>2914</v>
+      </c>
+      <c r="M329" s="7" t="s">
+        <v>2915</v>
+      </c>
+      <c r="N329" s="7" t="n">
+        <v>3327325549</v>
+      </c>
+      <c r="O329" s="7" t="s">
+        <v>2916</v>
+      </c>
+      <c r="P329" s="7" t="s">
+        <v>2917</v>
+      </c>
+      <c r="Q329" s="7" t="s">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="7" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>2921</v>
+      </c>
+      <c r="D330" s="7" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E330" s="7" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F330" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G330" s="7" t="s">
+        <v>2474</v>
+      </c>
+      <c r="H330" s="7" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I330" s="7" t="s">
+        <v>2923</v>
+      </c>
+      <c r="J330" s="7" t="s">
+        <v>2924</v>
+      </c>
+      <c r="K330" s="7" t="n">
+        <v>5074019380</v>
+      </c>
+      <c r="L330" s="7" t="s">
+        <v>2925</v>
+      </c>
+      <c r="M330" s="7" t="s">
+        <v>2926</v>
+      </c>
+      <c r="N330" s="7" t="n">
+        <v>6602014114</v>
+      </c>
+      <c r="O330" s="7" t="s">
+        <v>2927</v>
+      </c>
+      <c r="P330" s="7" t="s">
+        <v>2928</v>
+      </c>
+      <c r="Q330" s="7" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="331" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="6" t="n">
+        <v>20.12</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C332" s="0" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D332" s="0" t="s">
+        <v>2933</v>
+      </c>
+      <c r="E332" s="0" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F332" s="0" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G332" s="0" t="s">
+        <v>2935</v>
+      </c>
+      <c r="H332" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="I332" s="0" t="s">
+        <v>2937</v>
+      </c>
+      <c r="J332" s="0" t="s">
+        <v>2938</v>
+      </c>
+      <c r="K332" s="0" t="n">
+        <v>7714048508</v>
+      </c>
+      <c r="L332" s="0" t="s">
+        <v>2939</v>
+      </c>
+      <c r="M332" s="0" t="s">
+        <v>2940</v>
+      </c>
+      <c r="N332" s="0" t="n">
+        <v>772394617387</v>
+      </c>
+      <c r="O332" s="0" t="s">
+        <v>2941</v>
+      </c>
+      <c r="P332" s="0" t="s">
+        <v>2942</v>
+      </c>
+      <c r="Q332" s="0" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C333" s="0" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D333" s="0" t="s">
+        <v>2947</v>
+      </c>
+      <c r="E333" s="0" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F333" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G333" s="0" t="s">
+        <v>2948</v>
+      </c>
+      <c r="H333" s="0" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I333" s="0" t="s">
+        <v>2949</v>
+      </c>
+      <c r="J333" s="0" t="s">
+        <v>2950</v>
+      </c>
+      <c r="K333" s="0" t="n">
+        <v>5008053003</v>
+      </c>
+      <c r="L333" s="0" t="s">
+        <v>2951</v>
+      </c>
+      <c r="M333" s="0" t="s">
+        <v>2952</v>
+      </c>
+      <c r="N333" s="0" t="n">
+        <v>4028064530</v>
+      </c>
+      <c r="O333" s="0" t="s">
+        <v>2953</v>
+      </c>
+      <c r="P333" s="0" t="s">
+        <v>2954</v>
+      </c>
+      <c r="Q333" s="0" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C334" s="0" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D334" s="0" t="s">
+        <v>2959</v>
+      </c>
+      <c r="E334" s="0" t="s">
+        <v>2960</v>
+      </c>
+      <c r="F334" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G334" s="0" t="s">
+        <v>2961</v>
+      </c>
+      <c r="H334" s="0" t="s">
+        <v>2960</v>
+      </c>
+      <c r="I334" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="J334" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="K334" s="0" t="n">
+        <v>5000001525</v>
+      </c>
+      <c r="L334" s="0" t="s">
+        <v>2962</v>
+      </c>
+      <c r="M334" s="0" t="s">
+        <v>2963</v>
+      </c>
+      <c r="N334" s="0" t="n">
+        <v>6382065689</v>
+      </c>
+      <c r="O334" s="0" t="s">
+        <v>2964</v>
+      </c>
+      <c r="P334" s="0" t="s">
+        <v>2965</v>
+      </c>
+      <c r="Q334" s="0" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C335" s="0" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D335" s="0" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E335" s="0" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F335" s="0" t="s">
+        <v>2971</v>
+      </c>
+      <c r="G335" s="0" t="s">
+        <v>2972</v>
+      </c>
+      <c r="H335" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="I335" s="0" t="s">
+        <v>2973</v>
+      </c>
+      <c r="J335" s="0" t="s">
+        <v>2974</v>
+      </c>
+      <c r="K335" s="0" t="n">
+        <v>7736076587</v>
+      </c>
+      <c r="L335" s="0" t="s">
+        <v>2975</v>
+      </c>
+      <c r="M335" s="0" t="s">
+        <v>2976</v>
+      </c>
+      <c r="N335" s="0" t="n">
+        <v>232704633826</v>
+      </c>
+      <c r="O335" s="0" t="s">
+        <v>2977</v>
+      </c>
+      <c r="P335" s="0" t="s">
+        <v>2978</v>
+      </c>
+      <c r="Q335" s="0" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C336" s="0" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D336" s="0" t="s">
+        <v>2983</v>
+      </c>
+      <c r="E336" s="0" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F336" s="0" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G336" s="0" t="s">
+        <v>2651</v>
+      </c>
+      <c r="H336" s="0" t="s">
+        <v>2985</v>
+      </c>
+      <c r="I336" s="0" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J336" s="0" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K336" s="0" t="n">
+        <v>7706752929</v>
+      </c>
+      <c r="L336" s="0" t="s">
+        <v>2986</v>
+      </c>
+      <c r="M336" s="0" t="s">
+        <v>2987</v>
+      </c>
+      <c r="N336" s="0" t="n">
+        <v>5012070241</v>
+      </c>
+      <c r="O336" s="0" t="s">
+        <v>2988</v>
+      </c>
+      <c r="P336" s="0" t="s">
+        <v>2989</v>
+      </c>
+      <c r="Q336" s="0" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C337" s="0" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D337" s="0" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E337" s="0" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F337" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G337" s="0" t="s">
+        <v>2065</v>
+      </c>
+      <c r="H337" s="0" t="s">
+        <v>2995</v>
+      </c>
+      <c r="I337" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J337" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K337" s="0" t="n">
+        <v>5038008142</v>
+      </c>
+      <c r="L337" s="0" t="s">
+        <v>2996</v>
+      </c>
+      <c r="M337" s="0" t="s">
+        <v>2997</v>
+      </c>
+      <c r="N337" s="0" t="n">
+        <v>5809036360</v>
+      </c>
+      <c r="O337" s="0" t="s">
+        <v>2998</v>
+      </c>
+      <c r="P337" s="0" t="s">
+        <v>2999</v>
+      </c>
+      <c r="Q337" s="0" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D338" s="0" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E338" s="0" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F338" s="0" t="s">
+        <v>3005</v>
+      </c>
+      <c r="G338" s="0" t="s">
+        <v>2875</v>
+      </c>
+      <c r="H338" s="0" t="s">
+        <v>2875</v>
+      </c>
+      <c r="I338" s="0" t="s">
+        <v>3006</v>
+      </c>
+      <c r="J338" s="0" t="s">
+        <v>3007</v>
+      </c>
+      <c r="K338" s="0" t="n">
+        <v>5079001435</v>
+      </c>
+      <c r="L338" s="0" t="s">
+        <v>3008</v>
+      </c>
+      <c r="M338" s="0" t="s">
+        <v>3009</v>
+      </c>
+      <c r="N338" s="0" t="n">
+        <v>4825088645</v>
+      </c>
+      <c r="O338" s="0" t="s">
+        <v>3010</v>
+      </c>
+      <c r="P338" s="0" t="s">
+        <v>3011</v>
+      </c>
+      <c r="Q338" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B339" s="0" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C339" s="0" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D339" s="0" t="s">
+        <v>3015</v>
+      </c>
+      <c r="E339" s="0" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F339" s="0" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G339" s="0" t="s">
+        <v>3016</v>
+      </c>
+      <c r="H339" s="0" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I339" s="0" t="s">
+        <v>3017</v>
+      </c>
+      <c r="J339" s="0" t="s">
+        <v>3018</v>
+      </c>
+      <c r="K339" s="0" t="n">
+        <v>7728013512</v>
+      </c>
+      <c r="L339" s="0" t="s">
+        <v>3019</v>
+      </c>
+      <c r="M339" s="0" t="s">
+        <v>3020</v>
+      </c>
+      <c r="N339" s="0" t="n">
+        <v>7734369845</v>
+      </c>
+      <c r="O339" s="0" t="s">
+        <v>3021</v>
+      </c>
+      <c r="P339" s="0" t="s">
+        <v>3022</v>
+      </c>
+      <c r="Q339" s="0" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F340" s="0" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G340" s="0" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H340" s="0" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I340" s="0" t="s">
+        <v>3028</v>
+      </c>
+      <c r="J340" s="0" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K340" s="0" t="n">
+        <v>5041017242</v>
+      </c>
+      <c r="L340" s="0" t="s">
+        <v>3030</v>
+      </c>
+      <c r="M340" s="0" t="s">
+        <v>3031</v>
+      </c>
+      <c r="N340" s="0" t="n">
+        <v>501815028050</v>
+      </c>
+      <c r="O340" s="0" t="s">
+        <v>3032</v>
+      </c>
+      <c r="P340" s="0" t="s">
+        <v>3033</v>
+      </c>
+      <c r="Q340" s="0" t="s">
+        <v>3034</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="3035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="3313">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -9125,6 +9125,841 @@
   </si>
   <si>
     <t xml:space="preserve">oleg-kotov05@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504702469421000152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15047024694 21 000152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 879 700,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТРАЛЬНАЯ БАЗА ИЗМЕРИТЕЛЬНОЙ ТЕХНИКИ МИНИСТЕРСТВА РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ДЕЛАМ ГРАЖДАНСКОЙ ОБОРОНЫ, ЧРЕЗВЫЧАЙНЫМ СИТУАЦИЯМ И ЛИКВИДАЦИИ ПОСЛЕДСТВИЙ СТИХИЙНЫХ БЕДСТВИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ ЦБИТ МЧС РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРАЙМ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРАЙМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПРАЙМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">236006, ОБЛ КАЛИНИНГРАДСКАЯ 39, Г КАЛИНИНГРАД, УЛ БАРНАУЛЬСКАЯ, ДОМ 5, ОФИС 20,4 ЭТАЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-921-8502650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malyshevve@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500900713721000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15009007137 21 000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 506 270,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ "ГОСУДАРСТВЕННЫЙ ФОНД КИНОФИЛЬМОВ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСФИЛЬМОФОНД РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАРПОВА ЕЛЕНА АНАТОЛЬЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КАРПОВА ЕЛЕНА АНАТОЛЬЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Г МОСКВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-977-4363546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easmd@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 678 331,01 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНФОМАТИК" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНФОМАТИК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИНФОМАТИК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124460, Г. МОСКВА 77, Г. Зеленоград, ПР-КТ ПАНФИЛОВСКИЙ, Д. 10, ЭТАЖ 2 КОМ./ОФИС 31/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-6650026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z@6650026.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 807 727,75 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ГЛАВНЫЙ ВОЕННЫЙ КЛИНИЧЕСКИЙ ГОСПИТАЛЬ ВОЙСК НАЦИОНАЛЬНОЙ ГВАРДИИ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГКУЗ "ГВКГ ВОЙСК НАЦИОНАЛЬНОЙ ГВАРДИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "М.Н.Р." (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "М.Н.Р.")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "М.Н.Р."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199178, Г САНКТ-ПЕТЕРБУРГ 78, ЛИНИЯ 15-Я В.О., ДОМ 72, КВАРТИРА 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-812-2711510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spbmnr@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87 686,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПЕЦСНАБМАРКЕТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПЕЦСНАБМАРКЕТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СПЕЦСНАБМАРКЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">607188, ОБЛ НИЖЕГОРОДСКАЯ 52, Г САРОВ, УЛ СИЛКИНА, 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-83130-35472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specsnab_co@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">469 172,70 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНСКИЕ ТЕХНОЛОГИИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНСКИЕ ТЕХНОЛОГИИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕДИЦИНСКИЕ ТЕХНОЛОГИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197136, Г САНКТ-ПЕТЕРБУРГ 78, УЛ ОРДИНАРНАЯ, ДОМ 20, ЛИТЕР А, ПОМ  15-Н ОФИС 3/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-812-6002546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo.medtech.spb@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 339 375,26 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТОРГОВЫЙ ДОМ "РУСМЕД" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТОРГОВЫЙ ДОМ "РУСМЕД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ТОРГОВЫЙ ДОМ "РУСМЕД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">606107, ОБЛ НИЖЕГОРОДСКАЯ 52, Г ПАВЛОВО, УЛ 3-Я СЕВЕРНАЯ, ДОМ 7Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-83171-37712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rusmedtorg-d@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503615527921000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35036155279 21 000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 400,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ТОРГОВ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ЦЕНТР ТОРГОВ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОФАУДИТКОНСАЛТ" (ООО "ПРОФАУДИТКОНСАЛТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 777 662,52 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ  "РУССКАЯ МЕДИЦИНСКАЯ КОРПОРАЦИЯ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ  "РУССКАЯ МЕДИЦИНСКАЯ КОРПОРАЦИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО  "РУССКАЯ МЕДИЦИНСКАЯ КОРПОРАЦИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127422, Г МОСКВА 77, УЛ ТИМИРЯЗЕВСКАЯ, 1, СТР.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-2340733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@rmc-mt.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 594 922,04 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БИМК-КАРДИО-ВОЛГА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БИМК-КАРДИО-ВОЛГА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "БИМК-КАРДИО-ВОЛГА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109044, Г МОСКВА 77, ПЕР 4-Й КРУТИЦКИЙ, 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-6605776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@bimcvol.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772228147321000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722281473 21 000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 525 636,80 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТРАЛЬНАЯ ВОЙСКОВАЯ КОМЕНДАТУРА ПО МАТЕРИАЛЬНО-ТЕХНИЧЕСКОМУ ОБЕСПЕЧЕНИЮ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ВОЙСК НАЦИОНАЛЬНОЙ ГВАРДИИ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГКУ "ЦВК ПО МТО РОСГВАРДИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОСОТДЕЛСПЕЦСТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОСОТДЕЛСПЕЦСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МОСОТДЕЛСПЕЦСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127051, Г МОСКВА 77, ПЕР БОЛЬШОЙ СУХАРЕВСКИЙ, ДОМ 5, СТРОЕНИЕ 2, ЭТ/КОМН. 2/35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-7007485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo@moss.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">694 800,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНА ЮГ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДИЦИНА ЮГ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕДИЦИНА ЮГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344019, ОБЛ. РОСТОВСКАЯ 61, Г. Ростов-на-Дону, УЛ. МАКСИМА ГОРЬКОГО, Д. 276, КОМ. 13А, 15, 15А, 15И</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-863-3093988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dogovor@ugmedica.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 964 826,67 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УРОГИН +" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УРОГИН +")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "УРОГИН +"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143500, ОБЛ МОСКОВСКАЯ 50, Г ИСТРА, ПЕР ЧЕХОВСКИЙ, ДОМ 5, КОМНАТА 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-5101572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urogin.plus@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 947 177,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДЕЛЬРУС МРЦ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДЕЛЬРУС МРЦ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДЕЛЬРУС МРЦ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121108, Г МОСКВА 77, УЛ ИВАНА ФРАНКО, ДОМ 4, КОРПУС 1, ЭТАЖ 1 ПОМЕЩЕНИЕ III КОМНАТА 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-3803601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info-mrc@delrus.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773310856920000950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17733108569 20 000950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 936 654,44 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "Сотка" (ООО "Сотка")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "Сотка"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Российская Федерация, Белгородская обл, Белгород г, Костюкова ул, д. 10, кв. 106Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8(980)374-25-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s0tka31@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1502905325121000112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15029053251 21 000112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">837 247,39 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОИТЕЛЬСТВО И БЛАГОУСТРОЙСТВО" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОИТЕЛЬСТВО И БЛАГОУСТРОЙСТВО")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОИТЕЛЬСТВО И БЛАГОУСТРОЙСТВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109316, Г. МОСКВА 77, УЛ. ТАЛАЛИХИНА, Д. 41, СТР. 9, ЭТАЖ 6 ОФИС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-902-8194219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukolgusheva@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">996 538,89 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОЮЗ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОЮЗ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СОЮЗ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">614007, КРАЙ ПЕРМСКИЙ 59, Г ПЕРМЬ, УЛ МАКСИМА ГОРЬКОГО, ДОМ 75, ПОМЕЩЕНИЕ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-342-2777976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e2777976@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502801489121000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25028014891 21 000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 544 107,64 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ СТАЦИОНАРНОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ МОСКОВСКОЙ ОБЛАСТИ "УВАРОВСКИЙ ДЕТСКИЙ ДОМ-ИНТЕРНАТ ДЛЯ УМСТВЕННО ОТСТАЛЫХ ДЕТЕЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБСУСО МО "УВАРОВСКИЙ ДЕТСКИЙ ДОМ-ИНТЕРНАТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙБЕЗОПАСНОСТЬ" (ООО "СТРОЙБЕЗОПАСНОСТЬ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙБЕЗОПАСНОСТЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143402, ОБЛ МОСКОВСКАЯ 50, Г КРАСНОГОРСК, УЛ ПИОНЕРСКАЯ, ДОМ 1, КОМНАТА 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stroybez18@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773124346721000394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17731243467 21 000394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 804 474,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ МЕДИЦИНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР КАРДИОЛОГИИ" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "НМИЦ КАРДИОЛОГИИ" МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУЗНЕЦОВ ДМИТРИЙ ВАЛЕРЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КУЗНЕЦОВ ДМИТРИЙ ВАЛЕРЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-994-4233677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9111582657@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770501672518000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705016725 18 000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 250 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.07.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.11.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.07.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ "КАДЕТСКИЙ КОРПУС СЛЕДСТВЕННОГО КОМИТЕТА РОССИЙСКОЙ ФЕДЕРАЦИИ ИМЕНИ АЛЕКСАНДРА НЕВСКОГО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГКОУ "КАДЕТСКИЙ КОРПУС СЛЕДСТВЕННОГО КОМИТЕТА РОССИЙСКОЙ ФЕДЕРАЦИИ ИМЕНИ АЛЕКСАНДРА НЕВСКОГО" ИЛИ "КАДЕТСКИЙ КОРПУС СЛЕДСТВЕННОГО КОМИТЕТА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ СТРОИТЕЛЬНАЯ КОМПАНИЯ "ЮГКОМСТРОЙ" (ООО СТРОИТЕЛЬНАЯ КОМПАНИЯ "ЮГКОМСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО СТРОИТЕЛЬНАЯ КОМПАНИЯ "ЮГКОМСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юридический адрес: 355013, г. Ставрополь, ул. Достоевского,75
+Фактический адрес: 355030 г. Ставрополь, 2-й Юго-Западный проезд, 2Г, офис № 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-8652-773616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugkomstroyproekt@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503800814221000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038008142 21 000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 373 885,79 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДИАН ТРЕЙД" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДИАН ТРЕЙД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДИАН ТРЕЙД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141013, ОБЛ МОСКОВСКАЯ 50, Г МЫТИЩИ, УЛ СИЛИКАТНАЯ, ДОМ 36А, СТРОЕНИЕ 2, КАБИНЕТ 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-931-0095259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dian0792105@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773401321421000086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734013214 21 000086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 065 488,99 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР ЭПИДЕМИОЛОГИИ И МИКРОБИОЛОГИИ ИМЕНИ ПОЧЕТНОГО АКАДЕМИКА Н.Ф. ГАМАЛЕИ" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "НИЦЭМ ИМ. Н.Ф. ГАМАЛЕИ" МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛЕОФАРМ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛЕОФАРМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЛЕОФАРМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141100, ОБЛ МОСКОВСКАЯ 50, Г ЩЁЛКОВО, ПР-КТ ПРОЛЕТАРСКИЙ, ДОМ 8, КОРПУС А ПОМЕЩЕНИЕ 5, НЕЖИЛОЕ ПОМЕЩЕНИЕ 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-985-5738848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@leofarm.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772780185620000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27727801856 20 000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86 250,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 1883 "БУТОВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 1883 "БУТОВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Индивидуальный предприниматель Климчук Роман Вячеславович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Климчук Роман Вячеславович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимир, Балакирева, 43Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (995) 313-99-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klimedical@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505001074021000163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35050010740 21 000163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 210 740,38 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ МУНИЦИПАЛЬНОГО ОБРАЗОВАНИЯ ГОРОДСКОЙ ОКРУГ ЛОСИНО-ПЕТРОВСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ЛОСИНО-ПЕТРОВСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙ-ГРУПП" (ООО "СТРОЙ-ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙ-ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142412, ОБЛ. МОСКОВСКАЯ 50, Г. Ногинск, Ш. ЭНТУЗИАСТОВ, Д. 13, ОФИС 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-7997700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stroyygrupp@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507500328721000118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35075003287 21 000118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">566 723,63 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ РУЗСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ РГО МО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУХТИН АЛЕКСЕЙ СЕРГЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КУХТИН АЛЕКСЕЙ СЕРГЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-985-9709029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9859709029@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3501102549321000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35011025493 21 000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 617 912,26 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЕГОРЬЕВСКАЯ СЛУЖБА ЕДИНОГО ЗАКАЗЧИКА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ЕСЕЗ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДОМ - СТРОЙ" (ООО "ДОМ - СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДОМ - СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129327, г. Москва, ул. Коминтерна, дом 26, стр.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-498-6016156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domstroy-2010@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -9214,7 +10049,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -9271,6 +10106,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9288,10 +10127,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q340"/>
+  <dimension ref="A1:Q367"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A315" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A331" activeCellId="0" sqref="331:331"/>
+      <selection pane="topLeft" activeCell="A341" activeCellId="0" sqref="341:341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25524,480 +26363,1863 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
+      <c r="A332" s="7" t="s">
         <v>2930</v>
       </c>
-      <c r="B332" s="0" t="s">
+      <c r="B332" s="7" t="s">
         <v>2931</v>
       </c>
-      <c r="C332" s="0" t="s">
+      <c r="C332" s="7" t="s">
         <v>2932</v>
       </c>
-      <c r="D332" s="0" t="s">
+      <c r="D332" s="7" t="s">
         <v>2933</v>
       </c>
-      <c r="E332" s="0" t="s">
+      <c r="E332" s="7" t="s">
         <v>2934</v>
       </c>
-      <c r="F332" s="0" t="s">
+      <c r="F332" s="7" t="s">
         <v>2473</v>
       </c>
-      <c r="G332" s="0" t="s">
+      <c r="G332" s="7" t="s">
         <v>2935</v>
       </c>
-      <c r="H332" s="0" t="s">
+      <c r="H332" s="7" t="s">
         <v>2936</v>
       </c>
-      <c r="I332" s="0" t="s">
+      <c r="I332" s="7" t="s">
         <v>2937</v>
       </c>
-      <c r="J332" s="0" t="s">
+      <c r="J332" s="7" t="s">
         <v>2938</v>
       </c>
-      <c r="K332" s="0" t="n">
+      <c r="K332" s="7" t="n">
         <v>7714048508</v>
       </c>
-      <c r="L332" s="0" t="s">
+      <c r="L332" s="7" t="s">
         <v>2939</v>
       </c>
-      <c r="M332" s="0" t="s">
+      <c r="M332" s="7" t="s">
         <v>2940</v>
       </c>
-      <c r="N332" s="0" t="n">
+      <c r="N332" s="7" t="n">
         <v>772394617387</v>
       </c>
-      <c r="O332" s="0" t="s">
+      <c r="O332" s="7" t="s">
         <v>2941</v>
       </c>
-      <c r="P332" s="0" t="s">
+      <c r="P332" s="7" t="s">
         <v>2942</v>
       </c>
-      <c r="Q332" s="0" t="s">
+      <c r="Q332" s="7" t="s">
         <v>2943</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
+      <c r="A333" s="7" t="s">
         <v>2944</v>
       </c>
-      <c r="B333" s="0" t="s">
+      <c r="B333" s="7" t="s">
         <v>2945</v>
       </c>
-      <c r="C333" s="0" t="s">
+      <c r="C333" s="7" t="s">
         <v>2946</v>
       </c>
-      <c r="D333" s="0" t="s">
+      <c r="D333" s="7" t="s">
         <v>2947</v>
       </c>
-      <c r="E333" s="0" t="s">
+      <c r="E333" s="7" t="s">
         <v>2520</v>
       </c>
-      <c r="F333" s="0" t="s">
+      <c r="F333" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G333" s="0" t="s">
+      <c r="G333" s="7" t="s">
         <v>2948</v>
       </c>
-      <c r="H333" s="0" t="s">
+      <c r="H333" s="7" t="s">
         <v>2078</v>
       </c>
-      <c r="I333" s="0" t="s">
+      <c r="I333" s="7" t="s">
         <v>2949</v>
       </c>
-      <c r="J333" s="0" t="s">
+      <c r="J333" s="7" t="s">
         <v>2950</v>
       </c>
-      <c r="K333" s="0" t="n">
+      <c r="K333" s="7" t="n">
         <v>5008053003</v>
       </c>
-      <c r="L333" s="0" t="s">
+      <c r="L333" s="7" t="s">
         <v>2951</v>
       </c>
-      <c r="M333" s="0" t="s">
+      <c r="M333" s="7" t="s">
         <v>2952</v>
       </c>
-      <c r="N333" s="0" t="n">
+      <c r="N333" s="7" t="n">
         <v>4028064530</v>
       </c>
-      <c r="O333" s="0" t="s">
+      <c r="O333" s="7" t="s">
         <v>2953</v>
       </c>
-      <c r="P333" s="0" t="s">
+      <c r="P333" s="7" t="s">
         <v>2954</v>
       </c>
-      <c r="Q333" s="0" t="s">
+      <c r="Q333" s="7" t="s">
         <v>2955</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
+      <c r="A334" s="7" t="s">
         <v>2956</v>
       </c>
-      <c r="B334" s="0" t="s">
+      <c r="B334" s="7" t="s">
         <v>2957</v>
       </c>
-      <c r="C334" s="0" t="s">
+      <c r="C334" s="7" t="s">
         <v>2958</v>
       </c>
-      <c r="D334" s="0" t="s">
+      <c r="D334" s="7" t="s">
         <v>2959</v>
       </c>
-      <c r="E334" s="0" t="s">
+      <c r="E334" s="7" t="s">
         <v>2960</v>
       </c>
-      <c r="F334" s="0" t="s">
+      <c r="F334" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G334" s="0" t="s">
+      <c r="G334" s="7" t="s">
         <v>2961</v>
       </c>
-      <c r="H334" s="0" t="s">
+      <c r="H334" s="7" t="s">
         <v>2960</v>
       </c>
-      <c r="I334" s="0" t="s">
+      <c r="I334" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="J334" s="0" t="s">
+      <c r="J334" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="K334" s="0" t="n">
+      <c r="K334" s="7" t="n">
         <v>5000001525</v>
       </c>
-      <c r="L334" s="0" t="s">
+      <c r="L334" s="7" t="s">
         <v>2962</v>
       </c>
-      <c r="M334" s="0" t="s">
+      <c r="M334" s="7" t="s">
         <v>2963</v>
       </c>
-      <c r="N334" s="0" t="n">
+      <c r="N334" s="7" t="n">
         <v>6382065689</v>
       </c>
-      <c r="O334" s="0" t="s">
+      <c r="O334" s="7" t="s">
         <v>2964</v>
       </c>
-      <c r="P334" s="0" t="s">
+      <c r="P334" s="7" t="s">
         <v>2965</v>
       </c>
-      <c r="Q334" s="0" t="s">
+      <c r="Q334" s="7" t="s">
         <v>2966</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+      <c r="A335" s="7" t="s">
         <v>2967</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="B335" s="7" t="s">
         <v>2968</v>
       </c>
-      <c r="C335" s="0" t="s">
+      <c r="C335" s="7" t="s">
         <v>2969</v>
       </c>
-      <c r="D335" s="0" t="s">
+      <c r="D335" s="7" t="s">
         <v>2970</v>
       </c>
-      <c r="E335" s="0" t="s">
+      <c r="E335" s="7" t="s">
         <v>2934</v>
       </c>
-      <c r="F335" s="0" t="s">
+      <c r="F335" s="7" t="s">
         <v>2971</v>
       </c>
-      <c r="G335" s="0" t="s">
+      <c r="G335" s="7" t="s">
         <v>2972</v>
       </c>
-      <c r="H335" s="0" t="s">
+      <c r="H335" s="7" t="s">
         <v>2936</v>
       </c>
-      <c r="I335" s="0" t="s">
+      <c r="I335" s="7" t="s">
         <v>2973</v>
       </c>
-      <c r="J335" s="0" t="s">
+      <c r="J335" s="7" t="s">
         <v>2974</v>
       </c>
-      <c r="K335" s="0" t="n">
+      <c r="K335" s="7" t="n">
         <v>7736076587</v>
       </c>
-      <c r="L335" s="0" t="s">
+      <c r="L335" s="7" t="s">
         <v>2975</v>
       </c>
-      <c r="M335" s="0" t="s">
+      <c r="M335" s="7" t="s">
         <v>2976</v>
       </c>
-      <c r="N335" s="0" t="n">
+      <c r="N335" s="7" t="n">
         <v>232704633826</v>
       </c>
-      <c r="O335" s="0" t="s">
+      <c r="O335" s="7" t="s">
         <v>2977</v>
       </c>
-      <c r="P335" s="0" t="s">
+      <c r="P335" s="7" t="s">
         <v>2978</v>
       </c>
-      <c r="Q335" s="0" t="s">
+      <c r="Q335" s="7" t="s">
         <v>2979</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+      <c r="A336" s="7" t="s">
         <v>2980</v>
       </c>
-      <c r="B336" s="0" t="s">
+      <c r="B336" s="7" t="s">
         <v>2981</v>
       </c>
-      <c r="C336" s="0" t="s">
+      <c r="C336" s="7" t="s">
         <v>2982</v>
       </c>
-      <c r="D336" s="0" t="s">
+      <c r="D336" s="7" t="s">
         <v>2983</v>
       </c>
-      <c r="E336" s="0" t="s">
+      <c r="E336" s="7" t="s">
         <v>2984</v>
       </c>
-      <c r="F336" s="0" t="s">
+      <c r="F336" s="7" t="s">
         <v>2223</v>
       </c>
-      <c r="G336" s="0" t="s">
+      <c r="G336" s="7" t="s">
         <v>2651</v>
       </c>
-      <c r="H336" s="0" t="s">
+      <c r="H336" s="7" t="s">
         <v>2985</v>
       </c>
-      <c r="I336" s="0" t="s">
+      <c r="I336" s="7" t="s">
         <v>2863</v>
       </c>
-      <c r="J336" s="0" t="s">
+      <c r="J336" s="7" t="s">
         <v>2864</v>
       </c>
-      <c r="K336" s="0" t="n">
+      <c r="K336" s="7" t="n">
         <v>7706752929</v>
       </c>
-      <c r="L336" s="0" t="s">
+      <c r="L336" s="7" t="s">
         <v>2986</v>
       </c>
-      <c r="M336" s="0" t="s">
+      <c r="M336" s="7" t="s">
         <v>2987</v>
       </c>
-      <c r="N336" s="0" t="n">
+      <c r="N336" s="7" t="n">
         <v>5012070241</v>
       </c>
-      <c r="O336" s="0" t="s">
+      <c r="O336" s="7" t="s">
         <v>2988</v>
       </c>
-      <c r="P336" s="0" t="s">
+      <c r="P336" s="7" t="s">
         <v>2989</v>
       </c>
-      <c r="Q336" s="0" t="s">
+      <c r="Q336" s="7" t="s">
         <v>2990</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
+      <c r="A337" s="7" t="s">
         <v>2991</v>
       </c>
-      <c r="B337" s="0" t="s">
+      <c r="B337" s="7" t="s">
         <v>2992</v>
       </c>
-      <c r="C337" s="0" t="s">
+      <c r="C337" s="7" t="s">
         <v>2993</v>
       </c>
-      <c r="D337" s="0" t="s">
+      <c r="D337" s="7" t="s">
         <v>2994</v>
       </c>
-      <c r="E337" s="0" t="s">
+      <c r="E337" s="7" t="s">
         <v>2065</v>
       </c>
-      <c r="F337" s="0" t="s">
+      <c r="F337" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G337" s="0" t="s">
+      <c r="G337" s="7" t="s">
         <v>2065</v>
       </c>
-      <c r="H337" s="0" t="s">
+      <c r="H337" s="7" t="s">
         <v>2995</v>
       </c>
-      <c r="I337" s="0" t="s">
+      <c r="I337" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="J337" s="0" t="s">
+      <c r="J337" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="K337" s="0" t="n">
+      <c r="K337" s="7" t="n">
         <v>5038008142</v>
       </c>
-      <c r="L337" s="0" t="s">
+      <c r="L337" s="7" t="s">
         <v>2996</v>
       </c>
-      <c r="M337" s="0" t="s">
+      <c r="M337" s="7" t="s">
         <v>2997</v>
       </c>
-      <c r="N337" s="0" t="n">
+      <c r="N337" s="7" t="n">
         <v>5809036360</v>
       </c>
-      <c r="O337" s="0" t="s">
+      <c r="O337" s="7" t="s">
         <v>2998</v>
       </c>
-      <c r="P337" s="0" t="s">
+      <c r="P337" s="7" t="s">
         <v>2999</v>
       </c>
-      <c r="Q337" s="0" t="s">
+      <c r="Q337" s="7" t="s">
         <v>3000</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
+      <c r="A338" s="7" t="s">
         <v>3001</v>
       </c>
-      <c r="B338" s="0" t="s">
+      <c r="B338" s="7" t="s">
         <v>3002</v>
       </c>
-      <c r="C338" s="0" t="s">
+      <c r="C338" s="7" t="s">
         <v>3003</v>
       </c>
-      <c r="D338" s="0" t="s">
+      <c r="D338" s="7" t="s">
         <v>3004</v>
       </c>
-      <c r="E338" s="0" t="s">
+      <c r="E338" s="7" t="s">
         <v>2875</v>
       </c>
-      <c r="F338" s="0" t="s">
+      <c r="F338" s="7" t="s">
         <v>3005</v>
       </c>
-      <c r="G338" s="0" t="s">
+      <c r="G338" s="7" t="s">
         <v>2875</v>
       </c>
-      <c r="H338" s="0" t="s">
+      <c r="H338" s="7" t="s">
         <v>2875</v>
       </c>
-      <c r="I338" s="0" t="s">
+      <c r="I338" s="7" t="s">
         <v>3006</v>
       </c>
-      <c r="J338" s="0" t="s">
+      <c r="J338" s="7" t="s">
         <v>3007</v>
       </c>
-      <c r="K338" s="0" t="n">
+      <c r="K338" s="7" t="n">
         <v>5079001435</v>
       </c>
-      <c r="L338" s="0" t="s">
+      <c r="L338" s="7" t="s">
         <v>3008</v>
       </c>
-      <c r="M338" s="0" t="s">
+      <c r="M338" s="7" t="s">
         <v>3009</v>
       </c>
-      <c r="N338" s="0" t="n">
+      <c r="N338" s="7" t="n">
         <v>4825088645</v>
       </c>
-      <c r="O338" s="0" t="s">
+      <c r="O338" s="7" t="s">
         <v>3010</v>
       </c>
-      <c r="P338" s="0" t="s">
+      <c r="P338" s="7" t="s">
         <v>3011</v>
       </c>
-      <c r="Q338" s="0" t="s">
+      <c r="Q338" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
+      <c r="A339" s="7" t="s">
         <v>3012</v>
       </c>
-      <c r="B339" s="0" t="s">
+      <c r="B339" s="7" t="s">
         <v>3013</v>
       </c>
-      <c r="C339" s="0" t="s">
+      <c r="C339" s="7" t="s">
         <v>3014</v>
       </c>
-      <c r="D339" s="0" t="s">
+      <c r="D339" s="7" t="s">
         <v>3015</v>
       </c>
-      <c r="E339" s="0" t="s">
+      <c r="E339" s="7" t="s">
         <v>2201</v>
       </c>
-      <c r="F339" s="0" t="s">
+      <c r="F339" s="7" t="s">
         <v>2186</v>
       </c>
-      <c r="G339" s="0" t="s">
+      <c r="G339" s="7" t="s">
         <v>3016</v>
       </c>
-      <c r="H339" s="0" t="s">
+      <c r="H339" s="7" t="s">
         <v>2201</v>
       </c>
-      <c r="I339" s="0" t="s">
+      <c r="I339" s="7" t="s">
         <v>3017</v>
       </c>
-      <c r="J339" s="0" t="s">
+      <c r="J339" s="7" t="s">
         <v>3018</v>
       </c>
-      <c r="K339" s="0" t="n">
+      <c r="K339" s="7" t="n">
         <v>7728013512</v>
       </c>
-      <c r="L339" s="0" t="s">
+      <c r="L339" s="7" t="s">
         <v>3019</v>
       </c>
-      <c r="M339" s="0" t="s">
+      <c r="M339" s="7" t="s">
         <v>3020</v>
       </c>
-      <c r="N339" s="0" t="n">
+      <c r="N339" s="7" t="n">
         <v>7734369845</v>
       </c>
-      <c r="O339" s="0" t="s">
+      <c r="O339" s="7" t="s">
         <v>3021</v>
       </c>
-      <c r="P339" s="0" t="s">
+      <c r="P339" s="7" t="s">
         <v>3022</v>
       </c>
-      <c r="Q339" s="0" t="s">
+      <c r="Q339" s="7" t="s">
         <v>3023</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
+      <c r="A340" s="7" t="s">
         <v>3024</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="B340" s="7" t="s">
         <v>3025</v>
       </c>
-      <c r="C340" s="0" t="s">
+      <c r="C340" s="7" t="s">
         <v>3026</v>
       </c>
-      <c r="D340" s="0" t="s">
+      <c r="D340" s="7" t="s">
         <v>3027</v>
       </c>
-      <c r="E340" s="0" t="s">
+      <c r="E340" s="7" t="s">
         <v>2172</v>
       </c>
-      <c r="F340" s="0" t="s">
+      <c r="F340" s="7" t="s">
         <v>2223</v>
       </c>
-      <c r="G340" s="0" t="s">
+      <c r="G340" s="7" t="s">
         <v>2618</v>
       </c>
-      <c r="H340" s="0" t="s">
+      <c r="H340" s="7" t="s">
         <v>2172</v>
       </c>
-      <c r="I340" s="0" t="s">
+      <c r="I340" s="7" t="s">
         <v>3028</v>
       </c>
-      <c r="J340" s="0" t="s">
+      <c r="J340" s="7" t="s">
         <v>3029</v>
       </c>
-      <c r="K340" s="0" t="n">
+      <c r="K340" s="7" t="n">
         <v>5041017242</v>
       </c>
-      <c r="L340" s="0" t="s">
+      <c r="L340" s="7" t="s">
         <v>3030</v>
       </c>
-      <c r="M340" s="0" t="s">
+      <c r="M340" s="7" t="s">
         <v>3031</v>
       </c>
-      <c r="N340" s="0" t="n">
+      <c r="N340" s="7" t="n">
         <v>501815028050</v>
       </c>
-      <c r="O340" s="0" t="s">
+      <c r="O340" s="7" t="s">
         <v>3032</v>
       </c>
-      <c r="P340" s="0" t="s">
+      <c r="P340" s="7" t="s">
         <v>3033</v>
       </c>
-      <c r="Q340" s="0" t="s">
+      <c r="Q340" s="7" t="s">
         <v>3034</v>
+      </c>
+    </row>
+    <row r="341" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="6" t="n">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="12" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D342" s="12" t="s">
+        <v>3038</v>
+      </c>
+      <c r="E342" s="12" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F342" s="12" t="s">
+        <v>3039</v>
+      </c>
+      <c r="G342" s="12" t="s">
+        <v>3040</v>
+      </c>
+      <c r="H342" s="12" t="s">
+        <v>3041</v>
+      </c>
+      <c r="I342" s="12" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J342" s="12" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K342" s="12" t="n">
+        <v>5047024694</v>
+      </c>
+      <c r="L342" s="12" t="s">
+        <v>3044</v>
+      </c>
+      <c r="M342" s="12" t="s">
+        <v>3045</v>
+      </c>
+      <c r="N342" s="12" t="n">
+        <v>3906393518</v>
+      </c>
+      <c r="O342" s="12" t="s">
+        <v>3046</v>
+      </c>
+      <c r="P342" s="12" t="s">
+        <v>3047</v>
+      </c>
+      <c r="Q342" s="12" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="12" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>3051</v>
+      </c>
+      <c r="D343" s="12" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E343" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F343" s="12" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G343" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H343" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I343" s="12" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J343" s="12" t="s">
+        <v>3054</v>
+      </c>
+      <c r="K343" s="12" t="n">
+        <v>5009007137</v>
+      </c>
+      <c r="L343" s="12" t="s">
+        <v>3055</v>
+      </c>
+      <c r="M343" s="12" t="s">
+        <v>3056</v>
+      </c>
+      <c r="N343" s="12" t="n">
+        <v>771517558823</v>
+      </c>
+      <c r="O343" s="12" t="s">
+        <v>3057</v>
+      </c>
+      <c r="P343" s="12" t="s">
+        <v>3058</v>
+      </c>
+      <c r="Q343" s="12" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="12" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>3061</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D344" s="12" t="s">
+        <v>3063</v>
+      </c>
+      <c r="E344" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F344" s="12" t="s">
+        <v>3064</v>
+      </c>
+      <c r="G344" s="12" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H344" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I344" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J344" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K344" s="12" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L344" s="12" t="s">
+        <v>3065</v>
+      </c>
+      <c r="M344" s="12" t="s">
+        <v>3066</v>
+      </c>
+      <c r="N344" s="12" t="n">
+        <v>7735170548</v>
+      </c>
+      <c r="O344" s="12" t="s">
+        <v>3067</v>
+      </c>
+      <c r="P344" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="Q344" s="12" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="12" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D345" s="12" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E345" s="12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F345" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G345" s="12" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H345" s="12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I345" s="12" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J345" s="12" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K345" s="12" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L345" s="12" t="s">
+        <v>3076</v>
+      </c>
+      <c r="M345" s="12" t="s">
+        <v>3077</v>
+      </c>
+      <c r="N345" s="12" t="n">
+        <v>7801566016</v>
+      </c>
+      <c r="O345" s="12" t="s">
+        <v>3078</v>
+      </c>
+      <c r="P345" s="12" t="s">
+        <v>3079</v>
+      </c>
+      <c r="Q345" s="12" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="12" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D346" s="12" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E346" s="12" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F346" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G346" s="12" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H346" s="12" t="s">
+        <v>3085</v>
+      </c>
+      <c r="I346" s="12" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J346" s="12" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K346" s="12" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L346" s="12" t="s">
+        <v>3086</v>
+      </c>
+      <c r="M346" s="12" t="s">
+        <v>3087</v>
+      </c>
+      <c r="N346" s="12" t="n">
+        <v>5254486665</v>
+      </c>
+      <c r="O346" s="12" t="s">
+        <v>3088</v>
+      </c>
+      <c r="P346" s="12" t="s">
+        <v>3089</v>
+      </c>
+      <c r="Q346" s="12" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="12" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D347" s="12" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E347" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F347" s="12" t="s">
+        <v>3095</v>
+      </c>
+      <c r="G347" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H347" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I347" s="12" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J347" s="12" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K347" s="12" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L347" s="12" t="s">
+        <v>3096</v>
+      </c>
+      <c r="M347" s="12" t="s">
+        <v>3097</v>
+      </c>
+      <c r="N347" s="12" t="n">
+        <v>7813611802</v>
+      </c>
+      <c r="O347" s="12" t="s">
+        <v>3098</v>
+      </c>
+      <c r="P347" s="12" t="s">
+        <v>3099</v>
+      </c>
+      <c r="Q347" s="12" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="12" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D348" s="12" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E348" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F348" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G348" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="H348" s="12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="I348" s="12" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J348" s="12" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K348" s="12" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L348" s="12" t="s">
+        <v>3105</v>
+      </c>
+      <c r="M348" s="12" t="s">
+        <v>3106</v>
+      </c>
+      <c r="N348" s="12" t="n">
+        <v>5252042135</v>
+      </c>
+      <c r="O348" s="12" t="s">
+        <v>3107</v>
+      </c>
+      <c r="P348" s="12" t="s">
+        <v>3108</v>
+      </c>
+      <c r="Q348" s="12" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="12" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D349" s="12" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E349" s="12" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F349" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G349" s="12" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H349" s="12" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I349" s="12" t="s">
+        <v>3115</v>
+      </c>
+      <c r="J349" s="12" t="s">
+        <v>3116</v>
+      </c>
+      <c r="K349" s="12" t="n">
+        <v>5036155279</v>
+      </c>
+      <c r="L349" s="12" t="s">
+        <v>3117</v>
+      </c>
+      <c r="M349" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N349" s="12" t="n">
+        <v>7716874274</v>
+      </c>
+      <c r="O349" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P349" s="12" t="n">
+        <v>74993904668</v>
+      </c>
+      <c r="Q349" s="12" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="12" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D350" s="12" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E350" s="12" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F350" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G350" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="H350" s="12" t="s">
+        <v>3122</v>
+      </c>
+      <c r="I350" s="12" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J350" s="12" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K350" s="12" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L350" s="12" t="s">
+        <v>3124</v>
+      </c>
+      <c r="M350" s="12" t="s">
+        <v>3125</v>
+      </c>
+      <c r="N350" s="12" t="n">
+        <v>7726566487</v>
+      </c>
+      <c r="O350" s="12" t="s">
+        <v>3126</v>
+      </c>
+      <c r="P350" s="12" t="s">
+        <v>3127</v>
+      </c>
+      <c r="Q350" s="12" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="12" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>3131</v>
+      </c>
+      <c r="D351" s="12" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E351" s="12" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F351" s="12" t="s">
+        <v>3095</v>
+      </c>
+      <c r="G351" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H351" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I351" s="12" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J351" s="12" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K351" s="12" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L351" s="12" t="s">
+        <v>3133</v>
+      </c>
+      <c r="M351" s="12" t="s">
+        <v>3134</v>
+      </c>
+      <c r="N351" s="12" t="n">
+        <v>7705883894</v>
+      </c>
+      <c r="O351" s="12" t="s">
+        <v>3135</v>
+      </c>
+      <c r="P351" s="12" t="s">
+        <v>3136</v>
+      </c>
+      <c r="Q351" s="12" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="12" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D352" s="12" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E352" s="12" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F352" s="12" t="s">
+        <v>3143</v>
+      </c>
+      <c r="G352" s="12" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H352" s="12" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I352" s="12" t="s">
+        <v>3144</v>
+      </c>
+      <c r="J352" s="12" t="s">
+        <v>3145</v>
+      </c>
+      <c r="K352" s="12" t="n">
+        <v>7722281473</v>
+      </c>
+      <c r="L352" s="12" t="s">
+        <v>3146</v>
+      </c>
+      <c r="M352" s="12" t="s">
+        <v>3147</v>
+      </c>
+      <c r="N352" s="12" t="n">
+        <v>7729594620</v>
+      </c>
+      <c r="O352" s="12" t="s">
+        <v>3148</v>
+      </c>
+      <c r="P352" s="12" t="s">
+        <v>3149</v>
+      </c>
+      <c r="Q352" s="12" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="12" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D353" s="12" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E353" s="12" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F353" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G353" s="12" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H353" s="12" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I353" s="12" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J353" s="12" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K353" s="12" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L353" s="12" t="s">
+        <v>3155</v>
+      </c>
+      <c r="M353" s="12" t="s">
+        <v>3156</v>
+      </c>
+      <c r="N353" s="12" t="n">
+        <v>6167200343</v>
+      </c>
+      <c r="O353" s="12" t="s">
+        <v>3157</v>
+      </c>
+      <c r="P353" s="12" t="s">
+        <v>3158</v>
+      </c>
+      <c r="Q353" s="12" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="12" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D354" s="12" t="s">
+        <v>3163</v>
+      </c>
+      <c r="E354" s="12" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F354" s="12" t="s">
+        <v>3095</v>
+      </c>
+      <c r="G354" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H354" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I354" s="12" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J354" s="12" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K354" s="12" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L354" s="12" t="s">
+        <v>3164</v>
+      </c>
+      <c r="M354" s="12" t="s">
+        <v>3165</v>
+      </c>
+      <c r="N354" s="12" t="n">
+        <v>5017113925</v>
+      </c>
+      <c r="O354" s="12" t="s">
+        <v>3166</v>
+      </c>
+      <c r="P354" s="12" t="s">
+        <v>3167</v>
+      </c>
+      <c r="Q354" s="12" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="12" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>3171</v>
+      </c>
+      <c r="D355" s="12" t="s">
+        <v>3172</v>
+      </c>
+      <c r="E355" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F355" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G355" s="12" t="s">
+        <v>2257</v>
+      </c>
+      <c r="H355" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I355" s="12" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J355" s="12" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K355" s="12" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L355" s="12" t="s">
+        <v>3173</v>
+      </c>
+      <c r="M355" s="12" t="s">
+        <v>3174</v>
+      </c>
+      <c r="N355" s="12" t="n">
+        <v>7731178881</v>
+      </c>
+      <c r="O355" s="12" t="s">
+        <v>3175</v>
+      </c>
+      <c r="P355" s="12" t="s">
+        <v>3176</v>
+      </c>
+      <c r="Q355" s="12" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="12" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="D356" s="12" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E356" s="12" t="s">
+        <v>3182</v>
+      </c>
+      <c r="F356" s="12" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G356" s="12" t="s">
+        <v>3183</v>
+      </c>
+      <c r="H356" s="12" t="s">
+        <v>3184</v>
+      </c>
+      <c r="I356" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J356" s="12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K356" s="12" t="n">
+        <v>7733108569</v>
+      </c>
+      <c r="L356" s="12" t="s">
+        <v>3185</v>
+      </c>
+      <c r="M356" s="12" t="s">
+        <v>3186</v>
+      </c>
+      <c r="N356" s="12" t="n">
+        <v>3123443583</v>
+      </c>
+      <c r="O356" s="12" t="s">
+        <v>3187</v>
+      </c>
+      <c r="P356" s="12" t="s">
+        <v>3188</v>
+      </c>
+      <c r="Q356" s="12" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="12" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D357" s="12" t="s">
+        <v>3193</v>
+      </c>
+      <c r="E357" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F357" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G357" s="12" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H357" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="I357" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J357" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K357" s="12" t="n">
+        <v>5029053251</v>
+      </c>
+      <c r="L357" s="12" t="s">
+        <v>3194</v>
+      </c>
+      <c r="M357" s="12" t="s">
+        <v>3195</v>
+      </c>
+      <c r="N357" s="12" t="n">
+        <v>7722498324</v>
+      </c>
+      <c r="O357" s="12" t="s">
+        <v>3196</v>
+      </c>
+      <c r="P357" s="12" t="s">
+        <v>3197</v>
+      </c>
+      <c r="Q357" s="12" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="12" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D358" s="12" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E358" s="12" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F358" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G358" s="12" t="s">
+        <v>3203</v>
+      </c>
+      <c r="H358" s="12" t="s">
+        <v>3204</v>
+      </c>
+      <c r="I358" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J358" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K358" s="12" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L358" s="12" t="s">
+        <v>3205</v>
+      </c>
+      <c r="M358" s="12" t="s">
+        <v>3206</v>
+      </c>
+      <c r="N358" s="12" t="n">
+        <v>5904359890</v>
+      </c>
+      <c r="O358" s="12" t="s">
+        <v>3207</v>
+      </c>
+      <c r="P358" s="12" t="s">
+        <v>3208</v>
+      </c>
+      <c r="Q358" s="12" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="12" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>3212</v>
+      </c>
+      <c r="D359" s="12" t="s">
+        <v>3213</v>
+      </c>
+      <c r="E359" s="12" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F359" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G359" s="12" t="s">
+        <v>2172</v>
+      </c>
+      <c r="H359" s="12" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I359" s="12" t="s">
+        <v>3214</v>
+      </c>
+      <c r="J359" s="12" t="s">
+        <v>3215</v>
+      </c>
+      <c r="K359" s="12" t="n">
+        <v>5028014891</v>
+      </c>
+      <c r="L359" s="12" t="s">
+        <v>3216</v>
+      </c>
+      <c r="M359" s="12" t="s">
+        <v>3217</v>
+      </c>
+      <c r="N359" s="12" t="n">
+        <v>5024182140</v>
+      </c>
+      <c r="O359" s="12" t="s">
+        <v>3218</v>
+      </c>
+      <c r="P359" s="12" t="n">
+        <v>89169470278</v>
+      </c>
+      <c r="Q359" s="12" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="12" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D360" s="12" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E360" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F360" s="12" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G360" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H360" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I360" s="12" t="s">
+        <v>3225</v>
+      </c>
+      <c r="J360" s="12" t="s">
+        <v>3226</v>
+      </c>
+      <c r="K360" s="12" t="n">
+        <v>7731243467</v>
+      </c>
+      <c r="L360" s="12" t="s">
+        <v>3227</v>
+      </c>
+      <c r="M360" s="12" t="s">
+        <v>3228</v>
+      </c>
+      <c r="N360" s="12" t="n">
+        <v>780524956428</v>
+      </c>
+      <c r="O360" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="P360" s="12" t="s">
+        <v>3229</v>
+      </c>
+      <c r="Q360" s="12" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="12" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D361" s="12" t="s">
+        <v>3234</v>
+      </c>
+      <c r="E361" s="12" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F361" s="12" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G361" s="12" t="s">
+        <v>3237</v>
+      </c>
+      <c r="H361" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I361" s="12" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J361" s="12" t="s">
+        <v>3239</v>
+      </c>
+      <c r="K361" s="12" t="n">
+        <v>7705016725</v>
+      </c>
+      <c r="L361" s="12" t="s">
+        <v>3240</v>
+      </c>
+      <c r="M361" s="12" t="s">
+        <v>3241</v>
+      </c>
+      <c r="N361" s="12" t="n">
+        <v>2634090784</v>
+      </c>
+      <c r="O361" s="14" t="s">
+        <v>3242</v>
+      </c>
+      <c r="P361" s="12" t="s">
+        <v>3243</v>
+      </c>
+      <c r="Q361" s="12" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="12" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>3246</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D362" s="12" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E362" s="12" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F362" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G362" s="12" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H362" s="12" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I362" s="12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J362" s="12" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K362" s="12" t="n">
+        <v>5038008142</v>
+      </c>
+      <c r="L362" s="12" t="s">
+        <v>3249</v>
+      </c>
+      <c r="M362" s="12" t="s">
+        <v>3250</v>
+      </c>
+      <c r="N362" s="12" t="n">
+        <v>5029212832</v>
+      </c>
+      <c r="O362" s="12" t="s">
+        <v>3251</v>
+      </c>
+      <c r="P362" s="12" t="s">
+        <v>3252</v>
+      </c>
+      <c r="Q362" s="12" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="12" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B363" s="12" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>3256</v>
+      </c>
+      <c r="D363" s="12" t="s">
+        <v>3257</v>
+      </c>
+      <c r="E363" s="12" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F363" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G363" s="12" t="s">
+        <v>2995</v>
+      </c>
+      <c r="H363" s="12" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I363" s="12" t="s">
+        <v>3259</v>
+      </c>
+      <c r="J363" s="12" t="s">
+        <v>3260</v>
+      </c>
+      <c r="K363" s="12" t="n">
+        <v>7734013214</v>
+      </c>
+      <c r="L363" s="12" t="s">
+        <v>3261</v>
+      </c>
+      <c r="M363" s="12" t="s">
+        <v>3262</v>
+      </c>
+      <c r="N363" s="12" t="n">
+        <v>5050137659</v>
+      </c>
+      <c r="O363" s="12" t="s">
+        <v>3263</v>
+      </c>
+      <c r="P363" s="12" t="s">
+        <v>3264</v>
+      </c>
+      <c r="Q363" s="12" t="s">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="12" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D364" s="12" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E364" s="12" t="s">
+        <v>2036</v>
+      </c>
+      <c r="F364" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G364" s="12" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H364" s="12" t="s">
+        <v>3270</v>
+      </c>
+      <c r="I364" s="12" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J364" s="12" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K364" s="12" t="n">
+        <v>7727801856</v>
+      </c>
+      <c r="L364" s="12" t="s">
+        <v>3273</v>
+      </c>
+      <c r="M364" s="12" t="s">
+        <v>3274</v>
+      </c>
+      <c r="N364" s="12" t="n">
+        <v>332902822465</v>
+      </c>
+      <c r="O364" s="12" t="s">
+        <v>3275</v>
+      </c>
+      <c r="P364" s="12" t="s">
+        <v>3276</v>
+      </c>
+      <c r="Q364" s="12" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="12" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D365" s="12" t="s">
+        <v>3281</v>
+      </c>
+      <c r="E365" s="12" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F365" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G365" s="12" t="s">
+        <v>2429</v>
+      </c>
+      <c r="H365" s="12" t="s">
+        <v>2429</v>
+      </c>
+      <c r="I365" s="12" t="s">
+        <v>3282</v>
+      </c>
+      <c r="J365" s="12" t="s">
+        <v>3283</v>
+      </c>
+      <c r="K365" s="12" t="n">
+        <v>5050010740</v>
+      </c>
+      <c r="L365" s="12" t="s">
+        <v>3284</v>
+      </c>
+      <c r="M365" s="12" t="s">
+        <v>3285</v>
+      </c>
+      <c r="N365" s="12" t="n">
+        <v>5031141064</v>
+      </c>
+      <c r="O365" s="12" t="s">
+        <v>3286</v>
+      </c>
+      <c r="P365" s="12" t="s">
+        <v>3287</v>
+      </c>
+      <c r="Q365" s="12" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="12" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B366" s="12" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D366" s="12" t="s">
+        <v>3292</v>
+      </c>
+      <c r="E366" s="12" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F366" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G366" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="H366" s="12" t="s">
+        <v>2795</v>
+      </c>
+      <c r="I366" s="12" t="s">
+        <v>3293</v>
+      </c>
+      <c r="J366" s="12" t="s">
+        <v>3294</v>
+      </c>
+      <c r="K366" s="12" t="n">
+        <v>5075003287</v>
+      </c>
+      <c r="L366" s="12" t="s">
+        <v>3295</v>
+      </c>
+      <c r="M366" s="12" t="s">
+        <v>3296</v>
+      </c>
+      <c r="N366" s="12" t="n">
+        <v>771003559427</v>
+      </c>
+      <c r="O366" s="12" t="s">
+        <v>1617</v>
+      </c>
+      <c r="P366" s="12" t="s">
+        <v>3297</v>
+      </c>
+      <c r="Q366" s="12" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="12" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B367" s="12" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D367" s="12" t="s">
+        <v>3302</v>
+      </c>
+      <c r="E367" s="12" t="s">
+        <v>3303</v>
+      </c>
+      <c r="F367" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G367" s="12" t="s">
+        <v>3304</v>
+      </c>
+      <c r="H367" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I367" s="12" t="s">
+        <v>3306</v>
+      </c>
+      <c r="J367" s="12" t="s">
+        <v>3307</v>
+      </c>
+      <c r="K367" s="12" t="n">
+        <v>5011025493</v>
+      </c>
+      <c r="L367" s="12" t="s">
+        <v>3308</v>
+      </c>
+      <c r="M367" s="12" t="s">
+        <v>3309</v>
+      </c>
+      <c r="N367" s="12" t="n">
+        <v>7716671108</v>
+      </c>
+      <c r="O367" s="12" t="s">
+        <v>3310</v>
+      </c>
+      <c r="P367" s="12" t="s">
+        <v>3311</v>
+      </c>
+      <c r="Q367" s="12" t="s">
+        <v>3312</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="3313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4140" uniqueCount="3413">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -9960,6 +9960,306 @@
   </si>
   <si>
     <t xml:space="preserve">Domstroy-2010@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1971006293921000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19710062939 21 000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 900 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.12.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧАСТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ПРОФЕССИОНАЛЬНОГО ОБРАЗОВАНИЯ "МЕЖДУНАРОДНАЯ БИЗНЕС АКАДЕМИЯ" (ЧАСТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ПРОФЕССИОНАЛЬНОГО ОБРАЗОВАНИЯ "МЕЖДУНАРОДНАЯ БИЗНЕС АКАДЕМИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧАСТНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ПРОФЕССИОНАЛЬНОГО ОБРАЗОВАНИЯ "МЕЖДУНАРОДНАЯ БИЗНЕС АКАДЕМИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109518, Г МОСКВА 77, ПРОЕЗД ГРАЙВОРОНОВСКИЙ 1-Й, 2А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-499-3721556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molokanov-school@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500313844721000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003138447 21 000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 996,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ЛЕНИНСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ЛЕНИНСКОГО ГОРОДСКОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭЛИОН" (ООО "ЭЛИОН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭЛИОН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153510, ОБЛ ИВАНОВСКАЯ, Р-Н ИВАНОВСКИЙ, ДЕРЕВНЯ КОЧОРСКИЙ,  СВИНАРНИК 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tdimeridian@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770213206420000276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27702132064 20 000276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 167 598,02 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФЕНИКС ПЛЮС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФЕНИКС ПЛЮС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Москва, ПОСЕЛОК ПЕРВОМАЙСКОЕ, "УЛИЦА ЦЕНТРАЛЬНАЯ, ДОМ 34, ПОМЕЩЕНИЕ 35"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 643-39-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feniks.plyus@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502205220221000185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25022052202 21 000185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">599 828,46 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДЛАЙФ" (ООО "МЕДЛАЙФ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕДЛАЙФ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620143, ОБЛ. СВЕРДЛОВСКАЯ 66, Г. Екатеринбург, УЛ. МАШИНОСТРОИТЕЛЕЙ, СТР. 19, ОФИС 270/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-965-5419713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mlifetorg@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770779516021000148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707795160 21 000148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 155 888,47 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПОЛИГРАФ-ЗАЩИТА СПБ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПОЛИГРАФ-ЗАЩИТА СПБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПОЛИГРАФ-ЗАЩИТА СПБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115088, Г МОСКВА 77, УЛ ЮЖНОПОРТОВАЯ, 24, СТР.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-5578157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karelina@printprotect.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770540134021003942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705401340 21 003942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">417 429,52 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДЕМАНД" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДЕМАНД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДЕМАНД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">606037, ОБЛ НИЖЕГОРОДСКАЯ 52, Г ДЗЕРЖИНСК, ПР-КТ ЛЕНИНСКОГО КОМСОМОЛА, ДОМ 37/23, ОФИС 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-920-0707707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grand@demand52.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500312345821000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003123458 21 000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 850 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ЛЕНИНСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ "УПОЛНОМОЧЕННЫЙ ОРГАН В СФЕРЕ ПОГРЕБЕНИЯ И ПОХОРОННОГО ДЕЛА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "УО СППД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНЖЕНЕРНЫЕ СИСТЕМЫ ПЕТЕРБУРГА" (ООО "ИСП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИСП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195221, Г. САНКТ-ПЕТЕРБУРГ 78, УЛ. КЛЮЧЕВАЯ, Д. 30, ЛИТЕРА А, ПОМЕЩ. 311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isp-812@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">622 020,88 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПЕЦСТРОЙСНАБ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПЕЦСТРОЙСНАБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СПЕЦСТРОЙСНАБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">446020, ОБЛ САМАРСКАЯ 63, Г СЫЗРАНЬ, ПР-КТ 50 ЛЕТ ОКТЯБРЯ, ДОМ 12А, КВАРТИРА 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-1111233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">аvto-@----.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507272297421000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35072722974 21 000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 996 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АРХИТЕКТУРА СТРОЙ СТАНДАРТ" (ООО "АСС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АСС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302007, ОБЛ ОРЛОВСКАЯ 57, Г ОРЁЛ, Ш КАРАЧЕВСКОЕ, 86, ОФИС 115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accorel@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772228147321000151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722281473 21 000151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 579 768,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО СТРОИТЕЛЬНЫЙ ТРЕСТ №35 "ИЖОРСТРОЙ" (АКЦИОНЕРНОЕ ОБЩЕСТВО СТРОИТЕЛЬНЫЙ ТРЕСТ №35 "ИЖОРСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО СТРОИТЕЛЬНЫЙ ТРЕСТ №35 "ИЖОРСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196650, Г САНКТ-ПЕТЕРБУРГ 78, Г КОЛПИНО, УЛ ФИНЛЯНДСКАЯ, ДОМ 34, ЛИТЕР А, ПОМ. 14-Н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-4615545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stroi35@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -10127,10 +10427,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q367"/>
+  <dimension ref="A1:Q378"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A315" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A341" activeCellId="0" sqref="341:341"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A336" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A368" activeCellId="0" sqref="368:368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28222,6 +28522,541 @@
         <v>3312</v>
       </c>
     </row>
+    <row r="368" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="6" t="n">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="12" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B369" s="12" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D369" s="12" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E369" s="12" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F369" s="12" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G369" s="12" t="s">
+        <v>2072</v>
+      </c>
+      <c r="H369" s="12" t="s">
+        <v>2072</v>
+      </c>
+      <c r="I369" s="12" t="s">
+        <v>2245</v>
+      </c>
+      <c r="J369" s="12" t="s">
+        <v>2246</v>
+      </c>
+      <c r="K369" s="12" t="n">
+        <v>9710062939</v>
+      </c>
+      <c r="L369" s="12" t="s">
+        <v>3318</v>
+      </c>
+      <c r="M369" s="12" t="s">
+        <v>3319</v>
+      </c>
+      <c r="N369" s="12" t="n">
+        <v>7722401188</v>
+      </c>
+      <c r="O369" s="12" t="s">
+        <v>3320</v>
+      </c>
+      <c r="P369" s="12" t="s">
+        <v>3321</v>
+      </c>
+      <c r="Q369" s="12" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="12" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B370" s="12" t="s">
+        <v>3324</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>3325</v>
+      </c>
+      <c r="D370" s="12" t="s">
+        <v>3326</v>
+      </c>
+      <c r="E370" s="12" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F370" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G370" s="12" t="s">
+        <v>3327</v>
+      </c>
+      <c r="H370" s="12" t="s">
+        <v>2748</v>
+      </c>
+      <c r="I370" s="12" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J370" s="12" t="s">
+        <v>3329</v>
+      </c>
+      <c r="K370" s="12" t="n">
+        <v>5003138447</v>
+      </c>
+      <c r="L370" s="12" t="s">
+        <v>3330</v>
+      </c>
+      <c r="M370" s="12" t="s">
+        <v>3331</v>
+      </c>
+      <c r="N370" s="12" t="n">
+        <v>3711049383</v>
+      </c>
+      <c r="O370" s="12" t="s">
+        <v>3332</v>
+      </c>
+      <c r="P370" s="12" t="n">
+        <v>79203449283</v>
+      </c>
+      <c r="Q370" s="12" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="12" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B371" s="12" t="s">
+        <v>3335</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E371" s="12" t="s">
+        <v>3338</v>
+      </c>
+      <c r="F371" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G371" s="12" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H371" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I371" s="12" t="s">
+        <v>2343</v>
+      </c>
+      <c r="J371" s="12" t="s">
+        <v>2344</v>
+      </c>
+      <c r="K371" s="12" t="n">
+        <v>7702132064</v>
+      </c>
+      <c r="L371" s="12" t="s">
+        <v>3339</v>
+      </c>
+      <c r="M371" s="12" t="s">
+        <v>3340</v>
+      </c>
+      <c r="N371" s="12" t="n">
+        <v>7751151101</v>
+      </c>
+      <c r="O371" s="12" t="s">
+        <v>3341</v>
+      </c>
+      <c r="P371" s="12" t="s">
+        <v>3342</v>
+      </c>
+      <c r="Q371" s="12" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="12" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>3345</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>3346</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>3347</v>
+      </c>
+      <c r="E372" s="12" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F372" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G372" s="12" t="s">
+        <v>2913</v>
+      </c>
+      <c r="H372" s="12" t="s">
+        <v>2795</v>
+      </c>
+      <c r="I372" s="12" t="s">
+        <v>2012</v>
+      </c>
+      <c r="J372" s="12" t="s">
+        <v>2013</v>
+      </c>
+      <c r="K372" s="12" t="n">
+        <v>5022052202</v>
+      </c>
+      <c r="L372" s="12" t="s">
+        <v>3348</v>
+      </c>
+      <c r="M372" s="12" t="s">
+        <v>3349</v>
+      </c>
+      <c r="N372" s="12" t="n">
+        <v>6673245767</v>
+      </c>
+      <c r="O372" s="12" t="s">
+        <v>3350</v>
+      </c>
+      <c r="P372" s="12" t="s">
+        <v>3351</v>
+      </c>
+      <c r="Q372" s="12" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="12" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B373" s="12" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E373" s="12" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F373" s="12" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G373" s="12" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H373" s="12" t="s">
+        <v>2651</v>
+      </c>
+      <c r="I373" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="J373" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="K373" s="12" t="n">
+        <v>7707795160</v>
+      </c>
+      <c r="L373" s="12" t="s">
+        <v>3357</v>
+      </c>
+      <c r="M373" s="12" t="s">
+        <v>3358</v>
+      </c>
+      <c r="N373" s="12" t="n">
+        <v>7723683270</v>
+      </c>
+      <c r="O373" s="12" t="s">
+        <v>3359</v>
+      </c>
+      <c r="P373" s="12" t="s">
+        <v>3360</v>
+      </c>
+      <c r="Q373" s="12" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="12" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B374" s="12" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D374" s="12" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E374" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F374" s="12" t="s">
+        <v>3366</v>
+      </c>
+      <c r="G374" s="12" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H374" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I374" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="J374" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="K374" s="12" t="n">
+        <v>7705401340</v>
+      </c>
+      <c r="L374" s="12" t="s">
+        <v>3367</v>
+      </c>
+      <c r="M374" s="12" t="s">
+        <v>3368</v>
+      </c>
+      <c r="N374" s="12" t="n">
+        <v>5249144786</v>
+      </c>
+      <c r="O374" s="12" t="s">
+        <v>3369</v>
+      </c>
+      <c r="P374" s="12" t="s">
+        <v>3370</v>
+      </c>
+      <c r="Q374" s="12" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="12" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B375" s="12" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C375" s="12" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D375" s="12" t="s">
+        <v>3375</v>
+      </c>
+      <c r="E375" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F375" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G375" s="12" t="s">
+        <v>2483</v>
+      </c>
+      <c r="H375" s="12" t="s">
+        <v>2483</v>
+      </c>
+      <c r="I375" s="12" t="s">
+        <v>3376</v>
+      </c>
+      <c r="J375" s="12" t="s">
+        <v>3377</v>
+      </c>
+      <c r="K375" s="12" t="n">
+        <v>5003123458</v>
+      </c>
+      <c r="L375" s="12" t="s">
+        <v>3378</v>
+      </c>
+      <c r="M375" s="12" t="s">
+        <v>3379</v>
+      </c>
+      <c r="N375" s="12" t="n">
+        <v>7801401374</v>
+      </c>
+      <c r="O375" s="12" t="s">
+        <v>3380</v>
+      </c>
+      <c r="P375" s="12" t="n">
+        <v>78123132597</v>
+      </c>
+      <c r="Q375" s="12" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="12" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B376" s="12" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D376" s="12" t="s">
+        <v>3385</v>
+      </c>
+      <c r="E376" s="12" t="s">
+        <v>3016</v>
+      </c>
+      <c r="F376" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G376" s="12" t="s">
+        <v>2960</v>
+      </c>
+      <c r="H376" s="12" t="s">
+        <v>3386</v>
+      </c>
+      <c r="I376" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J376" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K376" s="12" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L376" s="12" t="s">
+        <v>3387</v>
+      </c>
+      <c r="M376" s="12" t="s">
+        <v>3388</v>
+      </c>
+      <c r="N376" s="12" t="n">
+        <v>6325075313</v>
+      </c>
+      <c r="O376" s="12" t="s">
+        <v>3389</v>
+      </c>
+      <c r="P376" s="12" t="s">
+        <v>3390</v>
+      </c>
+      <c r="Q376" s="12" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="12" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B377" s="12" t="s">
+        <v>3393</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>3394</v>
+      </c>
+      <c r="D377" s="12" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E377" s="12" t="s">
+        <v>3396</v>
+      </c>
+      <c r="F377" s="12" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G377" s="12" t="s">
+        <v>3397</v>
+      </c>
+      <c r="H377" s="12" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I377" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J377" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K377" s="12" t="n">
+        <v>5072722974</v>
+      </c>
+      <c r="L377" s="12" t="s">
+        <v>3399</v>
+      </c>
+      <c r="M377" s="12" t="s">
+        <v>3400</v>
+      </c>
+      <c r="N377" s="12" t="n">
+        <v>5752032047</v>
+      </c>
+      <c r="O377" s="12" t="s">
+        <v>3401</v>
+      </c>
+      <c r="P377" s="12" t="n">
+        <v>74862720084</v>
+      </c>
+      <c r="Q377" s="12" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="12" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D378" s="12" t="s">
+        <v>3406</v>
+      </c>
+      <c r="E378" s="12" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F378" s="12" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G378" s="12" t="s">
+        <v>3258</v>
+      </c>
+      <c r="H378" s="12" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I378" s="12" t="s">
+        <v>3144</v>
+      </c>
+      <c r="J378" s="12" t="s">
+        <v>3145</v>
+      </c>
+      <c r="K378" s="12" t="n">
+        <v>7722281473</v>
+      </c>
+      <c r="L378" s="12" t="s">
+        <v>3408</v>
+      </c>
+      <c r="M378" s="12" t="s">
+        <v>3409</v>
+      </c>
+      <c r="N378" s="12" t="n">
+        <v>7817014684</v>
+      </c>
+      <c r="O378" s="12" t="s">
+        <v>3410</v>
+      </c>
+      <c r="P378" s="12" t="s">
+        <v>3411</v>
+      </c>
+      <c r="Q378" s="12" t="s">
+        <v>3412</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4140" uniqueCount="3413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="3893">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -10260,6 +10260,1446 @@
   </si>
   <si>
     <t xml:space="preserve">stroi35@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770503167421000065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27705031674 21 000065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 000 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЕПАРТАМЕНТ ГОРОДСКОГО ИМУЩЕСТВА ГОРОДА МОСКВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПАС-СИТИ ГРУПП" (ООО "СПАС-СИТИ ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СПАС-СИТИ ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129301, Г МОСКВА 77, ПР-КТ МИРА, ДОМ 186, КОРПУС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 683-93-93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssg-01@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771903435421000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27719034354 21 000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 490 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАЗЕННОЕ ПРЕДПРИЯТИЕ "МОСКОВСКАЯ ЭНЕРГЕТИЧЕСКАЯ ДИРЕКЦИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КП "МЭД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОЛИМП ЭНЕРГОПРОМСТРОЙ" (ООО "ОЛИМП ЭНЕРГОПРОМСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ОЛИМП ЭНЕРГОПРОМСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108840, Г МОСКВА 77, Г ТРОИЦК, Б-Р ТРОИЦКИЙ, ДОМ 7, КВАРТИРА 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 781-79-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belov@energoprom-stroy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771903435421000047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27719034354 21 000047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 985 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АКВЕДУК" (ООО "АКВЕДУК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АКВЕДУК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142702, ОБЛ МОСКОВСКАЯ 50, Г ВИДНОЕ, РАБОЧИЙ ПО БУТОВО, ТЕР ЖИЛОЙ КОМПЛЕКС БУТОВО-ПАРК, ДОМ 20, КОРПУС 2, КВАРТИРА 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (985) 643-43-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akvedukMO@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771903435421000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27719034354 21 000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 880 650,66 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГИДРОПРОЕКТ-М" (ООО "ГИДРОПРОЕКТ-М")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГИДРОПРОЕКТ-М"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101000, Г МОСКВА 77, ПЕР БОЛЬШОЙ СПАСОГЛИНИЩЕВСКИЙ, ДОМ 9, СТРОЕНИЕ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (925) 068-48-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gidroproektm@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502708820221000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25027088202 21 000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 120 040,35 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ МОСКОВСКОЙ ОБЛАСТИ "КОМПЛЕКСНЫЙ ЦЕНТР СОЦИАЛЬНОГО ОБСЛУЖИВАНИЯ И РЕАБИЛИТАЦИИ "ЛЮБЕРЕЦКИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУСО МО "КЦСОР "ЛЮБЕРЕЦКИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПЛАНЕТА-КШ" (ООО "ПЛАНЕТА-КШ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПЛАНЕТА-КШ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115142, Г МОСКВА 77, НАБ КОЛОМЕНСКАЯ, ДОМ 18, ЭТ 1 ПОМ 3 КОМ 1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-977-8831513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planeta-ksh@rambler.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772913833821000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17729138338 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 181 497,57 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТРИУМФ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТРИУМФ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТРИУМФ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123557, Г. МОСКВА 77, УЛ. ПРЕСНЕНСКИЙ ВАЛ, Д. 14, К. 1, ЭТ/П/К/ОФ 1/XIX/5/125-9Ц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-939-1113295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elisakuneva19905669m93@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503615499821000013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25036154998 21 000013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 767 527,70 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГРАНДСИТИ" (ООО "ГРАНДСИТИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГРАНДСИТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129110, Г МОСКВА 77, ПР-КТ МИРА, ДОМ 70, Э/ПОМ/К/ОФ 1А/III/2/37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-906-0561922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooograndsity@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771300322221000205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17713003222 21 000205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365 771,57 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАЦИОНАЛЬНЫЙ МЕДИЦИНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР ТРАВМАТОЛОГИИ И ОРТОПЕДИИ ИМЕНИ Н.Н. ПРИОРОВА" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "НМИЦ ТО ИМ. Н.Н. ПРИОРОВА" МИНЗДРАВА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АКРОПОЛЬ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АКРОПОЛЬ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АКРОПОЛЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">428026, ЧУВАШИЯ ЧУВАШСКАЯ РЕСПУБЛИКА - 21, Г ЧЕБОКСАРЫ, УЛ АЙЗМАНА, 106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8352-375734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acropol21@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507402360421000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35074023604 21 000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 432 147,92 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ФИЗКУЛЬТУРНО-СПОРТИВНЫЙ КОМПЛЕКС "ИРИДА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ ФСК "ИРИДА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОНГ" (ООО "СТРОНГ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОНГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141606, ОБЛ МОСКОВСКАЯ 50, Г КЛИН, УЛ МИРА, 3, ОФИС 320 321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strong@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=170847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504805086621000159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25048050866 21 000159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102 630,15 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬМЕД" (ООО "АЛЬМЕД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛЬМЕД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109428, Г МОСКВА 77, ПРОЕЗД ВЯЗОВСКИЙ 2-Й, ДОМ 16, СТРОЕНИЕ 10, КОМНАТА 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (912) 235-53-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender@almed.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505301755021000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35053017550 21 000038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231 800,38 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "БЛАГОУСТРОЙСТВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "БЛАГОУСТРОЙСТВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "УРАЛТЕК" (ООО "УРАЛТЕК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "УРАЛТЕК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620137, ОБЛ. СВЕРДЛОВСКАЯ 66, Г. Екатеринбург, УЛ. ВИЛОНОВА, СТР. 45Е, ОФИС 209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uraltek.ekb@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770802535821000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17708025358 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 900 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "НАУЧНО-ПРОИЗВОДСТВЕННОЕ ОБЪЕДИНЕНИЕ "СПЕЦИАЛЬНАЯ ТЕХНИКА И СВЯЗЬ" МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ НПО "СТИС" МВД РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "АМГ БИЗНЕС РЕШЕНИЯ" (АКЦИОНЕРНОЕ ОБЩЕСТВО "АМГ БИЗНЕС РЕШЕНИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "АМГ БИЗНЕС РЕШЕНИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109428, Г МОСКВА 77, ПР-КТ РЯЗАНСКИЙ, ДОМ 30/15, ОФИС 302/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-2865192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andrey.russkikh@amg-bs.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773301215121000256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17733012151 21 000256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">761 057,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.04.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФОРСТМАН ИРИНА ВАСИЛЬЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ФОРСТМАН ИРИНА ВАСИЛЬЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ УЛЬЯНОВСКАЯ 73, Г ДИМИТРОВГРАД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-996-6422830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cleaningdgrad@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771610118621000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27716101186 21 000036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173 356,68 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ "ДЕТСКАЯ ГОРОДСКАЯ ПОЛИКЛИНИКА № 99 ДЕПАРТАМЕНТА ЗДРАВООХРАНЕНИЯ ГОРОДА МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ "ДГП № 99 ДЗМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОХОРОВА СВЕТЛАНА ВЛАДИМИРОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ПРОХОРОВА СВЕТЛАНА ВЛАДИМИРОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (962) 945-38-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ninja929@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770213206421000044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27702132064 21 000044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 071 761,14 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕГИОНАЛЬНЫЙ КАДАСТРОВЫЙ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕГИОНАЛЬНЫЙ КАДАСТРОВЫЙ ЦЕНТР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сочи, Орджоникидзе, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (351) 277-80-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgeo-tender74@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507802247121000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35078022471 21 000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 925 750,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "СЛУЖБА БЛАГОУСТРОЙСТВА" ТАЛДОМСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ СБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИА-ГРУПП" (ООО "МИА-ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МИА-ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125373, Г МОСКВА 77, ПРОЕЗД ПОХОДНЫЙ, ДОМ 4, КОРПУС 1, ЭТ 7 П XII К 4 ОФ 710-Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-3637458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gendir@mia-group.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504003048021000073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15040030480 21 000073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">652 283,33 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ДЕТСКИЙ САНАТОРИЙ "БЫКОВО" МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУЗ "ДЕТСКИЙ САНАТОРИЙ "БЫКОВО" МВД РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОЛВЕРС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОЛВЕРС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МОЛВЕРС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125130, Г МОСКВА 77, УЛ БОЛЬШАЯ АКАДЕМИЧЕСКАЯ, ДОМ 13А, СТРОЕНИЕ 2, КОМН  18П</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-6474971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@molvers.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503900368320000035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35039003683 20 000035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 958 191,90 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.06.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.08.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ПУЩИНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭНЕРГОСТРОЙ 19" (ООО "ЭНЕРГОСТРОЙ 19")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭНЕРГОСТРОЙ 19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141004, Московская область, г.Мытищи, ул. Силикатная, д.19, кв.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-968-8759691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energostroy15@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503204807521000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15032048075 21 000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150 209,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР МОНИТОРИНГА БЕЗОПАСНОЙ ЭКСПЛУАТАЦИИ ОБЪЕКТОВ ДОРОЖНОГО ХОЗЯЙСТВА И АВТОМОБИЛЬНОГО ТРАНСПОРТА ФЕДЕРАЛЬНОГО ДОРОЖНОГО АГЕНТСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ЦЕНТРДОРТРАНСБЕЗОПАСНОСТЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕБЕЛЬНАЯ ФАБРИКА АТРИУМ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕБЕЛЬНАЯ ФАБРИКА АТРИУМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕБЕЛЬНАЯ ФАБРИКА АТРИУМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115230, Г. МОСКВА 77, ПР-Д ХЛЕБОЗАВОДСКИЙ, Д. 7, СТР. 9, ЭТАЖ 9 ПОМЕЩ. XVI КОМ. 2 ОФИС 307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-915-1914033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sus177@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502200297021000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35022002970 21 000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">797 071,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ФИЗКУЛЬТУРНО-СПОРТИВНАЯ ОРГАНИЗАЦИЯ "СПОРТИВНАЯ ШКОЛА ОЛИМПИЙСКОГО РЕЗЕРВА ПО АКАДЕМИЧЕСКОЙ ГРЕБЛЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ ФСО "СШОР ПО АКАДЕМИЧЕСКОЙ ГРЕБЛЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МОРСКОЙ СЕРВИС" (ООО "МОРСЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МОРСЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214036, ОБЛ. СМОЛЕНСКАЯ 67, Г. Смоленск, УЛ. СМОЛЬЯНИНОВА, Д. 15, ОФИС 56/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-900-2280671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denis.laptenok@gmail.com, VASIL-199012@MAIL.RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770404312321000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704043123 21 000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 352 256,10 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.10.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОСКОВСКИЙ ГОРОДСКОЙ ФОНД ОБЯЗАТЕЛЬНОГО МЕДИЦИНСКОГО СТРАХОВАНИЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МГФОМС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "КВАНТУМ" (АКЦИОНЕРНОЕ ОБЩЕСТВО "КВАНТУМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "КВАНТУМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199178, Г САНКТ-ПЕТЕРБУРГ 78, НАБ РЕКИ СМОЛЕНКИ, ДОМ 19_21, ЛИТЕР Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-3364000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region@ptl.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500300855019000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15003008550 19 000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 537 588,76 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.12.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.12.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ "СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА "ГОРКИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБОУ СОШ "ГОРКИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "КАПСТРОЙСИТИ" (АКЦИОНЕРНОЕ ОБЩЕСТВО "КАПСТРОЙСИТИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "КАПСТРОЙСИТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107113, г. Москва, вн.тер.г. муниципальный округ Сокольники, ул. 3-я Рыбинская, д. 18, стр. 22, этаж 4, помщ VIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-2610619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kapstroisiti@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772778252221000040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17727782522 21 000040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45 300 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЭКСПЕРИМЕНТАЛЬНЫЙ ПРОИЗВОДСТВЕННЫЙ КОМБИНАТ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГКУ "ЭПК МВД РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОФИСНАЯ ПОЛИГРАФИЯ ПЛЮС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОФИСНАЯ ПОЛИГРАФИЯ ПЛЮС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ОФИСНАЯ ПОЛИГРАФИЯ ПЛЮС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125167, Г МОСКВА 77, ПР-КТ ЛЕНИНГРАДСКИЙ, ДОМ 37, КОРПУС 9, ЭТ. 0, ПОМ.1, КОМ. 169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9250097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offpoly@offpoly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504003662021000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35040036620 21 000031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">562 877,25 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМИТЕТ ПО ОБРАЗОВАНИЮ АДМИНИСТРАЦИИ РАМЕНСКОГО ГОРОДСКОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМИТЕТ ПО ОБРАЗОВАНИЮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТЕНЛИКС" (ООО "СТЕНЛИКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТЕНЛИКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105187, Г МОСКВА 77, УЛ ЩЕРБАКОВСКАЯ, ДОМ 53, КОРПУС 15, ЭТАЖ 6 КОМН 605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-6627864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018trustline@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504705253221000076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15047052532 21 000076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">297 871,52 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ УЧРЕЖДЕНИЕ-ГЛАВНОЕ УПРАВЛЕНИЕ ПЕНСИОННОГО ФОНДА РОССИЙСКОЙ ФЕДЕРАЦИИ № 5 ПО Г. МОСКВЕ И МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БИТЮГ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БИТЮГ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "БИТЮГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">394018, ОБЛ ВОРОНЕЖСКАЯ 36, Г ВОРОНЕЖ, УЛ СВОБОДЫ, ДОМ 73, ПОМЕЩ. IV ОФИС 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-473-2045189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bityg-vrn@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507600024021000165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35076000240 21 000165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158 793,26 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА СЕРЕБРЯНЫЕ ПРУДЫ МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПРОСКУРИН СЕРГЕЙ АЛЕКСАНДРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ПРОСКУРИН СЕРГЕЙ АЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-5699059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5487563@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251 283 287,55 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАДЕЖДА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАДЕЖДА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НАДЕЖДА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">607490, ОБЛ НИЖЕГОРОДСКАЯ 52, Р-Н ПИЛЬНИНСКИЙ, РАБОЧИЙ ПО ПИЛЬНА, УЛ СВОБОДЫ, ДОМ 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-83192-51206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadegdapilna@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157 680 757,66 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФАНТОМ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФАНТОМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФАНТОМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129329, Г МОСКВА 77, УЛ КОЛЬСКАЯ, ДОМ 7, СТРОЕНИЕ 2, ЭТ 2 ПОМ I КОМ 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-925-3520085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9253520085@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47 839 235,06 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПОБЕДА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПОБЕДА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПОБЕДА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143007, ОБЛ МОСКОВСКАЯ 50, Г ОДИНЦОВО, УЛ МОЛОДЕЖНАЯ, ДОМ 46, КАБИНЕТ 20 ЭТАЖ 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-985-9231609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torg@com-pobeda.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39 932 971,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ШВЕЙНАЯ-19" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ШВЕЙНАЯ-19")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ШВЕЙНАЯ-19"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603050, ОБЛ НИЖЕГОРОДСКАЯ 52, Г НИЖНИЙ НОВГОРОД, УЛ ВАСИЛИЯ ИВАНОВА, ДОМ 11А, ОФИС 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-831-2263898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabrika19@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502919670021000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35029196700 21 000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 149 680,75 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЖИЛИЩНОЕ ЭКСПЛУАТАЦИОННОЕ УЧРЕЖДЕНИЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "ЖЭУ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "М-СТАЙЛ" (ООО "М-СТАЙЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "М-СТАЙЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127247, Г МОСКВА 77, Ш ДМИТРОВСКОЕ, ДОМ 100, СТРОЕНИЕ 2, ЭТ/ПОМ 05/№4512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mona92@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74 038 383,98 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ШВЕЙНЫЙ МИР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ШВЕЙНЫЙ МИР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ШВЕЙНЫЙ МИР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119021, Г МОСКВА 77, ПЕР ОБОЛЕНСКИЙ, ДОМ 9, КОРПУС 3, ПОДВАЛ ПОМ 2, 5, 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-903-7091423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shvein.mir07@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504401515521000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35044015155 21 000032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">281 800,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ ОБРАЗОВАНИЯ АДМИНИСТРАЦИИ ГОРОДСКОГО ОКРУГА СОЛНЕЧНОГОРСК МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ ОБРАЗОВАНИЯ АДМИНИСТРАЦИИ ГОРОДСКОГО ОКРУГА СОЛНЕЧНОГОРСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ШТОРМ - Ф" (ООО "ЧОО "ШТОРМ - Ф")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЧОО "ШТОРМ - Ф"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141281, Московская область, г. Ивантеевка, ул. Заречная, д.1, корпус главный, помещение 212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-000-00-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shtorm-f@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770656053619000095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706560536 19 000095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 549 815,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.12.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.03.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.12.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНАЯ СЛУЖБА ГОСУДАРСТВЕННОЙ РЕГИСТРАЦИИ, КАДАСТРА И КАРТОГРАФИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОСРЕЕСТР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕРКОНА ГРУПП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕРКОНА ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕРКОНА ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123423, Г МОСКВА 77, УЛ НАРОДНОГО ОПОЛЧЕНИЯ, ДОМ 34, СТРОЕНИЕ 2, ЭТАЖ 3 ОФИС 308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-499-3911873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender@mercona.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДУВАР СИСТЕМС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДУВАР СИСТЕМС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДУВАР СИСТЕМС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">617037, КРАЙ ПЕРМСКИЙ 59, Г КРАСНОКАМСК, УЛ ЛЕНИНА, ДОМ 1, ОФИС 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-800-7775427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAKAZ@DUVAR.RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2505012951321000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25050129513 21 000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142 680,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ЩЁЛКОВСКИЙ ПЕРИНАТАЛЬНЫЙ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "ЩПЦ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Федоров Кирилл ВикторовичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Федоров Кирилл Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198095, Санкт-Петербург, Наб. Обводного канала, дом 118а, лит. Б, БЦ «Перспектива», оф. 328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-4008100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender@ele-leiko.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500309629021000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25003096290 21 000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 186 560,46 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТЕТЮХИНА ТАТЬЯНА ИВАНОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ТЕТЮХИНА ТАТЬЯНА ИВАНОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ ВОРОНЕЖСКАЯ 36, Г ВОРОНЕЖ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (920) 217-89-64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torgi-7070@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПЕРСПЕКТИВА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПЕРСПЕКТИВА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПЕРСПЕКТИВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300012, ОБЛ ТУЛЬСКАЯ 71, Г ТУЛА, УЛ СОВЕТСКАЯ, ДОМ 7, ОФИС 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-4872-524008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@rosrf.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770801462020000115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17708014620 20 000115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 300 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.10.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗИНОВ РОМАН АНДРЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЗИНОВ РОМАН АНДРЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО ХАНТЫ-МАНСИЙСКИЙ АВТОНОМНЫЙ ОКРУГ - ЮГРА 86, 628624, ХМАО, г. Нижневартовск, ул. Мира, д. 85, кв. 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-968-8256291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89688256291@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3501400342721000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35014003427 21 000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479 195,91 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ЗАРАЙСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "ЗЦРБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общество с ограниченной ответственностью частное охранное предприятие «Бастион +» (ООО ЧОП "Бастион+")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧОП "Бастион+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Российская Федерация, Московская обл., г. Кашира, 142900, ул. Новая, д 15 "А"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7926-612-05-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.10.2010_bastion@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502412946821000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024129468 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 500 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОСОБЛКОМЛЕС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПЛИТИНВЕСТ" (ООО "ПЛИТИНВЕСТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПЛИТИНВЕСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140700, Московская область, г. Шатура, ул. Клары Цеткин, д. 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-496-4562496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plitinvest@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675292921000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706752929 21 000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 174 912,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АСИСТЕМС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АСИСТЕМС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АСИСТЕМС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108811, Г. МОСКВА 77, КМ КИЕВСКОЕ ШОССЕ 22-Й (П МОСКОВСКИЙ), ДВЛД. 4, СТР. 2, ОФИС 916/1В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-2543561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender@build4u.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504702469421000273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15047024694 21 000273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331 800,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТОРГОВАЯ КОМПАНИЯ "ПРЕСТИЖ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТОРГОВАЯ КОМПАНИЯ "ПРЕСТИЖ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ТОРГОВАЯ КОМПАНИЯ "ПРЕСТИЖ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">423812, РЕСП ТАТАРСТАН 16, Г НАБЕРЕЖНЫЕ ЧЕЛНЫ, УЛ 40 ЛЕТ ПОБЕДЫ, ДОМ 25, КВАРТИРА 127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8552-537779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk.prestig@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504702469421000271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15047024694 21 000271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">439 812,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390005, ОБЛ. РЯЗАНСКАЯ 62, Г. Рязань, УЛ. С.СЕРЕДЫ, Д. 29, ПОМЕЩ. Н5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-4912-503075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503075@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504702469421000272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15047024694 21 000272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">524 282,88 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЯШЕНКО ЛЮБОВЬ НИКОЛАЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЛЯШЕНКО ЛЮБОВЬ НИКОЛАЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Область Ростовская 61, Город Ростов-на-Дону</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-904-5016245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ie-lyshenko@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -10427,10 +11867,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q378"/>
+  <dimension ref="A1:Q426"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A336" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A368" activeCellId="0" sqref="368:368"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A375" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A413" activeCellId="0" sqref="413:413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29057,10 +30497,2401 @@
         <v>3412</v>
       </c>
     </row>
+    <row r="379" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="6" t="n">
+        <v>23.12</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>3416</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>3417</v>
+      </c>
+      <c r="K380" s="1" t="n">
+        <v>7705031674</v>
+      </c>
+      <c r="L380" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="M380" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="N380" s="1" t="n">
+        <v>7716683061</v>
+      </c>
+      <c r="O380" s="1" t="s">
+        <v>3420</v>
+      </c>
+      <c r="P380" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="Q380" s="1" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>3426</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="K381" s="1" t="n">
+        <v>7719034354</v>
+      </c>
+      <c r="L381" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="M381" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="N381" s="1" t="n">
+        <v>7714704830</v>
+      </c>
+      <c r="O381" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="P381" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="Q381" s="1" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="K382" s="1" t="n">
+        <v>7719034354</v>
+      </c>
+      <c r="L382" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="M382" s="1" t="s">
+        <v>3440</v>
+      </c>
+      <c r="N382" s="1" t="n">
+        <v>5003137500</v>
+      </c>
+      <c r="O382" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="P382" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="Q382" s="1" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="J383" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="K383" s="1" t="n">
+        <v>7719034354</v>
+      </c>
+      <c r="L383" s="1" t="s">
+        <v>3449</v>
+      </c>
+      <c r="M383" s="1" t="s">
+        <v>3450</v>
+      </c>
+      <c r="N383" s="1" t="n">
+        <v>7709475991</v>
+      </c>
+      <c r="O383" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="P383" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="Q383" s="1" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="1" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>3455</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>3458</v>
+      </c>
+      <c r="J384" s="1" t="s">
+        <v>3459</v>
+      </c>
+      <c r="K384" s="1" t="n">
+        <v>5027088202</v>
+      </c>
+      <c r="L384" s="1" t="s">
+        <v>3460</v>
+      </c>
+      <c r="M384" s="1" t="s">
+        <v>3461</v>
+      </c>
+      <c r="N384" s="1" t="n">
+        <v>9725036434</v>
+      </c>
+      <c r="O384" s="1" t="s">
+        <v>3462</v>
+      </c>
+      <c r="P384" s="1" t="s">
+        <v>3463</v>
+      </c>
+      <c r="Q384" s="1" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="1" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>3469</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J385" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="K385" s="1" t="n">
+        <v>7729138338</v>
+      </c>
+      <c r="L385" s="1" t="s">
+        <v>3471</v>
+      </c>
+      <c r="M385" s="1" t="s">
+        <v>3472</v>
+      </c>
+      <c r="N385" s="1" t="n">
+        <v>9703024139</v>
+      </c>
+      <c r="O385" s="1" t="s">
+        <v>3473</v>
+      </c>
+      <c r="P385" s="1" t="s">
+        <v>3474</v>
+      </c>
+      <c r="Q385" s="1" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J386" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K386" s="1" t="n">
+        <v>5036154998</v>
+      </c>
+      <c r="L386" s="1" t="s">
+        <v>3480</v>
+      </c>
+      <c r="M386" s="1" t="s">
+        <v>3481</v>
+      </c>
+      <c r="N386" s="1" t="n">
+        <v>7702468018</v>
+      </c>
+      <c r="O386" s="1" t="s">
+        <v>3482</v>
+      </c>
+      <c r="P386" s="1" t="s">
+        <v>3483</v>
+      </c>
+      <c r="Q386" s="1" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="1" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="K387" s="1" t="n">
+        <v>7713003222</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="M387" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="N387" s="1" t="n">
+        <v>2130128809</v>
+      </c>
+      <c r="O387" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="P387" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="Q387" s="1" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="K388" s="1" t="n">
+        <v>5074023604</v>
+      </c>
+      <c r="L388" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="M388" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="N388" s="1" t="n">
+        <v>5020051570</v>
+      </c>
+      <c r="O388" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="P388" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="Q388" s="1" t="s">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K389" s="1" t="n">
+        <v>5048050866</v>
+      </c>
+      <c r="L389" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="M389" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="N389" s="1" t="n">
+        <v>9721019413</v>
+      </c>
+      <c r="O389" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="P389" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="Q389" s="1" t="s">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="390" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="6" t="n">
+        <v>26.12</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="12" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B391" s="12" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C391" s="12" t="s">
+        <v>3520</v>
+      </c>
+      <c r="D391" s="12" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E391" s="12" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F391" s="12" t="s">
+        <v>2794</v>
+      </c>
+      <c r="G391" s="12" t="s">
+        <v>3522</v>
+      </c>
+      <c r="H391" s="12" t="s">
+        <v>3522</v>
+      </c>
+      <c r="I391" s="12" t="s">
+        <v>3523</v>
+      </c>
+      <c r="J391" s="12" t="s">
+        <v>3524</v>
+      </c>
+      <c r="K391" s="12" t="n">
+        <v>5053017550</v>
+      </c>
+      <c r="L391" s="12" t="s">
+        <v>3525</v>
+      </c>
+      <c r="M391" s="12" t="s">
+        <v>3526</v>
+      </c>
+      <c r="N391" s="12" t="n">
+        <v>6670319080</v>
+      </c>
+      <c r="O391" s="12" t="s">
+        <v>3527</v>
+      </c>
+      <c r="P391" s="12" t="n">
+        <v>79022684078</v>
+      </c>
+      <c r="Q391" s="12" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="12" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B392" s="12" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C392" s="12" t="s">
+        <v>3531</v>
+      </c>
+      <c r="D392" s="12" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E392" s="12" t="s">
+        <v>3533</v>
+      </c>
+      <c r="F392" s="12" t="s">
+        <v>3534</v>
+      </c>
+      <c r="G392" s="12" t="s">
+        <v>2935</v>
+      </c>
+      <c r="H392" s="12" t="s">
+        <v>3535</v>
+      </c>
+      <c r="I392" s="12" t="s">
+        <v>3536</v>
+      </c>
+      <c r="J392" s="12" t="s">
+        <v>3537</v>
+      </c>
+      <c r="K392" s="12" t="n">
+        <v>7708025358</v>
+      </c>
+      <c r="L392" s="12" t="s">
+        <v>3538</v>
+      </c>
+      <c r="M392" s="12" t="s">
+        <v>3539</v>
+      </c>
+      <c r="N392" s="12" t="n">
+        <v>7702675310</v>
+      </c>
+      <c r="O392" s="12" t="s">
+        <v>3540</v>
+      </c>
+      <c r="P392" s="12" t="s">
+        <v>3541</v>
+      </c>
+      <c r="Q392" s="12" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="12" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B393" s="12" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C393" s="12" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E393" s="12" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F393" s="12" t="s">
+        <v>3547</v>
+      </c>
+      <c r="G393" s="12" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H393" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I393" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J393" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K393" s="12" t="n">
+        <v>7733012151</v>
+      </c>
+      <c r="L393" s="12" t="s">
+        <v>3548</v>
+      </c>
+      <c r="M393" s="12" t="s">
+        <v>3549</v>
+      </c>
+      <c r="N393" s="12" t="n">
+        <v>730202896941</v>
+      </c>
+      <c r="O393" s="12" t="s">
+        <v>3550</v>
+      </c>
+      <c r="P393" s="12" t="s">
+        <v>3551</v>
+      </c>
+      <c r="Q393" s="12" t="s">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="12" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B394" s="12" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D394" s="12" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E394" s="12" t="s">
+        <v>2072</v>
+      </c>
+      <c r="F394" s="12" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G394" s="12" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H394" s="12" t="s">
+        <v>2187</v>
+      </c>
+      <c r="I394" s="12" t="s">
+        <v>3557</v>
+      </c>
+      <c r="J394" s="12" t="s">
+        <v>3558</v>
+      </c>
+      <c r="K394" s="12" t="n">
+        <v>7716101186</v>
+      </c>
+      <c r="L394" s="12" t="s">
+        <v>3559</v>
+      </c>
+      <c r="M394" s="12" t="s">
+        <v>3560</v>
+      </c>
+      <c r="N394" s="12" t="n">
+        <v>503017525284</v>
+      </c>
+      <c r="O394" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P394" s="12" t="s">
+        <v>3561</v>
+      </c>
+      <c r="Q394" s="12" t="s">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="12" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B395" s="12" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C395" s="12" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D395" s="12" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E395" s="12" t="s">
+        <v>3567</v>
+      </c>
+      <c r="F395" s="12" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G395" s="12" t="s">
+        <v>3568</v>
+      </c>
+      <c r="H395" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I395" s="12" t="s">
+        <v>2343</v>
+      </c>
+      <c r="J395" s="12" t="s">
+        <v>2344</v>
+      </c>
+      <c r="K395" s="12" t="n">
+        <v>7702132064</v>
+      </c>
+      <c r="L395" s="12" t="s">
+        <v>3569</v>
+      </c>
+      <c r="M395" s="12" t="s">
+        <v>3570</v>
+      </c>
+      <c r="N395" s="12" t="n">
+        <v>2320251790</v>
+      </c>
+      <c r="O395" s="12" t="s">
+        <v>3571</v>
+      </c>
+      <c r="P395" s="12" t="s">
+        <v>3572</v>
+      </c>
+      <c r="Q395" s="12" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="12" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>3576</v>
+      </c>
+      <c r="D396" s="12" t="s">
+        <v>3577</v>
+      </c>
+      <c r="E396" s="12" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F396" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G396" s="12" t="s">
+        <v>3512</v>
+      </c>
+      <c r="H396" s="12" t="s">
+        <v>3512</v>
+      </c>
+      <c r="I396" s="12" t="s">
+        <v>3578</v>
+      </c>
+      <c r="J396" s="12" t="s">
+        <v>3579</v>
+      </c>
+      <c r="K396" s="12" t="n">
+        <v>5078022471</v>
+      </c>
+      <c r="L396" s="12" t="s">
+        <v>3580</v>
+      </c>
+      <c r="M396" s="12" t="s">
+        <v>3581</v>
+      </c>
+      <c r="N396" s="12" t="n">
+        <v>7733350190</v>
+      </c>
+      <c r="O396" s="12" t="s">
+        <v>3582</v>
+      </c>
+      <c r="P396" s="12" t="s">
+        <v>3583</v>
+      </c>
+      <c r="Q396" s="12" t="s">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="12" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B397" s="12" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C397" s="12" t="s">
+        <v>3587</v>
+      </c>
+      <c r="D397" s="12" t="s">
+        <v>3588</v>
+      </c>
+      <c r="E397" s="12" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F397" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G397" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="H397" s="12" t="s">
+        <v>2852</v>
+      </c>
+      <c r="I397" s="12" t="s">
+        <v>3589</v>
+      </c>
+      <c r="J397" s="12" t="s">
+        <v>3590</v>
+      </c>
+      <c r="K397" s="12" t="n">
+        <v>5040030480</v>
+      </c>
+      <c r="L397" s="12" t="s">
+        <v>3591</v>
+      </c>
+      <c r="M397" s="12" t="s">
+        <v>3592</v>
+      </c>
+      <c r="N397" s="12" t="n">
+        <v>7743046544</v>
+      </c>
+      <c r="O397" s="12" t="s">
+        <v>3593</v>
+      </c>
+      <c r="P397" s="12" t="s">
+        <v>3594</v>
+      </c>
+      <c r="Q397" s="12" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="12" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B398" s="12" t="s">
+        <v>3597</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>3598</v>
+      </c>
+      <c r="D398" s="12" t="s">
+        <v>3599</v>
+      </c>
+      <c r="E398" s="12" t="s">
+        <v>3600</v>
+      </c>
+      <c r="F398" s="12" t="s">
+        <v>3601</v>
+      </c>
+      <c r="G398" s="12" t="s">
+        <v>3602</v>
+      </c>
+      <c r="H398" s="12" t="s">
+        <v>3603</v>
+      </c>
+      <c r="I398" s="12" t="s">
+        <v>3604</v>
+      </c>
+      <c r="J398" s="12"/>
+      <c r="K398" s="12" t="n">
+        <v>5039003683</v>
+      </c>
+      <c r="L398" s="12" t="s">
+        <v>3605</v>
+      </c>
+      <c r="M398" s="12" t="s">
+        <v>3606</v>
+      </c>
+      <c r="N398" s="12" t="n">
+        <v>5029254159</v>
+      </c>
+      <c r="O398" s="12" t="s">
+        <v>3607</v>
+      </c>
+      <c r="P398" s="12" t="s">
+        <v>3608</v>
+      </c>
+      <c r="Q398" s="12" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="12" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B399" s="12" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C399" s="12" t="s">
+        <v>3612</v>
+      </c>
+      <c r="D399" s="12" t="s">
+        <v>3613</v>
+      </c>
+      <c r="E399" s="12" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F399" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G399" s="12" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H399" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I399" s="12" t="s">
+        <v>3614</v>
+      </c>
+      <c r="J399" s="12" t="s">
+        <v>3615</v>
+      </c>
+      <c r="K399" s="12" t="n">
+        <v>5032048075</v>
+      </c>
+      <c r="L399" s="12" t="s">
+        <v>3616</v>
+      </c>
+      <c r="M399" s="12" t="s">
+        <v>3617</v>
+      </c>
+      <c r="N399" s="12" t="n">
+        <v>9724055160</v>
+      </c>
+      <c r="O399" s="12" t="s">
+        <v>3618</v>
+      </c>
+      <c r="P399" s="12" t="s">
+        <v>3619</v>
+      </c>
+      <c r="Q399" s="12" t="s">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="12" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B400" s="12" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>3623</v>
+      </c>
+      <c r="D400" s="12" t="s">
+        <v>3624</v>
+      </c>
+      <c r="E400" s="12" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F400" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G400" s="12" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H400" s="12" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I400" s="12" t="s">
+        <v>3625</v>
+      </c>
+      <c r="J400" s="12" t="s">
+        <v>3626</v>
+      </c>
+      <c r="K400" s="12" t="n">
+        <v>5022002970</v>
+      </c>
+      <c r="L400" s="12" t="s">
+        <v>3627</v>
+      </c>
+      <c r="M400" s="12" t="s">
+        <v>3628</v>
+      </c>
+      <c r="N400" s="12" t="n">
+        <v>6732213181</v>
+      </c>
+      <c r="O400" s="12" t="s">
+        <v>3629</v>
+      </c>
+      <c r="P400" s="12" t="s">
+        <v>3630</v>
+      </c>
+      <c r="Q400" s="12" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="12" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B401" s="12" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C401" s="12" t="s">
+        <v>3634</v>
+      </c>
+      <c r="D401" s="12" t="s">
+        <v>3635</v>
+      </c>
+      <c r="E401" s="12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F401" s="12" t="s">
+        <v>3636</v>
+      </c>
+      <c r="G401" s="12" t="s">
+        <v>3016</v>
+      </c>
+      <c r="H401" s="12" t="s">
+        <v>3016</v>
+      </c>
+      <c r="I401" s="12" t="s">
+        <v>3637</v>
+      </c>
+      <c r="J401" s="12" t="s">
+        <v>3638</v>
+      </c>
+      <c r="K401" s="12" t="n">
+        <v>7704043123</v>
+      </c>
+      <c r="L401" s="12" t="s">
+        <v>3639</v>
+      </c>
+      <c r="M401" s="12" t="s">
+        <v>3640</v>
+      </c>
+      <c r="N401" s="12" t="n">
+        <v>7825098536</v>
+      </c>
+      <c r="O401" s="12" t="s">
+        <v>3641</v>
+      </c>
+      <c r="P401" s="12" t="s">
+        <v>3642</v>
+      </c>
+      <c r="Q401" s="12" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="12" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B402" s="12" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>3646</v>
+      </c>
+      <c r="D402" s="12" t="s">
+        <v>3647</v>
+      </c>
+      <c r="E402" s="12" t="s">
+        <v>3648</v>
+      </c>
+      <c r="F402" s="12" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G402" s="12" t="s">
+        <v>3649</v>
+      </c>
+      <c r="H402" s="12" t="s">
+        <v>2639</v>
+      </c>
+      <c r="I402" s="12" t="s">
+        <v>3650</v>
+      </c>
+      <c r="J402" s="12" t="s">
+        <v>3651</v>
+      </c>
+      <c r="K402" s="12" t="n">
+        <v>5003008550</v>
+      </c>
+      <c r="L402" s="12" t="s">
+        <v>3652</v>
+      </c>
+      <c r="M402" s="12" t="s">
+        <v>3653</v>
+      </c>
+      <c r="N402" s="12" t="n">
+        <v>7701883910</v>
+      </c>
+      <c r="O402" s="12" t="s">
+        <v>3654</v>
+      </c>
+      <c r="P402" s="12" t="s">
+        <v>3655</v>
+      </c>
+      <c r="Q402" s="12" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="12" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B403" s="12" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C403" s="12" t="s">
+        <v>3659</v>
+      </c>
+      <c r="D403" s="12" t="s">
+        <v>3660</v>
+      </c>
+      <c r="E403" s="12" t="s">
+        <v>2187</v>
+      </c>
+      <c r="F403" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G403" s="12" t="s">
+        <v>3470</v>
+      </c>
+      <c r="H403" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I403" s="12" t="s">
+        <v>3661</v>
+      </c>
+      <c r="J403" s="12" t="s">
+        <v>3662</v>
+      </c>
+      <c r="K403" s="12" t="n">
+        <v>7727782522</v>
+      </c>
+      <c r="L403" s="12" t="s">
+        <v>3663</v>
+      </c>
+      <c r="M403" s="12" t="s">
+        <v>3664</v>
+      </c>
+      <c r="N403" s="12" t="n">
+        <v>7713786615</v>
+      </c>
+      <c r="O403" s="12" t="s">
+        <v>3665</v>
+      </c>
+      <c r="P403" s="12" t="s">
+        <v>3666</v>
+      </c>
+      <c r="Q403" s="12" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="12" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B404" s="12" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D404" s="12" t="s">
+        <v>3671</v>
+      </c>
+      <c r="E404" s="12" t="s">
+        <v>2497</v>
+      </c>
+      <c r="F404" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G404" s="12" t="s">
+        <v>2307</v>
+      </c>
+      <c r="H404" s="12" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I404" s="12" t="s">
+        <v>3672</v>
+      </c>
+      <c r="J404" s="12" t="s">
+        <v>3673</v>
+      </c>
+      <c r="K404" s="12" t="n">
+        <v>5040036620</v>
+      </c>
+      <c r="L404" s="12" t="s">
+        <v>3674</v>
+      </c>
+      <c r="M404" s="12" t="s">
+        <v>3675</v>
+      </c>
+      <c r="N404" s="12" t="n">
+        <v>7719482564</v>
+      </c>
+      <c r="O404" s="12" t="s">
+        <v>3676</v>
+      </c>
+      <c r="P404" s="12" t="s">
+        <v>3677</v>
+      </c>
+      <c r="Q404" s="12" t="s">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="12" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B405" s="12" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C405" s="12" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D405" s="12" t="s">
+        <v>3682</v>
+      </c>
+      <c r="E405" s="12" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F405" s="12" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G405" s="12" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H405" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="I405" s="12" t="s">
+        <v>3683</v>
+      </c>
+      <c r="J405" s="12"/>
+      <c r="K405" s="12" t="n">
+        <v>5047052532</v>
+      </c>
+      <c r="L405" s="12" t="s">
+        <v>3684</v>
+      </c>
+      <c r="M405" s="12" t="s">
+        <v>3685</v>
+      </c>
+      <c r="N405" s="12" t="n">
+        <v>3664242683</v>
+      </c>
+      <c r="O405" s="12" t="s">
+        <v>3686</v>
+      </c>
+      <c r="P405" s="12" t="s">
+        <v>3687</v>
+      </c>
+      <c r="Q405" s="12" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="12" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B406" s="12" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C406" s="12" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D406" s="12" t="s">
+        <v>3692</v>
+      </c>
+      <c r="E406" s="12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F406" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G406" s="12" t="s">
+        <v>3122</v>
+      </c>
+      <c r="H406" s="12" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I406" s="12" t="s">
+        <v>3693</v>
+      </c>
+      <c r="J406" s="12"/>
+      <c r="K406" s="12" t="n">
+        <v>5076000240</v>
+      </c>
+      <c r="L406" s="12" t="s">
+        <v>3694</v>
+      </c>
+      <c r="M406" s="12" t="s">
+        <v>3695</v>
+      </c>
+      <c r="N406" s="12" t="n">
+        <v>772605384085</v>
+      </c>
+      <c r="O406" s="12" t="s">
+        <v>1617</v>
+      </c>
+      <c r="P406" s="12" t="s">
+        <v>3696</v>
+      </c>
+      <c r="Q406" s="12" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="12" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B407" s="12" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C407" s="12" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D407" s="12" t="s">
+        <v>3701</v>
+      </c>
+      <c r="E407" s="12" t="s">
+        <v>3005</v>
+      </c>
+      <c r="F407" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G407" s="12" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H407" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="I407" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J407" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K407" s="12" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L407" s="12" t="s">
+        <v>3702</v>
+      </c>
+      <c r="M407" s="12" t="s">
+        <v>3703</v>
+      </c>
+      <c r="N407" s="12" t="n">
+        <v>5226017213</v>
+      </c>
+      <c r="O407" s="12" t="s">
+        <v>3704</v>
+      </c>
+      <c r="P407" s="12" t="s">
+        <v>3705</v>
+      </c>
+      <c r="Q407" s="12" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="12" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B408" s="12" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C408" s="12" t="s">
+        <v>3709</v>
+      </c>
+      <c r="D408" s="12" t="s">
+        <v>3710</v>
+      </c>
+      <c r="E408" s="12" t="s">
+        <v>3005</v>
+      </c>
+      <c r="F408" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G408" s="12" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H408" s="12" t="s">
+        <v>2257</v>
+      </c>
+      <c r="I408" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J408" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K408" s="12" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L408" s="12" t="s">
+        <v>3711</v>
+      </c>
+      <c r="M408" s="12" t="s">
+        <v>3712</v>
+      </c>
+      <c r="N408" s="12" t="n">
+        <v>7716942622</v>
+      </c>
+      <c r="O408" s="12" t="s">
+        <v>3713</v>
+      </c>
+      <c r="P408" s="12" t="s">
+        <v>3714</v>
+      </c>
+      <c r="Q408" s="12" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="12" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B409" s="12" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C409" s="12" t="s">
+        <v>3718</v>
+      </c>
+      <c r="D409" s="12" t="s">
+        <v>3719</v>
+      </c>
+      <c r="E409" s="12" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F409" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G409" s="12" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H409" s="12" t="s">
+        <v>2960</v>
+      </c>
+      <c r="I409" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J409" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K409" s="12" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L409" s="12" t="s">
+        <v>3720</v>
+      </c>
+      <c r="M409" s="12" t="s">
+        <v>3721</v>
+      </c>
+      <c r="N409" s="12" t="n">
+        <v>5032291866</v>
+      </c>
+      <c r="O409" s="12" t="s">
+        <v>3722</v>
+      </c>
+      <c r="P409" s="12" t="s">
+        <v>3723</v>
+      </c>
+      <c r="Q409" s="12" t="s">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="12" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>3727</v>
+      </c>
+      <c r="D410" s="12" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E410" s="12" t="s">
+        <v>3005</v>
+      </c>
+      <c r="F410" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G410" s="12" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H410" s="12" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I410" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J410" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K410" s="12" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L410" s="12" t="s">
+        <v>3729</v>
+      </c>
+      <c r="M410" s="12" t="s">
+        <v>3730</v>
+      </c>
+      <c r="N410" s="12" t="n">
+        <v>5263128507</v>
+      </c>
+      <c r="O410" s="12" t="s">
+        <v>3731</v>
+      </c>
+      <c r="P410" s="12" t="s">
+        <v>3732</v>
+      </c>
+      <c r="Q410" s="12" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="12" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B411" s="12" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C411" s="12" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D411" s="12" t="s">
+        <v>3737</v>
+      </c>
+      <c r="E411" s="12" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F411" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G411" s="12" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H411" s="12" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I411" s="12" t="s">
+        <v>3738</v>
+      </c>
+      <c r="J411" s="12" t="s">
+        <v>3739</v>
+      </c>
+      <c r="K411" s="12" t="n">
+        <v>5029196700</v>
+      </c>
+      <c r="L411" s="12" t="s">
+        <v>3740</v>
+      </c>
+      <c r="M411" s="12" t="s">
+        <v>3741</v>
+      </c>
+      <c r="N411" s="12" t="n">
+        <v>7715633237</v>
+      </c>
+      <c r="O411" s="12" t="s">
+        <v>3742</v>
+      </c>
+      <c r="P411" s="12" t="n">
+        <v>74952596828</v>
+      </c>
+      <c r="Q411" s="12" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="12" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>3745</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>3746</v>
+      </c>
+      <c r="D412" s="12" t="s">
+        <v>3747</v>
+      </c>
+      <c r="E412" s="12" t="s">
+        <v>3005</v>
+      </c>
+      <c r="F412" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G412" s="12" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H412" s="12" t="s">
+        <v>2960</v>
+      </c>
+      <c r="I412" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J412" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K412" s="12" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L412" s="12" t="s">
+        <v>3748</v>
+      </c>
+      <c r="M412" s="12" t="s">
+        <v>3749</v>
+      </c>
+      <c r="N412" s="12" t="n">
+        <v>7704493098</v>
+      </c>
+      <c r="O412" s="12" t="s">
+        <v>3750</v>
+      </c>
+      <c r="P412" s="12" t="s">
+        <v>3751</v>
+      </c>
+      <c r="Q412" s="12" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="413" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="6" t="n">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>3756</v>
+      </c>
+      <c r="E414" s="0" t="s">
+        <v>2934</v>
+      </c>
+      <c r="F414" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G414" s="0" t="s">
+        <v>2935</v>
+      </c>
+      <c r="H414" s="0" t="s">
+        <v>3757</v>
+      </c>
+      <c r="I414" s="0" t="s">
+        <v>3758</v>
+      </c>
+      <c r="J414" s="0" t="s">
+        <v>3759</v>
+      </c>
+      <c r="K414" s="0" t="n">
+        <v>5044015155</v>
+      </c>
+      <c r="L414" s="0" t="s">
+        <v>3760</v>
+      </c>
+      <c r="M414" s="0" t="s">
+        <v>3761</v>
+      </c>
+      <c r="N414" s="0" t="n">
+        <v>5031049012</v>
+      </c>
+      <c r="O414" s="0" t="s">
+        <v>3762</v>
+      </c>
+      <c r="P414" s="0" t="s">
+        <v>3763</v>
+      </c>
+      <c r="Q414" s="0" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>3768</v>
+      </c>
+      <c r="E415" s="0" t="s">
+        <v>3769</v>
+      </c>
+      <c r="F415" s="0" t="s">
+        <v>3770</v>
+      </c>
+      <c r="G415" s="0" t="s">
+        <v>3771</v>
+      </c>
+      <c r="H415" s="0" t="s">
+        <v>3772</v>
+      </c>
+      <c r="I415" s="0" t="s">
+        <v>3773</v>
+      </c>
+      <c r="J415" s="0" t="s">
+        <v>3774</v>
+      </c>
+      <c r="K415" s="0" t="n">
+        <v>7706560536</v>
+      </c>
+      <c r="L415" s="0" t="s">
+        <v>3775</v>
+      </c>
+      <c r="M415" s="0" t="s">
+        <v>3776</v>
+      </c>
+      <c r="N415" s="0" t="n">
+        <v>7730698408</v>
+      </c>
+      <c r="O415" s="0" t="s">
+        <v>3777</v>
+      </c>
+      <c r="P415" s="0" t="s">
+        <v>3778</v>
+      </c>
+      <c r="Q415" s="0" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>3782</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>3783</v>
+      </c>
+      <c r="E416" s="0" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F416" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G416" s="0" t="s">
+        <v>3305</v>
+      </c>
+      <c r="H416" s="0" t="s">
+        <v>2748</v>
+      </c>
+      <c r="I416" s="0" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J416" s="0" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K416" s="0" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L416" s="0" t="s">
+        <v>3784</v>
+      </c>
+      <c r="M416" s="0" t="s">
+        <v>3785</v>
+      </c>
+      <c r="N416" s="0" t="n">
+        <v>5916034705</v>
+      </c>
+      <c r="O416" s="0" t="s">
+        <v>3786</v>
+      </c>
+      <c r="P416" s="0" t="s">
+        <v>3787</v>
+      </c>
+      <c r="Q416" s="0" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>3791</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>3792</v>
+      </c>
+      <c r="E417" s="0" t="s">
+        <v>3142</v>
+      </c>
+      <c r="F417" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G417" s="0" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H417" s="0" t="s">
+        <v>2269</v>
+      </c>
+      <c r="I417" s="0" t="s">
+        <v>3793</v>
+      </c>
+      <c r="J417" s="0" t="s">
+        <v>3794</v>
+      </c>
+      <c r="K417" s="0" t="n">
+        <v>5050129513</v>
+      </c>
+      <c r="L417" s="0" t="s">
+        <v>3795</v>
+      </c>
+      <c r="M417" s="0" t="s">
+        <v>3796</v>
+      </c>
+      <c r="N417" s="0" t="n">
+        <v>263014019233</v>
+      </c>
+      <c r="O417" s="0" t="s">
+        <v>3797</v>
+      </c>
+      <c r="P417" s="0" t="s">
+        <v>3798</v>
+      </c>
+      <c r="Q417" s="0" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B418" s="0" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>3802</v>
+      </c>
+      <c r="D418" s="0" t="s">
+        <v>3803</v>
+      </c>
+      <c r="E418" s="0" t="s">
+        <v>3804</v>
+      </c>
+      <c r="F418" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G418" s="0" t="s">
+        <v>3804</v>
+      </c>
+      <c r="H418" s="0" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I418" s="0" t="s">
+        <v>2582</v>
+      </c>
+      <c r="J418" s="0" t="s">
+        <v>2583</v>
+      </c>
+      <c r="K418" s="0" t="n">
+        <v>5003096290</v>
+      </c>
+      <c r="L418" s="0" t="s">
+        <v>3805</v>
+      </c>
+      <c r="M418" s="0" t="s">
+        <v>3806</v>
+      </c>
+      <c r="N418" s="0" t="n">
+        <v>683001965580</v>
+      </c>
+      <c r="O418" s="0" t="s">
+        <v>3807</v>
+      </c>
+      <c r="P418" s="0" t="s">
+        <v>3808</v>
+      </c>
+      <c r="Q418" s="0" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>3812</v>
+      </c>
+      <c r="D419" s="0" t="s">
+        <v>3813</v>
+      </c>
+      <c r="E419" s="0" t="s">
+        <v>3814</v>
+      </c>
+      <c r="F419" s="0" t="s">
+        <v>3815</v>
+      </c>
+      <c r="G419" s="0" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H419" s="0" t="s">
+        <v>2118</v>
+      </c>
+      <c r="I419" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="J419" s="0" t="s">
+        <v>980</v>
+      </c>
+      <c r="K419" s="0" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L419" s="0" t="s">
+        <v>3816</v>
+      </c>
+      <c r="M419" s="0" t="s">
+        <v>3817</v>
+      </c>
+      <c r="N419" s="0" t="n">
+        <v>7107121096</v>
+      </c>
+      <c r="O419" s="0" t="s">
+        <v>3818</v>
+      </c>
+      <c r="P419" s="0" t="s">
+        <v>3819</v>
+      </c>
+      <c r="Q419" s="0" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B420" s="0" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>3824</v>
+      </c>
+      <c r="E420" s="0" t="s">
+        <v>3825</v>
+      </c>
+      <c r="F420" s="0" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G420" s="0" t="s">
+        <v>3826</v>
+      </c>
+      <c r="H420" s="0" t="s">
+        <v>2405</v>
+      </c>
+      <c r="I420" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J420" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="K420" s="0" t="n">
+        <v>7708014620</v>
+      </c>
+      <c r="L420" s="0" t="s">
+        <v>3827</v>
+      </c>
+      <c r="M420" s="0" t="s">
+        <v>3828</v>
+      </c>
+      <c r="N420" s="0" t="n">
+        <v>26911174252</v>
+      </c>
+      <c r="O420" s="0" t="s">
+        <v>3829</v>
+      </c>
+      <c r="P420" s="0" t="s">
+        <v>3830</v>
+      </c>
+      <c r="Q420" s="0" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B421" s="0" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E421" s="0" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F421" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G421" s="0" t="s">
+        <v>3836</v>
+      </c>
+      <c r="H421" s="0" t="s">
+        <v>3837</v>
+      </c>
+      <c r="I421" s="0" t="s">
+        <v>3838</v>
+      </c>
+      <c r="J421" s="0" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K421" s="0" t="n">
+        <v>5014003427</v>
+      </c>
+      <c r="L421" s="0" t="s">
+        <v>3840</v>
+      </c>
+      <c r="M421" s="0" t="s">
+        <v>3841</v>
+      </c>
+      <c r="N421" s="0" t="n">
+        <v>5019021243</v>
+      </c>
+      <c r="O421" s="0" t="s">
+        <v>3842</v>
+      </c>
+      <c r="P421" s="0" t="s">
+        <v>3843</v>
+      </c>
+      <c r="Q421" s="0" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>3847</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>3848</v>
+      </c>
+      <c r="E422" s="0" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F422" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G422" s="0" t="s">
+        <v>3836</v>
+      </c>
+      <c r="H422" s="0" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I422" s="0" t="s">
+        <v>3849</v>
+      </c>
+      <c r="J422" s="0" t="s">
+        <v>3850</v>
+      </c>
+      <c r="K422" s="0" t="n">
+        <v>5024129468</v>
+      </c>
+      <c r="L422" s="0" t="s">
+        <v>3851</v>
+      </c>
+      <c r="M422" s="0" t="s">
+        <v>3852</v>
+      </c>
+      <c r="N422" s="0" t="n">
+        <v>5049019393</v>
+      </c>
+      <c r="O422" s="0" t="s">
+        <v>3853</v>
+      </c>
+      <c r="P422" s="0" t="s">
+        <v>3854</v>
+      </c>
+      <c r="Q422" s="0" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E423" s="0" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F423" s="0" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G423" s="0" t="s">
+        <v>2097</v>
+      </c>
+      <c r="H423" s="0" t="s">
+        <v>3085</v>
+      </c>
+      <c r="I423" s="0" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J423" s="0" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K423" s="0" t="n">
+        <v>7706752929</v>
+      </c>
+      <c r="L423" s="0" t="s">
+        <v>3860</v>
+      </c>
+      <c r="M423" s="0" t="s">
+        <v>3861</v>
+      </c>
+      <c r="N423" s="0" t="n">
+        <v>7729752509</v>
+      </c>
+      <c r="O423" s="0" t="s">
+        <v>3862</v>
+      </c>
+      <c r="P423" s="0" t="s">
+        <v>3863</v>
+      </c>
+      <c r="Q423" s="0" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>3867</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E424" s="0" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F424" s="0" t="s">
+        <v>3869</v>
+      </c>
+      <c r="G424" s="0" t="s">
+        <v>2418</v>
+      </c>
+      <c r="H424" s="0" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I424" s="0" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J424" s="0" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K424" s="0" t="n">
+        <v>5047024694</v>
+      </c>
+      <c r="L424" s="0" t="s">
+        <v>3870</v>
+      </c>
+      <c r="M424" s="0" t="s">
+        <v>3871</v>
+      </c>
+      <c r="N424" s="0" t="n">
+        <v>1650361260</v>
+      </c>
+      <c r="O424" s="0" t="s">
+        <v>3872</v>
+      </c>
+      <c r="P424" s="0" t="s">
+        <v>3873</v>
+      </c>
+      <c r="Q424" s="0" t="s">
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>3877</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E425" s="0" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F425" s="0" t="s">
+        <v>3869</v>
+      </c>
+      <c r="G425" s="0" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H425" s="0" t="s">
+        <v>2545</v>
+      </c>
+      <c r="I425" s="0" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J425" s="0" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K425" s="0" t="n">
+        <v>5047024694</v>
+      </c>
+      <c r="L425" s="0" t="s">
+        <v>3879</v>
+      </c>
+      <c r="M425" s="0" t="s">
+        <v>3880</v>
+      </c>
+      <c r="N425" s="0" t="n">
+        <v>6234195934</v>
+      </c>
+      <c r="O425" s="0" t="s">
+        <v>3881</v>
+      </c>
+      <c r="P425" s="0" t="s">
+        <v>3882</v>
+      </c>
+      <c r="Q425" s="0" t="s">
+        <v>3883</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>3885</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>3887</v>
+      </c>
+      <c r="E426" s="0" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F426" s="0" t="s">
+        <v>3869</v>
+      </c>
+      <c r="G426" s="0" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H426" s="0" t="s">
+        <v>2545</v>
+      </c>
+      <c r="I426" s="0" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J426" s="0" t="s">
+        <v>3043</v>
+      </c>
+      <c r="K426" s="0" t="n">
+        <v>5047024694</v>
+      </c>
+      <c r="L426" s="0" t="s">
+        <v>3888</v>
+      </c>
+      <c r="M426" s="0" t="s">
+        <v>3889</v>
+      </c>
+      <c r="N426" s="0" t="n">
+        <v>616112702971</v>
+      </c>
+      <c r="O426" s="0" t="s">
+        <v>3890</v>
+      </c>
+      <c r="P426" s="0" t="s">
+        <v>3891</v>
+      </c>
+      <c r="Q426" s="0" t="s">
+        <v>3892</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="3893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="4071">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -11700,6 +11700,540 @@
   </si>
   <si>
     <t xml:space="preserve">ie-lyshenko@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500900713721000021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15009007137 21 000021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 022 537,42 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОИЗВОДСТВЕННАЯ ТОРГОВАЯ ФИРМА МЕТАЛЛ МЕБЕЛЬ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОИЗВОДСТВЕННАЯ ТОРГОВАЯ ФИРМА МЕТАЛЛ МЕБЕЛЬ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПРОИЗВОДСТВЕННАЯ ТОРГОВАЯ ФИРМА МЕТАЛЛ МЕБЕЛЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198095, Г САНКТ-ПЕТЕРБУРГ 78, ПЕР ХИМИЧЕСКИЙ, ДОМ 1, ЛИТЕР АМ, ПОМЕЩЕНИЕ 1Н, ОФИС 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-2523412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@metallmebel.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502408055821000180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024080558 21 000180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 575,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКСПЕРТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКСПЕРТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭКСПЕРТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248002, ОБЛ. КАЛУЖСКАЯ 40, Г. Калуга, УЛ. НИКОЛО-КОЗИНСКАЯ, Д. 90, КВ. 50 КОМ. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-960-5176519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89190357715@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770659358821000126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706593588 21 000126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166 325,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ГОСУДАРСТВЕННОГО ИМУЩЕСТВА И ЖИЛИЩНО-БЫТОВОГО ОБЕСПЕЧЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ ЦГИЖБО ФСИН РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШАМИН ПАВЕЛ ПАВЛОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ШАМИН ПАВЕЛ ПАВЛОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Область Ленинградская 47, Район Сланцевский, Деревня Переволок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-2100575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9162100575@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772407516221001477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17724075162 21 001477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">612 124,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕГЛАРЯН ОГАННЕС СТЕПАНОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП БЕГЛАРЯН ОГАННЕС СТЕПАНОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ. МОСКОВСКАЯ 50, Г. ХИМКИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-926-0551466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beglaryanogannes44@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507900143519000094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35079001435 19 000094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289 500,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.08.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.12.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.03.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭНЕРГЕТИЧЕСКОЕ АГЕНТСТВО" (ООО "ЭНЕРГЕТИЧЕСКОЕ АГЕНТСТВО")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭНЕРГЕТИЧЕСКОЕ АГЕНТСТВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г Брянск, ул Красноармейская, д 128, оф 201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-4832-320057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energoagentstvo@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771003036221000114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17710030362 21 000114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 279 303,95 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.12.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНТРА" (ООО "ИНТРА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИНТРА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600022, ОБЛ ВЛАДИМИРСКАЯ 33, Г ВЛАДИМИР, УЛ СТАВРОВСКАЯ, ДОМ 4Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 800 3505173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@intra.ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770213206421000261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27702132064 21 000261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 214 113,75 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КУЗНЕЦОВ АНТОНИЙ ЕВГЕНЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КУЗНЕЦОВ АНТОНИЙ ЕВГЕНЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Город Москва 77, Город Московский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (903) 720-26-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asu.kuznetsov@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772904049121000310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17729040491 21 000310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 290 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "МИРЭА - РОССИЙСКИЙ ТЕХНОЛОГИЧЕСКИЙ УНИВЕРСИТЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РТУ МИРЭА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПЛЕКСОН" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПЛЕКСОН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОМПЛЕКСОН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123112, Г. МОСКВА 77, НАБ. ПРЕСНЕНСКАЯ, Д. 12, КОМ. Е55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-5259960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALESHA.SEMENOVV@MAIL.RU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502412946821000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024129468 21 000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 213 854,51 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДВАЛИШВИЛИ ГЕОРГИЙ ЭДУАРДОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ДВАЛИШВИЛИ ГЕОРГИЙ ЭДУАРДОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-0868563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zekotuaxa@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502412946821000013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024129468 21 000013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 282 896,47 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НОРДВЕСТЕРНВУД" (ООО "НВВ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НВВ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141732, ОБЛАСТЬ МОСКОВСКАЯ, ГОРОД ЛОБНЯ, УЛИЦА БОРИСОВА, ДОМ 14, КОРПУС 2, ПОМ/ОФИС 006/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7991139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7895500@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502412946821000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024129468 21 000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 876 058,48 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФОРЕСТГРУПП" (ООО "ФОРЕСТГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФОРЕСТГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140700 Московская обл., Шатура г.,Ботинский проезд, д.32, эт.1, оф.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-49645-23287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shat_shatura@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502412946821000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024129468 21 000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 462 509,90 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.01.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Акопджанян Тигран ВиленовичИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Акопджанян Тигран Виленович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141002, Москоская обл., г. Мытищи, ул. Комарова, д. 2, стр. 2, кв. 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-966-3000080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akopdzhanyan.1984@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502412946821000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024129468 21 000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 025 421,74 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕАЛ-Н" (ООО "РЕАЛ-Н")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕАЛ-Н"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109382, г.Москва, ул. Краснодонская, д. 20, корп. 1, стр. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9882633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real-n_7723825246@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772801351221000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728013512 21 000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 994 982,15 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САЛИХОВ РАМИЛЬ ХАЛИЛОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП САЛИХОВ РАМИЛЬ ХАЛИЛОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ. МОСКОВСКАЯ 50, Г. ДОМОДЕДОВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-917-5064300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salikhovram@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502400207718000352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024002077 18 000352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 376 554,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.11.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.05.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА КРАСНОГОРСК МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГО КРАСНОГОРСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общество с ограниченной ответственностью «Горно-металлургический проект» (ООО «Горно-металлургический проект»)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «Горно-металлургический проект»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127434, Россия, г. Москва, Дмитровское шоссе, 15/1-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (926) 470-37-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gormetproekt@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500506764021000107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35005067640 21 000107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 602 221,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЛЮТИКОВ МАКСИМ АНДРЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЛЮТИКОВ МАКСИМ АНДРЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ. МОСКОВСКАЯ 50, Г. КОЛОМНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-999-8262920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2708070@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТОРГОВЫЙ ДОМ "ЭНЕРГИЯ-ТЕХНОЛОГИИ СБЕРЕЖЕНИЯ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ТОРГОВЫЙ ДОМ "ЭНЕРГИЯ-ТЕХНОЛОГИИ СБЕРЕЖЕНИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ТОРГОВЫЙ ДОМ "ЭНЕРГИЯ-ТЕХНОЛОГИИ СБЕРЕЖЕНИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454092, ОБЛ ЧЕЛЯБИНСКАЯ 74, Г ЧЕЛЯБИНСК, УЛ ЕЛЬКИНА, ДОМ 80А, ПОМЕЩЕНИЕ 2 КАБИНЕТ 102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-351-2181218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ets@energots.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772209336721000388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722093367 21 000388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">474 265,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "САРАТОВСКИЙ НАУЧНО-ПРОИЗВОДСТВЕННЫЙ ЦЕНТР РДТ" (АКЦИОНЕРНОЕ ОБЩЕСТВО "САРАТОВСКИЙ НАУЧНО-ПРОИЗВОДСТВЕННЫЙ ЦЕНТР РДТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "САРАТОВСКИЙ НАУЧНО-ПРОИЗВОДСТВЕННЫЙ ЦЕНТР РДТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410044, ОБЛ САРАТОВСКАЯ 64, Г САРАТОВ, ПР-КТ СТРОИТЕЛЕЙ, 10А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-452-620789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@rosdorteh.ru</t>
   </si>
 </sst>
 </file>
@@ -11712,7 +12246,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -11738,6 +12272,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -11789,7 +12330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -11850,6 +12391,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11867,10 +12412,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q426"/>
+  <dimension ref="A1:Q445"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A375" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A413" activeCellId="0" sqref="413:413"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A387" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A427" activeCellId="0" sqref="427:427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32200,695 +32745,1657 @@
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
+      <c r="A414" s="7" t="s">
         <v>3753</v>
       </c>
-      <c r="B414" s="0" t="s">
+      <c r="B414" s="7" t="s">
         <v>3754</v>
       </c>
-      <c r="C414" s="0" t="s">
+      <c r="C414" s="7" t="s">
         <v>3755</v>
       </c>
-      <c r="D414" s="0" t="s">
+      <c r="D414" s="7" t="s">
         <v>3756</v>
       </c>
-      <c r="E414" s="0" t="s">
+      <c r="E414" s="7" t="s">
         <v>2934</v>
       </c>
-      <c r="F414" s="0" t="s">
+      <c r="F414" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G414" s="0" t="s">
+      <c r="G414" s="7" t="s">
         <v>2935</v>
       </c>
-      <c r="H414" s="0" t="s">
+      <c r="H414" s="7" t="s">
         <v>3757</v>
       </c>
-      <c r="I414" s="0" t="s">
+      <c r="I414" s="7" t="s">
         <v>3758</v>
       </c>
-      <c r="J414" s="0" t="s">
+      <c r="J414" s="7" t="s">
         <v>3759</v>
       </c>
-      <c r="K414" s="0" t="n">
+      <c r="K414" s="7" t="n">
         <v>5044015155</v>
       </c>
-      <c r="L414" s="0" t="s">
+      <c r="L414" s="7" t="s">
         <v>3760</v>
       </c>
-      <c r="M414" s="0" t="s">
+      <c r="M414" s="7" t="s">
         <v>3761</v>
       </c>
-      <c r="N414" s="0" t="n">
+      <c r="N414" s="7" t="n">
         <v>5031049012</v>
       </c>
-      <c r="O414" s="0" t="s">
+      <c r="O414" s="7" t="s">
         <v>3762</v>
       </c>
-      <c r="P414" s="0" t="s">
+      <c r="P414" s="7" t="s">
         <v>3763</v>
       </c>
-      <c r="Q414" s="0" t="s">
+      <c r="Q414" s="7" t="s">
         <v>3764</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
+      <c r="A415" s="7" t="s">
         <v>3765</v>
       </c>
-      <c r="B415" s="0" t="s">
+      <c r="B415" s="7" t="s">
         <v>3766</v>
       </c>
-      <c r="C415" s="0" t="s">
+      <c r="C415" s="7" t="s">
         <v>3767</v>
       </c>
-      <c r="D415" s="0" t="s">
+      <c r="D415" s="7" t="s">
         <v>3768</v>
       </c>
-      <c r="E415" s="0" t="s">
+      <c r="E415" s="7" t="s">
         <v>3769</v>
       </c>
-      <c r="F415" s="0" t="s">
+      <c r="F415" s="7" t="s">
         <v>3770</v>
       </c>
-      <c r="G415" s="0" t="s">
+      <c r="G415" s="7" t="s">
         <v>3771</v>
       </c>
-      <c r="H415" s="0" t="s">
+      <c r="H415" s="7" t="s">
         <v>3772</v>
       </c>
-      <c r="I415" s="0" t="s">
+      <c r="I415" s="7" t="s">
         <v>3773</v>
       </c>
-      <c r="J415" s="0" t="s">
+      <c r="J415" s="7" t="s">
         <v>3774</v>
       </c>
-      <c r="K415" s="0" t="n">
+      <c r="K415" s="7" t="n">
         <v>7706560536</v>
       </c>
-      <c r="L415" s="0" t="s">
+      <c r="L415" s="7" t="s">
         <v>3775</v>
       </c>
-      <c r="M415" s="0" t="s">
+      <c r="M415" s="7" t="s">
         <v>3776</v>
       </c>
-      <c r="N415" s="0" t="n">
+      <c r="N415" s="7" t="n">
         <v>7730698408</v>
       </c>
-      <c r="O415" s="0" t="s">
+      <c r="O415" s="7" t="s">
         <v>3777</v>
       </c>
-      <c r="P415" s="0" t="s">
+      <c r="P415" s="7" t="s">
         <v>3778</v>
       </c>
-      <c r="Q415" s="0" t="s">
+      <c r="Q415" s="7" t="s">
         <v>3779</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
+      <c r="A416" s="7" t="s">
         <v>3780</v>
       </c>
-      <c r="B416" s="0" t="s">
+      <c r="B416" s="7" t="s">
         <v>3781</v>
       </c>
-      <c r="C416" s="0" t="s">
+      <c r="C416" s="7" t="s">
         <v>3782</v>
       </c>
-      <c r="D416" s="0" t="s">
+      <c r="D416" s="7" t="s">
         <v>3783</v>
       </c>
-      <c r="E416" s="0" t="s">
+      <c r="E416" s="7" t="s">
         <v>2748</v>
       </c>
-      <c r="F416" s="0" t="s">
+      <c r="F416" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G416" s="0" t="s">
+      <c r="G416" s="7" t="s">
         <v>3305</v>
       </c>
-      <c r="H416" s="0" t="s">
+      <c r="H416" s="7" t="s">
         <v>2748</v>
       </c>
-      <c r="I416" s="0" t="s">
+      <c r="I416" s="7" t="s">
         <v>3074</v>
       </c>
-      <c r="J416" s="0" t="s">
+      <c r="J416" s="7" t="s">
         <v>3075</v>
       </c>
-      <c r="K416" s="0" t="n">
+      <c r="K416" s="7" t="n">
         <v>5001018049</v>
       </c>
-      <c r="L416" s="0" t="s">
+      <c r="L416" s="7" t="s">
         <v>3784</v>
       </c>
-      <c r="M416" s="0" t="s">
+      <c r="M416" s="7" t="s">
         <v>3785</v>
       </c>
-      <c r="N416" s="0" t="n">
+      <c r="N416" s="7" t="n">
         <v>5916034705</v>
       </c>
-      <c r="O416" s="0" t="s">
+      <c r="O416" s="7" t="s">
         <v>3786</v>
       </c>
-      <c r="P416" s="0" t="s">
+      <c r="P416" s="7" t="s">
         <v>3787</v>
       </c>
-      <c r="Q416" s="0" t="s">
+      <c r="Q416" s="7" t="s">
         <v>3788</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
+      <c r="A417" s="7" t="s">
         <v>3789</v>
       </c>
-      <c r="B417" s="0" t="s">
+      <c r="B417" s="7" t="s">
         <v>3790</v>
       </c>
-      <c r="C417" s="0" t="s">
+      <c r="C417" s="7" t="s">
         <v>3791</v>
       </c>
-      <c r="D417" s="0" t="s">
+      <c r="D417" s="7" t="s">
         <v>3792</v>
       </c>
-      <c r="E417" s="0" t="s">
+      <c r="E417" s="7" t="s">
         <v>3142</v>
       </c>
-      <c r="F417" s="0" t="s">
+      <c r="F417" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G417" s="0" t="s">
+      <c r="G417" s="7" t="s">
         <v>2580</v>
       </c>
-      <c r="H417" s="0" t="s">
+      <c r="H417" s="7" t="s">
         <v>2269</v>
       </c>
-      <c r="I417" s="0" t="s">
+      <c r="I417" s="7" t="s">
         <v>3793</v>
       </c>
-      <c r="J417" s="0" t="s">
+      <c r="J417" s="7" t="s">
         <v>3794</v>
       </c>
-      <c r="K417" s="0" t="n">
+      <c r="K417" s="7" t="n">
         <v>5050129513</v>
       </c>
-      <c r="L417" s="0" t="s">
+      <c r="L417" s="7" t="s">
         <v>3795</v>
       </c>
-      <c r="M417" s="0" t="s">
+      <c r="M417" s="7" t="s">
         <v>3796</v>
       </c>
-      <c r="N417" s="0" t="n">
+      <c r="N417" s="7" t="n">
         <v>263014019233</v>
       </c>
-      <c r="O417" s="0" t="s">
+      <c r="O417" s="7" t="s">
         <v>3797</v>
       </c>
-      <c r="P417" s="0" t="s">
+      <c r="P417" s="7" t="s">
         <v>3798</v>
       </c>
-      <c r="Q417" s="0" t="s">
+      <c r="Q417" s="7" t="s">
         <v>3799</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
+      <c r="A418" s="7" t="s">
         <v>3800</v>
       </c>
-      <c r="B418" s="0" t="s">
+      <c r="B418" s="7" t="s">
         <v>3801</v>
       </c>
-      <c r="C418" s="0" t="s">
+      <c r="C418" s="7" t="s">
         <v>3802</v>
       </c>
-      <c r="D418" s="0" t="s">
+      <c r="D418" s="7" t="s">
         <v>3803</v>
       </c>
-      <c r="E418" s="0" t="s">
+      <c r="E418" s="7" t="s">
         <v>3804</v>
       </c>
-      <c r="F418" s="0" t="s">
+      <c r="F418" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G418" s="0" t="s">
+      <c r="G418" s="7" t="s">
         <v>3804</v>
       </c>
-      <c r="H418" s="0" t="s">
+      <c r="H418" s="7" t="s">
         <v>2521</v>
       </c>
-      <c r="I418" s="0" t="s">
+      <c r="I418" s="7" t="s">
         <v>2582</v>
       </c>
-      <c r="J418" s="0" t="s">
+      <c r="J418" s="7" t="s">
         <v>2583</v>
       </c>
-      <c r="K418" s="0" t="n">
+      <c r="K418" s="7" t="n">
         <v>5003096290</v>
       </c>
-      <c r="L418" s="0" t="s">
+      <c r="L418" s="7" t="s">
         <v>3805</v>
       </c>
-      <c r="M418" s="0" t="s">
+      <c r="M418" s="7" t="s">
         <v>3806</v>
       </c>
-      <c r="N418" s="0" t="n">
+      <c r="N418" s="7" t="n">
         <v>683001965580</v>
       </c>
-      <c r="O418" s="0" t="s">
+      <c r="O418" s="7" t="s">
         <v>3807</v>
       </c>
-      <c r="P418" s="0" t="s">
+      <c r="P418" s="7" t="s">
         <v>3808</v>
       </c>
-      <c r="Q418" s="0" t="s">
+      <c r="Q418" s="7" t="s">
         <v>3809</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
+      <c r="A419" s="7" t="s">
         <v>3810</v>
       </c>
-      <c r="B419" s="0" t="s">
+      <c r="B419" s="7" t="s">
         <v>3811</v>
       </c>
-      <c r="C419" s="0" t="s">
+      <c r="C419" s="7" t="s">
         <v>3812</v>
       </c>
-      <c r="D419" s="0" t="s">
+      <c r="D419" s="7" t="s">
         <v>3813</v>
       </c>
-      <c r="E419" s="0" t="s">
+      <c r="E419" s="7" t="s">
         <v>3814</v>
       </c>
-      <c r="F419" s="0" t="s">
+      <c r="F419" s="7" t="s">
         <v>3815</v>
       </c>
-      <c r="G419" s="0" t="s">
+      <c r="G419" s="7" t="s">
         <v>2364</v>
       </c>
-      <c r="H419" s="0" t="s">
+      <c r="H419" s="7" t="s">
         <v>2118</v>
       </c>
-      <c r="I419" s="0" t="s">
+      <c r="I419" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="J419" s="0" t="s">
+      <c r="J419" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="K419" s="0" t="n">
+      <c r="K419" s="7" t="n">
         <v>7722093367</v>
       </c>
-      <c r="L419" s="0" t="s">
+      <c r="L419" s="7" t="s">
         <v>3816</v>
       </c>
-      <c r="M419" s="0" t="s">
+      <c r="M419" s="7" t="s">
         <v>3817</v>
       </c>
-      <c r="N419" s="0" t="n">
+      <c r="N419" s="7" t="n">
         <v>7107121096</v>
       </c>
-      <c r="O419" s="0" t="s">
+      <c r="O419" s="7" t="s">
         <v>3818</v>
       </c>
-      <c r="P419" s="0" t="s">
+      <c r="P419" s="7" t="s">
         <v>3819</v>
       </c>
-      <c r="Q419" s="0" t="s">
+      <c r="Q419" s="7" t="s">
         <v>3820</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
+      <c r="A420" s="7" t="s">
         <v>3821</v>
       </c>
-      <c r="B420" s="0" t="s">
+      <c r="B420" s="7" t="s">
         <v>3822</v>
       </c>
-      <c r="C420" s="0" t="s">
+      <c r="C420" s="7" t="s">
         <v>3823</v>
       </c>
-      <c r="D420" s="0" t="s">
+      <c r="D420" s="7" t="s">
         <v>3824</v>
       </c>
-      <c r="E420" s="0" t="s">
+      <c r="E420" s="7" t="s">
         <v>3825</v>
       </c>
-      <c r="F420" s="0" t="s">
+      <c r="F420" s="7" t="s">
         <v>2140</v>
       </c>
-      <c r="G420" s="0" t="s">
+      <c r="G420" s="7" t="s">
         <v>3826</v>
       </c>
-      <c r="H420" s="0" t="s">
+      <c r="H420" s="7" t="s">
         <v>2405</v>
       </c>
-      <c r="I420" s="0" t="s">
+      <c r="I420" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="J420" s="0" t="s">
+      <c r="J420" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K420" s="0" t="n">
+      <c r="K420" s="7" t="n">
         <v>7708014620</v>
       </c>
-      <c r="L420" s="0" t="s">
+      <c r="L420" s="7" t="s">
         <v>3827</v>
       </c>
-      <c r="M420" s="0" t="s">
+      <c r="M420" s="7" t="s">
         <v>3828</v>
       </c>
-      <c r="N420" s="0" t="n">
+      <c r="N420" s="7" t="n">
         <v>26911174252</v>
       </c>
-      <c r="O420" s="0" t="s">
+      <c r="O420" s="7" t="s">
         <v>3829</v>
       </c>
-      <c r="P420" s="0" t="s">
+      <c r="P420" s="7" t="s">
         <v>3830</v>
       </c>
-      <c r="Q420" s="0" t="s">
+      <c r="Q420" s="7" t="s">
         <v>3831</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
+      <c r="A421" s="7" t="s">
         <v>3832</v>
       </c>
-      <c r="B421" s="0" t="s">
+      <c r="B421" s="7" t="s">
         <v>3833</v>
       </c>
-      <c r="C421" s="0" t="s">
+      <c r="C421" s="7" t="s">
         <v>3834</v>
       </c>
-      <c r="D421" s="0" t="s">
+      <c r="D421" s="7" t="s">
         <v>3835</v>
       </c>
-      <c r="E421" s="0" t="s">
+      <c r="E421" s="7" t="s">
         <v>2039</v>
       </c>
-      <c r="F421" s="0" t="s">
+      <c r="F421" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G421" s="0" t="s">
+      <c r="G421" s="7" t="s">
         <v>3836</v>
       </c>
-      <c r="H421" s="0" t="s">
+      <c r="H421" s="7" t="s">
         <v>3837</v>
       </c>
-      <c r="I421" s="0" t="s">
+      <c r="I421" s="7" t="s">
         <v>3838</v>
       </c>
-      <c r="J421" s="0" t="s">
+      <c r="J421" s="7" t="s">
         <v>3839</v>
       </c>
-      <c r="K421" s="0" t="n">
+      <c r="K421" s="7" t="n">
         <v>5014003427</v>
       </c>
-      <c r="L421" s="0" t="s">
+      <c r="L421" s="7" t="s">
         <v>3840</v>
       </c>
-      <c r="M421" s="0" t="s">
+      <c r="M421" s="7" t="s">
         <v>3841</v>
       </c>
-      <c r="N421" s="0" t="n">
+      <c r="N421" s="7" t="n">
         <v>5019021243</v>
       </c>
-      <c r="O421" s="0" t="s">
+      <c r="O421" s="7" t="s">
         <v>3842</v>
       </c>
-      <c r="P421" s="0" t="s">
+      <c r="P421" s="7" t="s">
         <v>3843</v>
       </c>
-      <c r="Q421" s="0" t="s">
+      <c r="Q421" s="7" t="s">
         <v>3844</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
+      <c r="A422" s="7" t="s">
         <v>3845</v>
       </c>
-      <c r="B422" s="0" t="s">
+      <c r="B422" s="7" t="s">
         <v>3846</v>
       </c>
-      <c r="C422" s="0" t="s">
+      <c r="C422" s="7" t="s">
         <v>3847</v>
       </c>
-      <c r="D422" s="0" t="s">
+      <c r="D422" s="7" t="s">
         <v>3848</v>
       </c>
-      <c r="E422" s="0" t="s">
+      <c r="E422" s="7" t="s">
         <v>2329</v>
       </c>
-      <c r="F422" s="0" t="s">
+      <c r="F422" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G422" s="0" t="s">
+      <c r="G422" s="7" t="s">
         <v>3836</v>
       </c>
-      <c r="H422" s="0" t="s">
+      <c r="H422" s="7" t="s">
         <v>3305</v>
       </c>
-      <c r="I422" s="0" t="s">
+      <c r="I422" s="7" t="s">
         <v>3849</v>
       </c>
-      <c r="J422" s="0" t="s">
+      <c r="J422" s="7" t="s">
         <v>3850</v>
       </c>
-      <c r="K422" s="0" t="n">
+      <c r="K422" s="7" t="n">
         <v>5024129468</v>
       </c>
-      <c r="L422" s="0" t="s">
+      <c r="L422" s="7" t="s">
         <v>3851</v>
       </c>
-      <c r="M422" s="0" t="s">
+      <c r="M422" s="7" t="s">
         <v>3852</v>
       </c>
-      <c r="N422" s="0" t="n">
+      <c r="N422" s="7" t="n">
         <v>5049019393</v>
       </c>
-      <c r="O422" s="0" t="s">
+      <c r="O422" s="7" t="s">
         <v>3853</v>
       </c>
-      <c r="P422" s="0" t="s">
+      <c r="P422" s="7" t="s">
         <v>3854</v>
       </c>
-      <c r="Q422" s="0" t="s">
+      <c r="Q422" s="7" t="s">
         <v>3855</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
+      <c r="A423" s="7" t="s">
         <v>3856</v>
       </c>
-      <c r="B423" s="0" t="s">
+      <c r="B423" s="7" t="s">
         <v>3857</v>
       </c>
-      <c r="C423" s="0" t="s">
+      <c r="C423" s="7" t="s">
         <v>3858</v>
       </c>
-      <c r="D423" s="0" t="s">
+      <c r="D423" s="7" t="s">
         <v>3859</v>
       </c>
-      <c r="E423" s="0" t="s">
+      <c r="E423" s="7" t="s">
         <v>2141</v>
       </c>
-      <c r="F423" s="0" t="s">
+      <c r="F423" s="7" t="s">
         <v>2223</v>
       </c>
-      <c r="G423" s="0" t="s">
+      <c r="G423" s="7" t="s">
         <v>2097</v>
       </c>
-      <c r="H423" s="0" t="s">
+      <c r="H423" s="7" t="s">
         <v>3085</v>
       </c>
-      <c r="I423" s="0" t="s">
+      <c r="I423" s="7" t="s">
         <v>2863</v>
       </c>
-      <c r="J423" s="0" t="s">
+      <c r="J423" s="7" t="s">
         <v>2864</v>
       </c>
-      <c r="K423" s="0" t="n">
+      <c r="K423" s="7" t="n">
         <v>7706752929</v>
       </c>
-      <c r="L423" s="0" t="s">
+      <c r="L423" s="7" t="s">
         <v>3860</v>
       </c>
-      <c r="M423" s="0" t="s">
+      <c r="M423" s="7" t="s">
         <v>3861</v>
       </c>
-      <c r="N423" s="0" t="n">
+      <c r="N423" s="7" t="n">
         <v>7729752509</v>
       </c>
-      <c r="O423" s="0" t="s">
+      <c r="O423" s="7" t="s">
         <v>3862</v>
       </c>
-      <c r="P423" s="0" t="s">
+      <c r="P423" s="7" t="s">
         <v>3863</v>
       </c>
-      <c r="Q423" s="0" t="s">
+      <c r="Q423" s="7" t="s">
         <v>3864</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
+      <c r="A424" s="7" t="s">
         <v>3865</v>
       </c>
-      <c r="B424" s="0" t="s">
+      <c r="B424" s="7" t="s">
         <v>3866</v>
       </c>
-      <c r="C424" s="0" t="s">
+      <c r="C424" s="7" t="s">
         <v>3867</v>
       </c>
-      <c r="D424" s="0" t="s">
+      <c r="D424" s="7" t="s">
         <v>3868</v>
       </c>
-      <c r="E424" s="0" t="s">
+      <c r="E424" s="7" t="s">
         <v>2498</v>
       </c>
-      <c r="F424" s="0" t="s">
+      <c r="F424" s="7" t="s">
         <v>3869</v>
       </c>
-      <c r="G424" s="0" t="s">
+      <c r="G424" s="7" t="s">
         <v>2418</v>
       </c>
-      <c r="H424" s="0" t="s">
+      <c r="H424" s="7" t="s">
         <v>2152</v>
       </c>
-      <c r="I424" s="0" t="s">
+      <c r="I424" s="7" t="s">
         <v>3042</v>
       </c>
-      <c r="J424" s="0" t="s">
+      <c r="J424" s="7" t="s">
         <v>3043</v>
       </c>
-      <c r="K424" s="0" t="n">
+      <c r="K424" s="7" t="n">
         <v>5047024694</v>
       </c>
-      <c r="L424" s="0" t="s">
+      <c r="L424" s="7" t="s">
         <v>3870</v>
       </c>
-      <c r="M424" s="0" t="s">
+      <c r="M424" s="7" t="s">
         <v>3871</v>
       </c>
-      <c r="N424" s="0" t="n">
+      <c r="N424" s="7" t="n">
         <v>1650361260</v>
       </c>
-      <c r="O424" s="0" t="s">
+      <c r="O424" s="7" t="s">
         <v>3872</v>
       </c>
-      <c r="P424" s="0" t="s">
+      <c r="P424" s="7" t="s">
         <v>3873</v>
       </c>
-      <c r="Q424" s="0" t="s">
+      <c r="Q424" s="7" t="s">
         <v>3874</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
+      <c r="A425" s="7" t="s">
         <v>3875</v>
       </c>
-      <c r="B425" s="0" t="s">
+      <c r="B425" s="7" t="s">
         <v>3876</v>
       </c>
-      <c r="C425" s="0" t="s">
+      <c r="C425" s="7" t="s">
         <v>3877</v>
       </c>
-      <c r="D425" s="0" t="s">
+      <c r="D425" s="7" t="s">
         <v>3878</v>
       </c>
-      <c r="E425" s="0" t="s">
+      <c r="E425" s="7" t="s">
         <v>2498</v>
       </c>
-      <c r="F425" s="0" t="s">
+      <c r="F425" s="7" t="s">
         <v>3869</v>
       </c>
-      <c r="G425" s="0" t="s">
+      <c r="G425" s="7" t="s">
         <v>2152</v>
       </c>
-      <c r="H425" s="0" t="s">
+      <c r="H425" s="7" t="s">
         <v>2545</v>
       </c>
-      <c r="I425" s="0" t="s">
+      <c r="I425" s="7" t="s">
         <v>3042</v>
       </c>
-      <c r="J425" s="0" t="s">
+      <c r="J425" s="7" t="s">
         <v>3043</v>
       </c>
-      <c r="K425" s="0" t="n">
+      <c r="K425" s="7" t="n">
         <v>5047024694</v>
       </c>
-      <c r="L425" s="0" t="s">
+      <c r="L425" s="7" t="s">
         <v>3879</v>
       </c>
-      <c r="M425" s="0" t="s">
+      <c r="M425" s="7" t="s">
         <v>3880</v>
       </c>
-      <c r="N425" s="0" t="n">
+      <c r="N425" s="7" t="n">
         <v>6234195934</v>
       </c>
-      <c r="O425" s="0" t="s">
+      <c r="O425" s="7" t="s">
         <v>3881</v>
       </c>
-      <c r="P425" s="0" t="s">
+      <c r="P425" s="7" t="s">
         <v>3882</v>
       </c>
-      <c r="Q425" s="0" t="s">
+      <c r="Q425" s="7" t="s">
         <v>3883</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
+      <c r="A426" s="7" t="s">
         <v>3884</v>
       </c>
-      <c r="B426" s="0" t="s">
+      <c r="B426" s="7" t="s">
         <v>3885</v>
       </c>
-      <c r="C426" s="0" t="s">
+      <c r="C426" s="7" t="s">
         <v>3886</v>
       </c>
-      <c r="D426" s="0" t="s">
+      <c r="D426" s="7" t="s">
         <v>3887</v>
       </c>
-      <c r="E426" s="0" t="s">
+      <c r="E426" s="7" t="s">
         <v>2498</v>
       </c>
-      <c r="F426" s="0" t="s">
+      <c r="F426" s="7" t="s">
         <v>3869</v>
       </c>
-      <c r="G426" s="0" t="s">
+      <c r="G426" s="7" t="s">
         <v>2152</v>
       </c>
-      <c r="H426" s="0" t="s">
+      <c r="H426" s="7" t="s">
         <v>2545</v>
       </c>
-      <c r="I426" s="0" t="s">
+      <c r="I426" s="7" t="s">
         <v>3042</v>
       </c>
-      <c r="J426" s="0" t="s">
+      <c r="J426" s="7" t="s">
         <v>3043</v>
       </c>
-      <c r="K426" s="0" t="n">
+      <c r="K426" s="7" t="n">
         <v>5047024694</v>
       </c>
-      <c r="L426" s="0" t="s">
+      <c r="L426" s="7" t="s">
         <v>3888</v>
       </c>
-      <c r="M426" s="0" t="s">
+      <c r="M426" s="7" t="s">
         <v>3889</v>
       </c>
-      <c r="N426" s="0" t="n">
+      <c r="N426" s="7" t="n">
         <v>616112702971</v>
       </c>
-      <c r="O426" s="0" t="s">
+      <c r="O426" s="7" t="s">
         <v>3890</v>
       </c>
-      <c r="P426" s="0" t="s">
+      <c r="P426" s="7" t="s">
         <v>3891</v>
       </c>
-      <c r="Q426" s="0" t="s">
+      <c r="Q426" s="7" t="s">
         <v>3892</v>
       </c>
     </row>
+    <row r="427" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="6" t="n">
+        <v>28.12</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="12" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B428" s="12" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C428" s="12" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D428" s="12" t="s">
+        <v>3896</v>
+      </c>
+      <c r="E428" s="12" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F428" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G428" s="12" t="s">
+        <v>2520</v>
+      </c>
+      <c r="H428" s="12" t="s">
+        <v>2520</v>
+      </c>
+      <c r="I428" s="12" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J428" s="12" t="s">
+        <v>3054</v>
+      </c>
+      <c r="K428" s="12" t="n">
+        <v>5009007137</v>
+      </c>
+      <c r="L428" s="12" t="s">
+        <v>3897</v>
+      </c>
+      <c r="M428" s="12" t="s">
+        <v>3898</v>
+      </c>
+      <c r="N428" s="12" t="n">
+        <v>7805655242</v>
+      </c>
+      <c r="O428" s="12" t="s">
+        <v>3899</v>
+      </c>
+      <c r="P428" s="12" t="s">
+        <v>3900</v>
+      </c>
+      <c r="Q428" s="12" t="s">
+        <v>3901</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="12" t="s">
+        <v>3902</v>
+      </c>
+      <c r="B429" s="12" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C429" s="12" t="s">
+        <v>3904</v>
+      </c>
+      <c r="D429" s="12" t="s">
+        <v>3905</v>
+      </c>
+      <c r="E429" s="12" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F429" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G429" s="12" t="s">
+        <v>3906</v>
+      </c>
+      <c r="H429" s="12" t="s">
+        <v>2985</v>
+      </c>
+      <c r="I429" s="12" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J429" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K429" s="12" t="n">
+        <v>5024080558</v>
+      </c>
+      <c r="L429" s="12" t="s">
+        <v>3907</v>
+      </c>
+      <c r="M429" s="12" t="s">
+        <v>3908</v>
+      </c>
+      <c r="N429" s="12" t="n">
+        <v>4027145868</v>
+      </c>
+      <c r="O429" s="12" t="s">
+        <v>3909</v>
+      </c>
+      <c r="P429" s="12" t="s">
+        <v>3910</v>
+      </c>
+      <c r="Q429" s="12" t="s">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="12" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B430" s="12" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>3914</v>
+      </c>
+      <c r="D430" s="12" t="s">
+        <v>3915</v>
+      </c>
+      <c r="E430" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F430" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G430" s="12" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H430" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="I430" s="12" t="s">
+        <v>3916</v>
+      </c>
+      <c r="J430" s="12" t="s">
+        <v>3917</v>
+      </c>
+      <c r="K430" s="12" t="n">
+        <v>7706593588</v>
+      </c>
+      <c r="L430" s="12" t="s">
+        <v>3918</v>
+      </c>
+      <c r="M430" s="12" t="s">
+        <v>3919</v>
+      </c>
+      <c r="N430" s="12" t="n">
+        <v>253900146573</v>
+      </c>
+      <c r="O430" s="12" t="s">
+        <v>3920</v>
+      </c>
+      <c r="P430" s="12" t="s">
+        <v>3921</v>
+      </c>
+      <c r="Q430" s="12" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="12" t="s">
+        <v>3923</v>
+      </c>
+      <c r="B431" s="12" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C431" s="12" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D431" s="12" t="s">
+        <v>3926</v>
+      </c>
+      <c r="E431" s="12" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F431" s="12" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G431" s="12" t="s">
+        <v>2936</v>
+      </c>
+      <c r="H431" s="12" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I431" s="12" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J431" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K431" s="12" t="n">
+        <v>7724075162</v>
+      </c>
+      <c r="L431" s="12" t="s">
+        <v>3927</v>
+      </c>
+      <c r="M431" s="12" t="s">
+        <v>3928</v>
+      </c>
+      <c r="N431" s="12" t="n">
+        <v>507610526841</v>
+      </c>
+      <c r="O431" s="12" t="s">
+        <v>3929</v>
+      </c>
+      <c r="P431" s="12" t="s">
+        <v>3930</v>
+      </c>
+      <c r="Q431" s="12" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="12" t="s">
+        <v>3932</v>
+      </c>
+      <c r="B432" s="12" t="s">
+        <v>3933</v>
+      </c>
+      <c r="C432" s="12" t="s">
+        <v>3934</v>
+      </c>
+      <c r="D432" s="12" t="s">
+        <v>3935</v>
+      </c>
+      <c r="E432" s="12" t="s">
+        <v>3936</v>
+      </c>
+      <c r="F432" s="12" t="s">
+        <v>3937</v>
+      </c>
+      <c r="G432" s="12" t="s">
+        <v>3936</v>
+      </c>
+      <c r="H432" s="12" t="s">
+        <v>3938</v>
+      </c>
+      <c r="I432" s="12" t="s">
+        <v>3006</v>
+      </c>
+      <c r="J432" s="12" t="s">
+        <v>3007</v>
+      </c>
+      <c r="K432" s="12" t="n">
+        <v>5079001435</v>
+      </c>
+      <c r="L432" s="12" t="s">
+        <v>3939</v>
+      </c>
+      <c r="M432" s="12" t="s">
+        <v>3940</v>
+      </c>
+      <c r="N432" s="12" t="n">
+        <v>3257000417</v>
+      </c>
+      <c r="O432" s="12" t="s">
+        <v>3941</v>
+      </c>
+      <c r="P432" s="12" t="s">
+        <v>3942</v>
+      </c>
+      <c r="Q432" s="12" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="12" t="s">
+        <v>3944</v>
+      </c>
+      <c r="B433" s="12" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C433" s="12" t="s">
+        <v>3946</v>
+      </c>
+      <c r="D433" s="12" t="s">
+        <v>3947</v>
+      </c>
+      <c r="E433" s="12" t="s">
+        <v>3948</v>
+      </c>
+      <c r="F433" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G433" s="12" t="s">
+        <v>3948</v>
+      </c>
+      <c r="H433" s="12" t="s">
+        <v>3949</v>
+      </c>
+      <c r="I433" s="12" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J433" s="12" t="s">
+        <v>2408</v>
+      </c>
+      <c r="K433" s="12" t="n">
+        <v>7710030362</v>
+      </c>
+      <c r="L433" s="12" t="s">
+        <v>3950</v>
+      </c>
+      <c r="M433" s="12" t="s">
+        <v>3951</v>
+      </c>
+      <c r="N433" s="12" t="n">
+        <v>3327144430</v>
+      </c>
+      <c r="O433" s="12" t="s">
+        <v>3952</v>
+      </c>
+      <c r="P433" s="12" t="s">
+        <v>3953</v>
+      </c>
+      <c r="Q433" s="12" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="12" t="s">
+        <v>3955</v>
+      </c>
+      <c r="B434" s="12" t="s">
+        <v>3956</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>3957</v>
+      </c>
+      <c r="D434" s="12" t="s">
+        <v>3958</v>
+      </c>
+      <c r="E434" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="F434" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G434" s="12" t="s">
+        <v>3123</v>
+      </c>
+      <c r="H434" s="12" t="s">
+        <v>3949</v>
+      </c>
+      <c r="I434" s="12" t="s">
+        <v>2343</v>
+      </c>
+      <c r="J434" s="12" t="s">
+        <v>2344</v>
+      </c>
+      <c r="K434" s="12" t="n">
+        <v>7702132064</v>
+      </c>
+      <c r="L434" s="12" t="s">
+        <v>3959</v>
+      </c>
+      <c r="M434" s="12" t="s">
+        <v>3960</v>
+      </c>
+      <c r="N434" s="12" t="n">
+        <v>773612965614</v>
+      </c>
+      <c r="O434" s="12" t="s">
+        <v>3961</v>
+      </c>
+      <c r="P434" s="12" t="s">
+        <v>3962</v>
+      </c>
+      <c r="Q434" s="12" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="12" t="s">
+        <v>3964</v>
+      </c>
+      <c r="B435" s="12" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C435" s="12" t="s">
+        <v>3966</v>
+      </c>
+      <c r="D435" s="12" t="s">
+        <v>3967</v>
+      </c>
+      <c r="E435" s="12" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F435" s="12" t="s">
+        <v>3968</v>
+      </c>
+      <c r="G435" s="12" t="s">
+        <v>3398</v>
+      </c>
+      <c r="H435" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I435" s="12" t="s">
+        <v>3969</v>
+      </c>
+      <c r="J435" s="12" t="s">
+        <v>3970</v>
+      </c>
+      <c r="K435" s="12" t="n">
+        <v>7729040491</v>
+      </c>
+      <c r="L435" s="12" t="s">
+        <v>3971</v>
+      </c>
+      <c r="M435" s="12" t="s">
+        <v>3972</v>
+      </c>
+      <c r="N435" s="12" t="n">
+        <v>9703034881</v>
+      </c>
+      <c r="O435" s="12" t="s">
+        <v>3973</v>
+      </c>
+      <c r="P435" s="12" t="s">
+        <v>3974</v>
+      </c>
+      <c r="Q435" s="12" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="12" t="s">
+        <v>3976</v>
+      </c>
+      <c r="B436" s="12" t="s">
+        <v>3977</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>3978</v>
+      </c>
+      <c r="D436" s="12" t="s">
+        <v>3979</v>
+      </c>
+      <c r="E436" s="12" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F436" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G436" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H436" s="12" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I436" s="12" t="s">
+        <v>3849</v>
+      </c>
+      <c r="J436" s="12" t="s">
+        <v>3850</v>
+      </c>
+      <c r="K436" s="12" t="n">
+        <v>5024129468</v>
+      </c>
+      <c r="L436" s="12" t="s">
+        <v>3980</v>
+      </c>
+      <c r="M436" s="12" t="s">
+        <v>3981</v>
+      </c>
+      <c r="N436" s="12" t="n">
+        <v>771411807090</v>
+      </c>
+      <c r="O436" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P436" s="12" t="s">
+        <v>3982</v>
+      </c>
+      <c r="Q436" s="12" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="12" t="s">
+        <v>3984</v>
+      </c>
+      <c r="B437" s="12" t="s">
+        <v>3985</v>
+      </c>
+      <c r="C437" s="12" t="s">
+        <v>3986</v>
+      </c>
+      <c r="D437" s="12" t="s">
+        <v>3987</v>
+      </c>
+      <c r="E437" s="12" t="s">
+        <v>2747</v>
+      </c>
+      <c r="F437" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G437" s="12" t="s">
+        <v>3836</v>
+      </c>
+      <c r="H437" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="I437" s="12" t="s">
+        <v>3849</v>
+      </c>
+      <c r="J437" s="12" t="s">
+        <v>3850</v>
+      </c>
+      <c r="K437" s="12" t="n">
+        <v>5024129468</v>
+      </c>
+      <c r="L437" s="12" t="s">
+        <v>3988</v>
+      </c>
+      <c r="M437" s="12" t="s">
+        <v>3989</v>
+      </c>
+      <c r="N437" s="12" t="n">
+        <v>5047205450</v>
+      </c>
+      <c r="O437" s="12" t="s">
+        <v>3990</v>
+      </c>
+      <c r="P437" s="12" t="s">
+        <v>3991</v>
+      </c>
+      <c r="Q437" s="12" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="12" t="s">
+        <v>3993</v>
+      </c>
+      <c r="B438" s="12" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C438" s="14" t="s">
+        <v>3995</v>
+      </c>
+      <c r="D438" s="12" t="s">
+        <v>3996</v>
+      </c>
+      <c r="E438" s="12" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F438" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G438" s="12" t="s">
+        <v>3836</v>
+      </c>
+      <c r="H438" s="12" t="s">
+        <v>2223</v>
+      </c>
+      <c r="I438" s="15" t="s">
+        <v>3849</v>
+      </c>
+      <c r="J438" s="12" t="s">
+        <v>3850</v>
+      </c>
+      <c r="K438" s="12" t="n">
+        <v>5024129468</v>
+      </c>
+      <c r="L438" s="14" t="s">
+        <v>3997</v>
+      </c>
+      <c r="M438" s="12" t="s">
+        <v>3998</v>
+      </c>
+      <c r="N438" s="14" t="n">
+        <v>5049021674</v>
+      </c>
+      <c r="O438" s="14" t="s">
+        <v>3999</v>
+      </c>
+      <c r="P438" s="14" t="s">
+        <v>4000</v>
+      </c>
+      <c r="Q438" s="14" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="12" t="s">
+        <v>4002</v>
+      </c>
+      <c r="B439" s="12" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C439" s="12" t="s">
+        <v>4004</v>
+      </c>
+      <c r="D439" s="12" t="s">
+        <v>4005</v>
+      </c>
+      <c r="E439" s="12" t="s">
+        <v>4006</v>
+      </c>
+      <c r="F439" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G439" s="12" t="s">
+        <v>3836</v>
+      </c>
+      <c r="H439" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I439" s="12" t="s">
+        <v>3849</v>
+      </c>
+      <c r="J439" s="12" t="s">
+        <v>3850</v>
+      </c>
+      <c r="K439" s="12" t="n">
+        <v>5024129468</v>
+      </c>
+      <c r="L439" s="12" t="s">
+        <v>4007</v>
+      </c>
+      <c r="M439" s="12" t="s">
+        <v>4008</v>
+      </c>
+      <c r="N439" s="12" t="n">
+        <v>502918547500</v>
+      </c>
+      <c r="O439" s="12" t="s">
+        <v>4009</v>
+      </c>
+      <c r="P439" s="12" t="s">
+        <v>4010</v>
+      </c>
+      <c r="Q439" s="12" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="12" t="s">
+        <v>4012</v>
+      </c>
+      <c r="B440" s="12" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C440" s="12" t="s">
+        <v>4014</v>
+      </c>
+      <c r="D440" s="12" t="s">
+        <v>4015</v>
+      </c>
+      <c r="E440" s="12" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F440" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G440" s="12" t="s">
+        <v>3837</v>
+      </c>
+      <c r="H440" s="12" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I440" s="12" t="s">
+        <v>3849</v>
+      </c>
+      <c r="J440" s="12" t="s">
+        <v>3850</v>
+      </c>
+      <c r="K440" s="12" t="n">
+        <v>5024129468</v>
+      </c>
+      <c r="L440" s="12" t="s">
+        <v>4016</v>
+      </c>
+      <c r="M440" s="12" t="s">
+        <v>4017</v>
+      </c>
+      <c r="N440" s="12" t="n">
+        <v>7723825246</v>
+      </c>
+      <c r="O440" s="12" t="s">
+        <v>4018</v>
+      </c>
+      <c r="P440" s="12" t="s">
+        <v>4019</v>
+      </c>
+      <c r="Q440" s="12" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="12" t="s">
+        <v>4021</v>
+      </c>
+      <c r="B441" s="12" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C441" s="12" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D441" s="12" t="s">
+        <v>4024</v>
+      </c>
+      <c r="E441" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F441" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G441" s="12" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H441" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="I441" s="12" t="s">
+        <v>3017</v>
+      </c>
+      <c r="J441" s="12" t="s">
+        <v>3018</v>
+      </c>
+      <c r="K441" s="12" t="n">
+        <v>7728013512</v>
+      </c>
+      <c r="L441" s="12" t="s">
+        <v>4025</v>
+      </c>
+      <c r="M441" s="12" t="s">
+        <v>4026</v>
+      </c>
+      <c r="N441" s="12" t="n">
+        <v>27722451505</v>
+      </c>
+      <c r="O441" s="12" t="s">
+        <v>4027</v>
+      </c>
+      <c r="P441" s="12" t="s">
+        <v>4028</v>
+      </c>
+      <c r="Q441" s="12" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="12" t="s">
+        <v>4030</v>
+      </c>
+      <c r="B442" s="12" t="s">
+        <v>4031</v>
+      </c>
+      <c r="C442" s="12" t="s">
+        <v>4032</v>
+      </c>
+      <c r="D442" s="12" t="s">
+        <v>4033</v>
+      </c>
+      <c r="E442" s="12" t="s">
+        <v>4034</v>
+      </c>
+      <c r="F442" s="12" t="s">
+        <v>4035</v>
+      </c>
+      <c r="G442" s="12" t="s">
+        <v>4036</v>
+      </c>
+      <c r="H442" s="12" t="s">
+        <v>2766</v>
+      </c>
+      <c r="I442" s="12" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J442" s="12" t="s">
+        <v>4038</v>
+      </c>
+      <c r="K442" s="12" t="n">
+        <v>5024002077</v>
+      </c>
+      <c r="L442" s="12" t="s">
+        <v>4039</v>
+      </c>
+      <c r="M442" s="12" t="s">
+        <v>4040</v>
+      </c>
+      <c r="N442" s="12" t="n">
+        <v>7713447820</v>
+      </c>
+      <c r="O442" s="12" t="s">
+        <v>4041</v>
+      </c>
+      <c r="P442" s="12" t="s">
+        <v>4042</v>
+      </c>
+      <c r="Q442" s="12" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="12" t="s">
+        <v>4044</v>
+      </c>
+      <c r="B443" s="12" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C443" s="12" t="s">
+        <v>4046</v>
+      </c>
+      <c r="D443" s="12" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E443" s="12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F443" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G443" s="12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="H443" s="12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="I443" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="J443" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="K443" s="12" t="n">
+        <v>5005067640</v>
+      </c>
+      <c r="L443" s="12" t="s">
+        <v>4048</v>
+      </c>
+      <c r="M443" s="12" t="s">
+        <v>4049</v>
+      </c>
+      <c r="N443" s="12" t="n">
+        <v>560706192137</v>
+      </c>
+      <c r="O443" s="12" t="s">
+        <v>4050</v>
+      </c>
+      <c r="P443" s="12" t="s">
+        <v>4051</v>
+      </c>
+      <c r="Q443" s="12" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="12" t="s">
+        <v>4053</v>
+      </c>
+      <c r="B444" s="12" t="s">
+        <v>4054</v>
+      </c>
+      <c r="C444" s="12" t="s">
+        <v>4055</v>
+      </c>
+      <c r="D444" s="12" t="s">
+        <v>4056</v>
+      </c>
+      <c r="E444" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F444" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G444" s="12" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H444" s="12" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I444" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J444" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K444" s="12" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L444" s="12" t="s">
+        <v>4057</v>
+      </c>
+      <c r="M444" s="12" t="s">
+        <v>4058</v>
+      </c>
+      <c r="N444" s="12" t="n">
+        <v>7451304981</v>
+      </c>
+      <c r="O444" s="12" t="s">
+        <v>4059</v>
+      </c>
+      <c r="P444" s="12" t="s">
+        <v>4060</v>
+      </c>
+      <c r="Q444" s="12" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="12" t="s">
+        <v>4062</v>
+      </c>
+      <c r="B445" s="12" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C445" s="12" t="s">
+        <v>4064</v>
+      </c>
+      <c r="D445" s="12" t="s">
+        <v>4065</v>
+      </c>
+      <c r="E445" s="12" t="s">
+        <v>2558</v>
+      </c>
+      <c r="F445" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G445" s="12" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H445" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="I445" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="J445" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="K445" s="12" t="n">
+        <v>7722093367</v>
+      </c>
+      <c r="L445" s="12" t="s">
+        <v>4066</v>
+      </c>
+      <c r="M445" s="12" t="s">
+        <v>4067</v>
+      </c>
+      <c r="N445" s="12" t="n">
+        <v>6453083574</v>
+      </c>
+      <c r="O445" s="12" t="s">
+        <v>4068</v>
+      </c>
+      <c r="P445" s="12" t="s">
+        <v>4069</v>
+      </c>
+      <c r="Q445" s="12" t="s">
+        <v>4070</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5079" uniqueCount="4071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5259" uniqueCount="4188">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -12234,6 +12234,357 @@
   </si>
   <si>
     <t xml:space="preserve">info@rosdorteh.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771830998321000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27718309983 21 000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 391,32 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 1797 "БОГОРОДСКАЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 1797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АНАШИНА ИРИНА СЕРГЕЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АНАШИНА ИРИНА СЕРГЕЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ. САМАРСКАЯ 63, Г. НОВОКУЙБЫШЕВСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770659360521000150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706593605 21 000150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 708 656,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ГРУППА КОМПАНИЙ "ИНФОТАКТИКА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ГРУППА КОМПАНИЙ "ИНФОТАКТИКА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ГРУППА КОМПАНИЙ "ИНФОТАКТИКА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109202, Г МОСКВА 77, УЛ 2-Я КАРАЧАРОВСКАЯ, ДОМ 1, СТРОЕНИЕ 1, ЭТАЖ 2 КОМ 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-4813479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infotaktika_gk@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770659360521000167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706593605 21 000167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211 431 432,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАЦИОНАЛЬНЫЕ ТЕХНОЛОГИИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАЦИОНАЛЬНЫЕ ТЕХНОЛОГИИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НАЦИОНАЛЬНЫЕ ТЕХНОЛОГИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121059, Г. МОСКВА 77, УЛ. БРЯНСКАЯ, Д. 5, ЭТАЖ 10,ПОМЕЩ. I КОМ. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-1222466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@q-pol.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770659360521000193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706593605 21 000193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 681 650,89 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕГИОНЭКИП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕГИОНЭКИП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕГИОНЭКИП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454016, ОБЛ ЧЕЛЯБИНСКАЯ, Г ЧЕЛЯБИНСК, УЛ ЧАЙКОВСКОГО, ДОМ 70, КВАРТИРА 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-919-3059009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opt@sport-pro.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770303703921000230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17703037039 21 000230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 924 125,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БЕЛТРИНИТИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БЕЛТРИНИТИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "БЕЛТРИНИТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214000, ОБЛ. СМОЛЕНСКАЯ 67, Г. Смоленск, ПР-КТ ГАГАРИНА, Д. 10/2, ПОМЕЩ. 314/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-481-2250638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beltrinity@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770641334821000268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706413348 21 000268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 542 764,38 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЙТИ-ТЕХНОЛОГИИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЙТИ-ТЕХНОЛОГИИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЙТИ-ТЕХНОЛОГИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198097, Г САНКТ-ПЕТЕРБУРГ 78, УЛ ТРЕФОЛЕВА, ДОМ 2, ЛИТЕР Р, 2-Н, ПОМ. 224 (А)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-2411903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aitytechn@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502002938121000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35020029381 21 000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 899 999,99 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ЛИЦЕЙ № 10 ИМЕНИ Д.И. МЕНДЕЛЕЕВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОУ ЛИЦЕЙ № 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОИТЕЛЬНО-МОНТАЖНОЕ УПРАВЛЕНИЕ-1" (ООО "СМУ-1")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СМУ-1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143007, ОБЛ МОСКОВСКАЯ 50, Г ОДИНЦОВО, УЛ МОЛОДЕЖНАЯ, ДОМ 46, ОФИС 206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-1267146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smu-1orel@ya.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771406175621000662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17714061756 21 000662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 000 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦАРЕГОРОДЦЕВ ИВАН АЛЕКСАНДРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЦАРЕГОРОДЦЕВ ИВАН АЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-921-5919058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ivan7070109@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771301079821000047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17713010798 21 000047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 176 851,20 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ НАУКИ ОБЪЕДИНЕННЫЙ ИНСТИТУТ ВЫСОКИХ ТЕМПЕРАТУР РОССИЙСКОЙ АКАДЕМИИ НАУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОИВТ РАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АРТТЕЛЕКОМ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АРТТЕЛЕКОМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АРТТЕЛЕКОМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142116, ОБЛ МОСКОВСКАЯ 50, Г ПОДОЛЬСК, УЛ ЛОБАЧЕВА, ДОМ 13, ОФИС 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-910-4700001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dir@arttelekom.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1971006293921000071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19710062939 21 000071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 800 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОСПЕРОС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРОСПЕРОС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПРОСПЕРОС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123056, Г. МОСКВА 77, УЛ. 2-Я БРЕСТСКАЯ, Д. 9, СТР. 1, ОФИС 4 ПОМЕЩ. IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-5864547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@prosperos.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770405509421000296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704055094 21 000296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 411 616,16 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙЗАКАЗ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙЗАКАЗ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙЗАКАЗ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">628634, АО ХАНТЫ-МАНСИЙСКИЙ АВТОНОМНЫЙ ОКРУГ - ЮГРА 86, Р-Н НИЖНЕВАРТОВСКИЙ, ПГТ ИЗЛУЧИНСК, УЛ АВТОМОБИЛИСТОВ, ВЛАДЕНИЕ 5, ОФИС 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-3466-619805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strojz.z@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503800814221000233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038008142 21 000233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 847 240,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЗС-КОМПЛЕКС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЗС-КОМПЛЕКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЗС-КОМПЛЕКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107031, Г МОСКВА 77, УЛ КУЗНЕЦКИЙ МОСТ, ДОМ 21/5, ЭТ 2 ПОМ II КОМ 127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-9025546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azs_kom@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -12412,10 +12763,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q445"/>
+  <dimension ref="A1:Q458"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A387" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A427" activeCellId="0" sqref="427:427"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A411" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A446" activeCellId="0" sqref="446:446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34392,6 +34743,647 @@
         <v>4070</v>
       </c>
     </row>
+    <row r="446" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="6" t="n">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="12" t="s">
+        <v>4071</v>
+      </c>
+      <c r="B447" s="12" t="s">
+        <v>4072</v>
+      </c>
+      <c r="C447" s="12" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D447" s="12" t="s">
+        <v>4074</v>
+      </c>
+      <c r="E447" s="12" t="s">
+        <v>3804</v>
+      </c>
+      <c r="F447" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G447" s="12" t="s">
+        <v>4075</v>
+      </c>
+      <c r="H447" s="12" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I447" s="12" t="s">
+        <v>4076</v>
+      </c>
+      <c r="J447" s="12" t="s">
+        <v>4077</v>
+      </c>
+      <c r="K447" s="12" t="n">
+        <v>7718309983</v>
+      </c>
+      <c r="L447" s="12" t="s">
+        <v>4078</v>
+      </c>
+      <c r="M447" s="12" t="s">
+        <v>4079</v>
+      </c>
+      <c r="N447" s="12" t="n">
+        <v>633064798749</v>
+      </c>
+      <c r="O447" s="12" t="s">
+        <v>4080</v>
+      </c>
+      <c r="P447" s="12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="Q447" s="12" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="12" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B448" s="12" t="s">
+        <v>4082</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D448" s="12" t="s">
+        <v>4084</v>
+      </c>
+      <c r="E448" s="12" t="s">
+        <v>3258</v>
+      </c>
+      <c r="F448" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G448" s="12" t="s">
+        <v>4085</v>
+      </c>
+      <c r="H448" s="12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I448" s="12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J448" s="12" t="s">
+        <v>1644</v>
+      </c>
+      <c r="K448" s="12" t="n">
+        <v>7706593605</v>
+      </c>
+      <c r="L448" s="12" t="s">
+        <v>4086</v>
+      </c>
+      <c r="M448" s="12" t="s">
+        <v>4087</v>
+      </c>
+      <c r="N448" s="12" t="n">
+        <v>7721484167</v>
+      </c>
+      <c r="O448" s="12" t="s">
+        <v>4088</v>
+      </c>
+      <c r="P448" s="12" t="s">
+        <v>4089</v>
+      </c>
+      <c r="Q448" s="12" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="12" t="s">
+        <v>4091</v>
+      </c>
+      <c r="B449" s="12" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C449" s="12" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D449" s="12" t="s">
+        <v>4094</v>
+      </c>
+      <c r="E449" s="12" t="s">
+        <v>4095</v>
+      </c>
+      <c r="F449" s="12" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G449" s="12" t="s">
+        <v>2984</v>
+      </c>
+      <c r="H449" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I449" s="12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J449" s="12" t="s">
+        <v>1644</v>
+      </c>
+      <c r="K449" s="12" t="n">
+        <v>7706593605</v>
+      </c>
+      <c r="L449" s="12" t="s">
+        <v>4096</v>
+      </c>
+      <c r="M449" s="12" t="s">
+        <v>4097</v>
+      </c>
+      <c r="N449" s="12" t="n">
+        <v>7703436097</v>
+      </c>
+      <c r="O449" s="12" t="s">
+        <v>4098</v>
+      </c>
+      <c r="P449" s="12" t="s">
+        <v>4099</v>
+      </c>
+      <c r="Q449" s="12" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="12" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B450" s="12" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D450" s="12" t="s">
+        <v>4104</v>
+      </c>
+      <c r="E450" s="12" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F450" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G450" s="12" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H450" s="12" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I450" s="12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J450" s="12" t="s">
+        <v>1644</v>
+      </c>
+      <c r="K450" s="12" t="n">
+        <v>7706593605</v>
+      </c>
+      <c r="L450" s="12" t="s">
+        <v>4105</v>
+      </c>
+      <c r="M450" s="12" t="s">
+        <v>4106</v>
+      </c>
+      <c r="N450" s="12" t="n">
+        <v>7447277164</v>
+      </c>
+      <c r="O450" s="12" t="s">
+        <v>4107</v>
+      </c>
+      <c r="P450" s="12" t="s">
+        <v>4108</v>
+      </c>
+      <c r="Q450" s="12" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="12" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B451" s="12" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C451" s="12" t="s">
+        <v>4112</v>
+      </c>
+      <c r="D451" s="12" t="s">
+        <v>4113</v>
+      </c>
+      <c r="E451" s="12" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F451" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G451" s="12" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H451" s="12" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I451" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J451" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K451" s="12" t="n">
+        <v>7703037039</v>
+      </c>
+      <c r="L451" s="12" t="s">
+        <v>4114</v>
+      </c>
+      <c r="M451" s="12" t="s">
+        <v>4115</v>
+      </c>
+      <c r="N451" s="12" t="n">
+        <v>6732212893</v>
+      </c>
+      <c r="O451" s="12" t="s">
+        <v>4116</v>
+      </c>
+      <c r="P451" s="12" t="s">
+        <v>4117</v>
+      </c>
+      <c r="Q451" s="12" t="s">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="12" t="s">
+        <v>4119</v>
+      </c>
+      <c r="B452" s="12" t="s">
+        <v>4120</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>4121</v>
+      </c>
+      <c r="D452" s="12" t="s">
+        <v>4122</v>
+      </c>
+      <c r="E452" s="12" t="s">
+        <v>2913</v>
+      </c>
+      <c r="F452" s="12" t="s">
+        <v>4123</v>
+      </c>
+      <c r="G452" s="12" t="s">
+        <v>3522</v>
+      </c>
+      <c r="H452" s="12" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I452" s="12" t="s">
+        <v>2522</v>
+      </c>
+      <c r="J452" s="12" t="s">
+        <v>2523</v>
+      </c>
+      <c r="K452" s="12" t="n">
+        <v>7706413348</v>
+      </c>
+      <c r="L452" s="12" t="s">
+        <v>4124</v>
+      </c>
+      <c r="M452" s="12" t="s">
+        <v>4125</v>
+      </c>
+      <c r="N452" s="12" t="n">
+        <v>7806554906</v>
+      </c>
+      <c r="O452" s="12" t="s">
+        <v>4126</v>
+      </c>
+      <c r="P452" s="12" t="s">
+        <v>4127</v>
+      </c>
+      <c r="Q452" s="12" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="12" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B453" s="12" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C453" s="12" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D453" s="12" t="s">
+        <v>4132</v>
+      </c>
+      <c r="E453" s="12" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F453" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G453" s="12" t="s">
+        <v>2152</v>
+      </c>
+      <c r="H453" s="12" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I453" s="12" t="s">
+        <v>4133</v>
+      </c>
+      <c r="J453" s="12" t="s">
+        <v>4134</v>
+      </c>
+      <c r="K453" s="12" t="n">
+        <v>5020029381</v>
+      </c>
+      <c r="L453" s="12" t="s">
+        <v>4135</v>
+      </c>
+      <c r="M453" s="12" t="s">
+        <v>4136</v>
+      </c>
+      <c r="N453" s="12" t="n">
+        <v>5720014503</v>
+      </c>
+      <c r="O453" s="12" t="s">
+        <v>4137</v>
+      </c>
+      <c r="P453" s="12" t="s">
+        <v>4138</v>
+      </c>
+      <c r="Q453" s="12" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="12" t="s">
+        <v>4140</v>
+      </c>
+      <c r="B454" s="12" t="s">
+        <v>4141</v>
+      </c>
+      <c r="C454" s="12" t="s">
+        <v>4142</v>
+      </c>
+      <c r="D454" s="12" t="s">
+        <v>4143</v>
+      </c>
+      <c r="E454" s="12" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F454" s="12" t="s">
+        <v>4144</v>
+      </c>
+      <c r="G454" s="12" t="s">
+        <v>2985</v>
+      </c>
+      <c r="H454" s="12" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I454" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="J454" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="K454" s="12" t="n">
+        <v>7714061756</v>
+      </c>
+      <c r="L454" s="12" t="s">
+        <v>4145</v>
+      </c>
+      <c r="M454" s="12" t="s">
+        <v>4146</v>
+      </c>
+      <c r="N454" s="12" t="n">
+        <v>781136860446</v>
+      </c>
+      <c r="O454" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="P454" s="12" t="s">
+        <v>4147</v>
+      </c>
+      <c r="Q454" s="12" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="12" t="s">
+        <v>4149</v>
+      </c>
+      <c r="B455" s="12" t="s">
+        <v>4150</v>
+      </c>
+      <c r="C455" s="12" t="s">
+        <v>4151</v>
+      </c>
+      <c r="D455" s="12" t="s">
+        <v>4152</v>
+      </c>
+      <c r="E455" s="12" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F455" s="12" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G455" s="12" t="s">
+        <v>3512</v>
+      </c>
+      <c r="H455" s="12" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I455" s="12" t="s">
+        <v>4153</v>
+      </c>
+      <c r="J455" s="12" t="s">
+        <v>4154</v>
+      </c>
+      <c r="K455" s="12" t="n">
+        <v>7713010798</v>
+      </c>
+      <c r="L455" s="12" t="s">
+        <v>4155</v>
+      </c>
+      <c r="M455" s="12" t="s">
+        <v>4156</v>
+      </c>
+      <c r="N455" s="12" t="n">
+        <v>5036112821</v>
+      </c>
+      <c r="O455" s="12" t="s">
+        <v>4157</v>
+      </c>
+      <c r="P455" s="12" t="s">
+        <v>4158</v>
+      </c>
+      <c r="Q455" s="12" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="12" t="s">
+        <v>4160</v>
+      </c>
+      <c r="B456" s="12" t="s">
+        <v>4161</v>
+      </c>
+      <c r="C456" s="12" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D456" s="12" t="s">
+        <v>4163</v>
+      </c>
+      <c r="E456" s="12" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F456" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G456" s="12" t="s">
+        <v>4164</v>
+      </c>
+      <c r="H456" s="12" t="s">
+        <v>4164</v>
+      </c>
+      <c r="I456" s="12" t="s">
+        <v>2245</v>
+      </c>
+      <c r="J456" s="12" t="s">
+        <v>2246</v>
+      </c>
+      <c r="K456" s="12" t="n">
+        <v>9710062939</v>
+      </c>
+      <c r="L456" s="12" t="s">
+        <v>4165</v>
+      </c>
+      <c r="M456" s="12" t="s">
+        <v>4166</v>
+      </c>
+      <c r="N456" s="12" t="n">
+        <v>9710088060</v>
+      </c>
+      <c r="O456" s="12" t="s">
+        <v>4167</v>
+      </c>
+      <c r="P456" s="12" t="s">
+        <v>4168</v>
+      </c>
+      <c r="Q456" s="12" t="s">
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="12" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B457" s="12" t="s">
+        <v>4171</v>
+      </c>
+      <c r="C457" s="12" t="s">
+        <v>4172</v>
+      </c>
+      <c r="D457" s="12" t="s">
+        <v>4173</v>
+      </c>
+      <c r="E457" s="12" t="s">
+        <v>2948</v>
+      </c>
+      <c r="F457" s="12" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G457" s="12" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H457" s="12" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I457" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="J457" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="K457" s="12" t="n">
+        <v>7704055094</v>
+      </c>
+      <c r="L457" s="12" t="s">
+        <v>4174</v>
+      </c>
+      <c r="M457" s="12" t="s">
+        <v>4175</v>
+      </c>
+      <c r="N457" s="12" t="n">
+        <v>8620023490</v>
+      </c>
+      <c r="O457" s="12" t="s">
+        <v>4176</v>
+      </c>
+      <c r="P457" s="12" t="s">
+        <v>4177</v>
+      </c>
+      <c r="Q457" s="12" t="s">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="12" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B458" s="12" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C458" s="12" t="s">
+        <v>4181</v>
+      </c>
+      <c r="D458" s="12" t="s">
+        <v>4182</v>
+      </c>
+      <c r="E458" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F458" s="12" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G458" s="12" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H458" s="12" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I458" s="12" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J458" s="12" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K458" s="12" t="n">
+        <v>5038008142</v>
+      </c>
+      <c r="L458" s="12" t="s">
+        <v>4183</v>
+      </c>
+      <c r="M458" s="12" t="s">
+        <v>4184</v>
+      </c>
+      <c r="N458" s="12" t="n">
+        <v>5072725830</v>
+      </c>
+      <c r="O458" s="12" t="s">
+        <v>4185</v>
+      </c>
+      <c r="P458" s="12" t="s">
+        <v>4186</v>
+      </c>
+      <c r="Q458" s="12" t="s">
+        <v>4187</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5259" uniqueCount="4188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5616" uniqueCount="4431">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -12585,6 +12585,735 @@
   </si>
   <si>
     <t xml:space="preserve">azs_kom@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504101975421000543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25041019754 21 000543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 997 137,23 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДОБРОМОЙ" (ООО "ДОБРОМОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДОБРОМОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115419, Г МОСКВА 77, УЛ ОРДЖОНИКИДЗЕ, ДОМ 11, СТРОЕНИЕ 1А, ЭТ 2 ПОМ XVII КОМ 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9334484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3535-5353@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772513181421000207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27725131814 21 000207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">668 823,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНИСТЕРСТВО ИМУЩЕСТВЕННЫХ ОТНОШЕНИЙ МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНМОСОБЛИМУЩЕСТВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РАЗМАХ ИНЖИНИРИНГ" (ООО "РАЗМАХ ИНЖИНИРИНГ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РАЗМАХ ИНЖИНИРИНГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195027, Г. САНКТ-ПЕТЕРБУРГ 78, ПР-КТ ЭНЕРГЕТИКОВ, Д. 10, ЛИТЕРА А, ОФИС 410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-950-0380785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rm-engin@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675292921000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706752929 21 000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">884 734,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПАНИЯ АРС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПАНИЯ АРС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КОМПАНИЯ АРС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">620014, ОБЛ. СВЕРДЛОВСКАЯ 66, Г. Екатеринбург, УЛ. РАДИЩЕВА, СТР. 28, ОФИС 1204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-343-2270889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mosprof@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675292921000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706752929 21 000043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">787 010,40 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХСИСТЕМС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХСИСТЕМС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕХСИСТЕМС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454030, ОБЛ ЧЕЛЯБИНСКАЯ 74, Г ЧЕЛЯБИНСК, ПР-КТ КРАСНОПОЛЬСКИЙ, ДОМ 27, КВАРТИРА 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-922-7092430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@ab74.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675292921000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706752929 21 000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 980 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИЛАНА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МИЛАНА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МИЛАНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115230, Г МОСКВА 77, ПРОЕЗД ХЛЕБОЗАВОДСКИЙ, ДОМ 7, СТРОЕНИЕ 9, ЭТАЖ  8 ПОМ XV КОМ 18 П (РМ23Г)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-903-1757771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dim@miacomp.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675292921000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706752929 21 000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 256 510,83 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИТ ПОСТАВЩИК" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИТ ПОСТАВЩИК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИТ ПОСТАВЩИК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119602, Г МОСКВА 77, УЛ НИКУЛИНСКАЯ, ДОМ 23, КОРПУС 1, ЭТАЖ 1, ПОМ. XII, КОМ. 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-1368814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@it-post.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771003036221000219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17710030362 21 000219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 000 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНТРА-АУДИТ" (ООО "ИНТРА-АУДИТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИНТРА-АУДИТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600024, ОБЛ ВЛАДИМИРСКАЯ 33, Г ВЛАДИМИР, УЛ ПУГАЧЁВА, ДОМ 60А, ЭТАЖ 1, ПОМЕЩЕНИЕ 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@intra.Itd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770904128921000090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27709041289 21 000090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 870 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "МОСКОВСКИЙ ОБЛАСТНОЙ НАУЧНО-ИССЛЕДОВАТЕЛЬСКИЙ ИНСТИТУТ АКУШЕРСТВА И ГИНЕКОЛОГИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО МОНИИАГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СИБПРОЕКТСТРОЙ" (ООО "СИБПРОЕКТСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СИБПРОЕКТСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">644086, ОБЛ ОМСКАЯ 55, Г ОМСК, УЛ 21-Я АМУРСКАЯ, ДОМ 30Б, КВАРТИРА 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-904-0782190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sibproectstroy@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772801351221000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728013512 21 000049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285 887,24 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАУЧНО-ТЕХНИЧЕСКОЕ ОБЪЕДИНЕНИЕ ПРОГРЕССИВ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "НАУЧНО-ТЕХНИЧЕСКОЕ ОБЪЕДИНЕНИЕ ПРОГРЕССИВ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "НАУЧНО-ТЕХНИЧЕСКОЕ ОБЪЕДИНЕНИЕ ПРОГРЕССИВ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198329, Г. САНКТ-ПЕТЕРБУРГ 78, УЛ. ТАМБАСОВА, Д. 8, К. 1 ЛИТЕРА А, КВ. 229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-9400972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@engineer-spb.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502206238421000070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35022062384 21 000070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">597 063,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОЩУПКИН АЛЕКСАНДР СЕРГЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП РОЩУПКИН АЛЕКСАНДР СЕРГЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-3027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP-PAS@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505304572721000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35053045727 21 000004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">979 999,92 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "МИР СПОРТА "СТАЛЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "МИР СПОРТА "СТАЛЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КВАНТ" (ООО "КВАНТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КВАНТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109145, Г МОСКВА 77, УЛ ПРИВОЛЬНАЯ, ДОМ 2, СТРОЕНИЕ 1, Э Ц ПОМ Г15 К 1 ОФ 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitean93@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771433860921009340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27714338609 21 009340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 650 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПАНПРО" (ООО "СПАНПРО")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СПАНПРО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109518, Г. МОСКВА 77, Б-Р ВОЛЖСКИЙ, Д. 3, К. 2, ЭТ. 1 ПОМЕЩ. XI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 748-81-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooosofia20@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3507272283021000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35072722830 21 000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 409 853,44 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ ГОРОДСКОГО ОКРУГА ЛУХОВИЦЫ МОСКОВСКОЙ ОБЛАСТИ "РАЙОННЫЙ ДОМ КУЛЬТУРЫ "СТАРТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУК "РДК "СТАРТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОРДЕЕВ АНДРЕЙ ЮРЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ГОРДЕЕВ АНДРЕЙ ЮРЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Область Московская 50, Город Коломна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-496-6230818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tehnodomkolomna@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772408504021000159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17724085040 21 000159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 814 328,17 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ НАУЧНОЕ УЧРЕЖДЕНИЕ "НАУЧНО-ИССЛЕДОВАТЕЛЬСКИЙ ИНСТИТУТ РЕВМАТОЛОГИИ ИМЕНИ В.А. НАСОНОВОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБНУ НИИР ИМ. В.А. НАСОНОВОЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПИТ-СТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПИТ-СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СПИТ-СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129090, Г МОСКВА 77, ПЕР 1-Й КОПТЕЛЬСКИЙ, ДОМ 20, ЭТ/ПОМ/КОМ 1/VI/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-977-7443466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bakhradik@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503811617021000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35038116170 21 000019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 392 727,80 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ГОРОДСКОГО ОКРУГА ПУШКИНСКИЙ МОСКОВСКОЙ ОБЛАСТИ "ЦАРЁВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ЦАРЁВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "ДРСУ" (АО "ДРСУ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "ДРСУ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117630, Г МОСКВА 77, Ш СТАРОКАЛУЖСКОЕ, 64А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-000-0000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drsu-drsu@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1502905325121000126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15029053251 21 000126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">397 060,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАКСИМЕНКО ВЛАДИСЛАВ ОЛЕГОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП МАКСИМЕНКО ВЛАДИСЛАВ ОЛЕГОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-5140918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipmaksimenko8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675389821000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706753898 21 000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 304 344,62 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФРОНТЛАЙН" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФРОНТЛАЙН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФРОНТЛАЙН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109544, Г МОСКВА 77, УЛ РАБОЧАЯ, ДОМ 93, СТРОЕНИЕ 2, ЭТАЖ  2 ПОМЕЩЕНИЕ I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infofront2020@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770850309021000063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17708503090 21 000063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 556 905,60 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.11.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ ВОЕННО-ТЕХНИЧЕСКОГО СНАБЖЕНИЯ СЛУЖБЫ ХОЗЯЙСТВЕННОГО ОБЕСПЕЧЕНИЯ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ОХРАНЫ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УВТС СХО ФСО РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТАВТРЕЙД" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТАВТРЕЙД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТАВТРЕЙД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355011, КРАЙ СТАВРОПОЛЬСКИЙ 26, Г. Ставрополь, УЛ. 50 ЛЕТ ВЛКСМ, Д. 79, ОФИС 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-919-7351000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo.stavtreid@maik.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503807992221000057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35038079922 21 000057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 137 601,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ПУШКИНСКОГО ГОРОДСКОГО ОКРУГА "ПУШКИНСКОЕ ГОРОДСКОЕ ХОЗЯЙСТВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ПУШГОРХОЗ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕГАМАГИСТРАЛЬ" (ООО "ММ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ММ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111024, Г МОСКВА 77, УЛ ЭНТУЗИАСТОВ 2-Я, ДОМ 5, КОРПУС 40, ОФИС 364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-4099585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olimpkorolev@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772801351221000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728013512 21 000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 050 054,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "МОСКОВСКОЕ ОБЛАСТНОЕ БЮРО ТЕХНИЧЕСКОЙ ИНВЕНТАРИЗАЦИИ" (ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "МОСКОВСКОЕ ОБЛАСТНОЕ БЮРО ТЕХНИЧЕСКОЙ ИНВЕНТАРИЗАЦИИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "МОСКОВСКОЕ ОБЛАСТНОЕ БЮРО ТЕХНИЧЕСКОЙ ИНВЕНТАРИЗАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143421, ОБЛ МОСКОВСКАЯ 50, Р-Н КРАСНОГОРСКИЙ, АВТОДОРОГА БАЛТИЯ, ТЕР 26 КМ БИЗНЕС-ЦЕНТР РИГА-ЛЕНД, СТР Б2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-498-5688888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mobti@mobti.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500308532221000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003085322 21 000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290 160,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТРАЛИЗОВАННАЯ БУХГАЛТЕРИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ЦБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШАКАРОВА АИДА ЭДУАРДОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ШАКАРОВА АИДА ЭДУАРДОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-2083601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakupkigos97@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2773124301921000076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27731243019 21 000076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">473 141,24 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 1440"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 1440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДАГАЕВ СЕРГЕЙ АЛЕКСЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ДАГАЕВ СЕРГЕЙ АЛЕКСЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Область Московская 50, Город Долгопрудный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (916) 270-70-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serdag@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773411103521000137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734111035 21 000137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 895 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЦЕНТР ТЕХНОЛОГИЧЕСКОГО ОБЕСПЕЧЕНИЯ "ГИРАС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЦЕНТР ТЕХНОЛОГИЧЕСКОГО ОБЕСПЕЧЕНИЯ "ГИРАС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЦЕНТР ТЕХНОЛОГИЧЕСКОГО ОБЕСПЕЧЕНИЯ "ГИРАС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129345, Г. МОСКВА 77, УЛ. ЛЁТЧИКА БАБУШКИНА, Д. 39, ПОМЕЩ./ЭТАЖ XIII/1 КОМ./ОФИС 4/А2Ю</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-937-5459620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctogiras@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505003590721000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35050035907 21 000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">695 105,07 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ ДОШКОЛЬНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ДЕТСКИЙ САД №11 "ЗВЁЗДОЧКА" ОБЩЕРАЗВИВАЮЩЕГО ВИДА ГОРОДСКОГО ОКРУГА ЩЁЛКОВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБДОУ ДЕТСКИЙ САД №11 "ЗВЁЗДОЧКА" ОБЩЕРАЗВИВАЮЩЕГО ВИДА ГОЩ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙАЛЬЯНС" (ООО "СТРОЙАЛЬЯНС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙАЛЬЯНС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141800, ОБЛ МОСКОВСКАЯ 50, Г ДМИТРОВ, УЛ РОГАЧЕВСКАЯ, ДОМ 2А, ОФИС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-8875666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longmari@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -12597,7 +13326,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -12631,6 +13360,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -12681,7 +13415,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12746,6 +13480,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12763,10 +13501,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q458"/>
+  <dimension ref="A1:Q483"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A411" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A446" activeCellId="0" sqref="446:446"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A443" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A459" activeCellId="0" sqref="459:459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35384,6 +36122,1281 @@
         <v>4187</v>
       </c>
     </row>
+    <row r="459" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="6" t="n">
+        <v>30.12</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="12" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B460" s="12" t="s">
+        <v>4189</v>
+      </c>
+      <c r="C460" s="12" t="s">
+        <v>4190</v>
+      </c>
+      <c r="D460" s="12" t="s">
+        <v>4191</v>
+      </c>
+      <c r="E460" s="12" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F460" s="12" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G460" s="12" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H460" s="12" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I460" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J460" s="12"/>
+      <c r="K460" s="12" t="n">
+        <v>5041019754</v>
+      </c>
+      <c r="L460" s="12" t="s">
+        <v>4192</v>
+      </c>
+      <c r="M460" s="12" t="s">
+        <v>4193</v>
+      </c>
+      <c r="N460" s="12" t="n">
+        <v>7704319815</v>
+      </c>
+      <c r="O460" s="12" t="s">
+        <v>4194</v>
+      </c>
+      <c r="P460" s="12" t="s">
+        <v>4195</v>
+      </c>
+      <c r="Q460" s="12" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="12" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B461" s="12" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C461" s="12" t="s">
+        <v>4199</v>
+      </c>
+      <c r="D461" s="12" t="s">
+        <v>4200</v>
+      </c>
+      <c r="E461" s="12" t="s">
+        <v>4201</v>
+      </c>
+      <c r="F461" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G461" s="12" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H461" s="12" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I461" s="12" t="s">
+        <v>4202</v>
+      </c>
+      <c r="J461" s="12" t="s">
+        <v>4203</v>
+      </c>
+      <c r="K461" s="12" t="n">
+        <v>7725131814</v>
+      </c>
+      <c r="L461" s="12" t="s">
+        <v>4204</v>
+      </c>
+      <c r="M461" s="12" t="s">
+        <v>4205</v>
+      </c>
+      <c r="N461" s="12" t="n">
+        <v>7806255945</v>
+      </c>
+      <c r="O461" s="12" t="s">
+        <v>4206</v>
+      </c>
+      <c r="P461" s="12" t="s">
+        <v>4207</v>
+      </c>
+      <c r="Q461" s="12" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="12" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B462" s="12" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C462" s="12" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D462" s="12" t="s">
+        <v>4212</v>
+      </c>
+      <c r="E462" s="12" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F462" s="12" t="s">
+        <v>4213</v>
+      </c>
+      <c r="G462" s="12" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H462" s="12" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I462" s="12" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J462" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K462" s="12" t="n">
+        <v>7706752929</v>
+      </c>
+      <c r="L462" s="12" t="s">
+        <v>4214</v>
+      </c>
+      <c r="M462" s="12" t="s">
+        <v>4215</v>
+      </c>
+      <c r="N462" s="12" t="n">
+        <v>6671151030</v>
+      </c>
+      <c r="O462" s="12" t="s">
+        <v>4216</v>
+      </c>
+      <c r="P462" s="12" t="s">
+        <v>4217</v>
+      </c>
+      <c r="Q462" s="12" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="12" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B463" s="12" t="s">
+        <v>4220</v>
+      </c>
+      <c r="C463" s="12" t="s">
+        <v>4221</v>
+      </c>
+      <c r="D463" s="12" t="s">
+        <v>4222</v>
+      </c>
+      <c r="E463" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F463" s="12" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G463" s="12" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H463" s="12" t="s">
+        <v>2139</v>
+      </c>
+      <c r="I463" s="12" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J463" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K463" s="12" t="n">
+        <v>7706752929</v>
+      </c>
+      <c r="L463" s="12" t="s">
+        <v>4223</v>
+      </c>
+      <c r="M463" s="12" t="s">
+        <v>4224</v>
+      </c>
+      <c r="N463" s="12" t="n">
+        <v>7448099972</v>
+      </c>
+      <c r="O463" s="12" t="s">
+        <v>4225</v>
+      </c>
+      <c r="P463" s="12" t="s">
+        <v>4226</v>
+      </c>
+      <c r="Q463" s="12" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="12" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B464" s="12" t="s">
+        <v>4229</v>
+      </c>
+      <c r="C464" s="12" t="s">
+        <v>4230</v>
+      </c>
+      <c r="D464" s="12" t="s">
+        <v>4231</v>
+      </c>
+      <c r="E464" s="12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F464" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G464" s="12" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H464" s="12" t="s">
+        <v>3407</v>
+      </c>
+      <c r="I464" s="12" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J464" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K464" s="12" t="n">
+        <v>7706752929</v>
+      </c>
+      <c r="L464" s="12" t="s">
+        <v>4232</v>
+      </c>
+      <c r="M464" s="12" t="s">
+        <v>4233</v>
+      </c>
+      <c r="N464" s="12" t="n">
+        <v>7724398195</v>
+      </c>
+      <c r="O464" s="12" t="s">
+        <v>4234</v>
+      </c>
+      <c r="P464" s="12" t="s">
+        <v>4235</v>
+      </c>
+      <c r="Q464" s="12" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="12" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B465" s="12" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C465" s="12" t="s">
+        <v>4239</v>
+      </c>
+      <c r="D465" s="12" t="s">
+        <v>4240</v>
+      </c>
+      <c r="E465" s="12" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F465" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G465" s="12" t="s">
+        <v>2496</v>
+      </c>
+      <c r="H465" s="12" t="s">
+        <v>2185</v>
+      </c>
+      <c r="I465" s="12" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J465" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="K465" s="12" t="n">
+        <v>7706752929</v>
+      </c>
+      <c r="L465" s="12" t="s">
+        <v>4241</v>
+      </c>
+      <c r="M465" s="12" t="s">
+        <v>4242</v>
+      </c>
+      <c r="N465" s="12" t="n">
+        <v>7729667130</v>
+      </c>
+      <c r="O465" s="12" t="s">
+        <v>4243</v>
+      </c>
+      <c r="P465" s="12" t="s">
+        <v>4244</v>
+      </c>
+      <c r="Q465" s="12" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="12" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B466" s="12" t="s">
+        <v>4247</v>
+      </c>
+      <c r="C466" s="12" t="s">
+        <v>4248</v>
+      </c>
+      <c r="D466" s="12" t="s">
+        <v>4249</v>
+      </c>
+      <c r="E466" s="12" t="s">
+        <v>3386</v>
+      </c>
+      <c r="F466" s="12" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G466" s="12" t="s">
+        <v>3386</v>
+      </c>
+      <c r="H466" s="12" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I466" s="12" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J466" s="12" t="s">
+        <v>2408</v>
+      </c>
+      <c r="K466" s="12" t="n">
+        <v>7710030362</v>
+      </c>
+      <c r="L466" s="12" t="s">
+        <v>4250</v>
+      </c>
+      <c r="M466" s="12" t="s">
+        <v>4251</v>
+      </c>
+      <c r="N466" s="12" t="n">
+        <v>3327135964</v>
+      </c>
+      <c r="O466" s="12" t="s">
+        <v>4252</v>
+      </c>
+      <c r="P466" s="12" t="n">
+        <v>88003505173</v>
+      </c>
+      <c r="Q466" s="12" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="12" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B467" s="12" t="s">
+        <v>4255</v>
+      </c>
+      <c r="C467" s="12" t="s">
+        <v>4256</v>
+      </c>
+      <c r="D467" s="12" t="s">
+        <v>4257</v>
+      </c>
+      <c r="E467" s="12" t="s">
+        <v>4258</v>
+      </c>
+      <c r="F467" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G467" s="12" t="s">
+        <v>2023</v>
+      </c>
+      <c r="H467" s="12" t="s">
+        <v>3511</v>
+      </c>
+      <c r="I467" s="12" t="s">
+        <v>4259</v>
+      </c>
+      <c r="J467" s="12" t="s">
+        <v>4260</v>
+      </c>
+      <c r="K467" s="12" t="n">
+        <v>7709041289</v>
+      </c>
+      <c r="L467" s="12" t="s">
+        <v>4261</v>
+      </c>
+      <c r="M467" s="12" t="s">
+        <v>4262</v>
+      </c>
+      <c r="N467" s="12" t="n">
+        <v>5503194312</v>
+      </c>
+      <c r="O467" s="12" t="s">
+        <v>4263</v>
+      </c>
+      <c r="P467" s="12" t="s">
+        <v>4264</v>
+      </c>
+      <c r="Q467" s="12" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="12" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B468" s="12" t="s">
+        <v>4267</v>
+      </c>
+      <c r="C468" s="12" t="s">
+        <v>4268</v>
+      </c>
+      <c r="D468" s="12" t="s">
+        <v>4269</v>
+      </c>
+      <c r="E468" s="12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F468" s="12" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G468" s="12" t="s">
+        <v>3016</v>
+      </c>
+      <c r="H468" s="12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I468" s="12" t="s">
+        <v>3017</v>
+      </c>
+      <c r="J468" s="12" t="s">
+        <v>3018</v>
+      </c>
+      <c r="K468" s="12" t="n">
+        <v>7728013512</v>
+      </c>
+      <c r="L468" s="12" t="s">
+        <v>4270</v>
+      </c>
+      <c r="M468" s="12" t="s">
+        <v>4271</v>
+      </c>
+      <c r="N468" s="12" t="n">
+        <v>7807248556</v>
+      </c>
+      <c r="O468" s="12" t="s">
+        <v>4272</v>
+      </c>
+      <c r="P468" s="12" t="s">
+        <v>4273</v>
+      </c>
+      <c r="Q468" s="12" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="12" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B469" s="12" t="s">
+        <v>4276</v>
+      </c>
+      <c r="C469" s="12" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D469" s="12" t="s">
+        <v>4278</v>
+      </c>
+      <c r="E469" s="12" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F469" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G469" s="12" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H469" s="12" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I469" s="12" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J469" s="12" t="s">
+        <v>1548</v>
+      </c>
+      <c r="K469" s="12" t="n">
+        <v>5022062384</v>
+      </c>
+      <c r="L469" s="12" t="s">
+        <v>4279</v>
+      </c>
+      <c r="M469" s="12" t="s">
+        <v>4280</v>
+      </c>
+      <c r="N469" s="12" t="n">
+        <v>637604016700</v>
+      </c>
+      <c r="O469" s="12" t="s">
+        <v>4027</v>
+      </c>
+      <c r="P469" s="12" t="s">
+        <v>4281</v>
+      </c>
+      <c r="Q469" s="12" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="12" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B470" s="12" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C470" s="12" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D470" s="12" t="s">
+        <v>4286</v>
+      </c>
+      <c r="E470" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F470" s="12" t="s">
+        <v>4287</v>
+      </c>
+      <c r="G470" s="12" t="s">
+        <v>2405</v>
+      </c>
+      <c r="H470" s="12" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I470" s="12" t="s">
+        <v>4288</v>
+      </c>
+      <c r="J470" s="12" t="s">
+        <v>4289</v>
+      </c>
+      <c r="K470" s="12" t="n">
+        <v>5053045727</v>
+      </c>
+      <c r="L470" s="12" t="s">
+        <v>4290</v>
+      </c>
+      <c r="M470" s="12" t="s">
+        <v>4291</v>
+      </c>
+      <c r="N470" s="12" t="n">
+        <v>9721107211</v>
+      </c>
+      <c r="O470" s="12" t="s">
+        <v>4292</v>
+      </c>
+      <c r="P470" s="12" t="n">
+        <v>79253568507</v>
+      </c>
+      <c r="Q470" s="12" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="12" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B471" s="12" t="s">
+        <v>4295</v>
+      </c>
+      <c r="C471" s="12" t="s">
+        <v>4296</v>
+      </c>
+      <c r="D471" s="12" t="s">
+        <v>4297</v>
+      </c>
+      <c r="E471" s="12" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F471" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G471" s="12" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H471" s="12" t="s">
+        <v>3407</v>
+      </c>
+      <c r="I471" s="12" t="s">
+        <v>2902</v>
+      </c>
+      <c r="J471" s="12" t="s">
+        <v>2903</v>
+      </c>
+      <c r="K471" s="12" t="n">
+        <v>7714338609</v>
+      </c>
+      <c r="L471" s="12" t="s">
+        <v>4298</v>
+      </c>
+      <c r="M471" s="12" t="s">
+        <v>4299</v>
+      </c>
+      <c r="N471" s="12" t="n">
+        <v>9721127257</v>
+      </c>
+      <c r="O471" s="12" t="s">
+        <v>4300</v>
+      </c>
+      <c r="P471" s="12" t="s">
+        <v>4301</v>
+      </c>
+      <c r="Q471" s="12" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="12" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B472" s="12" t="s">
+        <v>4304</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D472" s="12" t="s">
+        <v>4306</v>
+      </c>
+      <c r="E472" s="12" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F472" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G472" s="12" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H472" s="12" t="s">
+        <v>2364</v>
+      </c>
+      <c r="I472" s="12" t="s">
+        <v>4307</v>
+      </c>
+      <c r="J472" s="12" t="s">
+        <v>4308</v>
+      </c>
+      <c r="K472" s="12" t="n">
+        <v>5072722830</v>
+      </c>
+      <c r="L472" s="12" t="s">
+        <v>4309</v>
+      </c>
+      <c r="M472" s="12" t="s">
+        <v>4310</v>
+      </c>
+      <c r="N472" s="12" t="n">
+        <v>502200016904</v>
+      </c>
+      <c r="O472" s="12" t="s">
+        <v>4311</v>
+      </c>
+      <c r="P472" s="12" t="s">
+        <v>4312</v>
+      </c>
+      <c r="Q472" s="12" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="12" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B473" s="12" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C473" s="12" t="s">
+        <v>4316</v>
+      </c>
+      <c r="D473" s="12" t="s">
+        <v>4317</v>
+      </c>
+      <c r="E473" s="12" t="s">
+        <v>3040</v>
+      </c>
+      <c r="F473" s="12" t="s">
+        <v>3470</v>
+      </c>
+      <c r="G473" s="12" t="s">
+        <v>4318</v>
+      </c>
+      <c r="H473" s="12" t="s">
+        <v>2096</v>
+      </c>
+      <c r="I473" s="12" t="s">
+        <v>4319</v>
+      </c>
+      <c r="J473" s="12" t="s">
+        <v>4320</v>
+      </c>
+      <c r="K473" s="12" t="n">
+        <v>7724085040</v>
+      </c>
+      <c r="L473" s="12" t="s">
+        <v>4321</v>
+      </c>
+      <c r="M473" s="12" t="s">
+        <v>4322</v>
+      </c>
+      <c r="N473" s="12" t="n">
+        <v>7743892610</v>
+      </c>
+      <c r="O473" s="12" t="s">
+        <v>4323</v>
+      </c>
+      <c r="P473" s="12" t="s">
+        <v>4324</v>
+      </c>
+      <c r="Q473" s="12" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="12" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B474" s="12" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C474" s="12" t="s">
+        <v>4328</v>
+      </c>
+      <c r="D474" s="12" t="s">
+        <v>4329</v>
+      </c>
+      <c r="E474" s="12" t="s">
+        <v>4330</v>
+      </c>
+      <c r="F474" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G474" s="12" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H474" s="12" t="s">
+        <v>2406</v>
+      </c>
+      <c r="I474" s="12" t="s">
+        <v>4331</v>
+      </c>
+      <c r="J474" s="12" t="s">
+        <v>4332</v>
+      </c>
+      <c r="K474" s="12" t="n">
+        <v>5038116170</v>
+      </c>
+      <c r="L474" s="12" t="s">
+        <v>4333</v>
+      </c>
+      <c r="M474" s="12" t="s">
+        <v>4334</v>
+      </c>
+      <c r="N474" s="12" t="n">
+        <v>7728010857</v>
+      </c>
+      <c r="O474" s="12" t="s">
+        <v>4335</v>
+      </c>
+      <c r="P474" s="12" t="s">
+        <v>4336</v>
+      </c>
+      <c r="Q474" s="12" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="12" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B475" s="12" t="s">
+        <v>4339</v>
+      </c>
+      <c r="C475" s="12" t="s">
+        <v>4340</v>
+      </c>
+      <c r="D475" s="12" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E475" s="12" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F475" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G475" s="12" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H475" s="12" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I475" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J475" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K475" s="12" t="n">
+        <v>5029053251</v>
+      </c>
+      <c r="L475" s="12" t="s">
+        <v>4342</v>
+      </c>
+      <c r="M475" s="12" t="s">
+        <v>4343</v>
+      </c>
+      <c r="N475" s="12" t="n">
+        <v>773378399616</v>
+      </c>
+      <c r="O475" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P475" s="12" t="s">
+        <v>4344</v>
+      </c>
+      <c r="Q475" s="12" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="12" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B476" s="12" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C476" s="12" t="s">
+        <v>4348</v>
+      </c>
+      <c r="D476" s="12" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E476" s="12" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F476" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G476" s="12" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H476" s="12" t="s">
+        <v>2185</v>
+      </c>
+      <c r="I476" s="12" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J476" s="12" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K476" s="12" t="n">
+        <v>7706753898</v>
+      </c>
+      <c r="L476" s="12" t="s">
+        <v>4350</v>
+      </c>
+      <c r="M476" s="12" t="s">
+        <v>4351</v>
+      </c>
+      <c r="N476" s="12" t="n">
+        <v>9709062123</v>
+      </c>
+      <c r="O476" s="12" t="s">
+        <v>4352</v>
+      </c>
+      <c r="P476" s="12" t="s">
+        <v>2206</v>
+      </c>
+      <c r="Q476" s="12" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="12" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B477" s="12" t="s">
+        <v>4355</v>
+      </c>
+      <c r="C477" s="12" t="s">
+        <v>4356</v>
+      </c>
+      <c r="D477" s="12" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E477" s="12" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F477" s="12" t="s">
+        <v>4358</v>
+      </c>
+      <c r="G477" s="12" t="s">
+        <v>2496</v>
+      </c>
+      <c r="H477" s="12" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I477" s="12" t="s">
+        <v>4359</v>
+      </c>
+      <c r="J477" s="12" t="s">
+        <v>4360</v>
+      </c>
+      <c r="K477" s="12" t="n">
+        <v>7708503090</v>
+      </c>
+      <c r="L477" s="12" t="s">
+        <v>4361</v>
+      </c>
+      <c r="M477" s="12" t="s">
+        <v>4362</v>
+      </c>
+      <c r="N477" s="12" t="n">
+        <v>2635248110</v>
+      </c>
+      <c r="O477" s="12" t="s">
+        <v>4363</v>
+      </c>
+      <c r="P477" s="12" t="s">
+        <v>4364</v>
+      </c>
+      <c r="Q477" s="12" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="12" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B478" s="12" t="s">
+        <v>4367</v>
+      </c>
+      <c r="C478" s="12" t="s">
+        <v>4368</v>
+      </c>
+      <c r="D478" s="12" t="s">
+        <v>4369</v>
+      </c>
+      <c r="E478" s="12" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F478" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G478" s="12" t="s">
+        <v>2317</v>
+      </c>
+      <c r="H478" s="12" t="s">
+        <v>3407</v>
+      </c>
+      <c r="I478" s="12" t="s">
+        <v>4370</v>
+      </c>
+      <c r="J478" s="12" t="s">
+        <v>4371</v>
+      </c>
+      <c r="K478" s="12" t="n">
+        <v>5038079922</v>
+      </c>
+      <c r="L478" s="12" t="s">
+        <v>4372</v>
+      </c>
+      <c r="M478" s="12" t="s">
+        <v>4373</v>
+      </c>
+      <c r="N478" s="12" t="n">
+        <v>7720391174</v>
+      </c>
+      <c r="O478" s="16" t="s">
+        <v>4374</v>
+      </c>
+      <c r="P478" s="16" t="s">
+        <v>4375</v>
+      </c>
+      <c r="Q478" s="16" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="12" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B479" s="12" t="s">
+        <v>4378</v>
+      </c>
+      <c r="C479" s="12" t="s">
+        <v>4379</v>
+      </c>
+      <c r="D479" s="12" t="s">
+        <v>4380</v>
+      </c>
+      <c r="E479" s="12" t="s">
+        <v>4381</v>
+      </c>
+      <c r="F479" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G479" s="12" t="s">
+        <v>4382</v>
+      </c>
+      <c r="H479" s="12" t="s">
+        <v>4381</v>
+      </c>
+      <c r="I479" s="12" t="s">
+        <v>3017</v>
+      </c>
+      <c r="J479" s="12" t="s">
+        <v>3018</v>
+      </c>
+      <c r="K479" s="12" t="n">
+        <v>7728013512</v>
+      </c>
+      <c r="L479" s="12" t="s">
+        <v>4383</v>
+      </c>
+      <c r="M479" s="12" t="s">
+        <v>4384</v>
+      </c>
+      <c r="N479" s="12" t="n">
+        <v>5024202164</v>
+      </c>
+      <c r="O479" s="12" t="s">
+        <v>4385</v>
+      </c>
+      <c r="P479" s="12" t="s">
+        <v>4386</v>
+      </c>
+      <c r="Q479" s="12" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="12" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B480" s="12" t="s">
+        <v>4389</v>
+      </c>
+      <c r="C480" s="12" t="s">
+        <v>4390</v>
+      </c>
+      <c r="D480" s="12" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E480" s="12" t="s">
+        <v>3906</v>
+      </c>
+      <c r="F480" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G480" s="12" t="s">
+        <v>3906</v>
+      </c>
+      <c r="H480" s="12" t="s">
+        <v>3512</v>
+      </c>
+      <c r="I480" s="12" t="s">
+        <v>4392</v>
+      </c>
+      <c r="J480" s="12" t="s">
+        <v>4393</v>
+      </c>
+      <c r="K480" s="12" t="n">
+        <v>5003085322</v>
+      </c>
+      <c r="L480" s="12" t="s">
+        <v>4394</v>
+      </c>
+      <c r="M480" s="12" t="s">
+        <v>4395</v>
+      </c>
+      <c r="N480" s="12" t="n">
+        <v>774397341405</v>
+      </c>
+      <c r="O480" s="12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P480" s="12" t="s">
+        <v>4396</v>
+      </c>
+      <c r="Q480" s="12" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="12" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B481" s="12" t="s">
+        <v>4399</v>
+      </c>
+      <c r="C481" s="12" t="s">
+        <v>4400</v>
+      </c>
+      <c r="D481" s="12" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E481" s="12" t="s">
+        <v>2619</v>
+      </c>
+      <c r="F481" s="12" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G481" s="12" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H481" s="12" t="s">
+        <v>3407</v>
+      </c>
+      <c r="I481" s="12" t="s">
+        <v>4402</v>
+      </c>
+      <c r="J481" s="12" t="s">
+        <v>4403</v>
+      </c>
+      <c r="K481" s="12" t="n">
+        <v>7731243019</v>
+      </c>
+      <c r="L481" s="12" t="s">
+        <v>4404</v>
+      </c>
+      <c r="M481" s="12" t="s">
+        <v>4405</v>
+      </c>
+      <c r="N481" s="12" t="n">
+        <v>760801417153</v>
+      </c>
+      <c r="O481" s="12" t="s">
+        <v>4406</v>
+      </c>
+      <c r="P481" s="12" t="s">
+        <v>4407</v>
+      </c>
+      <c r="Q481" s="12" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="12" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B482" s="12" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C482" s="12" t="s">
+        <v>4411</v>
+      </c>
+      <c r="D482" s="12" t="s">
+        <v>4412</v>
+      </c>
+      <c r="E482" s="12" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F482" s="12" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G482" s="12" t="s">
+        <v>4413</v>
+      </c>
+      <c r="H482" s="12" t="s">
+        <v>4414</v>
+      </c>
+      <c r="I482" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J482" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="K482" s="12" t="n">
+        <v>7734111035</v>
+      </c>
+      <c r="L482" s="12" t="s">
+        <v>4415</v>
+      </c>
+      <c r="M482" s="12" t="s">
+        <v>4416</v>
+      </c>
+      <c r="N482" s="12" t="n">
+        <v>7721179004</v>
+      </c>
+      <c r="O482" s="12" t="s">
+        <v>4417</v>
+      </c>
+      <c r="P482" s="12" t="s">
+        <v>4418</v>
+      </c>
+      <c r="Q482" s="12" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="12" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B483" s="12" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C483" s="12" t="s">
+        <v>4422</v>
+      </c>
+      <c r="D483" s="12" t="s">
+        <v>4423</v>
+      </c>
+      <c r="E483" s="12" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F483" s="12" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G483" s="12" t="s">
+        <v>3386</v>
+      </c>
+      <c r="H483" s="12" t="s">
+        <v>2936</v>
+      </c>
+      <c r="I483" s="12" t="s">
+        <v>4424</v>
+      </c>
+      <c r="J483" s="12" t="s">
+        <v>4425</v>
+      </c>
+      <c r="K483" s="12" t="n">
+        <v>5050035907</v>
+      </c>
+      <c r="L483" s="12" t="s">
+        <v>4426</v>
+      </c>
+      <c r="M483" s="12" t="s">
+        <v>4427</v>
+      </c>
+      <c r="N483" s="12" t="n">
+        <v>5007101222</v>
+      </c>
+      <c r="O483" s="12" t="s">
+        <v>4428</v>
+      </c>
+      <c r="P483" s="12" t="s">
+        <v>4429</v>
+      </c>
+      <c r="Q483" s="12" t="s">
+        <v>4430</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5616" uniqueCount="4431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5737" uniqueCount="4513">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -13314,6 +13314,252 @@
   </si>
   <si>
     <t xml:space="preserve">longmari@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2501300604821000265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25013006048 21 000265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 818 870,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ЖУКОВСКАЯ ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "ЖУКОВСКАЯ ГКБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "ПИКЕТ" (ООО "ЧОП "ПИКЕТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЧОП "ПИКЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101000, Г МОСКВА 77, ПЕР БОЛЬШОЙ СПАСОГЛИНИЩЕВСКИЙ, ДОМ 9/1, СТРОЕНИЕ 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-9746004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773411103520000217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734111035 20 000217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 562,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛИДЕР" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛИДЕР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЛИДЕР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305004, г. Курск, ул. Радищева, д. 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-960-6901515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@lidereko.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502408055821000255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024080558 21 000255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 393 937,26 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙЭНЕРГОСЕРВИС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙЭНЕРГОСЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111111@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502408055821000249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024080558 21 000249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 135 522,39 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КРОСЭЛ" (ООО "КРОСЭЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КРОСЭЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125167, Г МОСКВА 77, УЛ ПЛАНЕТНАЯ, ДОМ 11, ПОМЕЩЕНИЕ 5/30 РМ-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-4290923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakupki@mgou.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502408055821000250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25024080558 21 000250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 286 058,52 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КРОСЭЛ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КРОСЭЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krosel_expl@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500301069420000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15003010694 20 000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 500 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.05.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.05.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ЛЕНИНСКОМУ ГОРОДСКОМУ ОКРУГУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УМВД РОССИИ ПО ЛЕНИНСКОМУ ГОРОДСКОМУ ОКРУГУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БОДРОВ ЛЕВ МИХАЙЛОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП БОДРОВ ЛЕВ МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Российская Федерация, 105064 Москва, ул. Земляной вал 44 кв. 25.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-985-9702673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levbodrov@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770111389421000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27701113894 21 000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198 300,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ДОПОЛНИТЕЛЬНОГО ОБРАЗОВАНИЯ ГОРОДА МОСКВЫ "ДВОРЕЦ ТВОРЧЕСТВА ДЕТЕЙ И МОЛОДЕЖИ "НА СТОПАНИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ДО ДТДИМ "НА СТОПАНИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общество с ограниченной ответственностью «ФАВИ-Интернэшнл»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «ФАВИ-Интернэшнл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123557, Российская Федерация, Г МОСКВА, УЛ КЛИМАШКИНА, 15, офис 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (962) 942-88-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinogradov@favimedia.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505200838421000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35052008384 21 000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 643 820,56 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА № 1 С УГЛУБЛЕННЫМ ИЗУЧЕНИЕМ ОТДЕЛЬНЫХ ПРЕДМЕТОВ ГОРОДА ФРЯЗИНО МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОУ СОШ № 1 Г.ФРЯЗИНО МО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "ЧЕСТАР" (ООО "ЧОО "ЧЕСТАР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЧОО "ЧЕСТАР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115569, Г МОСКВА 77, УЛ МАРШАЛА ЗАХАРОВА, ДОМ 27, ПОМ I КОМН 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7812804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chestar.2012@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -13326,7 +13572,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -13360,11 +13606,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -13415,7 +13656,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13480,10 +13721,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13501,10 +13738,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q483"/>
+  <dimension ref="A1:Q492"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A443" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A459" activeCellId="0" sqref="459:459"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A458" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A485" activeCellId="0" sqref="A485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37122,13 +37359,13 @@
       <c r="N478" s="12" t="n">
         <v>7720391174</v>
       </c>
-      <c r="O478" s="16" t="s">
+      <c r="O478" s="13" t="s">
         <v>4374</v>
       </c>
-      <c r="P478" s="16" t="s">
+      <c r="P478" s="13" t="s">
         <v>4375</v>
       </c>
-      <c r="Q478" s="16" t="s">
+      <c r="Q478" s="13" t="s">
         <v>4376</v>
       </c>
     </row>
@@ -37395,6 +37632,435 @@
       </c>
       <c r="Q483" s="12" t="s">
         <v>4430</v>
+      </c>
+    </row>
+    <row r="484" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="6" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>4433</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>4434</v>
+      </c>
+      <c r="D485" s="0" t="s">
+        <v>4435</v>
+      </c>
+      <c r="E485" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F485" s="0" t="s">
+        <v>4436</v>
+      </c>
+      <c r="G485" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="H485" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="I485" s="0" t="s">
+        <v>4437</v>
+      </c>
+      <c r="J485" s="0" t="s">
+        <v>4438</v>
+      </c>
+      <c r="K485" s="0" t="n">
+        <v>5013006048</v>
+      </c>
+      <c r="L485" s="0" t="s">
+        <v>4439</v>
+      </c>
+      <c r="M485" s="0" t="s">
+        <v>4440</v>
+      </c>
+      <c r="N485" s="0" t="n">
+        <v>7708079924</v>
+      </c>
+      <c r="O485" s="0" t="s">
+        <v>4441</v>
+      </c>
+      <c r="P485" s="0" t="s">
+        <v>4442</v>
+      </c>
+      <c r="Q485" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>4445</v>
+      </c>
+      <c r="D486" s="0" t="s">
+        <v>4446</v>
+      </c>
+      <c r="E486" s="0" t="s">
+        <v>4447</v>
+      </c>
+      <c r="F486" s="0" t="s">
+        <v>4448</v>
+      </c>
+      <c r="G486" s="0" t="s">
+        <v>4449</v>
+      </c>
+      <c r="H486" s="0" t="s">
+        <v>4449</v>
+      </c>
+      <c r="I486" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="J486" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="K486" s="0" t="n">
+        <v>7734111035</v>
+      </c>
+      <c r="L486" s="0" t="s">
+        <v>4450</v>
+      </c>
+      <c r="M486" s="0" t="s">
+        <v>4451</v>
+      </c>
+      <c r="N486" s="0" t="n">
+        <v>4623007675</v>
+      </c>
+      <c r="O486" s="0" t="s">
+        <v>4452</v>
+      </c>
+      <c r="P486" s="0" t="s">
+        <v>4453</v>
+      </c>
+      <c r="Q486" s="0" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D487" s="0" t="s">
+        <v>4458</v>
+      </c>
+      <c r="E487" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F487" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G487" s="0" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H487" s="0" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I487" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J487" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K487" s="0" t="n">
+        <v>5024080558</v>
+      </c>
+      <c r="L487" s="0" t="s">
+        <v>4459</v>
+      </c>
+      <c r="M487" s="0" t="s">
+        <v>2366</v>
+      </c>
+      <c r="N487" s="0" t="n">
+        <v>7720353443</v>
+      </c>
+      <c r="O487" s="0" t="s">
+        <v>2367</v>
+      </c>
+      <c r="P487" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q487" s="0" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>4461</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D488" s="0" t="s">
+        <v>4464</v>
+      </c>
+      <c r="E488" s="0" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F488" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G488" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="H488" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="I488" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J488" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K488" s="0" t="n">
+        <v>5024080558</v>
+      </c>
+      <c r="L488" s="0" t="s">
+        <v>4465</v>
+      </c>
+      <c r="M488" s="0" t="s">
+        <v>4466</v>
+      </c>
+      <c r="N488" s="0" t="n">
+        <v>7714879559</v>
+      </c>
+      <c r="O488" s="0" t="s">
+        <v>4467</v>
+      </c>
+      <c r="P488" s="0" t="s">
+        <v>4468</v>
+      </c>
+      <c r="Q488" s="0" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D489" s="0" t="s">
+        <v>4473</v>
+      </c>
+      <c r="E489" s="0" t="s">
+        <v>2521</v>
+      </c>
+      <c r="F489" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G489" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="H489" s="0" t="s">
+        <v>3949</v>
+      </c>
+      <c r="I489" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="J489" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K489" s="0" t="n">
+        <v>5024080558</v>
+      </c>
+      <c r="L489" s="0" t="s">
+        <v>4474</v>
+      </c>
+      <c r="M489" s="0" t="s">
+        <v>4466</v>
+      </c>
+      <c r="N489" s="0" t="n">
+        <v>7714879559</v>
+      </c>
+      <c r="O489" s="0" t="s">
+        <v>4467</v>
+      </c>
+      <c r="P489" s="0" t="s">
+        <v>4468</v>
+      </c>
+      <c r="Q489" s="0" t="s">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>4476</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>4477</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>4478</v>
+      </c>
+      <c r="D490" s="0" t="s">
+        <v>4479</v>
+      </c>
+      <c r="E490" s="0" t="s">
+        <v>4480</v>
+      </c>
+      <c r="F490" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G490" s="0" t="s">
+        <v>4481</v>
+      </c>
+      <c r="H490" s="0" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I490" s="0" t="s">
+        <v>4482</v>
+      </c>
+      <c r="J490" s="0" t="s">
+        <v>4483</v>
+      </c>
+      <c r="K490" s="0" t="n">
+        <v>5003010694</v>
+      </c>
+      <c r="L490" s="0" t="s">
+        <v>4484</v>
+      </c>
+      <c r="M490" s="0" t="s">
+        <v>4485</v>
+      </c>
+      <c r="N490" s="0" t="n">
+        <v>490905323768</v>
+      </c>
+      <c r="O490" s="0" t="s">
+        <v>4486</v>
+      </c>
+      <c r="P490" s="0" t="s">
+        <v>4487</v>
+      </c>
+      <c r="Q490" s="0" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B491" s="0" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C491" s="0" t="s">
+        <v>4491</v>
+      </c>
+      <c r="D491" s="0" t="s">
+        <v>4492</v>
+      </c>
+      <c r="E491" s="0" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F491" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G491" s="0" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H491" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I491" s="0" t="s">
+        <v>4493</v>
+      </c>
+      <c r="J491" s="0" t="s">
+        <v>4494</v>
+      </c>
+      <c r="K491" s="0" t="n">
+        <v>7701113894</v>
+      </c>
+      <c r="L491" s="0" t="s">
+        <v>4495</v>
+      </c>
+      <c r="M491" s="0" t="s">
+        <v>4496</v>
+      </c>
+      <c r="N491" s="0" t="n">
+        <v>7703734223</v>
+      </c>
+      <c r="O491" s="0" t="s">
+        <v>4497</v>
+      </c>
+      <c r="P491" s="0" t="s">
+        <v>4498</v>
+      </c>
+      <c r="Q491" s="0" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C492" s="0" t="s">
+        <v>4502</v>
+      </c>
+      <c r="D492" s="0" t="s">
+        <v>4503</v>
+      </c>
+      <c r="E492" s="0" t="s">
+        <v>4504</v>
+      </c>
+      <c r="F492" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G492" s="0" t="s">
+        <v>4505</v>
+      </c>
+      <c r="H492" s="0" t="s">
+        <v>2557</v>
+      </c>
+      <c r="I492" s="0" t="s">
+        <v>4506</v>
+      </c>
+      <c r="J492" s="0" t="s">
+        <v>4507</v>
+      </c>
+      <c r="K492" s="0" t="n">
+        <v>5052008384</v>
+      </c>
+      <c r="L492" s="0" t="s">
+        <v>4508</v>
+      </c>
+      <c r="M492" s="0" t="s">
+        <v>4509</v>
+      </c>
+      <c r="N492" s="0" t="n">
+        <v>7716703310</v>
+      </c>
+      <c r="O492" s="0" t="s">
+        <v>4510</v>
+      </c>
+      <c r="P492" s="0" t="s">
+        <v>4511</v>
+      </c>
+      <c r="Q492" s="0" t="s">
+        <v>4512</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5737" uniqueCount="4513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5903" uniqueCount="4628">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -13560,6 +13560,351 @@
   </si>
   <si>
     <t xml:space="preserve">chestar.2012@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502409874921000121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024098749 21 000121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 042 940,18 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПРАВЛЕНИЕ ОБРАЗОВАНИЯ АДМИНИСТРАЦИИ ГОРОДСКОГО ОКРУГА КРАСНОГОРСК МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УОА ГО КРАСНОГОРСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИВАНОВА НАТАЛЬЯ АНАТОЛЬЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ИВАНОВА НАТАЛЬЯ АНАТОЛЬЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Область Московская 50, Город Солнечногорск, Деревня Шемякино</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-905-7953035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andersonkids@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502713007721000254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25027130077 21 000254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">877 800,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "МОСКОВСКАЯ ОБЛАСТНАЯ ПРОТИВОПОЖАРНО-СПАСАТЕЛЬНАЯ СЛУЖБА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ МО "МОСОБЛПОЖСПАС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СМТ ГЛОБАЛ" (ООО "СМТ ГЛОБАЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СМТ ГЛОБАЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">410062, ОБЛ САРАТОВСКАЯ 64, Г САРАТОВ, Ш МОСКОВСКОЕ, ДОМ 15, КВАРТИРА 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-845-2349389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@gps-center.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771307021121000066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27713070211 21 000066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 930 026,89 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВИТОК" (ООО "ВИТОК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВИТОК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107497, - МОСКВА 77, - МОНТАЖНАЯ, Д. 9, СТР. 1, ЭТ./ПОМЕЩ. 3/IV КОМ./ОФИС 11/А6Л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (966) 083-50-66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kikme@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771307021121000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27713070211 21 000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 765 564,20 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.04.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЭ-СТРОЙ" (ООО "АЭ-СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЭ-СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111674, Г МОСКВА 77, УЛ ПОКРОВСКАЯ, ДОМ 12, ЭТ 1 ПОМ IV ОФ 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (977) 146-60-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concurs@spstroi.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770422175318000113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704221753 18 000113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 631 388,60 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.12.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.12.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЕПАРТАМЕНТ ПРИРОДОПОЛЬЗОВАНИЯ И ОХРАНЫ ОКРУЖАЮЩЕЙ СРЕДЫ ГОРОДА МОСКВЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОСПРИРОДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "Центральное производственно-геологическое объединение"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "Центральное производственно-геологическое объединение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115191, г. Москва, ул. 2-я Рощинская, д. 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (495) 954-96-84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geo-msk@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=171690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675389821000168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706753898 21 000168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 046 396,52 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОКЕТ ТЕЛЕКОМ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОКЕТ ТЕЛЕКОМ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СОКЕТ ТЕЛЕКОМ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129344, Г МОСКВА 77, УЛ ИСКРЫ, ДОМ 31, КОРПУС 1, ЭТ/ОФ 6/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770470675821000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704706758 21 000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 940 520,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ АГЕНТСТВО ПО ДЕЛАМ СОДРУЖЕСТВА НЕЗАВИСИМЫХ ГОСУДАРСТВ, СООТЕЧЕСТВЕННИКОВ, ПРОЖИВАЮЩИХ ЗА РУБЕЖОМ, И ПО МЕЖДУНАРОДНОМУ ГУМАНИТАРНОМУ СОТРУДНИЧЕСТВУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОССОТРУДНИЧЕСТВО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИВЕНТ КОРПУС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИВЕНТ КОРПУС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИВЕНТ КОРПУС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140013, ОБЛ МОСКОВСКАЯ 50, Г ЛЮБЕРЦЫ, ПР-КТ КОМСОМОЛЬСКИЙ, ДОМ 13, КВАРТИРА 135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-8432175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@eventcorpus.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504102008321000220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25041020083 21 000220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 413 719,38 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДРАЙВ ГРУПП" (ООО "ДРАЙВ ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДРАЙВ ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193079, Г. САНКТ-ПЕТЕРБУРГ 78, УЛ. НОВОСЁЛОВ, Д. 8, ЛИТЕРА А, ОФИС 419/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-931-5821387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net@net.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772459896621000451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27724598966 21 000451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">921 175,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СМС" (ООО "СМС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (499) 391-95-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1272202715720000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12722027157 20 000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 995 041,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.09.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ СТРОИТЕЛЬСТВА № 101 ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ УС-101 ФСИН РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "ГЛАВНОЕ СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ" (ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "ГЛАВНОЕ СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГУП ПРЕДПРИЯТИЕ "ГЛАВНОЕ СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ ФЕДЕРАЛЬНОЙ СЛУЖБЫ ИСПОЛНЕНИЯ НАКАЗАНИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361424, РЕСП КАБАРДИНО-БАЛКАРСКАЯ 07, Р-Н ЧЕГЕМСКИЙ, С КАМЕНКА, УЛ РЕВОЛЮЦИОННАЯ, 225, 1, -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-1124550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@gsufsin.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675389821000271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706753898 21 000271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 570 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕАЛСТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕАЛСТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕАЛСТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420140, РЕСП ТАТАРСТАН 16, Г КАЗАНЬ, УЛ ЮЛИУСА ФУЧИКА, ДОМ 90А, ОФИС 610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-950-9466478</t>
   </si>
 </sst>
 </file>
@@ -13738,10 +14083,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q492"/>
+  <dimension ref="A1:Q505"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A458" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A485" activeCellId="0" sqref="A485"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A467" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A500" activeCellId="0" sqref="500:500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37640,427 +37985,1020 @@
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="0" t="s">
+      <c r="A485" s="7" t="s">
         <v>4432</v>
       </c>
-      <c r="B485" s="0" t="s">
+      <c r="B485" s="7" t="s">
         <v>4433</v>
       </c>
-      <c r="C485" s="0" t="s">
+      <c r="C485" s="7" t="s">
         <v>4434</v>
       </c>
-      <c r="D485" s="0" t="s">
+      <c r="D485" s="7" t="s">
         <v>4435</v>
       </c>
-      <c r="E485" s="0" t="s">
+      <c r="E485" s="7" t="s">
         <v>3949</v>
       </c>
-      <c r="F485" s="0" t="s">
+      <c r="F485" s="7" t="s">
         <v>4436</v>
       </c>
-      <c r="G485" s="0" t="s">
+      <c r="G485" s="7" t="s">
         <v>3949</v>
       </c>
-      <c r="H485" s="0" t="s">
+      <c r="H485" s="7" t="s">
         <v>3949</v>
       </c>
-      <c r="I485" s="0" t="s">
+      <c r="I485" s="7" t="s">
         <v>4437</v>
       </c>
-      <c r="J485" s="0" t="s">
+      <c r="J485" s="7" t="s">
         <v>4438</v>
       </c>
-      <c r="K485" s="0" t="n">
+      <c r="K485" s="7" t="n">
         <v>5013006048</v>
       </c>
-      <c r="L485" s="0" t="s">
+      <c r="L485" s="7" t="s">
         <v>4439</v>
       </c>
-      <c r="M485" s="0" t="s">
+      <c r="M485" s="7" t="s">
         <v>4440</v>
       </c>
-      <c r="N485" s="0" t="n">
+      <c r="N485" s="7" t="n">
         <v>7708079924</v>
       </c>
-      <c r="O485" s="0" t="s">
+      <c r="O485" s="7" t="s">
         <v>4441</v>
       </c>
-      <c r="P485" s="0" t="s">
+      <c r="P485" s="7" t="s">
         <v>4442</v>
       </c>
-      <c r="Q485" s="0" t="s">
+      <c r="Q485" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="0" t="s">
+      <c r="A486" s="7" t="s">
         <v>4443</v>
       </c>
-      <c r="B486" s="0" t="s">
+      <c r="B486" s="7" t="s">
         <v>4444</v>
       </c>
-      <c r="C486" s="0" t="s">
+      <c r="C486" s="7" t="s">
         <v>4445</v>
       </c>
-      <c r="D486" s="0" t="s">
+      <c r="D486" s="7" t="s">
         <v>4446</v>
       </c>
-      <c r="E486" s="0" t="s">
+      <c r="E486" s="7" t="s">
         <v>4447</v>
       </c>
-      <c r="F486" s="0" t="s">
+      <c r="F486" s="7" t="s">
         <v>4448</v>
       </c>
-      <c r="G486" s="0" t="s">
+      <c r="G486" s="7" t="s">
         <v>4449</v>
       </c>
-      <c r="H486" s="0" t="s">
+      <c r="H486" s="7" t="s">
         <v>4449</v>
       </c>
-      <c r="I486" s="0" t="s">
+      <c r="I486" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="J486" s="0" t="s">
+      <c r="J486" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K486" s="0" t="n">
+      <c r="K486" s="7" t="n">
         <v>7734111035</v>
       </c>
-      <c r="L486" s="0" t="s">
+      <c r="L486" s="7" t="s">
         <v>4450</v>
       </c>
-      <c r="M486" s="0" t="s">
+      <c r="M486" s="7" t="s">
         <v>4451</v>
       </c>
-      <c r="N486" s="0" t="n">
+      <c r="N486" s="7" t="n">
         <v>4623007675</v>
       </c>
-      <c r="O486" s="0" t="s">
+      <c r="O486" s="7" t="s">
         <v>4452</v>
       </c>
-      <c r="P486" s="0" t="s">
+      <c r="P486" s="7" t="s">
         <v>4453</v>
       </c>
-      <c r="Q486" s="0" t="s">
+      <c r="Q486" s="7" t="s">
         <v>4454</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="0" t="s">
+      <c r="A487" s="7" t="s">
         <v>4455</v>
       </c>
-      <c r="B487" s="0" t="s">
+      <c r="B487" s="7" t="s">
         <v>4456</v>
       </c>
-      <c r="C487" s="0" t="s">
+      <c r="C487" s="7" t="s">
         <v>4457</v>
       </c>
-      <c r="D487" s="0" t="s">
+      <c r="D487" s="7" t="s">
         <v>4458</v>
       </c>
-      <c r="E487" s="0" t="s">
+      <c r="E487" s="7" t="s">
         <v>3949</v>
       </c>
-      <c r="F487" s="0" t="s">
+      <c r="F487" s="7" t="s">
         <v>2173</v>
       </c>
-      <c r="G487" s="0" t="s">
+      <c r="G487" s="7" t="s">
         <v>1960</v>
       </c>
-      <c r="H487" s="0" t="s">
+      <c r="H487" s="7" t="s">
         <v>1960</v>
       </c>
-      <c r="I487" s="0" t="s">
+      <c r="I487" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="J487" s="0" t="s">
+      <c r="J487" s="7" t="s">
         <v>1312</v>
       </c>
-      <c r="K487" s="0" t="n">
+      <c r="K487" s="7" t="n">
         <v>5024080558</v>
       </c>
-      <c r="L487" s="0" t="s">
+      <c r="L487" s="7" t="s">
         <v>4459</v>
       </c>
-      <c r="M487" s="0" t="s">
+      <c r="M487" s="7" t="s">
         <v>2366</v>
       </c>
-      <c r="N487" s="0" t="n">
+      <c r="N487" s="7" t="n">
         <v>7720353443</v>
       </c>
-      <c r="O487" s="0" t="s">
+      <c r="O487" s="7" t="s">
         <v>2367</v>
       </c>
-      <c r="P487" s="0" t="s">
+      <c r="P487" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="Q487" s="0" t="s">
+      <c r="Q487" s="7" t="s">
         <v>4460</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="0" t="s">
+      <c r="A488" s="7" t="s">
         <v>4461</v>
       </c>
-      <c r="B488" s="0" t="s">
+      <c r="B488" s="7" t="s">
         <v>4462</v>
       </c>
-      <c r="C488" s="0" t="s">
+      <c r="C488" s="7" t="s">
         <v>4463</v>
       </c>
-      <c r="D488" s="0" t="s">
+      <c r="D488" s="7" t="s">
         <v>4464</v>
       </c>
-      <c r="E488" s="0" t="s">
+      <c r="E488" s="7" t="s">
         <v>2521</v>
       </c>
-      <c r="F488" s="0" t="s">
+      <c r="F488" s="7" t="s">
         <v>2173</v>
       </c>
-      <c r="G488" s="0" t="s">
+      <c r="G488" s="7" t="s">
         <v>3949</v>
       </c>
-      <c r="H488" s="0" t="s">
+      <c r="H488" s="7" t="s">
         <v>3949</v>
       </c>
-      <c r="I488" s="0" t="s">
+      <c r="I488" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="J488" s="0" t="s">
+      <c r="J488" s="7" t="s">
         <v>1312</v>
       </c>
-      <c r="K488" s="0" t="n">
+      <c r="K488" s="7" t="n">
         <v>5024080558</v>
       </c>
-      <c r="L488" s="0" t="s">
+      <c r="L488" s="7" t="s">
         <v>4465</v>
       </c>
-      <c r="M488" s="0" t="s">
+      <c r="M488" s="7" t="s">
         <v>4466</v>
       </c>
-      <c r="N488" s="0" t="n">
+      <c r="N488" s="7" t="n">
         <v>7714879559</v>
       </c>
-      <c r="O488" s="0" t="s">
+      <c r="O488" s="7" t="s">
         <v>4467</v>
       </c>
-      <c r="P488" s="0" t="s">
+      <c r="P488" s="7" t="s">
         <v>4468</v>
       </c>
-      <c r="Q488" s="0" t="s">
+      <c r="Q488" s="7" t="s">
         <v>4469</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="0" t="s">
+      <c r="A489" s="7" t="s">
         <v>4470</v>
       </c>
-      <c r="B489" s="0" t="s">
+      <c r="B489" s="7" t="s">
         <v>4471</v>
       </c>
-      <c r="C489" s="0" t="s">
+      <c r="C489" s="7" t="s">
         <v>4472</v>
       </c>
-      <c r="D489" s="0" t="s">
+      <c r="D489" s="7" t="s">
         <v>4473</v>
       </c>
-      <c r="E489" s="0" t="s">
+      <c r="E489" s="7" t="s">
         <v>2521</v>
       </c>
-      <c r="F489" s="0" t="s">
+      <c r="F489" s="7" t="s">
         <v>2173</v>
       </c>
-      <c r="G489" s="0" t="s">
+      <c r="G489" s="7" t="s">
         <v>3949</v>
       </c>
-      <c r="H489" s="0" t="s">
+      <c r="H489" s="7" t="s">
         <v>3949</v>
       </c>
-      <c r="I489" s="0" t="s">
+      <c r="I489" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="J489" s="0" t="s">
+      <c r="J489" s="7" t="s">
         <v>1312</v>
       </c>
-      <c r="K489" s="0" t="n">
+      <c r="K489" s="7" t="n">
         <v>5024080558</v>
       </c>
-      <c r="L489" s="0" t="s">
+      <c r="L489" s="7" t="s">
         <v>4474</v>
       </c>
-      <c r="M489" s="0" t="s">
+      <c r="M489" s="7" t="s">
         <v>4466</v>
       </c>
-      <c r="N489" s="0" t="n">
+      <c r="N489" s="7" t="n">
         <v>7714879559</v>
       </c>
-      <c r="O489" s="0" t="s">
+      <c r="O489" s="7" t="s">
         <v>4467</v>
       </c>
-      <c r="P489" s="0" t="s">
+      <c r="P489" s="7" t="s">
         <v>4468</v>
       </c>
-      <c r="Q489" s="0" t="s">
+      <c r="Q489" s="7" t="s">
         <v>4475</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="0" t="s">
+      <c r="A490" s="7" t="s">
         <v>4476</v>
       </c>
-      <c r="B490" s="0" t="s">
+      <c r="B490" s="7" t="s">
         <v>4477</v>
       </c>
-      <c r="C490" s="0" t="s">
+      <c r="C490" s="7" t="s">
         <v>4478</v>
       </c>
-      <c r="D490" s="0" t="s">
+      <c r="D490" s="7" t="s">
         <v>4479</v>
       </c>
-      <c r="E490" s="0" t="s">
+      <c r="E490" s="7" t="s">
         <v>4480</v>
       </c>
-      <c r="F490" s="0" t="s">
+      <c r="F490" s="7" t="s">
         <v>2173</v>
       </c>
-      <c r="G490" s="0" t="s">
+      <c r="G490" s="7" t="s">
         <v>4481</v>
       </c>
-      <c r="H490" s="0" t="s">
+      <c r="H490" s="7" t="s">
         <v>1999</v>
       </c>
-      <c r="I490" s="0" t="s">
+      <c r="I490" s="7" t="s">
         <v>4482</v>
       </c>
-      <c r="J490" s="0" t="s">
+      <c r="J490" s="7" t="s">
         <v>4483</v>
       </c>
-      <c r="K490" s="0" t="n">
+      <c r="K490" s="7" t="n">
         <v>5003010694</v>
       </c>
-      <c r="L490" s="0" t="s">
+      <c r="L490" s="7" t="s">
         <v>4484</v>
       </c>
-      <c r="M490" s="0" t="s">
+      <c r="M490" s="7" t="s">
         <v>4485</v>
       </c>
-      <c r="N490" s="0" t="n">
+      <c r="N490" s="7" t="n">
         <v>490905323768</v>
       </c>
-      <c r="O490" s="0" t="s">
+      <c r="O490" s="7" t="s">
         <v>4486</v>
       </c>
-      <c r="P490" s="0" t="s">
+      <c r="P490" s="7" t="s">
         <v>4487</v>
       </c>
-      <c r="Q490" s="0" t="s">
+      <c r="Q490" s="7" t="s">
         <v>4488</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="0" t="s">
+      <c r="A491" s="7" t="s">
         <v>4489</v>
       </c>
-      <c r="B491" s="0" t="s">
+      <c r="B491" s="7" t="s">
         <v>4490</v>
       </c>
-      <c r="C491" s="0" t="s">
+      <c r="C491" s="7" t="s">
         <v>4491</v>
       </c>
-      <c r="D491" s="0" t="s">
+      <c r="D491" s="7" t="s">
         <v>4492</v>
       </c>
-      <c r="E491" s="0" t="s">
+      <c r="E491" s="7" t="s">
         <v>1999</v>
       </c>
-      <c r="F491" s="0" t="s">
+      <c r="F491" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G491" s="0" t="s">
+      <c r="G491" s="7" t="s">
         <v>2000</v>
       </c>
-      <c r="H491" s="0" t="s">
+      <c r="H491" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="I491" s="0" t="s">
+      <c r="I491" s="7" t="s">
         <v>4493</v>
       </c>
-      <c r="J491" s="0" t="s">
+      <c r="J491" s="7" t="s">
         <v>4494</v>
       </c>
-      <c r="K491" s="0" t="n">
+      <c r="K491" s="7" t="n">
         <v>7701113894</v>
       </c>
-      <c r="L491" s="0" t="s">
+      <c r="L491" s="7" t="s">
         <v>4495</v>
       </c>
-      <c r="M491" s="0" t="s">
+      <c r="M491" s="7" t="s">
         <v>4496</v>
       </c>
-      <c r="N491" s="0" t="n">
+      <c r="N491" s="7" t="n">
         <v>7703734223</v>
       </c>
-      <c r="O491" s="0" t="s">
+      <c r="O491" s="7" t="s">
         <v>4497</v>
       </c>
-      <c r="P491" s="0" t="s">
+      <c r="P491" s="7" t="s">
         <v>4498</v>
       </c>
-      <c r="Q491" s="0" t="s">
+      <c r="Q491" s="7" t="s">
         <v>4499</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="0" t="s">
+      <c r="A492" s="7" t="s">
         <v>4500</v>
       </c>
-      <c r="B492" s="0" t="s">
+      <c r="B492" s="7" t="s">
         <v>4501</v>
       </c>
-      <c r="C492" s="0" t="s">
+      <c r="C492" s="7" t="s">
         <v>4502</v>
       </c>
-      <c r="D492" s="0" t="s">
+      <c r="D492" s="7" t="s">
         <v>4503</v>
       </c>
-      <c r="E492" s="0" t="s">
+      <c r="E492" s="7" t="s">
         <v>4504</v>
       </c>
-      <c r="F492" s="0" t="s">
+      <c r="F492" s="7" t="s">
         <v>2173</v>
       </c>
-      <c r="G492" s="0" t="s">
+      <c r="G492" s="7" t="s">
         <v>4505</v>
       </c>
-      <c r="H492" s="0" t="s">
+      <c r="H492" s="7" t="s">
         <v>2557</v>
       </c>
-      <c r="I492" s="0" t="s">
+      <c r="I492" s="7" t="s">
         <v>4506</v>
       </c>
-      <c r="J492" s="0" t="s">
+      <c r="J492" s="7" t="s">
         <v>4507</v>
       </c>
-      <c r="K492" s="0" t="n">
+      <c r="K492" s="7" t="n">
         <v>5052008384</v>
       </c>
-      <c r="L492" s="0" t="s">
+      <c r="L492" s="7" t="s">
         <v>4508</v>
       </c>
-      <c r="M492" s="0" t="s">
+      <c r="M492" s="7" t="s">
         <v>4509</v>
       </c>
-      <c r="N492" s="0" t="n">
+      <c r="N492" s="7" t="n">
         <v>7716703310</v>
       </c>
-      <c r="O492" s="0" t="s">
+      <c r="O492" s="7" t="s">
         <v>4510</v>
       </c>
-      <c r="P492" s="0" t="s">
+      <c r="P492" s="7" t="s">
         <v>4511</v>
       </c>
-      <c r="Q492" s="0" t="s">
+      <c r="Q492" s="7" t="s">
         <v>4512</v>
+      </c>
+    </row>
+    <row r="493" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="6" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="7" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B494" s="7" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C494" s="7" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D494" s="7" t="s">
+        <v>4517</v>
+      </c>
+      <c r="E494" s="7" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F494" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G494" s="7" t="s">
+        <v>3386</v>
+      </c>
+      <c r="H494" s="7" t="s">
+        <v>3016</v>
+      </c>
+      <c r="I494" s="7" t="s">
+        <v>4518</v>
+      </c>
+      <c r="J494" s="7" t="s">
+        <v>4519</v>
+      </c>
+      <c r="K494" s="7" t="n">
+        <v>5024098749</v>
+      </c>
+      <c r="L494" s="7" t="s">
+        <v>4520</v>
+      </c>
+      <c r="M494" s="7" t="s">
+        <v>4521</v>
+      </c>
+      <c r="N494" s="7" t="n">
+        <v>460701634149</v>
+      </c>
+      <c r="O494" s="7" t="s">
+        <v>4522</v>
+      </c>
+      <c r="P494" s="7" t="s">
+        <v>4523</v>
+      </c>
+      <c r="Q494" s="7" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="7" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B495" s="7" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C495" s="7" t="s">
+        <v>4527</v>
+      </c>
+      <c r="D495" s="7" t="s">
+        <v>4528</v>
+      </c>
+      <c r="E495" s="7" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F495" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G495" s="7" t="s">
+        <v>2419</v>
+      </c>
+      <c r="H495" s="7" t="s">
+        <v>4529</v>
+      </c>
+      <c r="I495" s="7" t="s">
+        <v>4530</v>
+      </c>
+      <c r="J495" s="7" t="s">
+        <v>4531</v>
+      </c>
+      <c r="K495" s="7" t="n">
+        <v>5027130077</v>
+      </c>
+      <c r="L495" s="7" t="s">
+        <v>4532</v>
+      </c>
+      <c r="M495" s="7" t="s">
+        <v>4533</v>
+      </c>
+      <c r="N495" s="7" t="n">
+        <v>6453162603</v>
+      </c>
+      <c r="O495" s="7" t="s">
+        <v>4534</v>
+      </c>
+      <c r="P495" s="7" t="s">
+        <v>4535</v>
+      </c>
+      <c r="Q495" s="7" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="7" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B496" s="7" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C496" s="7" t="s">
+        <v>4539</v>
+      </c>
+      <c r="D496" s="7" t="s">
+        <v>4540</v>
+      </c>
+      <c r="E496" s="7" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F496" s="7" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G496" s="7" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H496" s="7" t="s">
+        <v>4541</v>
+      </c>
+      <c r="I496" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J496" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K496" s="7" t="n">
+        <v>7713070211</v>
+      </c>
+      <c r="L496" s="7" t="s">
+        <v>4542</v>
+      </c>
+      <c r="M496" s="7" t="s">
+        <v>4543</v>
+      </c>
+      <c r="N496" s="7" t="n">
+        <v>7718269650</v>
+      </c>
+      <c r="O496" s="7" t="s">
+        <v>4544</v>
+      </c>
+      <c r="P496" s="7" t="s">
+        <v>4545</v>
+      </c>
+      <c r="Q496" s="7" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="7" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B497" s="7" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C497" s="7" t="s">
+        <v>4549</v>
+      </c>
+      <c r="D497" s="7" t="s">
+        <v>4550</v>
+      </c>
+      <c r="E497" s="7" t="s">
+        <v>4551</v>
+      </c>
+      <c r="F497" s="7" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G497" s="7" t="s">
+        <v>4448</v>
+      </c>
+      <c r="H497" s="7" t="s">
+        <v>4541</v>
+      </c>
+      <c r="I497" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J497" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K497" s="7" t="n">
+        <v>7713070211</v>
+      </c>
+      <c r="L497" s="7" t="s">
+        <v>4552</v>
+      </c>
+      <c r="M497" s="7" t="s">
+        <v>4553</v>
+      </c>
+      <c r="N497" s="7" t="n">
+        <v>9721088664</v>
+      </c>
+      <c r="O497" s="7" t="s">
+        <v>4554</v>
+      </c>
+      <c r="P497" s="7" t="s">
+        <v>4555</v>
+      </c>
+      <c r="Q497" s="7" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="7" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B498" s="7" t="s">
+        <v>4558</v>
+      </c>
+      <c r="C498" s="7" t="s">
+        <v>4559</v>
+      </c>
+      <c r="D498" s="7" t="s">
+        <v>4560</v>
+      </c>
+      <c r="E498" s="7" t="s">
+        <v>4561</v>
+      </c>
+      <c r="F498" s="7" t="s">
+        <v>2558</v>
+      </c>
+      <c r="G498" s="7" t="s">
+        <v>4562</v>
+      </c>
+      <c r="H498" s="7" t="s">
+        <v>2862</v>
+      </c>
+      <c r="I498" s="7" t="s">
+        <v>4563</v>
+      </c>
+      <c r="J498" s="7" t="s">
+        <v>4564</v>
+      </c>
+      <c r="K498" s="7" t="n">
+        <v>7704221753</v>
+      </c>
+      <c r="L498" s="7" t="s">
+        <v>4565</v>
+      </c>
+      <c r="M498" s="7" t="s">
+        <v>4566</v>
+      </c>
+      <c r="N498" s="7" t="n">
+        <v>7724643070</v>
+      </c>
+      <c r="O498" s="7" t="s">
+        <v>4567</v>
+      </c>
+      <c r="P498" s="7" t="s">
+        <v>4568</v>
+      </c>
+      <c r="Q498" s="7" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="7" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B499" s="7" t="s">
+        <v>4571</v>
+      </c>
+      <c r="C499" s="7" t="s">
+        <v>4572</v>
+      </c>
+      <c r="D499" s="7" t="s">
+        <v>4573</v>
+      </c>
+      <c r="E499" s="7" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F499" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G499" s="7" t="s">
+        <v>4095</v>
+      </c>
+      <c r="H499" s="7" t="s">
+        <v>4541</v>
+      </c>
+      <c r="I499" s="7" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J499" s="7" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K499" s="7" t="n">
+        <v>7706753898</v>
+      </c>
+      <c r="L499" s="7" t="s">
+        <v>4574</v>
+      </c>
+      <c r="M499" s="7" t="s">
+        <v>4575</v>
+      </c>
+      <c r="N499" s="7" t="n">
+        <v>9701000245</v>
+      </c>
+      <c r="O499" s="7" t="s">
+        <v>4576</v>
+      </c>
+      <c r="P499" s="7" t="s">
+        <v>2206</v>
+      </c>
+      <c r="Q499" s="7" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="500" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="6" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B501" s="0" t="s">
+        <v>4579</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>4580</v>
+      </c>
+      <c r="D501" s="0" t="s">
+        <v>4581</v>
+      </c>
+      <c r="E501" s="0" t="s">
+        <v>4582</v>
+      </c>
+      <c r="F501" s="0" t="s">
+        <v>4583</v>
+      </c>
+      <c r="G501" s="0" t="s">
+        <v>4582</v>
+      </c>
+      <c r="H501" s="0" t="s">
+        <v>4582</v>
+      </c>
+      <c r="I501" s="0" t="s">
+        <v>4584</v>
+      </c>
+      <c r="J501" s="0" t="s">
+        <v>4585</v>
+      </c>
+      <c r="K501" s="0" t="n">
+        <v>7704706758</v>
+      </c>
+      <c r="L501" s="0" t="s">
+        <v>4586</v>
+      </c>
+      <c r="M501" s="0" t="s">
+        <v>4587</v>
+      </c>
+      <c r="N501" s="0" t="n">
+        <v>5027286035</v>
+      </c>
+      <c r="O501" s="0" t="s">
+        <v>4588</v>
+      </c>
+      <c r="P501" s="0" t="s">
+        <v>4589</v>
+      </c>
+      <c r="Q501" s="0" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B502" s="0" t="s">
+        <v>4592</v>
+      </c>
+      <c r="C502" s="0" t="s">
+        <v>4593</v>
+      </c>
+      <c r="D502" s="0" t="s">
+        <v>4594</v>
+      </c>
+      <c r="E502" s="0" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F502" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G502" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="H502" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="I502" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="J502" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="K502" s="0" t="n">
+        <v>5041020083</v>
+      </c>
+      <c r="L502" s="0" t="s">
+        <v>4595</v>
+      </c>
+      <c r="M502" s="0" t="s">
+        <v>4596</v>
+      </c>
+      <c r="N502" s="0" t="n">
+        <v>7811765941</v>
+      </c>
+      <c r="O502" s="0" t="s">
+        <v>4597</v>
+      </c>
+      <c r="P502" s="0" t="s">
+        <v>4598</v>
+      </c>
+      <c r="Q502" s="0" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B503" s="0" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C503" s="0" t="s">
+        <v>4602</v>
+      </c>
+      <c r="D503" s="0" t="s">
+        <v>4603</v>
+      </c>
+      <c r="E503" s="0" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F503" s="0" t="s">
+        <v>3305</v>
+      </c>
+      <c r="G503" s="0" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H503" s="0" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I503" s="0" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J503" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K503" s="0" t="n">
+        <v>7724598966</v>
+      </c>
+      <c r="L503" s="0" t="s">
+        <v>4604</v>
+      </c>
+      <c r="M503" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="N503" s="0" t="n">
+        <v>7715918352</v>
+      </c>
+      <c r="O503" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="P503" s="0" t="s">
+        <v>4605</v>
+      </c>
+      <c r="Q503" s="0" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="s">
+        <v>4606</v>
+      </c>
+      <c r="B504" s="0" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>4608</v>
+      </c>
+      <c r="D504" s="0" t="s">
+        <v>4609</v>
+      </c>
+      <c r="E504" s="0" t="s">
+        <v>4610</v>
+      </c>
+      <c r="F504" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G504" s="0" t="s">
+        <v>4611</v>
+      </c>
+      <c r="H504" s="0" t="s">
+        <v>4612</v>
+      </c>
+      <c r="I504" s="0" t="s">
+        <v>4613</v>
+      </c>
+      <c r="J504" s="0" t="s">
+        <v>4614</v>
+      </c>
+      <c r="K504" s="0" t="n">
+        <v>2722027157</v>
+      </c>
+      <c r="L504" s="0" t="s">
+        <v>4615</v>
+      </c>
+      <c r="M504" s="0" t="s">
+        <v>4616</v>
+      </c>
+      <c r="N504" s="0" t="n">
+        <v>708006803</v>
+      </c>
+      <c r="O504" s="0" t="s">
+        <v>4617</v>
+      </c>
+      <c r="P504" s="0" t="s">
+        <v>4618</v>
+      </c>
+      <c r="Q504" s="0" t="s">
+        <v>4619</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="s">
+        <v>4620</v>
+      </c>
+      <c r="B505" s="0" t="s">
+        <v>4621</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>4622</v>
+      </c>
+      <c r="D505" s="0" t="s">
+        <v>4623</v>
+      </c>
+      <c r="E505" s="0" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F505" s="0" t="s">
+        <v>1960</v>
+      </c>
+      <c r="G505" s="0" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H505" s="0" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I505" s="0" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J505" s="0" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K505" s="0" t="n">
+        <v>7706753898</v>
+      </c>
+      <c r="L505" s="0" t="s">
+        <v>4624</v>
+      </c>
+      <c r="M505" s="0" t="s">
+        <v>4625</v>
+      </c>
+      <c r="N505" s="0" t="n">
+        <v>1650209178</v>
+      </c>
+      <c r="O505" s="0" t="s">
+        <v>4626</v>
+      </c>
+      <c r="P505" s="0" t="s">
+        <v>4627</v>
+      </c>
+      <c r="Q505" s="0" t="s">
+        <v>4577</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5903" uniqueCount="4628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="4742">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -13905,6 +13905,348 @@
   </si>
   <si>
     <t xml:space="preserve">7-950-9466478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500306272721000017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003062727 21 000017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 964 999,96 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ДВОРЕЦ СПОРТА ВИДНОЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "ДВОРЕЦ СПОРТА ВИДНОЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КОМПЛЕКСОН" (ООО "КОМПЛЕКСОН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-3031617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alesha.semenovv@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770401203721000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704012037 21 000018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 286 380,67 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.12.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ ГОРОДА МОСКВЫ "ГОСУДАРСТВЕННЫЙ ДАРВИНОВСКИЙ МУЗЕЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУК ГДМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СУДАРИКОВ И БАРСУКОВ" (ООО "СИБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СИБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127220, Г. МОСКВА 77, УЛ. ПИСЦОВАЯ, Д. 9-11, ПОМЕЩ. 10 КОМ. 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sib02@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503009000020000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25030090000 20 000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 457 915,62 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.01.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.02.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "НАРО-ФОМИНСКИЙ ПЕРИНАТАЛЬНЫЙ ЦЕНТР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "Н-ФПЦ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "АСЧ-СБ" (ООО "ЧОО "АСЧ-СБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЧОО "АСЧ-СБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115522, г. Москва, Пролетарский проспект, д. 7, эт. 1, пом. VIII, комн. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aschsb@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502802358221000106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35028023582 21 000106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 000 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "МОЖАЙСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "МОЖАЙСКАЯ ЦРБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МАСТЕР Б" (ООО "МАСТЕР Б")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МАСТЕР Б"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143032, ОБЛ МОСКОВСКАЯ 50, Г ОДИНЦОВО, П ГОРКИ-10, ДОМ 50/1, ЭТ/ПОМ 2/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masterb-mos@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503800814221000296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038008142 21 000296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 598 251,38 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТОРГОВЫЙ ПРОЕКТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТОРГОВЫЙ ПРОЕКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТОРГОВЫЙ ПРОЕКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">660022, КРАЙ КРАСНОЯРСКИЙ 24, Г КРАСНОЯРСК, УЛ ПАРТИЗАНА ЖЕЛЕЗНЯКА, ДОМ 18, ПОМЕЩЕНИЕ П-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-391-2531111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to109@2531111.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503800814221000290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038008142 21 000290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 377 600,14 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВАРЛАМОВ ГРИГОРИЙ НИКОЛАЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ВАРЛАМОВ ГРИГОРИЙ НИКОЛАЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Республика Хакасия 19, Район Усть-Абаканский, Поселок Расцвет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-3902-217665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tender@mebeldela.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503800814221000252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038008142 21 000252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 584 333,33 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКЦИОНЕРНОЕ ОБЩЕСТВО "МОСКОВСКИЙ АВИАЦИОННО-РЕМОНТНЫЙ ЗАВОД ДОСААФ" (АКЦИОНЕРНОЕ ОБЩЕСТВО "МОСКОВСКИЙ АВИАЦИОННО-РЕМОНТНЫЙ ЗАВОД ДОСААФ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО "МОСКОВСКИЙ АВИАЦИОННО-РЕМОНТНЫЙ ЗАВОД ДОСААФ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143921, ОБЛ МОСКОВСКАЯ 50, Г БАЛАШИХА, Д ФЕДУРНОВО, УЛ АВИАРЕМБАЗА, ДОМ 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-5229122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maket@marzdosaaf.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770407612921000164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704076129 21 000164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТРОЯ" (ООО "ТРОЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТРОЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302014, - ОРЛОВСКАЯ 57, - Орёл, - ПОЛКОВНИКА СТАРИНОВА, Д. 3, КВ. 151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (917) 389-92-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">troyagos@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772717737021000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27727177370 21 000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 395 617,83 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.05.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 45 ИМЕНИ Л.И. МИЛЬГРАМА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 45 ИМЕНИ Л.И. МИЛЬГРАМА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОТОВИЛОВ ОЛЕГ АЛЕКСЕЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП МОТОВИЛОВ ОЛЕГ АЛЕКСЕЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ ПЕРМСКИЙ 59, Г. ЧУСОВОЙ, П. КОМАРИХИНСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (958) 141-01-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rsmo.77@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770189108321000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17701891083 21 000059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841 484,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ КАЗЕННОЕ ОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ВЫСШЕГО ОБРАЗОВАНИЯ "МОСКОВСКАЯ АКАДЕМИЯ СЛЕДСТВЕННОГО КОМИТЕТА РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОСКОВСКАЯ АКАДЕМИЯ СЛЕДСТВЕННОГО КОМИТЕТА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДИП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДИП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДИП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354208, КРАЙ КРАСНОДАРСКИЙ 23, Г. Сочи, УЛ. ТАЛЛИНСКАЯ, Д. 37/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-918-6147225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byril@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773253799921000716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17732537999 21 000716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 301 416,48 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "СПЕЦИАЛЬНЫЙ ЛЕТНЫЙ ОТРЯД "РОССИЯ" УПРАВЛЕНИЯ ДЕЛАМИ ПРЕЗИДЕНТА РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "СЛО "РОССИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬЯНС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬЯНС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛЬЯНС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121087, Г. МОСКВА 77, ПР-Д БАГРАТИОНОВСКИЙ, Д. 7, К. 2, ЭТАЖ/КОМ. 4/42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-5697610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance.trade21@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -14083,10 +14425,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q505"/>
+  <dimension ref="A1:Q517"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A467" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A500" activeCellId="0" sqref="500:500"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A470" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A506" activeCellId="0" sqref="506:506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38737,268 +39079,856 @@
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="0" t="s">
+      <c r="A501" s="7" t="s">
         <v>4578</v>
       </c>
-      <c r="B501" s="0" t="s">
+      <c r="B501" s="7" t="s">
         <v>4579</v>
       </c>
-      <c r="C501" s="0" t="s">
+      <c r="C501" s="7" t="s">
         <v>4580</v>
       </c>
-      <c r="D501" s="0" t="s">
+      <c r="D501" s="7" t="s">
         <v>4581</v>
       </c>
-      <c r="E501" s="0" t="s">
+      <c r="E501" s="7" t="s">
         <v>4582</v>
       </c>
-      <c r="F501" s="0" t="s">
+      <c r="F501" s="7" t="s">
         <v>4583</v>
       </c>
-      <c r="G501" s="0" t="s">
+      <c r="G501" s="7" t="s">
         <v>4582</v>
       </c>
-      <c r="H501" s="0" t="s">
+      <c r="H501" s="7" t="s">
         <v>4582</v>
       </c>
-      <c r="I501" s="0" t="s">
+      <c r="I501" s="7" t="s">
         <v>4584</v>
       </c>
-      <c r="J501" s="0" t="s">
+      <c r="J501" s="7" t="s">
         <v>4585</v>
       </c>
-      <c r="K501" s="0" t="n">
+      <c r="K501" s="7" t="n">
         <v>7704706758</v>
       </c>
-      <c r="L501" s="0" t="s">
+      <c r="L501" s="7" t="s">
         <v>4586</v>
       </c>
-      <c r="M501" s="0" t="s">
+      <c r="M501" s="7" t="s">
         <v>4587</v>
       </c>
-      <c r="N501" s="0" t="n">
+      <c r="N501" s="7" t="n">
         <v>5027286035</v>
       </c>
-      <c r="O501" s="0" t="s">
+      <c r="O501" s="7" t="s">
         <v>4588</v>
       </c>
-      <c r="P501" s="0" t="s">
+      <c r="P501" s="7" t="s">
         <v>4589</v>
       </c>
-      <c r="Q501" s="0" t="s">
+      <c r="Q501" s="7" t="s">
         <v>4590</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="0" t="s">
+      <c r="A502" s="7" t="s">
         <v>4591</v>
       </c>
-      <c r="B502" s="0" t="s">
+      <c r="B502" s="7" t="s">
         <v>4592</v>
       </c>
-      <c r="C502" s="0" t="s">
+      <c r="C502" s="7" t="s">
         <v>4593</v>
       </c>
-      <c r="D502" s="0" t="s">
+      <c r="D502" s="7" t="s">
         <v>4594</v>
       </c>
-      <c r="E502" s="0" t="s">
+      <c r="E502" s="7" t="s">
         <v>2748</v>
       </c>
-      <c r="F502" s="0" t="s">
+      <c r="F502" s="7" t="s">
         <v>2173</v>
       </c>
-      <c r="G502" s="0" t="s">
+      <c r="G502" s="7" t="s">
         <v>2936</v>
       </c>
-      <c r="H502" s="0" t="s">
+      <c r="H502" s="7" t="s">
         <v>2936</v>
       </c>
-      <c r="I502" s="0" t="s">
+      <c r="I502" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="J502" s="0" t="s">
+      <c r="J502" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="K502" s="0" t="n">
+      <c r="K502" s="7" t="n">
         <v>5041020083</v>
       </c>
-      <c r="L502" s="0" t="s">
+      <c r="L502" s="7" t="s">
         <v>4595</v>
       </c>
-      <c r="M502" s="0" t="s">
+      <c r="M502" s="7" t="s">
         <v>4596</v>
       </c>
-      <c r="N502" s="0" t="n">
+      <c r="N502" s="7" t="n">
         <v>7811765941</v>
       </c>
-      <c r="O502" s="0" t="s">
+      <c r="O502" s="7" t="s">
         <v>4597</v>
       </c>
-      <c r="P502" s="0" t="s">
+      <c r="P502" s="7" t="s">
         <v>4598</v>
       </c>
-      <c r="Q502" s="0" t="s">
+      <c r="Q502" s="7" t="s">
         <v>4599</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="0" t="s">
+      <c r="A503" s="7" t="s">
         <v>4600</v>
       </c>
-      <c r="B503" s="0" t="s">
+      <c r="B503" s="7" t="s">
         <v>4601</v>
       </c>
-      <c r="C503" s="0" t="s">
+      <c r="C503" s="7" t="s">
         <v>4602</v>
       </c>
-      <c r="D503" s="0" t="s">
+      <c r="D503" s="7" t="s">
         <v>4603</v>
       </c>
-      <c r="E503" s="0" t="s">
+      <c r="E503" s="7" t="s">
         <v>2023</v>
       </c>
-      <c r="F503" s="0" t="s">
+      <c r="F503" s="7" t="s">
         <v>3305</v>
       </c>
-      <c r="G503" s="0" t="s">
+      <c r="G503" s="7" t="s">
         <v>2024</v>
       </c>
-      <c r="H503" s="0" t="s">
+      <c r="H503" s="7" t="s">
         <v>1923</v>
       </c>
-      <c r="I503" s="0" t="s">
+      <c r="I503" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="J503" s="0" t="s">
+      <c r="J503" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="K503" s="0" t="n">
+      <c r="K503" s="7" t="n">
         <v>7724598966</v>
       </c>
-      <c r="L503" s="0" t="s">
+      <c r="L503" s="7" t="s">
         <v>4604</v>
       </c>
-      <c r="M503" s="0" t="s">
+      <c r="M503" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="N503" s="0" t="n">
+      <c r="N503" s="7" t="n">
         <v>7715918352</v>
       </c>
-      <c r="O503" s="0" t="s">
+      <c r="O503" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="P503" s="0" t="s">
+      <c r="P503" s="7" t="s">
         <v>4605</v>
       </c>
-      <c r="Q503" s="0" t="s">
+      <c r="Q503" s="7" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="0" t="s">
+      <c r="A504" s="7" t="s">
         <v>4606</v>
       </c>
-      <c r="B504" s="0" t="s">
+      <c r="B504" s="7" t="s">
         <v>4607</v>
       </c>
-      <c r="C504" s="0" t="s">
+      <c r="C504" s="7" t="s">
         <v>4608</v>
       </c>
-      <c r="D504" s="0" t="s">
+      <c r="D504" s="7" t="s">
         <v>4609</v>
       </c>
-      <c r="E504" s="0" t="s">
+      <c r="E504" s="7" t="s">
         <v>4610</v>
       </c>
-      <c r="F504" s="0" t="s">
+      <c r="F504" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G504" s="0" t="s">
+      <c r="G504" s="7" t="s">
         <v>4611</v>
       </c>
-      <c r="H504" s="0" t="s">
+      <c r="H504" s="7" t="s">
         <v>4612</v>
       </c>
-      <c r="I504" s="0" t="s">
+      <c r="I504" s="7" t="s">
         <v>4613</v>
       </c>
-      <c r="J504" s="0" t="s">
+      <c r="J504" s="7" t="s">
         <v>4614</v>
       </c>
-      <c r="K504" s="0" t="n">
+      <c r="K504" s="7" t="n">
         <v>2722027157</v>
       </c>
-      <c r="L504" s="0" t="s">
+      <c r="L504" s="7" t="s">
         <v>4615</v>
       </c>
-      <c r="M504" s="0" t="s">
+      <c r="M504" s="7" t="s">
         <v>4616</v>
       </c>
-      <c r="N504" s="0" t="n">
+      <c r="N504" s="7" t="n">
         <v>708006803</v>
       </c>
-      <c r="O504" s="0" t="s">
+      <c r="O504" s="7" t="s">
         <v>4617</v>
       </c>
-      <c r="P504" s="0" t="s">
+      <c r="P504" s="7" t="s">
         <v>4618</v>
       </c>
-      <c r="Q504" s="0" t="s">
+      <c r="Q504" s="7" t="s">
         <v>4619</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="0" t="s">
+      <c r="A505" s="7" t="s">
         <v>4620</v>
       </c>
-      <c r="B505" s="0" t="s">
+      <c r="B505" s="7" t="s">
         <v>4621</v>
       </c>
-      <c r="C505" s="0" t="s">
+      <c r="C505" s="7" t="s">
         <v>4622</v>
       </c>
-      <c r="D505" s="0" t="s">
+      <c r="D505" s="7" t="s">
         <v>4623</v>
       </c>
-      <c r="E505" s="0" t="s">
+      <c r="E505" s="7" t="s">
         <v>1933</v>
       </c>
-      <c r="F505" s="0" t="s">
+      <c r="F505" s="7" t="s">
         <v>1960</v>
       </c>
-      <c r="G505" s="0" t="s">
+      <c r="G505" s="7" t="s">
         <v>2142</v>
       </c>
-      <c r="H505" s="0" t="s">
+      <c r="H505" s="7" t="s">
         <v>1923</v>
       </c>
-      <c r="I505" s="0" t="s">
+      <c r="I505" s="7" t="s">
         <v>2202</v>
       </c>
-      <c r="J505" s="0" t="s">
+      <c r="J505" s="7" t="s">
         <v>2203</v>
       </c>
-      <c r="K505" s="0" t="n">
+      <c r="K505" s="7" t="n">
         <v>7706753898</v>
       </c>
-      <c r="L505" s="0" t="s">
+      <c r="L505" s="7" t="s">
         <v>4624</v>
       </c>
-      <c r="M505" s="0" t="s">
+      <c r="M505" s="7" t="s">
         <v>4625</v>
       </c>
-      <c r="N505" s="0" t="n">
+      <c r="N505" s="7" t="n">
         <v>1650209178</v>
       </c>
-      <c r="O505" s="0" t="s">
+      <c r="O505" s="7" t="s">
         <v>4626</v>
       </c>
-      <c r="P505" s="0" t="s">
+      <c r="P505" s="7" t="s">
         <v>4627</v>
       </c>
-      <c r="Q505" s="0" t="s">
+      <c r="Q505" s="7" t="s">
         <v>4577</v>
+      </c>
+    </row>
+    <row r="506" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="6" t="n">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B507" s="0" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>4630</v>
+      </c>
+      <c r="D507" s="0" t="s">
+        <v>4631</v>
+      </c>
+      <c r="E507" s="0" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F507" s="0" t="s">
+        <v>4632</v>
+      </c>
+      <c r="G507" s="0" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H507" s="0" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I507" s="0" t="s">
+        <v>4633</v>
+      </c>
+      <c r="J507" s="0" t="s">
+        <v>4634</v>
+      </c>
+      <c r="K507" s="0" t="n">
+        <v>5003062727</v>
+      </c>
+      <c r="L507" s="0" t="s">
+        <v>4635</v>
+      </c>
+      <c r="M507" s="0" t="s">
+        <v>3972</v>
+      </c>
+      <c r="N507" s="0" t="n">
+        <v>9703034881</v>
+      </c>
+      <c r="O507" s="0" t="s">
+        <v>3973</v>
+      </c>
+      <c r="P507" s="0" t="s">
+        <v>4636</v>
+      </c>
+      <c r="Q507" s="0" t="s">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="s">
+        <v>4638</v>
+      </c>
+      <c r="B508" s="0" t="s">
+        <v>4639</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>4640</v>
+      </c>
+      <c r="D508" s="0" t="s">
+        <v>4641</v>
+      </c>
+      <c r="E508" s="0" t="s">
+        <v>3906</v>
+      </c>
+      <c r="F508" s="0" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G508" s="0" t="s">
+        <v>2852</v>
+      </c>
+      <c r="H508" s="0" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I508" s="0" t="s">
+        <v>4643</v>
+      </c>
+      <c r="J508" s="0" t="s">
+        <v>4644</v>
+      </c>
+      <c r="K508" s="0" t="n">
+        <v>7704012037</v>
+      </c>
+      <c r="L508" s="0" t="s">
+        <v>4645</v>
+      </c>
+      <c r="M508" s="0" t="s">
+        <v>4646</v>
+      </c>
+      <c r="N508" s="0" t="n">
+        <v>7714471801</v>
+      </c>
+      <c r="O508" s="0" t="s">
+        <v>4647</v>
+      </c>
+      <c r="P508" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q508" s="0" t="s">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="s">
+        <v>4649</v>
+      </c>
+      <c r="B509" s="0" t="s">
+        <v>4650</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>4651</v>
+      </c>
+      <c r="D509" s="0" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E509" s="0" t="s">
+        <v>4653</v>
+      </c>
+      <c r="F509" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G509" s="0" t="s">
+        <v>4654</v>
+      </c>
+      <c r="H509" s="0" t="s">
+        <v>3203</v>
+      </c>
+      <c r="I509" s="0" t="s">
+        <v>4655</v>
+      </c>
+      <c r="J509" s="0" t="s">
+        <v>4656</v>
+      </c>
+      <c r="K509" s="0" t="n">
+        <v>5030090000</v>
+      </c>
+      <c r="L509" s="0" t="s">
+        <v>4657</v>
+      </c>
+      <c r="M509" s="0" t="s">
+        <v>4658</v>
+      </c>
+      <c r="N509" s="0" t="n">
+        <v>7705558982</v>
+      </c>
+      <c r="O509" s="0" t="s">
+        <v>4659</v>
+      </c>
+      <c r="P509" s="0" t="s">
+        <v>4511</v>
+      </c>
+      <c r="Q509" s="0" t="s">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="s">
+        <v>4661</v>
+      </c>
+      <c r="B510" s="0" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C510" s="0" t="s">
+        <v>4663</v>
+      </c>
+      <c r="D510" s="0" t="s">
+        <v>4664</v>
+      </c>
+      <c r="E510" s="0" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F510" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G510" s="0" t="s">
+        <v>1923</v>
+      </c>
+      <c r="H510" s="0" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I510" s="0" t="s">
+        <v>4665</v>
+      </c>
+      <c r="J510" s="0" t="s">
+        <v>4666</v>
+      </c>
+      <c r="K510" s="0" t="n">
+        <v>5028023582</v>
+      </c>
+      <c r="L510" s="0" t="s">
+        <v>4667</v>
+      </c>
+      <c r="M510" s="0" t="s">
+        <v>4668</v>
+      </c>
+      <c r="N510" s="0" t="n">
+        <v>7733657801</v>
+      </c>
+      <c r="O510" s="0" t="s">
+        <v>4669</v>
+      </c>
+      <c r="P510" s="0" t="n">
+        <v>84955148835</v>
+      </c>
+      <c r="Q510" s="0" t="s">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B511" s="0" t="s">
+        <v>4672</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>4673</v>
+      </c>
+      <c r="D511" s="0" t="s">
+        <v>4674</v>
+      </c>
+      <c r="E511" s="0" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F511" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G511" s="0" t="s">
+        <v>3512</v>
+      </c>
+      <c r="H511" s="0" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I511" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J511" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K511" s="0" t="n">
+        <v>5038008142</v>
+      </c>
+      <c r="L511" s="0" t="s">
+        <v>4675</v>
+      </c>
+      <c r="M511" s="0" t="s">
+        <v>4676</v>
+      </c>
+      <c r="N511" s="0" t="n">
+        <v>2465275001</v>
+      </c>
+      <c r="O511" s="0" t="s">
+        <v>4677</v>
+      </c>
+      <c r="P511" s="0" t="s">
+        <v>4678</v>
+      </c>
+      <c r="Q511" s="0" t="s">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="s">
+        <v>4680</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>4681</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>4682</v>
+      </c>
+      <c r="D512" s="0" t="s">
+        <v>4683</v>
+      </c>
+      <c r="E512" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F512" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G512" s="0" t="s">
+        <v>3398</v>
+      </c>
+      <c r="H512" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="I512" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J512" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K512" s="0" t="n">
+        <v>5038008142</v>
+      </c>
+      <c r="L512" s="0" t="s">
+        <v>4684</v>
+      </c>
+      <c r="M512" s="0" t="s">
+        <v>4685</v>
+      </c>
+      <c r="N512" s="0" t="n">
+        <v>222200909050</v>
+      </c>
+      <c r="O512" s="0" t="s">
+        <v>4686</v>
+      </c>
+      <c r="P512" s="0" t="s">
+        <v>4687</v>
+      </c>
+      <c r="Q512" s="0" t="s">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B513" s="0" t="s">
+        <v>4690</v>
+      </c>
+      <c r="C513" s="0" t="s">
+        <v>4691</v>
+      </c>
+      <c r="D513" s="0" t="s">
+        <v>4692</v>
+      </c>
+      <c r="E513" s="0" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F513" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G513" s="0" t="s">
+        <v>2985</v>
+      </c>
+      <c r="H513" s="0" t="s">
+        <v>2985</v>
+      </c>
+      <c r="I513" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J513" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K513" s="0" t="n">
+        <v>5038008142</v>
+      </c>
+      <c r="L513" s="0" t="s">
+        <v>4693</v>
+      </c>
+      <c r="M513" s="0" t="s">
+        <v>4694</v>
+      </c>
+      <c r="N513" s="0" t="n">
+        <v>5001020016</v>
+      </c>
+      <c r="O513" s="0" t="s">
+        <v>4695</v>
+      </c>
+      <c r="P513" s="0" t="s">
+        <v>4696</v>
+      </c>
+      <c r="Q513" s="0" t="s">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>4698</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C514" s="0" t="s">
+        <v>4700</v>
+      </c>
+      <c r="D514" s="0" t="s">
+        <v>4701</v>
+      </c>
+      <c r="E514" s="0" t="s">
+        <v>2085</v>
+      </c>
+      <c r="F514" s="0" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G514" s="0" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H514" s="0" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I514" s="0" t="s">
+        <v>2025</v>
+      </c>
+      <c r="J514" s="0" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K514" s="0" t="n">
+        <v>7704076129</v>
+      </c>
+      <c r="L514" s="0" t="s">
+        <v>4702</v>
+      </c>
+      <c r="M514" s="0" t="s">
+        <v>4703</v>
+      </c>
+      <c r="N514" s="0" t="n">
+        <v>5752081534</v>
+      </c>
+      <c r="O514" s="0" t="s">
+        <v>4704</v>
+      </c>
+      <c r="P514" s="0" t="s">
+        <v>4705</v>
+      </c>
+      <c r="Q514" s="0" t="s">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>4707</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>4708</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>4709</v>
+      </c>
+      <c r="D515" s="0" t="s">
+        <v>4710</v>
+      </c>
+      <c r="E515" s="0" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F515" s="0" t="s">
+        <v>4711</v>
+      </c>
+      <c r="G515" s="0" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H515" s="0" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I515" s="0" t="s">
+        <v>4712</v>
+      </c>
+      <c r="J515" s="0" t="s">
+        <v>4713</v>
+      </c>
+      <c r="K515" s="0" t="n">
+        <v>7727177370</v>
+      </c>
+      <c r="L515" s="0" t="s">
+        <v>4714</v>
+      </c>
+      <c r="M515" s="0" t="s">
+        <v>4715</v>
+      </c>
+      <c r="N515" s="0" t="n">
+        <v>592105596040</v>
+      </c>
+      <c r="O515" s="0" t="s">
+        <v>4716</v>
+      </c>
+      <c r="P515" s="0" t="s">
+        <v>4717</v>
+      </c>
+      <c r="Q515" s="0" t="s">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>4720</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>4721</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>4722</v>
+      </c>
+      <c r="E516" s="0" t="s">
+        <v>3398</v>
+      </c>
+      <c r="F516" s="0" t="s">
+        <v>4723</v>
+      </c>
+      <c r="G516" s="0" t="s">
+        <v>3512</v>
+      </c>
+      <c r="H516" s="0" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I516" s="0" t="s">
+        <v>4724</v>
+      </c>
+      <c r="J516" s="0" t="s">
+        <v>4725</v>
+      </c>
+      <c r="K516" s="0" t="n">
+        <v>7701891083</v>
+      </c>
+      <c r="L516" s="0" t="s">
+        <v>4726</v>
+      </c>
+      <c r="M516" s="0" t="s">
+        <v>4727</v>
+      </c>
+      <c r="N516" s="0" t="n">
+        <v>2366022987</v>
+      </c>
+      <c r="O516" s="0" t="s">
+        <v>4728</v>
+      </c>
+      <c r="P516" s="0" t="s">
+        <v>4729</v>
+      </c>
+      <c r="Q516" s="0" t="s">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>4733</v>
+      </c>
+      <c r="D517" s="0" t="s">
+        <v>4734</v>
+      </c>
+      <c r="E517" s="0" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F517" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G517" s="0" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H517" s="0" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I517" s="0" t="s">
+        <v>4735</v>
+      </c>
+      <c r="J517" s="0" t="s">
+        <v>4736</v>
+      </c>
+      <c r="K517" s="0" t="n">
+        <v>7732537999</v>
+      </c>
+      <c r="L517" s="0" t="s">
+        <v>4737</v>
+      </c>
+      <c r="M517" s="0" t="s">
+        <v>4738</v>
+      </c>
+      <c r="N517" s="0" t="n">
+        <v>7730258414</v>
+      </c>
+      <c r="O517" s="0" t="s">
+        <v>4739</v>
+      </c>
+      <c r="P517" s="0" t="s">
+        <v>4740</v>
+      </c>
+      <c r="Q517" s="0" t="s">
+        <v>4741</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6067" uniqueCount="4742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6187" uniqueCount="4824">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -14247,6 +14247,252 @@
   </si>
   <si>
     <t xml:space="preserve">Alliance.trade21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770213206421000336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27702132064 21 000336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 802 081,52 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЮЛДАШЕВ ТИМУР ШУХРАТОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЮЛДАШЕВ ТИМУР ШУХРАТОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г ЛЮБЕРЦЫ, РАБОЧИЙ ПО ОКТЯБРЬСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipyoldashev_goszacaz@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770779516021000176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17707795160 21 000176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 761 899,94 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.03.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БЕСТ-СТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БЕСТ-СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "БЕСТ-СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129090, Г МОСКВА 77, УЛ БОЛЬШАЯ СПАССКАЯ, ДОМ 29, ЭТ 4 КОМ Б ОФ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-909-6893878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best-stroy67@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771544147921000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27715441479 21 000028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 478 783,23 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭНЕРГОСЕРВИС" (ООО "ЭНЕРГОСЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭНЕРГОСЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">433505, ОБЛ УЛЬЯНОВСКАЯ 73, Г ДИМИТРОВГРАД, УЛ ОКТЯБРЬСКАЯ, ДОМ 76А, ОФИС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (927) 815-88-97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energo73dd@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1504206041021000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15042060410 21 000136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538 006,33 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ЛАБОРАТОРНОГО АНАЛИЗА И ТЕХНИЧЕСКИХ ИЗМЕРЕНИЙ ПО ЦЕНТРАЛЬНОМУ ФЕДЕРАЛЬНОМУ ОКРУГУ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "ЦЛАТИ ПО ЦФО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЕВРОПОЛИТЕСТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЕВРОПОЛИТЕСТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЕВРОПОЛИТЕСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129085, Г МОСКВА 77, ПР-КТ МИРА, ДОМ 81, ЭТАЖ 1 ПОМ XIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-5001428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruropolitest@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503615499821000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25036154998 21 000015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 812 217,44 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">БЕРЕЗОВСКАЯ ВЕРА ПАВЛОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП БЕРЕЗОВСКАЯ ВЕРА ПАВЛОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ. МОСКОВСКАЯ 50, Г. ЖУКОВСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-968-4183970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vera-zakupki@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503405135521000137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35034051355 21 000137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">976 215,31 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.11.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ОРЕХОВО-ЗУЕВСКИЙ КОМБИНАТ БЛАГОУСТРОЙСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "О/З КБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АРУТЮНЯН ГРЕТА ГАМЛЕТОВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АРУТЮНЯН ГРЕТА ГАМЛЕТОВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Область Московская 50, Город Котельники</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-3292212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karganyan_greta@inbox.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502200139921000105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35022001399 21 000105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 453 445,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.07.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "КОЛОМЕНСКАЯ ЦЕНТРАЛЬНАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУЗ МО "КЦРБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКИМОВ СТАНИСЛАВ АЛЕКСАНДРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АКИМОВ СТАНИСЛАВ АЛЕКСАНДРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г ШАТУРА, С ДМИТРОВСКИЙ ПОГОСТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-965-2469966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akimov.stanislav@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770540134021004874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705401340 21 004874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302 492,10 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПОГОДИН ДМИТРИЙ НИКОЛАЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ПОГОДИН ДМИТРИЙ НИКОЛАЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Г. САНКТ-ПЕТЕРБУРГ 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-4183456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yborka21@bk.ru</t>
   </si>
 </sst>
 </file>
@@ -14425,10 +14671,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q517"/>
+  <dimension ref="A1:Q527"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A470" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A506" activeCellId="0" sqref="506:506"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A488" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A522" activeCellId="0" sqref="A522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39349,586 +39595,1020 @@
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="0" t="s">
+      <c r="A507" s="7" t="s">
         <v>4628</v>
       </c>
-      <c r="B507" s="0" t="s">
+      <c r="B507" s="7" t="s">
         <v>4629</v>
       </c>
-      <c r="C507" s="0" t="s">
+      <c r="C507" s="7" t="s">
         <v>4630</v>
       </c>
-      <c r="D507" s="0" t="s">
+      <c r="D507" s="7" t="s">
         <v>4631</v>
       </c>
-      <c r="E507" s="0" t="s">
+      <c r="E507" s="7" t="s">
         <v>3085</v>
       </c>
-      <c r="F507" s="0" t="s">
+      <c r="F507" s="7" t="s">
         <v>4632</v>
       </c>
-      <c r="G507" s="0" t="s">
+      <c r="G507" s="7" t="s">
         <v>1932</v>
       </c>
-      <c r="H507" s="0" t="s">
+      <c r="H507" s="7" t="s">
         <v>1932</v>
       </c>
-      <c r="I507" s="0" t="s">
+      <c r="I507" s="7" t="s">
         <v>4633</v>
       </c>
-      <c r="J507" s="0" t="s">
+      <c r="J507" s="7" t="s">
         <v>4634</v>
       </c>
-      <c r="K507" s="0" t="n">
+      <c r="K507" s="7" t="n">
         <v>5003062727</v>
       </c>
-      <c r="L507" s="0" t="s">
+      <c r="L507" s="7" t="s">
         <v>4635</v>
       </c>
-      <c r="M507" s="0" t="s">
+      <c r="M507" s="7" t="s">
         <v>3972</v>
       </c>
-      <c r="N507" s="0" t="n">
+      <c r="N507" s="7" t="n">
         <v>9703034881</v>
       </c>
-      <c r="O507" s="0" t="s">
+      <c r="O507" s="7" t="s">
         <v>3973</v>
       </c>
-      <c r="P507" s="0" t="s">
+      <c r="P507" s="7" t="s">
         <v>4636</v>
       </c>
-      <c r="Q507" s="0" t="s">
+      <c r="Q507" s="7" t="s">
         <v>4637</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="0" t="s">
+      <c r="A508" s="7" t="s">
         <v>4638</v>
       </c>
-      <c r="B508" s="0" t="s">
+      <c r="B508" s="7" t="s">
         <v>4639</v>
       </c>
-      <c r="C508" s="0" t="s">
+      <c r="C508" s="7" t="s">
         <v>4640</v>
       </c>
-      <c r="D508" s="0" t="s">
+      <c r="D508" s="7" t="s">
         <v>4641</v>
       </c>
-      <c r="E508" s="0" t="s">
+      <c r="E508" s="7" t="s">
         <v>3906</v>
       </c>
-      <c r="F508" s="0" t="s">
+      <c r="F508" s="7" t="s">
         <v>4642</v>
       </c>
-      <c r="G508" s="0" t="s">
+      <c r="G508" s="7" t="s">
         <v>2852</v>
       </c>
-      <c r="H508" s="0" t="s">
+      <c r="H508" s="7" t="s">
         <v>3366</v>
       </c>
-      <c r="I508" s="0" t="s">
+      <c r="I508" s="7" t="s">
         <v>4643</v>
       </c>
-      <c r="J508" s="0" t="s">
+      <c r="J508" s="7" t="s">
         <v>4644</v>
       </c>
-      <c r="K508" s="0" t="n">
+      <c r="K508" s="7" t="n">
         <v>7704012037</v>
       </c>
-      <c r="L508" s="0" t="s">
+      <c r="L508" s="7" t="s">
         <v>4645</v>
       </c>
-      <c r="M508" s="0" t="s">
+      <c r="M508" s="7" t="s">
         <v>4646</v>
       </c>
-      <c r="N508" s="0" t="n">
+      <c r="N508" s="7" t="n">
         <v>7714471801</v>
       </c>
-      <c r="O508" s="0" t="s">
+      <c r="O508" s="7" t="s">
         <v>4647</v>
       </c>
-      <c r="P508" s="0" t="s">
+      <c r="P508" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="Q508" s="0" t="s">
+      <c r="Q508" s="7" t="s">
         <v>4648</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="0" t="s">
+      <c r="A509" s="7" t="s">
         <v>4649</v>
       </c>
-      <c r="B509" s="0" t="s">
+      <c r="B509" s="7" t="s">
         <v>4650</v>
       </c>
-      <c r="C509" s="0" t="s">
+      <c r="C509" s="7" t="s">
         <v>4651</v>
       </c>
-      <c r="D509" s="0" t="s">
+      <c r="D509" s="7" t="s">
         <v>4652</v>
       </c>
-      <c r="E509" s="0" t="s">
+      <c r="E509" s="7" t="s">
         <v>4653</v>
       </c>
-      <c r="F509" s="0" t="s">
+      <c r="F509" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G509" s="0" t="s">
+      <c r="G509" s="7" t="s">
         <v>4654</v>
       </c>
-      <c r="H509" s="0" t="s">
+      <c r="H509" s="7" t="s">
         <v>3203</v>
       </c>
-      <c r="I509" s="0" t="s">
+      <c r="I509" s="7" t="s">
         <v>4655</v>
       </c>
-      <c r="J509" s="0" t="s">
+      <c r="J509" s="7" t="s">
         <v>4656</v>
       </c>
-      <c r="K509" s="0" t="n">
+      <c r="K509" s="7" t="n">
         <v>5030090000</v>
       </c>
-      <c r="L509" s="0" t="s">
+      <c r="L509" s="7" t="s">
         <v>4657</v>
       </c>
-      <c r="M509" s="0" t="s">
+      <c r="M509" s="7" t="s">
         <v>4658</v>
       </c>
-      <c r="N509" s="0" t="n">
+      <c r="N509" s="7" t="n">
         <v>7705558982</v>
       </c>
-      <c r="O509" s="0" t="s">
+      <c r="O509" s="7" t="s">
         <v>4659</v>
       </c>
-      <c r="P509" s="0" t="s">
+      <c r="P509" s="7" t="s">
         <v>4511</v>
       </c>
-      <c r="Q509" s="0" t="s">
+      <c r="Q509" s="7" t="s">
         <v>4660</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="0" t="s">
+      <c r="A510" s="7" t="s">
         <v>4661</v>
       </c>
-      <c r="B510" s="0" t="s">
+      <c r="B510" s="7" t="s">
         <v>4662</v>
       </c>
-      <c r="C510" s="0" t="s">
+      <c r="C510" s="7" t="s">
         <v>4663</v>
       </c>
-      <c r="D510" s="0" t="s">
+      <c r="D510" s="7" t="s">
         <v>4664</v>
       </c>
-      <c r="E510" s="0" t="s">
+      <c r="E510" s="7" t="s">
         <v>3085</v>
       </c>
-      <c r="F510" s="0" t="s">
+      <c r="F510" s="7" t="s">
         <v>2173</v>
       </c>
-      <c r="G510" s="0" t="s">
+      <c r="G510" s="7" t="s">
         <v>1923</v>
       </c>
-      <c r="H510" s="0" t="s">
+      <c r="H510" s="7" t="s">
         <v>1933</v>
       </c>
-      <c r="I510" s="0" t="s">
+      <c r="I510" s="7" t="s">
         <v>4665</v>
       </c>
-      <c r="J510" s="0" t="s">
+      <c r="J510" s="7" t="s">
         <v>4666</v>
       </c>
-      <c r="K510" s="0" t="n">
+      <c r="K510" s="7" t="n">
         <v>5028023582</v>
       </c>
-      <c r="L510" s="0" t="s">
+      <c r="L510" s="7" t="s">
         <v>4667</v>
       </c>
-      <c r="M510" s="0" t="s">
+      <c r="M510" s="7" t="s">
         <v>4668</v>
       </c>
-      <c r="N510" s="0" t="n">
+      <c r="N510" s="7" t="n">
         <v>7733657801</v>
       </c>
-      <c r="O510" s="0" t="s">
+      <c r="O510" s="7" t="s">
         <v>4669</v>
       </c>
-      <c r="P510" s="0" t="n">
+      <c r="P510" s="7" t="n">
         <v>84955148835</v>
       </c>
-      <c r="Q510" s="0" t="s">
+      <c r="Q510" s="7" t="s">
         <v>4670</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="0" t="s">
+      <c r="A511" s="7" t="s">
         <v>4671</v>
       </c>
-      <c r="B511" s="0" t="s">
+      <c r="B511" s="7" t="s">
         <v>4672</v>
       </c>
-      <c r="C511" s="0" t="s">
+      <c r="C511" s="7" t="s">
         <v>4673</v>
       </c>
-      <c r="D511" s="0" t="s">
+      <c r="D511" s="7" t="s">
         <v>4674</v>
       </c>
-      <c r="E511" s="0" t="s">
+      <c r="E511" s="7" t="s">
         <v>3305</v>
       </c>
-      <c r="F511" s="0" t="s">
+      <c r="F511" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G511" s="0" t="s">
+      <c r="G511" s="7" t="s">
         <v>3512</v>
       </c>
-      <c r="H511" s="0" t="s">
+      <c r="H511" s="7" t="s">
         <v>3305</v>
       </c>
-      <c r="I511" s="0" t="s">
+      <c r="I511" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="J511" s="0" t="s">
+      <c r="J511" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="K511" s="0" t="n">
+      <c r="K511" s="7" t="n">
         <v>5038008142</v>
       </c>
-      <c r="L511" s="0" t="s">
+      <c r="L511" s="7" t="s">
         <v>4675</v>
       </c>
-      <c r="M511" s="0" t="s">
+      <c r="M511" s="7" t="s">
         <v>4676</v>
       </c>
-      <c r="N511" s="0" t="n">
+      <c r="N511" s="7" t="n">
         <v>2465275001</v>
       </c>
-      <c r="O511" s="0" t="s">
+      <c r="O511" s="7" t="s">
         <v>4677</v>
       </c>
-      <c r="P511" s="0" t="s">
+      <c r="P511" s="7" t="s">
         <v>4678</v>
       </c>
-      <c r="Q511" s="0" t="s">
+      <c r="Q511" s="7" t="s">
         <v>4679</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="0" t="s">
+      <c r="A512" s="7" t="s">
         <v>4680</v>
       </c>
-      <c r="B512" s="0" t="s">
+      <c r="B512" s="7" t="s">
         <v>4681</v>
       </c>
-      <c r="C512" s="0" t="s">
+      <c r="C512" s="7" t="s">
         <v>4682</v>
       </c>
-      <c r="D512" s="0" t="s">
+      <c r="D512" s="7" t="s">
         <v>4683</v>
       </c>
-      <c r="E512" s="0" t="s">
+      <c r="E512" s="7" t="s">
         <v>2936</v>
       </c>
-      <c r="F512" s="0" t="s">
+      <c r="F512" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G512" s="0" t="s">
+      <c r="G512" s="7" t="s">
         <v>3398</v>
       </c>
-      <c r="H512" s="0" t="s">
+      <c r="H512" s="7" t="s">
         <v>2936</v>
       </c>
-      <c r="I512" s="0" t="s">
+      <c r="I512" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="J512" s="0" t="s">
+      <c r="J512" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="K512" s="0" t="n">
+      <c r="K512" s="7" t="n">
         <v>5038008142</v>
       </c>
-      <c r="L512" s="0" t="s">
+      <c r="L512" s="7" t="s">
         <v>4684</v>
       </c>
-      <c r="M512" s="0" t="s">
+      <c r="M512" s="7" t="s">
         <v>4685</v>
       </c>
-      <c r="N512" s="0" t="n">
+      <c r="N512" s="7" t="n">
         <v>222200909050</v>
       </c>
-      <c r="O512" s="0" t="s">
+      <c r="O512" s="7" t="s">
         <v>4686</v>
       </c>
-      <c r="P512" s="0" t="s">
+      <c r="P512" s="7" t="s">
         <v>4687</v>
       </c>
-      <c r="Q512" s="0" t="s">
+      <c r="Q512" s="7" t="s">
         <v>4688</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="0" t="s">
+      <c r="A513" s="7" t="s">
         <v>4689</v>
       </c>
-      <c r="B513" s="0" t="s">
+      <c r="B513" s="7" t="s">
         <v>4690</v>
       </c>
-      <c r="C513" s="0" t="s">
+      <c r="C513" s="7" t="s">
         <v>4691</v>
       </c>
-      <c r="D513" s="0" t="s">
+      <c r="D513" s="7" t="s">
         <v>4692</v>
       </c>
-      <c r="E513" s="0" t="s">
+      <c r="E513" s="7" t="s">
         <v>2154</v>
       </c>
-      <c r="F513" s="0" t="s">
+      <c r="F513" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G513" s="0" t="s">
+      <c r="G513" s="7" t="s">
         <v>2985</v>
       </c>
-      <c r="H513" s="0" t="s">
+      <c r="H513" s="7" t="s">
         <v>2985</v>
       </c>
-      <c r="I513" s="0" t="s">
+      <c r="I513" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="J513" s="0" t="s">
+      <c r="J513" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="K513" s="0" t="n">
+      <c r="K513" s="7" t="n">
         <v>5038008142</v>
       </c>
-      <c r="L513" s="0" t="s">
+      <c r="L513" s="7" t="s">
         <v>4693</v>
       </c>
-      <c r="M513" s="0" t="s">
+      <c r="M513" s="7" t="s">
         <v>4694</v>
       </c>
-      <c r="N513" s="0" t="n">
+      <c r="N513" s="7" t="n">
         <v>5001020016</v>
       </c>
-      <c r="O513" s="0" t="s">
+      <c r="O513" s="7" t="s">
         <v>4695</v>
       </c>
-      <c r="P513" s="0" t="s">
+      <c r="P513" s="7" t="s">
         <v>4696</v>
       </c>
-      <c r="Q513" s="0" t="s">
+      <c r="Q513" s="7" t="s">
         <v>4697</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="0" t="s">
+      <c r="A514" s="7" t="s">
         <v>4698</v>
       </c>
-      <c r="B514" s="0" t="s">
+      <c r="B514" s="7" t="s">
         <v>4699</v>
       </c>
-      <c r="C514" s="0" t="s">
+      <c r="C514" s="7" t="s">
         <v>4700</v>
       </c>
-      <c r="D514" s="0" t="s">
+      <c r="D514" s="7" t="s">
         <v>4701</v>
       </c>
-      <c r="E514" s="0" t="s">
+      <c r="E514" s="7" t="s">
         <v>2085</v>
       </c>
-      <c r="F514" s="0" t="s">
+      <c r="F514" s="7" t="s">
         <v>2342</v>
       </c>
-      <c r="G514" s="0" t="s">
+      <c r="G514" s="7" t="s">
         <v>2052</v>
       </c>
-      <c r="H514" s="0" t="s">
+      <c r="H514" s="7" t="s">
         <v>3366</v>
       </c>
-      <c r="I514" s="0" t="s">
+      <c r="I514" s="7" t="s">
         <v>2025</v>
       </c>
-      <c r="J514" s="0" t="s">
+      <c r="J514" s="7" t="s">
         <v>2026</v>
       </c>
-      <c r="K514" s="0" t="n">
+      <c r="K514" s="7" t="n">
         <v>7704076129</v>
       </c>
-      <c r="L514" s="0" t="s">
+      <c r="L514" s="7" t="s">
         <v>4702</v>
       </c>
-      <c r="M514" s="0" t="s">
+      <c r="M514" s="7" t="s">
         <v>4703</v>
       </c>
-      <c r="N514" s="0" t="n">
+      <c r="N514" s="7" t="n">
         <v>5752081534</v>
       </c>
-      <c r="O514" s="0" t="s">
+      <c r="O514" s="7" t="s">
         <v>4704</v>
       </c>
-      <c r="P514" s="0" t="s">
+      <c r="P514" s="7" t="s">
         <v>4705</v>
       </c>
-      <c r="Q514" s="0" t="s">
+      <c r="Q514" s="7" t="s">
         <v>4706</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="0" t="s">
+      <c r="A515" s="7" t="s">
         <v>4707</v>
       </c>
-      <c r="B515" s="0" t="s">
+      <c r="B515" s="7" t="s">
         <v>4708</v>
       </c>
-      <c r="C515" s="0" t="s">
+      <c r="C515" s="7" t="s">
         <v>4709</v>
       </c>
-      <c r="D515" s="0" t="s">
+      <c r="D515" s="7" t="s">
         <v>4710</v>
       </c>
-      <c r="E515" s="0" t="s">
+      <c r="E515" s="7" t="s">
         <v>2593</v>
       </c>
-      <c r="F515" s="0" t="s">
+      <c r="F515" s="7" t="s">
         <v>4711</v>
       </c>
-      <c r="G515" s="0" t="s">
+      <c r="G515" s="7" t="s">
         <v>2593</v>
       </c>
-      <c r="H515" s="0" t="s">
+      <c r="H515" s="7" t="s">
         <v>3366</v>
       </c>
-      <c r="I515" s="0" t="s">
+      <c r="I515" s="7" t="s">
         <v>4712</v>
       </c>
-      <c r="J515" s="0" t="s">
+      <c r="J515" s="7" t="s">
         <v>4713</v>
       </c>
-      <c r="K515" s="0" t="n">
+      <c r="K515" s="7" t="n">
         <v>7727177370</v>
       </c>
-      <c r="L515" s="0" t="s">
+      <c r="L515" s="7" t="s">
         <v>4714</v>
       </c>
-      <c r="M515" s="0" t="s">
+      <c r="M515" s="7" t="s">
         <v>4715</v>
       </c>
-      <c r="N515" s="0" t="n">
+      <c r="N515" s="7" t="n">
         <v>592105596040</v>
       </c>
-      <c r="O515" s="0" t="s">
+      <c r="O515" s="7" t="s">
         <v>4716</v>
       </c>
-      <c r="P515" s="0" t="s">
+      <c r="P515" s="7" t="s">
         <v>4717</v>
       </c>
-      <c r="Q515" s="0" t="s">
+      <c r="Q515" s="7" t="s">
         <v>4718</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="0" t="s">
+      <c r="A516" s="7" t="s">
         <v>4719</v>
       </c>
-      <c r="B516" s="0" t="s">
+      <c r="B516" s="7" t="s">
         <v>4720</v>
       </c>
-      <c r="C516" s="0" t="s">
+      <c r="C516" s="7" t="s">
         <v>4721</v>
       </c>
-      <c r="D516" s="0" t="s">
+      <c r="D516" s="7" t="s">
         <v>4722</v>
       </c>
-      <c r="E516" s="0" t="s">
+      <c r="E516" s="7" t="s">
         <v>3398</v>
       </c>
-      <c r="F516" s="0" t="s">
+      <c r="F516" s="7" t="s">
         <v>4723</v>
       </c>
-      <c r="G516" s="0" t="s">
+      <c r="G516" s="7" t="s">
         <v>3512</v>
       </c>
-      <c r="H516" s="0" t="s">
+      <c r="H516" s="7" t="s">
         <v>3398</v>
       </c>
-      <c r="I516" s="0" t="s">
+      <c r="I516" s="7" t="s">
         <v>4724</v>
       </c>
-      <c r="J516" s="0" t="s">
+      <c r="J516" s="7" t="s">
         <v>4725</v>
       </c>
-      <c r="K516" s="0" t="n">
+      <c r="K516" s="7" t="n">
         <v>7701891083</v>
       </c>
-      <c r="L516" s="0" t="s">
+      <c r="L516" s="7" t="s">
         <v>4726</v>
       </c>
-      <c r="M516" s="0" t="s">
+      <c r="M516" s="7" t="s">
         <v>4727</v>
       </c>
-      <c r="N516" s="0" t="n">
+      <c r="N516" s="7" t="n">
         <v>2366022987</v>
       </c>
-      <c r="O516" s="0" t="s">
+      <c r="O516" s="7" t="s">
         <v>4728</v>
       </c>
-      <c r="P516" s="0" t="s">
+      <c r="P516" s="7" t="s">
         <v>4729</v>
       </c>
-      <c r="Q516" s="0" t="s">
+      <c r="Q516" s="7" t="s">
         <v>4730</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="0" t="s">
+      <c r="A517" s="7" t="s">
         <v>4731</v>
       </c>
-      <c r="B517" s="0" t="s">
+      <c r="B517" s="7" t="s">
         <v>4732</v>
       </c>
-      <c r="C517" s="0" t="s">
+      <c r="C517" s="7" t="s">
         <v>4733</v>
       </c>
-      <c r="D517" s="0" t="s">
+      <c r="D517" s="7" t="s">
         <v>4734</v>
       </c>
-      <c r="E517" s="0" t="s">
+      <c r="E517" s="7" t="s">
         <v>1932</v>
       </c>
-      <c r="F517" s="0" t="s">
+      <c r="F517" s="7" t="s">
         <v>2173</v>
       </c>
-      <c r="G517" s="0" t="s">
+      <c r="G517" s="7" t="s">
         <v>2142</v>
       </c>
-      <c r="H517" s="0" t="s">
+      <c r="H517" s="7" t="s">
         <v>1923</v>
       </c>
-      <c r="I517" s="0" t="s">
+      <c r="I517" s="7" t="s">
         <v>4735</v>
       </c>
-      <c r="J517" s="0" t="s">
+      <c r="J517" s="7" t="s">
         <v>4736</v>
       </c>
-      <c r="K517" s="0" t="n">
+      <c r="K517" s="7" t="n">
         <v>7732537999</v>
       </c>
-      <c r="L517" s="0" t="s">
+      <c r="L517" s="7" t="s">
         <v>4737</v>
       </c>
-      <c r="M517" s="0" t="s">
+      <c r="M517" s="7" t="s">
         <v>4738</v>
       </c>
-      <c r="N517" s="0" t="n">
+      <c r="N517" s="7" t="n">
         <v>7730258414</v>
       </c>
-      <c r="O517" s="0" t="s">
+      <c r="O517" s="7" t="s">
         <v>4739</v>
       </c>
-      <c r="P517" s="0" t="s">
+      <c r="P517" s="7" t="s">
         <v>4740</v>
       </c>
-      <c r="Q517" s="0" t="s">
+      <c r="Q517" s="7" t="s">
         <v>4741</v>
+      </c>
+    </row>
+    <row r="518" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="6" t="n">
+        <v>13.01</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="7" t="s">
+        <v>4742</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>4743</v>
+      </c>
+      <c r="C519" s="7" t="s">
+        <v>4744</v>
+      </c>
+      <c r="D519" s="7" t="s">
+        <v>4745</v>
+      </c>
+      <c r="E519" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F519" s="7" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G519" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="H519" s="7" t="s">
+        <v>4746</v>
+      </c>
+      <c r="I519" s="7" t="s">
+        <v>2343</v>
+      </c>
+      <c r="J519" s="7" t="s">
+        <v>2344</v>
+      </c>
+      <c r="K519" s="7" t="n">
+        <v>7702132064</v>
+      </c>
+      <c r="L519" s="7" t="s">
+        <v>4747</v>
+      </c>
+      <c r="M519" s="7" t="s">
+        <v>4748</v>
+      </c>
+      <c r="N519" s="7" t="n">
+        <v>482307061908</v>
+      </c>
+      <c r="O519" s="7" t="s">
+        <v>4749</v>
+      </c>
+      <c r="P519" s="7" t="s">
+        <v>4705</v>
+      </c>
+      <c r="Q519" s="7" t="s">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="7" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B520" s="7" t="s">
+        <v>4752</v>
+      </c>
+      <c r="C520" s="7" t="s">
+        <v>4753</v>
+      </c>
+      <c r="D520" s="7" t="s">
+        <v>4754</v>
+      </c>
+      <c r="E520" s="7" t="s">
+        <v>1933</v>
+      </c>
+      <c r="F520" s="7" t="s">
+        <v>4755</v>
+      </c>
+      <c r="G520" s="7" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H520" s="7" t="s">
+        <v>3512</v>
+      </c>
+      <c r="I520" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="J520" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="K520" s="7" t="n">
+        <v>7707795160</v>
+      </c>
+      <c r="L520" s="7" t="s">
+        <v>4756</v>
+      </c>
+      <c r="M520" s="7" t="s">
+        <v>4757</v>
+      </c>
+      <c r="N520" s="7" t="n">
+        <v>7708370330</v>
+      </c>
+      <c r="O520" s="7" t="s">
+        <v>4758</v>
+      </c>
+      <c r="P520" s="7" t="s">
+        <v>4759</v>
+      </c>
+      <c r="Q520" s="7" t="s">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="521" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="6" t="n">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="0" t="s">
+        <v>4761</v>
+      </c>
+      <c r="B522" s="0" t="s">
+        <v>4762</v>
+      </c>
+      <c r="C522" s="0" t="s">
+        <v>4763</v>
+      </c>
+      <c r="D522" s="0" t="s">
+        <v>4764</v>
+      </c>
+      <c r="E522" s="0" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F522" s="0" t="s">
+        <v>2473</v>
+      </c>
+      <c r="G522" s="0" t="s">
+        <v>2297</v>
+      </c>
+      <c r="H522" s="0" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I522" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J522" s="0" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K522" s="0" t="n">
+        <v>7715441479</v>
+      </c>
+      <c r="L522" s="0" t="s">
+        <v>4765</v>
+      </c>
+      <c r="M522" s="0" t="s">
+        <v>4766</v>
+      </c>
+      <c r="N522" s="0" t="n">
+        <v>7329034662</v>
+      </c>
+      <c r="O522" s="0" t="s">
+        <v>4767</v>
+      </c>
+      <c r="P522" s="0" t="s">
+        <v>4768</v>
+      </c>
+      <c r="Q522" s="0" t="s">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>4770</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>4771</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>4772</v>
+      </c>
+      <c r="D523" s="0" t="s">
+        <v>4773</v>
+      </c>
+      <c r="E523" s="0" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F523" s="0" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G523" s="0" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H523" s="0" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I523" s="0" t="s">
+        <v>4774</v>
+      </c>
+      <c r="J523" s="0" t="s">
+        <v>4775</v>
+      </c>
+      <c r="K523" s="0" t="n">
+        <v>5042060410</v>
+      </c>
+      <c r="L523" s="0" t="s">
+        <v>4776</v>
+      </c>
+      <c r="M523" s="0" t="s">
+        <v>4777</v>
+      </c>
+      <c r="N523" s="0" t="n">
+        <v>7704738358</v>
+      </c>
+      <c r="O523" s="0" t="s">
+        <v>4778</v>
+      </c>
+      <c r="P523" s="0" t="s">
+        <v>4779</v>
+      </c>
+      <c r="Q523" s="0" t="s">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B524" s="0" t="s">
+        <v>4782</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>4783</v>
+      </c>
+      <c r="D524" s="0" t="s">
+        <v>4784</v>
+      </c>
+      <c r="E524" s="0" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F524" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G524" s="0" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H524" s="0" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I524" s="0" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J524" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K524" s="0" t="n">
+        <v>5036154998</v>
+      </c>
+      <c r="L524" s="0" t="s">
+        <v>4785</v>
+      </c>
+      <c r="M524" s="0" t="s">
+        <v>4786</v>
+      </c>
+      <c r="N524" s="0" t="n">
+        <v>343102263008</v>
+      </c>
+      <c r="O524" s="0" t="s">
+        <v>4787</v>
+      </c>
+      <c r="P524" s="0" t="s">
+        <v>4788</v>
+      </c>
+      <c r="Q524" s="0" t="s">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B525" s="0" t="s">
+        <v>4791</v>
+      </c>
+      <c r="C525" s="0" t="s">
+        <v>4792</v>
+      </c>
+      <c r="D525" s="0" t="s">
+        <v>4793</v>
+      </c>
+      <c r="E525" s="0" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F525" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G525" s="0" t="s">
+        <v>4794</v>
+      </c>
+      <c r="H525" s="0" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I525" s="0" t="s">
+        <v>4795</v>
+      </c>
+      <c r="J525" s="0" t="s">
+        <v>4796</v>
+      </c>
+      <c r="K525" s="0" t="n">
+        <v>5034051355</v>
+      </c>
+      <c r="L525" s="0" t="s">
+        <v>4797</v>
+      </c>
+      <c r="M525" s="0" t="s">
+        <v>4798</v>
+      </c>
+      <c r="N525" s="0" t="n">
+        <v>502728665103</v>
+      </c>
+      <c r="O525" s="0" t="s">
+        <v>4799</v>
+      </c>
+      <c r="P525" s="0" t="s">
+        <v>4800</v>
+      </c>
+      <c r="Q525" s="0" t="s">
+        <v>4801</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="s">
+        <v>4802</v>
+      </c>
+      <c r="B526" s="0" t="s">
+        <v>4803</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>4804</v>
+      </c>
+      <c r="D526" s="0" t="s">
+        <v>4805</v>
+      </c>
+      <c r="E526" s="0" t="s">
+        <v>4806</v>
+      </c>
+      <c r="F526" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G526" s="0" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H526" s="0" t="s">
+        <v>4807</v>
+      </c>
+      <c r="I526" s="0" t="s">
+        <v>4808</v>
+      </c>
+      <c r="J526" s="0" t="s">
+        <v>4809</v>
+      </c>
+      <c r="K526" s="0" t="n">
+        <v>5022001399</v>
+      </c>
+      <c r="L526" s="0" t="s">
+        <v>4810</v>
+      </c>
+      <c r="M526" s="0" t="s">
+        <v>4811</v>
+      </c>
+      <c r="N526" s="0" t="n">
+        <v>504909858076</v>
+      </c>
+      <c r="O526" s="0" t="s">
+        <v>4812</v>
+      </c>
+      <c r="P526" s="0" t="s">
+        <v>4813</v>
+      </c>
+      <c r="Q526" s="0" t="s">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="s">
+        <v>4815</v>
+      </c>
+      <c r="B527" s="0" t="s">
+        <v>4816</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>4817</v>
+      </c>
+      <c r="D527" s="0" t="s">
+        <v>4818</v>
+      </c>
+      <c r="E527" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F527" s="0" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G527" s="0" t="s">
+        <v>3512</v>
+      </c>
+      <c r="H527" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="I527" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="J527" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="K527" s="0" t="n">
+        <v>7705401340</v>
+      </c>
+      <c r="L527" s="0" t="s">
+        <v>4819</v>
+      </c>
+      <c r="M527" s="0" t="s">
+        <v>4820</v>
+      </c>
+      <c r="N527" s="0" t="n">
+        <v>510205289880</v>
+      </c>
+      <c r="O527" s="0" t="s">
+        <v>4821</v>
+      </c>
+      <c r="P527" s="0" t="s">
+        <v>4822</v>
+      </c>
+      <c r="Q527" s="0" t="s">
+        <v>4823</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6187" uniqueCount="4824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6442" uniqueCount="5004">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -14493,6 +14493,546 @@
   </si>
   <si>
     <t xml:space="preserve">yborka21@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773422302821000442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734223028 21 000442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 225,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АКСЕНОВ АРТЁМ МИХАЙЛОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП АКСЕНОВ АРТЁМ МИХАЙЛОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-111-1111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info_aksenov@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3503221096221000033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35032210962 21 000033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 810 400,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЖИЛИЩНО-КОММУНАЛЬНОЕ ХОЗЯЙСТВО БАРВИХИНСКОЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ЖКХ БАРВИХИНСКОЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТРОЙКОМПЛЕКТ" (ООО "СТРОЙКОМПЛЕКТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТРОЙКОМПЛЕКТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115522, Г. МОСКВА 77, ПР-КТ ПРОЛЕТАРСКИЙ, Д. 17, К. 1, ЭТАЖ/ПОМЕЩ 1/II КОМ./ОФИС 2/Б8Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-1591366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mecha07@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773458113622000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734581136 22 000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33 416 349,30 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "МЕТТЭМ-БЕЗОПАСНОСТЬ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "МЕТТЭМ-БЕЗОПАСНОСТЬ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "МЕТТЭМ-БЕЗОПАСНОСТЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143915, ОБЛ МОСКОВСКАЯ 50, Г БАЛАШИХА, УЛ ЗАРЕЧНАЯ, ДОМ 25, ПОМ. III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-495-5091766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ozdon2008@rambler.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770540134021004351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705401340 21 004351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118 500,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "БАСТИОН+" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "БАСТИОН+")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "БАСТИОН+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142900, ОБЛ МОСКОВСКАЯ 50, Г КАШИРА, УЛ ГОРЬКОГО, ДОМ 22, ОФИС 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-499-1307315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500100024221000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001000242 21 000034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 472 268,20 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "ВСЕРОССИЙСКИЙ ОРДЕНА "ЗНАК ПОЧЕТА" НАУЧНО-ИССЛЕДОВАТЕЛЬСКИЙ ИНСТИТУТ ПРОТИВОПОЖАРНОЙ ОБОРОНЫ МИНИСТЕРСТВА РОССИЙСКОЙ ФЕДЕРАЦИИ ПО ДЕЛАМ ГРАЖДАНСКОЙ ОБОРОНЫ, ЧРЕЗВЫЧАЙНЫМ СИТУАЦИЯМ И ЛИКВИДАЦИИ ПОСЛЕДСТВИЙ СТИХИЙНЫХ БЕДСТВИЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ ВНИИПО МЧС РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ СПЕЦИАЛИЗИРОВАННОЕ ПРЕДПРИЯТИЕ "ИНТЕРЛИФТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ СПЕЦИАЛИЗИРОВАННОЕ ПРЕДПРИЯТИЕ "ИНТЕРЛИФТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО СПЕЦИАЛИЗИРОВАННОЕ ПРЕДПРИЯТИЕ "ИНТЕРЛИФТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107023, Г. МОСКВА 77, УЛ. МАЛАЯ СЕМЁНОВСКАЯ, Д. 1, СТР. 1, ЭТАЖ 1 ПОМЕЩ. 118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-6444615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail@interlift.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771810368621000045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17718103686 21 000045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">433 141,17 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ НАУЧНОЕ УЧРЕЖДЕНИЕ "ЦЕНТРАЛЬНЫЙ НАУЧНО-ИССЛЕДОВАТЕЛЬСКИЙ ИНСТИТУТ ТУБЕРКУЛЕЗА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБНУ "ЦНИИТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТКВ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТКВ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТКВ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445039, ОБЛ САМАРСКАЯ 63, Г ТОЛЬЯТТИ, УЛ ВОРОШИЛОВА, ДОМ 43, КВАРТИРА 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-962-6022761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oootkv@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771678959721000076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27716789597 21 000076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 603 176,08 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ЖИЛИЩНИК ЛОСИНООСТРОВСКОГО РАЙОНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ "ЖИЛИЩНИК ЛОСИНООСТРОВСКОГО РАЙОНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОЛСТРОЙГРУПП" (ООО "ОЛСТРОЙГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ОЛСТРОЙГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125315, - МОСКВА 77, - ЛЕНИНГРАДСКИЙ, Д. 66, ПОДВ. ПОМЕЩ. XII КОМ./ОФИС 18/80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (905) 517-20-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t334567@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1540812849321000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15408128493 21 000100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56 798,46 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "АНАЛИТИЧЕСКИЙ ЦЕНТР МИНИСТЕРСТВА ПРОСВЕЩЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУ "АНАЛИТИЧЕСКИЙ ЦЕНТР МИНПРОСВЕЩЕНИЯ РОССИИ", АНАЛИТИЧЕСКИЙ ЦЕНТР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТОФЕЛЮК КИРИЛЛ ЮРЬЕВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ТОФЕЛЮК КИРИЛЛ ЮРЬЕВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г ЛЮБЕРЦЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-968-0272598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kirilltofelyuk@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1540812849321000085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15408128493 21 000085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКОСИТИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЭКОСИТИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЭКОСИТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115569, Г МОСКВА 77, Ш КАШИРСКОЕ, ДОМ 80, КОРПУС 1, Э 14 КВАРТИРА 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-2779959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farkom-servis@rambler.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=172902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500310412721000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003104127 21 000029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">437 100,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ПО РАБОТЕ С МОЛОДЕЖЬЮ "ЭНЕРГИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ ПО РАБОТЕ С МОЛОДЕЖЬЮ "ЭНЕРГИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТИХОНОВА ЛЮДМИЛА АНДРЕЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ТИХОНОВА ЛЮДМИЛА АНДРЕЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ. СВЕРДЛОВСКАЯ 66, Г. КАМЕНСК-УРАЛЬСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-904-1661999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lalatihonova@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770336386821000114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17703363868 21 000114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">777 777,77 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕРСАЛЬ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВЕРСАЛЬ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВЕРСАЛЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">628634, АО ХАНТЫ-МАНСИЙСКИЙ АВТОНОМНЫЙ ОКРУГ - ЮГРА 86, Р-Н НИЖНЕВАРТОВСКИЙ, ПГТ ИЗЛУЧИНСК, УЛ ТАЕЖНАЯ, ДОМ 3, КВАРТИРА 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7881415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooo-skversal@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772080714321000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27720807143 21 000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77 941,75 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ШКОЛА № 1852"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБОУ ШКОЛА № 1852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЮНА" (ООО "ЮНА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЮНА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180559, ОБЛ ПСКОВСКАЯ 60, Р-Н ПСКОВСКИЙ, Д БОРИСОВИЧИ, УЛ ВЕНСКАЯ, ДОМ 4, КВАРТИРА 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (926) 069-60-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iuliya-kulga@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771008136721000199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27710081367 21 000199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 720 560,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ ГОРОДА МОСКВЫ "МОСКОВСКИЙ АКАДЕМИЧЕСКИЙ МУЗЫКАЛЬНЫЙ ТЕАТР ИМЕНИ НАРОДНЫХ АРТИСТОВ К. С. СТАНИСЛАВСКОГО И ВЛ. И. НЕМИРОВИЧА-ДАНЧЕНКО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУК Г. МОСКВЫ "МАМТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧУЛКОВ ВЛАДИМИР ПЕТРОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП ЧУЛКОВ ВЛАДИМИР ПЕТРОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (964) 568-08-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chulkovwladimir@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772807387121000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17728073871 21 000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59 911,66 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ НАУКИ ИНСТИТУТ ВЫСШЕЙ НЕРВНОЙ ДЕЯТЕЛЬНОСТИ И НЕЙРОФИЗИОЛОГИИ РОССИЙСКОЙ АКАДЕМИИ НАУК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИВНД И НФ РАН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СВАРОЖИЧ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СВАРОЖИЧ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СВАРОЖИЧ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156000, ОБЛ КОСТРОМСКАЯ 44, Г КОСТРОМА, ПР-КТ МИРА, ДОМ 21, ОФИС 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-7960011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orgsvarojich@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2775150549521000069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27751505495 21 000069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 915 212,18 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ПО СОДЕРЖАНИЮ И РЕМОНТУ ДОРОГ МЕСТНОГО ЗНАЧЕНИЯ И БЛАГОУСТРОЙСТВУ ГОРОДСКОГО ОКРУГА "ДОРОЖНОЕ ХОЗЯЙСТВО И БЛАГОУСТРОЙСТВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "ДХБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АИР ИНВЕСТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АИР ИНВЕСТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АИР ИНВЕСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140004, ОБЛ МОСКОВСКАЯ 50, Г ЛЮБЕРЦЫ, П ВУГИ, ТЕРРИТОРИЯ АО "ЗАВОД "ЭКОМАШ", ЛИТЕРА  Б,Б1,Б2, ЭТ/ОФ 2/105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-977-9692673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in-bukhgalter@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773001799421000109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17730017994 21 000109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ "ЦЕНТРАЛЬНЫЙ МУЗЕЙ ВЕЛИКОЙ ОТЕЧЕСТВЕННОЙ ВОЙНЫ 1941-1945 ГГ."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУЗЕЙ ПОБЕДЫ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНОВАЛЕНКО ИРИНА АНДРЕЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КОНОВАЛЕНКО ИРИНА АНДРЕЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ. КУРСКАЯ 46, Г. КУРСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-931-0095754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakupki@gosproverka.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771101274321000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17711012743 21 000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">461 550,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "НАУЧНЫЙ ЦЕНТР ПРАВОВОЙ ИНФОРМАЦИИ ПРИ МИНИСТЕРСТВЕ ЮСТИЦИИ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФБУ НЦПИ ПРИ МИНЮСТЕ РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РУВС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РУВС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РУВС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440008, ОБЛ ПЕНЗЕНСКАЯ 58, Г ПЕНЗА, УЛ НЕКРАСОВА, 46А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-8412-202585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client@russiaws.ru</t>
   </si>
 </sst>
 </file>
@@ -14671,10 +15211,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q527"/>
+  <dimension ref="A1:Q546"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A488" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A522" activeCellId="0" sqref="A522"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A500" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A539" activeCellId="0" sqref="539:539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40294,321 +40834,1232 @@
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="0" t="s">
+      <c r="A522" s="7" t="s">
         <v>4761</v>
       </c>
-      <c r="B522" s="0" t="s">
+      <c r="B522" s="7" t="s">
         <v>4762</v>
       </c>
-      <c r="C522" s="0" t="s">
+      <c r="C522" s="7" t="s">
         <v>4763</v>
       </c>
-      <c r="D522" s="0" t="s">
+      <c r="D522" s="7" t="s">
         <v>4764</v>
       </c>
-      <c r="E522" s="0" t="s">
+      <c r="E522" s="7" t="s">
         <v>2142</v>
       </c>
-      <c r="F522" s="0" t="s">
+      <c r="F522" s="7" t="s">
         <v>2473</v>
       </c>
-      <c r="G522" s="0" t="s">
+      <c r="G522" s="7" t="s">
         <v>2297</v>
       </c>
-      <c r="H522" s="0" t="s">
+      <c r="H522" s="7" t="s">
         <v>2297</v>
       </c>
-      <c r="I522" s="0" t="s">
+      <c r="I522" s="7" t="s">
         <v>1438</v>
       </c>
-      <c r="J522" s="0" t="s">
+      <c r="J522" s="7" t="s">
         <v>1439</v>
       </c>
-      <c r="K522" s="0" t="n">
+      <c r="K522" s="7" t="n">
         <v>7715441479</v>
       </c>
-      <c r="L522" s="0" t="s">
+      <c r="L522" s="7" t="s">
         <v>4765</v>
       </c>
-      <c r="M522" s="0" t="s">
+      <c r="M522" s="7" t="s">
         <v>4766</v>
       </c>
-      <c r="N522" s="0" t="n">
+      <c r="N522" s="7" t="n">
         <v>7329034662</v>
       </c>
-      <c r="O522" s="0" t="s">
+      <c r="O522" s="7" t="s">
         <v>4767</v>
       </c>
-      <c r="P522" s="0" t="s">
+      <c r="P522" s="7" t="s">
         <v>4768</v>
       </c>
-      <c r="Q522" s="0" t="s">
+      <c r="Q522" s="7" t="s">
         <v>4769</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="0" t="s">
+      <c r="A523" s="7" t="s">
         <v>4770</v>
       </c>
-      <c r="B523" s="0" t="s">
+      <c r="B523" s="7" t="s">
         <v>4771</v>
       </c>
-      <c r="C523" s="0" t="s">
+      <c r="C523" s="7" t="s">
         <v>4772</v>
       </c>
-      <c r="D523" s="0" t="s">
+      <c r="D523" s="7" t="s">
         <v>4773</v>
       </c>
-      <c r="E523" s="0" t="s">
+      <c r="E523" s="7" t="s">
         <v>2606</v>
       </c>
-      <c r="F523" s="0" t="s">
+      <c r="F523" s="7" t="s">
         <v>3407</v>
       </c>
-      <c r="G523" s="0" t="s">
+      <c r="G523" s="7" t="s">
         <v>2498</v>
       </c>
-      <c r="H523" s="0" t="s">
+      <c r="H523" s="7" t="s">
         <v>2141</v>
       </c>
-      <c r="I523" s="0" t="s">
+      <c r="I523" s="7" t="s">
         <v>4774</v>
       </c>
-      <c r="J523" s="0" t="s">
+      <c r="J523" s="7" t="s">
         <v>4775</v>
       </c>
-      <c r="K523" s="0" t="n">
+      <c r="K523" s="7" t="n">
         <v>5042060410</v>
       </c>
-      <c r="L523" s="0" t="s">
+      <c r="L523" s="7" t="s">
         <v>4776</v>
       </c>
-      <c r="M523" s="0" t="s">
+      <c r="M523" s="7" t="s">
         <v>4777</v>
       </c>
-      <c r="N523" s="0" t="n">
+      <c r="N523" s="7" t="n">
         <v>7704738358</v>
       </c>
-      <c r="O523" s="0" t="s">
+      <c r="O523" s="7" t="s">
         <v>4778</v>
       </c>
-      <c r="P523" s="0" t="s">
+      <c r="P523" s="7" t="s">
         <v>4779</v>
       </c>
-      <c r="Q523" s="0" t="s">
+      <c r="Q523" s="7" t="s">
         <v>4780</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="0" t="s">
+      <c r="A524" s="7" t="s">
         <v>4781</v>
       </c>
-      <c r="B524" s="0" t="s">
+      <c r="B524" s="7" t="s">
         <v>4782</v>
       </c>
-      <c r="C524" s="0" t="s">
+      <c r="C524" s="7" t="s">
         <v>4783</v>
       </c>
-      <c r="D524" s="0" t="s">
+      <c r="D524" s="7" t="s">
         <v>4784</v>
       </c>
-      <c r="E524" s="0" t="s">
+      <c r="E524" s="7" t="s">
         <v>2172</v>
       </c>
-      <c r="F524" s="0" t="s">
+      <c r="F524" s="7" t="s">
         <v>2173</v>
       </c>
-      <c r="G524" s="0" t="s">
+      <c r="G524" s="7" t="s">
         <v>2618</v>
       </c>
-      <c r="H524" s="0" t="s">
+      <c r="H524" s="7" t="s">
         <v>2172</v>
       </c>
-      <c r="I524" s="0" t="s">
+      <c r="I524" s="7" t="s">
         <v>1573</v>
       </c>
-      <c r="J524" s="0" t="s">
+      <c r="J524" s="7" t="s">
         <v>1574</v>
       </c>
-      <c r="K524" s="0" t="n">
+      <c r="K524" s="7" t="n">
         <v>5036154998</v>
       </c>
-      <c r="L524" s="0" t="s">
+      <c r="L524" s="7" t="s">
         <v>4785</v>
       </c>
-      <c r="M524" s="0" t="s">
+      <c r="M524" s="7" t="s">
         <v>4786</v>
       </c>
-      <c r="N524" s="0" t="n">
+      <c r="N524" s="7" t="n">
         <v>343102263008</v>
       </c>
-      <c r="O524" s="0" t="s">
+      <c r="O524" s="7" t="s">
         <v>4787</v>
       </c>
-      <c r="P524" s="0" t="s">
+      <c r="P524" s="7" t="s">
         <v>4788</v>
       </c>
-      <c r="Q524" s="0" t="s">
+      <c r="Q524" s="7" t="s">
         <v>4789</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="0" t="s">
+      <c r="A525" s="7" t="s">
         <v>4790</v>
       </c>
-      <c r="B525" s="0" t="s">
+      <c r="B525" s="7" t="s">
         <v>4791</v>
       </c>
-      <c r="C525" s="0" t="s">
+      <c r="C525" s="7" t="s">
         <v>4792</v>
       </c>
-      <c r="D525" s="0" t="s">
+      <c r="D525" s="7" t="s">
         <v>4793</v>
       </c>
-      <c r="E525" s="0" t="s">
+      <c r="E525" s="7" t="s">
         <v>2419</v>
       </c>
-      <c r="F525" s="0" t="s">
+      <c r="F525" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G525" s="0" t="s">
+      <c r="G525" s="7" t="s">
         <v>4794</v>
       </c>
-      <c r="H525" s="0" t="s">
+      <c r="H525" s="7" t="s">
         <v>2186</v>
       </c>
-      <c r="I525" s="0" t="s">
+      <c r="I525" s="7" t="s">
         <v>4795</v>
       </c>
-      <c r="J525" s="0" t="s">
+      <c r="J525" s="7" t="s">
         <v>4796</v>
       </c>
-      <c r="K525" s="0" t="n">
+      <c r="K525" s="7" t="n">
         <v>5034051355</v>
       </c>
-      <c r="L525" s="0" t="s">
+      <c r="L525" s="7" t="s">
         <v>4797</v>
       </c>
-      <c r="M525" s="0" t="s">
+      <c r="M525" s="7" t="s">
         <v>4798</v>
       </c>
-      <c r="N525" s="0" t="n">
+      <c r="N525" s="7" t="n">
         <v>502728665103</v>
       </c>
-      <c r="O525" s="0" t="s">
+      <c r="O525" s="7" t="s">
         <v>4799</v>
       </c>
-      <c r="P525" s="0" t="s">
+      <c r="P525" s="7" t="s">
         <v>4800</v>
       </c>
-      <c r="Q525" s="0" t="s">
+      <c r="Q525" s="7" t="s">
         <v>4801</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="0" t="s">
+      <c r="A526" s="7" t="s">
         <v>4802</v>
       </c>
-      <c r="B526" s="0" t="s">
+      <c r="B526" s="7" t="s">
         <v>4803</v>
       </c>
-      <c r="C526" s="0" t="s">
+      <c r="C526" s="7" t="s">
         <v>4804</v>
       </c>
-      <c r="D526" s="0" t="s">
+      <c r="D526" s="7" t="s">
         <v>4805</v>
       </c>
-      <c r="E526" s="0" t="s">
+      <c r="E526" s="7" t="s">
         <v>4806</v>
       </c>
-      <c r="F526" s="0" t="s">
+      <c r="F526" s="7" t="s">
         <v>1922</v>
       </c>
-      <c r="G526" s="0" t="s">
+      <c r="G526" s="7" t="s">
         <v>1947</v>
       </c>
-      <c r="H526" s="0" t="s">
+      <c r="H526" s="7" t="s">
         <v>4807</v>
       </c>
-      <c r="I526" s="0" t="s">
+      <c r="I526" s="7" t="s">
         <v>4808</v>
       </c>
-      <c r="J526" s="0" t="s">
+      <c r="J526" s="7" t="s">
         <v>4809</v>
       </c>
-      <c r="K526" s="0" t="n">
+      <c r="K526" s="7" t="n">
         <v>5022001399</v>
       </c>
-      <c r="L526" s="0" t="s">
+      <c r="L526" s="7" t="s">
         <v>4810</v>
       </c>
-      <c r="M526" s="0" t="s">
+      <c r="M526" s="7" t="s">
         <v>4811</v>
       </c>
-      <c r="N526" s="0" t="n">
+      <c r="N526" s="7" t="n">
         <v>504909858076</v>
       </c>
-      <c r="O526" s="0" t="s">
+      <c r="O526" s="7" t="s">
         <v>4812</v>
       </c>
-      <c r="P526" s="0" t="s">
+      <c r="P526" s="7" t="s">
         <v>4813</v>
       </c>
-      <c r="Q526" s="0" t="s">
+      <c r="Q526" s="7" t="s">
         <v>4814</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="0" t="s">
+      <c r="A527" s="7" t="s">
         <v>4815</v>
       </c>
-      <c r="B527" s="0" t="s">
+      <c r="B527" s="7" t="s">
         <v>4816</v>
       </c>
-      <c r="C527" s="0" t="s">
+      <c r="C527" s="7" t="s">
         <v>4817</v>
       </c>
-      <c r="D527" s="0" t="s">
+      <c r="D527" s="7" t="s">
         <v>4818</v>
       </c>
-      <c r="E527" s="0" t="s">
+      <c r="E527" s="7" t="s">
         <v>2936</v>
       </c>
-      <c r="F527" s="0" t="s">
+      <c r="F527" s="7" t="s">
         <v>2342</v>
       </c>
-      <c r="G527" s="0" t="s">
+      <c r="G527" s="7" t="s">
         <v>3512</v>
       </c>
-      <c r="H527" s="0" t="s">
+      <c r="H527" s="7" t="s">
         <v>2936</v>
       </c>
-      <c r="I527" s="0" t="s">
+      <c r="I527" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="J527" s="0" t="s">
+      <c r="J527" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K527" s="0" t="n">
+      <c r="K527" s="7" t="n">
         <v>7705401340</v>
       </c>
-      <c r="L527" s="0" t="s">
+      <c r="L527" s="7" t="s">
         <v>4819</v>
       </c>
-      <c r="M527" s="0" t="s">
+      <c r="M527" s="7" t="s">
         <v>4820</v>
       </c>
-      <c r="N527" s="0" t="n">
+      <c r="N527" s="7" t="n">
         <v>510205289880</v>
       </c>
-      <c r="O527" s="0" t="s">
+      <c r="O527" s="7" t="s">
         <v>4821</v>
       </c>
-      <c r="P527" s="0" t="s">
+      <c r="P527" s="7" t="s">
         <v>4822</v>
       </c>
-      <c r="Q527" s="0" t="s">
+      <c r="Q527" s="7" t="s">
         <v>4823</v>
+      </c>
+    </row>
+    <row r="528" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="6" t="n">
+        <v>17.01</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="7" t="s">
+        <v>4824</v>
+      </c>
+      <c r="B529" s="7" t="s">
+        <v>4825</v>
+      </c>
+      <c r="C529" s="7" t="s">
+        <v>4826</v>
+      </c>
+      <c r="D529" s="7" t="s">
+        <v>4827</v>
+      </c>
+      <c r="E529" s="7" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F529" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G529" s="7" t="s">
+        <v>2862</v>
+      </c>
+      <c r="H529" s="7" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I529" s="7" t="s">
+        <v>2040</v>
+      </c>
+      <c r="J529" s="7" t="s">
+        <v>2041</v>
+      </c>
+      <c r="K529" s="7" t="n">
+        <v>7734223028</v>
+      </c>
+      <c r="L529" s="7" t="s">
+        <v>4828</v>
+      </c>
+      <c r="M529" s="7" t="s">
+        <v>4829</v>
+      </c>
+      <c r="N529" s="7" t="n">
+        <v>632151540504</v>
+      </c>
+      <c r="O529" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="P529" s="7" t="s">
+        <v>4830</v>
+      </c>
+      <c r="Q529" s="7" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="7" t="s">
+        <v>4832</v>
+      </c>
+      <c r="B530" s="7" t="s">
+        <v>4833</v>
+      </c>
+      <c r="C530" s="7" t="s">
+        <v>4834</v>
+      </c>
+      <c r="D530" s="7" t="s">
+        <v>4835</v>
+      </c>
+      <c r="E530" s="7" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F530" s="7" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G530" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="H530" s="7" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I530" s="7" t="s">
+        <v>4836</v>
+      </c>
+      <c r="J530" s="7" t="s">
+        <v>4837</v>
+      </c>
+      <c r="K530" s="7" t="n">
+        <v>5032210962</v>
+      </c>
+      <c r="L530" s="7" t="s">
+        <v>4838</v>
+      </c>
+      <c r="M530" s="7" t="s">
+        <v>4839</v>
+      </c>
+      <c r="N530" s="7" t="n">
+        <v>7724362921</v>
+      </c>
+      <c r="O530" s="7" t="s">
+        <v>4840</v>
+      </c>
+      <c r="P530" s="7" t="s">
+        <v>4841</v>
+      </c>
+      <c r="Q530" s="7" t="s">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="7" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B531" s="7" t="s">
+        <v>4844</v>
+      </c>
+      <c r="C531" s="7" t="s">
+        <v>4845</v>
+      </c>
+      <c r="D531" s="7" t="s">
+        <v>4846</v>
+      </c>
+      <c r="E531" s="7" t="s">
+        <v>4847</v>
+      </c>
+      <c r="F531" s="7" t="s">
+        <v>4848</v>
+      </c>
+      <c r="G531" s="7" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H531" s="7" t="s">
+        <v>4847</v>
+      </c>
+      <c r="I531" s="7" t="s">
+        <v>2485</v>
+      </c>
+      <c r="J531" s="7" t="s">
+        <v>2486</v>
+      </c>
+      <c r="K531" s="7" t="n">
+        <v>7734581136</v>
+      </c>
+      <c r="L531" s="7" t="s">
+        <v>4849</v>
+      </c>
+      <c r="M531" s="7" t="s">
+        <v>4850</v>
+      </c>
+      <c r="N531" s="7" t="n">
+        <v>5001022302</v>
+      </c>
+      <c r="O531" s="7" t="s">
+        <v>4851</v>
+      </c>
+      <c r="P531" s="7" t="s">
+        <v>4852</v>
+      </c>
+      <c r="Q531" s="7" t="s">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="7" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B532" s="7" t="s">
+        <v>4855</v>
+      </c>
+      <c r="C532" s="7" t="s">
+        <v>4856</v>
+      </c>
+      <c r="D532" s="7" t="s">
+        <v>4857</v>
+      </c>
+      <c r="E532" s="7" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F532" s="7" t="s">
+        <v>4858</v>
+      </c>
+      <c r="G532" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="H532" s="7" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I532" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="J532" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K532" s="7" t="n">
+        <v>7705401340</v>
+      </c>
+      <c r="L532" s="7" t="s">
+        <v>4859</v>
+      </c>
+      <c r="M532" s="7" t="s">
+        <v>4860</v>
+      </c>
+      <c r="N532" s="7" t="n">
+        <v>5019021243</v>
+      </c>
+      <c r="O532" s="7" t="s">
+        <v>4861</v>
+      </c>
+      <c r="P532" s="7" t="s">
+        <v>4862</v>
+      </c>
+      <c r="Q532" s="7" t="s">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="7" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B533" s="7" t="s">
+        <v>4864</v>
+      </c>
+      <c r="C533" s="7" t="s">
+        <v>4865</v>
+      </c>
+      <c r="D533" s="7" t="s">
+        <v>4866</v>
+      </c>
+      <c r="E533" s="7" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F533" s="7" t="s">
+        <v>2342</v>
+      </c>
+      <c r="G533" s="7" t="s">
+        <v>2200</v>
+      </c>
+      <c r="H533" s="7" t="s">
+        <v>4583</v>
+      </c>
+      <c r="I533" s="7" t="s">
+        <v>4867</v>
+      </c>
+      <c r="J533" s="7" t="s">
+        <v>4868</v>
+      </c>
+      <c r="K533" s="7" t="n">
+        <v>5001000242</v>
+      </c>
+      <c r="L533" s="7" t="s">
+        <v>4869</v>
+      </c>
+      <c r="M533" s="7" t="s">
+        <v>4870</v>
+      </c>
+      <c r="N533" s="7" t="n">
+        <v>9701122589</v>
+      </c>
+      <c r="O533" s="7" t="s">
+        <v>4871</v>
+      </c>
+      <c r="P533" s="7" t="s">
+        <v>4872</v>
+      </c>
+      <c r="Q533" s="7" t="s">
+        <v>4873</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="7" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B534" s="7" t="s">
+        <v>4875</v>
+      </c>
+      <c r="C534" s="7" t="s">
+        <v>4876</v>
+      </c>
+      <c r="D534" s="7" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E534" s="7" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F534" s="7" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G534" s="7" t="s">
+        <v>4878</v>
+      </c>
+      <c r="H534" s="7" t="s">
+        <v>2818</v>
+      </c>
+      <c r="I534" s="7" t="s">
+        <v>4879</v>
+      </c>
+      <c r="J534" s="7" t="s">
+        <v>4880</v>
+      </c>
+      <c r="K534" s="7" t="n">
+        <v>7718103686</v>
+      </c>
+      <c r="L534" s="7" t="s">
+        <v>4881</v>
+      </c>
+      <c r="M534" s="7" t="s">
+        <v>4882</v>
+      </c>
+      <c r="N534" s="7" t="n">
+        <v>6320044738</v>
+      </c>
+      <c r="O534" s="7" t="s">
+        <v>4883</v>
+      </c>
+      <c r="P534" s="7" t="s">
+        <v>4884</v>
+      </c>
+      <c r="Q534" s="7" t="s">
+        <v>4885</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="7" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B535" s="7" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C535" s="7" t="s">
+        <v>4888</v>
+      </c>
+      <c r="D535" s="7" t="s">
+        <v>4889</v>
+      </c>
+      <c r="E535" s="7" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F535" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G535" s="7" t="s">
+        <v>2472</v>
+      </c>
+      <c r="H535" s="7" t="s">
+        <v>2037</v>
+      </c>
+      <c r="I535" s="7" t="s">
+        <v>4890</v>
+      </c>
+      <c r="J535" s="7" t="s">
+        <v>4891</v>
+      </c>
+      <c r="K535" s="7" t="n">
+        <v>7716789597</v>
+      </c>
+      <c r="L535" s="7" t="s">
+        <v>4892</v>
+      </c>
+      <c r="M535" s="7" t="s">
+        <v>4893</v>
+      </c>
+      <c r="N535" s="7" t="n">
+        <v>7706444321</v>
+      </c>
+      <c r="O535" s="7" t="s">
+        <v>4894</v>
+      </c>
+      <c r="P535" s="7" t="s">
+        <v>4895</v>
+      </c>
+      <c r="Q535" s="7" t="s">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="7" t="s">
+        <v>4897</v>
+      </c>
+      <c r="B536" s="7" t="s">
+        <v>4898</v>
+      </c>
+      <c r="C536" s="7" t="s">
+        <v>4899</v>
+      </c>
+      <c r="D536" s="7" t="s">
+        <v>4900</v>
+      </c>
+      <c r="E536" s="7" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F536" s="7" t="s">
+        <v>2794</v>
+      </c>
+      <c r="G536" s="7" t="s">
+        <v>1923</v>
+      </c>
+      <c r="H536" s="7" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I536" s="7" t="s">
+        <v>4901</v>
+      </c>
+      <c r="J536" s="7" t="s">
+        <v>4902</v>
+      </c>
+      <c r="K536" s="7" t="n">
+        <v>5408128493</v>
+      </c>
+      <c r="L536" s="7" t="s">
+        <v>4903</v>
+      </c>
+      <c r="M536" s="7" t="s">
+        <v>4904</v>
+      </c>
+      <c r="N536" s="7" t="n">
+        <v>502726791409</v>
+      </c>
+      <c r="O536" s="7" t="s">
+        <v>4905</v>
+      </c>
+      <c r="P536" s="7" t="s">
+        <v>4906</v>
+      </c>
+      <c r="Q536" s="7" t="s">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="7" t="s">
+        <v>4908</v>
+      </c>
+      <c r="B537" s="7" t="s">
+        <v>4909</v>
+      </c>
+      <c r="C537" s="7" t="s">
+        <v>4910</v>
+      </c>
+      <c r="D537" s="7" t="s">
+        <v>4911</v>
+      </c>
+      <c r="E537" s="7" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F537" s="7" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G537" s="7" t="s">
+        <v>2852</v>
+      </c>
+      <c r="H537" s="7" t="s">
+        <v>3906</v>
+      </c>
+      <c r="I537" s="7" t="s">
+        <v>4901</v>
+      </c>
+      <c r="J537" s="7" t="s">
+        <v>4902</v>
+      </c>
+      <c r="K537" s="7" t="n">
+        <v>5408128493</v>
+      </c>
+      <c r="L537" s="7" t="s">
+        <v>4912</v>
+      </c>
+      <c r="M537" s="7" t="s">
+        <v>4913</v>
+      </c>
+      <c r="N537" s="7" t="n">
+        <v>7726436713</v>
+      </c>
+      <c r="O537" s="7" t="s">
+        <v>4914</v>
+      </c>
+      <c r="P537" s="7" t="s">
+        <v>4915</v>
+      </c>
+      <c r="Q537" s="7" t="s">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="7" t="s">
+        <v>4917</v>
+      </c>
+      <c r="B538" s="7" t="s">
+        <v>4918</v>
+      </c>
+      <c r="C538" s="7" t="s">
+        <v>4919</v>
+      </c>
+      <c r="D538" s="7" t="s">
+        <v>4920</v>
+      </c>
+      <c r="E538" s="7" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F538" s="7" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G538" s="7" t="s">
+        <v>2373</v>
+      </c>
+      <c r="H538" s="7" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I538" s="7" t="s">
+        <v>4921</v>
+      </c>
+      <c r="J538" s="7" t="s">
+        <v>4922</v>
+      </c>
+      <c r="K538" s="7" t="n">
+        <v>5003104127</v>
+      </c>
+      <c r="L538" s="7" t="s">
+        <v>4923</v>
+      </c>
+      <c r="M538" s="7" t="s">
+        <v>4924</v>
+      </c>
+      <c r="N538" s="7" t="n">
+        <v>666500184778</v>
+      </c>
+      <c r="O538" s="7" t="s">
+        <v>4925</v>
+      </c>
+      <c r="P538" s="7" t="s">
+        <v>4926</v>
+      </c>
+      <c r="Q538" s="7" t="s">
+        <v>4927</v>
+      </c>
+    </row>
+    <row r="539" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="6" t="n">
+        <v>18.01</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="0" t="s">
+        <v>4928</v>
+      </c>
+      <c r="B540" s="0" t="s">
+        <v>4929</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>4930</v>
+      </c>
+      <c r="D540" s="0" t="s">
+        <v>4931</v>
+      </c>
+      <c r="E540" s="0" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F540" s="0" t="s">
+        <v>4932</v>
+      </c>
+      <c r="G540" s="0" t="s">
+        <v>3305</v>
+      </c>
+      <c r="H540" s="0" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I540" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J540" s="0" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K540" s="0" t="n">
+        <v>7703363868</v>
+      </c>
+      <c r="L540" s="0" t="s">
+        <v>4933</v>
+      </c>
+      <c r="M540" s="0" t="s">
+        <v>4934</v>
+      </c>
+      <c r="N540" s="0" t="n">
+        <v>8620023179</v>
+      </c>
+      <c r="O540" s="0" t="s">
+        <v>4935</v>
+      </c>
+      <c r="P540" s="0" t="s">
+        <v>4936</v>
+      </c>
+      <c r="Q540" s="0" t="s">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="0" t="s">
+        <v>4938</v>
+      </c>
+      <c r="B541" s="0" t="s">
+        <v>4939</v>
+      </c>
+      <c r="C541" s="0" t="s">
+        <v>4940</v>
+      </c>
+      <c r="D541" s="0" t="s">
+        <v>4941</v>
+      </c>
+      <c r="E541" s="0" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F541" s="0" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G541" s="0" t="s">
+        <v>2222</v>
+      </c>
+      <c r="H541" s="0" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I541" s="0" t="s">
+        <v>4942</v>
+      </c>
+      <c r="J541" s="0" t="s">
+        <v>4943</v>
+      </c>
+      <c r="K541" s="0" t="n">
+        <v>7720807143</v>
+      </c>
+      <c r="L541" s="0" t="s">
+        <v>4944</v>
+      </c>
+      <c r="M541" s="0" t="s">
+        <v>4945</v>
+      </c>
+      <c r="N541" s="0" t="n">
+        <v>6037008769</v>
+      </c>
+      <c r="O541" s="0" t="s">
+        <v>4946</v>
+      </c>
+      <c r="P541" s="0" t="s">
+        <v>4947</v>
+      </c>
+      <c r="Q541" s="0" t="s">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="0" t="s">
+        <v>4949</v>
+      </c>
+      <c r="B542" s="0" t="s">
+        <v>4950</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>4951</v>
+      </c>
+      <c r="D542" s="0" t="s">
+        <v>4952</v>
+      </c>
+      <c r="E542" s="0" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F542" s="0" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G542" s="0" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H542" s="0" t="s">
+        <v>2521</v>
+      </c>
+      <c r="I542" s="0" t="s">
+        <v>4953</v>
+      </c>
+      <c r="J542" s="0" t="s">
+        <v>4954</v>
+      </c>
+      <c r="K542" s="0" t="n">
+        <v>7710081367</v>
+      </c>
+      <c r="L542" s="0" t="s">
+        <v>4955</v>
+      </c>
+      <c r="M542" s="0" t="s">
+        <v>4956</v>
+      </c>
+      <c r="N542" s="0" t="n">
+        <v>771205726173</v>
+      </c>
+      <c r="O542" s="0" t="s">
+        <v>1823</v>
+      </c>
+      <c r="P542" s="0" t="s">
+        <v>4957</v>
+      </c>
+      <c r="Q542" s="0" t="s">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="0" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B543" s="0" t="s">
+        <v>4960</v>
+      </c>
+      <c r="C543" s="0" t="s">
+        <v>4961</v>
+      </c>
+      <c r="D543" s="0" t="s">
+        <v>4962</v>
+      </c>
+      <c r="E543" s="0" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F543" s="0" t="s">
+        <v>4963</v>
+      </c>
+      <c r="G543" s="0" t="s">
+        <v>2405</v>
+      </c>
+      <c r="H543" s="0" t="s">
+        <v>2052</v>
+      </c>
+      <c r="I543" s="0" t="s">
+        <v>4964</v>
+      </c>
+      <c r="J543" s="0" t="s">
+        <v>4965</v>
+      </c>
+      <c r="K543" s="0" t="n">
+        <v>7728073871</v>
+      </c>
+      <c r="L543" s="0" t="s">
+        <v>4966</v>
+      </c>
+      <c r="M543" s="0" t="s">
+        <v>4967</v>
+      </c>
+      <c r="N543" s="0" t="n">
+        <v>4401187096</v>
+      </c>
+      <c r="O543" s="0" t="s">
+        <v>4968</v>
+      </c>
+      <c r="P543" s="0" t="s">
+        <v>4969</v>
+      </c>
+      <c r="Q543" s="0" t="s">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="0" t="s">
+        <v>4971</v>
+      </c>
+      <c r="B544" s="0" t="s">
+        <v>4972</v>
+      </c>
+      <c r="C544" s="0" t="s">
+        <v>4973</v>
+      </c>
+      <c r="D544" s="0" t="s">
+        <v>4974</v>
+      </c>
+      <c r="E544" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F544" s="0" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G544" s="0" t="s">
+        <v>3305</v>
+      </c>
+      <c r="H544" s="0" t="s">
+        <v>2936</v>
+      </c>
+      <c r="I544" s="0" t="s">
+        <v>4975</v>
+      </c>
+      <c r="J544" s="0" t="s">
+        <v>4976</v>
+      </c>
+      <c r="K544" s="0" t="n">
+        <v>7751505495</v>
+      </c>
+      <c r="L544" s="0" t="s">
+        <v>4977</v>
+      </c>
+      <c r="M544" s="0" t="s">
+        <v>4978</v>
+      </c>
+      <c r="N544" s="0" t="n">
+        <v>5027283958</v>
+      </c>
+      <c r="O544" s="0" t="s">
+        <v>4979</v>
+      </c>
+      <c r="P544" s="0" t="s">
+        <v>4980</v>
+      </c>
+      <c r="Q544" s="0" t="s">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="0" t="s">
+        <v>4982</v>
+      </c>
+      <c r="B545" s="0" t="s">
+        <v>4983</v>
+      </c>
+      <c r="C545" s="0" t="s">
+        <v>4984</v>
+      </c>
+      <c r="D545" s="0" t="s">
+        <v>4985</v>
+      </c>
+      <c r="E545" s="0" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F545" s="0" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G545" s="0" t="s">
+        <v>2066</v>
+      </c>
+      <c r="H545" s="0" t="s">
+        <v>2065</v>
+      </c>
+      <c r="I545" s="0" t="s">
+        <v>4986</v>
+      </c>
+      <c r="J545" s="0" t="s">
+        <v>4987</v>
+      </c>
+      <c r="K545" s="0" t="n">
+        <v>7730017994</v>
+      </c>
+      <c r="L545" s="0" t="s">
+        <v>4988</v>
+      </c>
+      <c r="M545" s="0" t="s">
+        <v>4989</v>
+      </c>
+      <c r="N545" s="0" t="n">
+        <v>562300188165</v>
+      </c>
+      <c r="O545" s="0" t="s">
+        <v>4990</v>
+      </c>
+      <c r="P545" s="0" t="s">
+        <v>4991</v>
+      </c>
+      <c r="Q545" s="0" t="s">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="0" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B546" s="0" t="s">
+        <v>4994</v>
+      </c>
+      <c r="C546" s="0" t="s">
+        <v>4995</v>
+      </c>
+      <c r="D546" s="0" t="s">
+        <v>4996</v>
+      </c>
+      <c r="E546" s="0" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F546" s="0" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G546" s="0" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H546" s="0" t="s">
+        <v>3085</v>
+      </c>
+      <c r="I546" s="0" t="s">
+        <v>4997</v>
+      </c>
+      <c r="J546" s="0" t="s">
+        <v>4998</v>
+      </c>
+      <c r="K546" s="0" t="n">
+        <v>7711012743</v>
+      </c>
+      <c r="L546" s="0" t="s">
+        <v>4999</v>
+      </c>
+      <c r="M546" s="0" t="s">
+        <v>5000</v>
+      </c>
+      <c r="N546" s="0" t="n">
+        <v>5836662253</v>
+      </c>
+      <c r="O546" s="0" t="s">
+        <v>5001</v>
+      </c>
+      <c r="P546" s="0" t="s">
+        <v>5002</v>
+      </c>
+      <c r="Q546" s="0" t="s">
+        <v>5003</v>
       </c>
     </row>
   </sheetData>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6976" uniqueCount="5376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7079" uniqueCount="5447">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -16149,6 +16149,219 @@
   </si>
   <si>
     <t xml:space="preserve">gilservispluste@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770559633921000120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705596339 21 000120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 000 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНИСТЕРСТВО ПРОМЫШЛЕННОСТИ И ТОРГОВЛИ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНПРОМТОРГ РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕСС ТЕХНОЛОДЖИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕСС ТЕХНОЛОДЖИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕСС ТЕХНОЛОДЖИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129128, Г МОСКВА, ПРОЕЗД КАДОМЦЕВА, ДОМ 15, ПОМЕЩЕНИЕ III, КОМНАТА 18А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-7290716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail@tesstech.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2501300604821000195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25013006048 21 000195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 758 020,67 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬЯНС СЕАН" (ООО "АЛЬЯНС СЕАН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛЬЯНС СЕАН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143900, ОБЛ МОСКОВСКАЯ 50, Г БАЛАШИХА, УЛ БЕЛЯКОВА, ДОМ 2Б, ОФИС 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-916-3838558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nik.cryo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770190367721000183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17701903677 21 000183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">397 000,35 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АВВА" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АВВА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АВВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141804, ОБЛ МОСКОВСКАЯ 50, Г ДМИТРОВ, УЛ 2-Я ЦЕНТРАЛЬНАЯ, ДОМ 4, КВАРТИРА 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-905-5807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5084780@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1505004407321000076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15050044073 21 000076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630 045,87 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЦЕНТРАЛЬНАЯ ТАМОЖНЯ (КИНОЛОГИЧЕСКИЙ ЦЕНТР ФТС РОССИИ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "И-МЕТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "И-МЕТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "И-МЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249032, ОБЛ КАЛУЖСКАЯ 40, Г ОБНИНСК, УЛ КУРЧАТОВА, ДОМ 52, КВАРТИРА 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-48439-20577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i-met@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770420620121000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17704206201 21 000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 128 300,65 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИНИСТЕРСТВО ИНОСТРАННЫХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИД РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕСУРС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕСУРС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РЕСУРС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187553, ОБЛ ЛЕНИНГРАДСКАЯ 47, Г ТИХВИН, МКР 1А, ДОМ 11, КВАРТИРА 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-921-7939694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resourse_llc@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3500311850721000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35003118507 21 000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 110 774,92 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЛЕНИНСКОГО ГОРОДСКОГО ОКРУГА МОСКОВСКОЙ ОБЛАСТИ "СПЕЦИАЛИЗИРОВАННАЯ ПОХОРОННО-РИТУАЛЬНАЯ СЛУЖБА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБУ "СПРС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аксенов Артем Михайлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аксенов Артем Михайлови</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445024, Самарская обл., г.Тольятти, ул.Юбилейная, д.4, кв. 112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-968-0244024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771404207021002880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17714042070 21 002880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 868 535,35 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОСКОВСКИЙ НАУЧНО-ИССЛЕДОВАТЕЛЬСКИЙ ОНКОЛОГИЧЕСКИЙ ИНСТИТУТ ИМЕНИ П.А. ГЕРЦЕНА - ФИЛИАЛ ФЕДЕРАЛЬНОГО ГОСУДАРСТВЕННОГО БЮДЖЕТНОГО УЧРЕЖДЕНИЯ "НАЦИОНАЛЬНЫЙ МЕДИЦИНСКИЙ ИССЛЕДОВАТЕЛЬСКИЙ ЦЕНТР РАДИОЛОГИИ" МИНИСТЕРСТВА ЗДРАВООХРАНЕНИЯ РОССИЙСКОЙ ФЕДЕРАЦИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МНИОИ им. П.А. Герцена - филиал ФГБУ "НМИЦ радиологии" Минздрава России</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГАРАНТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ГАРАНТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ГАРАНТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142115, ОБЛ МОСКОВСКАЯ 50, Г ПОДОЛЬСК, ПРОЕЗД ЭЛЕКТРОМОНТАЖНЫЙ, ДОМ 7, КВАРТИРА 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-906-3084001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garant00.00@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -16307,10 +16520,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q588"/>
+  <dimension ref="A1:Q596"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A551" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A583" activeCellId="0" sqref="583:583"/>
+      <selection pane="topLeft" activeCell="A589" activeCellId="0" sqref="589:589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45094,6 +45307,376 @@
         <v>5375</v>
       </c>
     </row>
+    <row r="589" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="6" t="n">
+        <v>27.01</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="1" t="s">
+        <v>5376</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>5377</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>5378</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>5379</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="H590" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>5380</v>
+      </c>
+      <c r="J590" s="1" t="s">
+        <v>5381</v>
+      </c>
+      <c r="K590" s="1" t="n">
+        <v>7705596339</v>
+      </c>
+      <c r="L590" s="1" t="s">
+        <v>5382</v>
+      </c>
+      <c r="M590" s="1" t="s">
+        <v>5383</v>
+      </c>
+      <c r="N590" s="1" t="n">
+        <v>7702421130</v>
+      </c>
+      <c r="O590" s="1" t="s">
+        <v>5384</v>
+      </c>
+      <c r="P590" s="1" t="s">
+        <v>5385</v>
+      </c>
+      <c r="Q590" s="1" t="s">
+        <v>5386</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="1" t="s">
+        <v>5387</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>5388</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>5390</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>4164</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>4438</v>
+      </c>
+      <c r="K591" s="1" t="n">
+        <v>5013006048</v>
+      </c>
+      <c r="L591" s="1" t="s">
+        <v>5391</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>5392</v>
+      </c>
+      <c r="N591" s="1" t="n">
+        <v>5001068226</v>
+      </c>
+      <c r="O591" s="1" t="s">
+        <v>5393</v>
+      </c>
+      <c r="P591" s="1" t="s">
+        <v>5394</v>
+      </c>
+      <c r="Q591" s="1" t="s">
+        <v>5395</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="1" t="s">
+        <v>5396</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>5397</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>5398</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>5399</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K592" s="1" t="n">
+        <v>7701903677</v>
+      </c>
+      <c r="L592" s="1" t="s">
+        <v>5400</v>
+      </c>
+      <c r="M592" s="1" t="s">
+        <v>5401</v>
+      </c>
+      <c r="N592" s="1" t="n">
+        <v>5007101342</v>
+      </c>
+      <c r="O592" s="1" t="s">
+        <v>5402</v>
+      </c>
+      <c r="P592" s="1" t="s">
+        <v>5403</v>
+      </c>
+      <c r="Q592" s="1" t="s">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="1" t="s">
+        <v>5405</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>5406</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>5407</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>5408</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>5409</v>
+      </c>
+      <c r="K593" s="1" t="n">
+        <v>5050044073</v>
+      </c>
+      <c r="L593" s="1" t="s">
+        <v>5410</v>
+      </c>
+      <c r="M593" s="1" t="s">
+        <v>5411</v>
+      </c>
+      <c r="N593" s="1" t="n">
+        <v>4003028001</v>
+      </c>
+      <c r="O593" s="1" t="s">
+        <v>5412</v>
+      </c>
+      <c r="P593" s="1" t="s">
+        <v>5413</v>
+      </c>
+      <c r="Q593" s="1" t="s">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="1" t="s">
+        <v>5415</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>5416</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>5417</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>5418</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>4258</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>5419</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>5420</v>
+      </c>
+      <c r="K594" s="1" t="n">
+        <v>7704206201</v>
+      </c>
+      <c r="L594" s="1" t="s">
+        <v>5421</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>5422</v>
+      </c>
+      <c r="N594" s="1" t="n">
+        <v>4715033121</v>
+      </c>
+      <c r="O594" s="1" t="s">
+        <v>5423</v>
+      </c>
+      <c r="P594" s="1" t="s">
+        <v>5424</v>
+      </c>
+      <c r="Q594" s="1" t="s">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="1" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>5427</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>5428</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>5429</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>5430</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>5431</v>
+      </c>
+      <c r="K595" s="1" t="n">
+        <v>5003118507</v>
+      </c>
+      <c r="L595" s="1" t="s">
+        <v>5432</v>
+      </c>
+      <c r="M595" s="1" t="s">
+        <v>5433</v>
+      </c>
+      <c r="N595" s="1" t="n">
+        <v>632151540504</v>
+      </c>
+      <c r="O595" s="1" t="s">
+        <v>5434</v>
+      </c>
+      <c r="P595" s="1" t="s">
+        <v>5435</v>
+      </c>
+      <c r="Q595" s="1" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="1" t="s">
+        <v>5436</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>5437</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>5438</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>5439</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I596" s="1" t="s">
+        <v>5440</v>
+      </c>
+      <c r="J596" s="1" t="s">
+        <v>5441</v>
+      </c>
+      <c r="K596" s="1" t="n">
+        <v>7714042070</v>
+      </c>
+      <c r="L596" s="1" t="s">
+        <v>5442</v>
+      </c>
+      <c r="M596" s="1" t="s">
+        <v>5443</v>
+      </c>
+      <c r="N596" s="1" t="n">
+        <v>5074067009</v>
+      </c>
+      <c r="O596" s="1" t="s">
+        <v>5444</v>
+      </c>
+      <c r="P596" s="1" t="s">
+        <v>5445</v>
+      </c>
+      <c r="Q596" s="1" t="s">
+        <v>5446</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="z2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7079" uniqueCount="5447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7331" uniqueCount="5630">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -16362,6 +16362,555 @@
   </si>
   <si>
     <t xml:space="preserve">Garant00.00@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2770401203721000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27704012037 21 000016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 051 300,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СОДЕЙСТВИЕ СТРОИТЕЛЬСТВУ" (ООО "СОДЕЙСТВИЕ СТРОИТЕЛЬСТВУ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СОДЕЙСТВИЕ СТРОИТЕЛЬСТВУ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109052, Г. МОСКВА 77, УЛ. НИЖЕГОРОДСКАЯ, Д. 50, ЭТАЖ 2 ПОМ. XIV, КОМ. 34,35,36,37,38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (749) 576-61-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sodstroi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771008136721000200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27710081367 21 000200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">916 071,47 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.01.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТИТАН" (ООО "ТИТАН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТИТАН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">248000, - КАЛУЖСКАЯ 40, - Калуга, - КАРПОВА, Д. 3, ПОМЕЩ. 014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7 (910) 910-87-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titanklg@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773323136120000435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17733231361 20 000435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">256 769 818,67 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.11.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.05.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.12.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ПО МЕЛИОРАЦИИ ЗЕМЕЛЬ, ВОДНОМУ ХОЗЯЙСТВУ И БЕЗОПАСНОСТИ ГИДРОТЕХНИЧЕСКИХ СООРУЖЕНИЙ "СПЕЦМЕЛИОВОДХОЗ" (ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ПО МЕЛИОРАЦИИ ЗЕМЕЛЬ, ВОДНОМУ ХОЗЯЙСТВУ И БЕЗОПАСНОСТИ ГИДРОТЕХНИЧЕСКИХ СООРУЖЕНИЙ "СПЕЦМЕЛИОВОДХОЗ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ПО МЕЛИОРАЦИИ ЗЕМЕЛЬ, ВОДНОМУ ХОЗЯЙСТВУ И БЕЗОПАСНОСТИ ГИДРОТЕХНИЧЕСКИХ СООРУЖЕНИЙ "СПЕЦМЕЛИОВОДХОЗ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142440, Московская область, Ногинский р-н, п. Обухово, ул. Кудиновское шоссе, д. 4-а</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-49651-21756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smelio@bk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2772513181421000293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27725131814 21 000293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 799 635,40 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АВТОПАРК" (ООО "АВТОПАРК")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АВТОПАРК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117418, Г МОСКВА 77, УЛ ЗЮЗИНСКАЯ, ДОМ 6, КОРПУС 2, ЭТ 3 ПОМ XVI К 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-925-5671049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oooavtopark@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504805268722000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35048052687 22 000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ БЮДЖЕТНОЕ ОБЩЕОБРАЗОВАТЕЛЬНОЕ УЧРЕЖДЕНИЕ НОВОБЫТОВСКАЯ СРЕДНЯЯ ОБЩЕОБРАЗОВАТЕЛЬНАЯ ШКОЛА С УГЛУБЛЕННЫМ ИЗУЧЕНИЕМ ОТДЕЛЬНЫХ ПРЕДМЕТОВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МБОУ НОВОБЫТОВСКАЯ СОШ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ  ЧАСТНОЕ ОХРАННОЕ ПРЕДПРИЯТИЕ "ТАРАНТУЛ" (ООО ЧОП "ТАРАНТУЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧОП "ТАРАНТУЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142802, ОБЛ МОСКОВСКАЯ 50, Г СТУПИНО, УЛ КАЛИНИНА, ДОМ 46, КОРПУС 3, ОФИС 6 КАБИНЕТ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wk1802@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504506258121000053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35045062581 21 000053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">615 982,30 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "БЛАГОУСТРОЙСТВО" ГОРОДСКОГО ОКРУГА СТУПИНО МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "БЛАГОУСТРОЙСТВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РУССНАБ" (ООО "РУССНАБ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РУССНАБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156002, - КОСТРОМСКАЯ 44, - Кострома, - ТЕКСТИЛЬЩИКОВ, Д. 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-4355996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tehnologi44@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770559884021000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705598840 21 000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 466 482,77 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ АГЕНТСТВО ЛЕСНОГО ХОЗЯЙСТВА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РОСЛЕСХОЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОПУС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ОПУС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ОПУС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190020, Г САНКТ-ПЕТЕРБУРГ 78, ПЕР ЛИБАВСКИЙ, ДОМ 5, ЛИТЕР З, ОФИС №1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-812-4099200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@serviceweb.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770279832021000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17702798320 21 000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532 158,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ДИРЕКЦИЯ КОСМОДРОМА "ВОСТОЧНЫЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "ДИРЕКЦИЯ КОСМОДРОМА "ВОСТОЧНЫЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "КАМЕЛОТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "КАМЕЛОТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЧАСТНАЯ ОХРАННАЯ ОРГАНИЗАЦИЯ "КАМЕЛОТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">681000, КРАЙ ХАБАРОВСКИЙ 27, Г КОМСОМОЛЬСК-НА-АМУРЕ, УЛ КРАСНОГВАРДЕЙСКАЯ, ДОМ 18 ЛИТЕР А, ОФИС 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-914-1782639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kamelotdv@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772404418921001080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17724044189 21 001080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛВД" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ЛВД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ЛВД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420006, РЕСП. ТАТАРСТАН 16, Г. Казань, УЛ. РАХИМОВА, Д. 21, ПОМЕЩ. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-843-5121672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakaz.lvd@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1502921127521000056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15029211275 21 000056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114 950 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ БЮДЖЕТНОЕ ЛЕЧЕБНО-ПРОФИЛАКТИЧЕСКОЕ УЧРЕЖДЕНИЕ "ЛЕЧЕБНО-РЕАБИЛИТАЦИОННЫЙ ЦЕНТР "ПОДМОСКОВЬЕ" ФЕДЕРАЛЬНОЙ НАЛОГОВОЙ СЛУЖБЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФБЛПУ "ЛРЦ "ПОДМОСКОВЬЕ" ФНС РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КАПСТРОИТЕЛЬСТВО" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "КАПСТРОИТЕЛЬСТВО")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "КАПСТРОИТЕЛЬСТВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140000, ОБЛ МОСКОВСКАЯ 50, Г ЛЮБЕРЦЫ, УЛ КОТЕЛЬНИЧЕСКАЯ, ДОМ 18, ЛИТ.А ЭТАЖ 2, КОМНАТА 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-3636381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@cap-s.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2504201345921000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25042013459 21 000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321 882,70 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.03.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ МОСКОВСКОЙ ОБЛАСТИ "СЕРГИЕВО-ПОСАДСКИЙ ГОСУДАРСТВЕННЫЙ ИСТОРИКО-ХУДОЖЕСТВЕННЫЙ МУЗЕЙ-ЗАПОВЕДНИК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕРГИЕВО-ПОСАДСКИЙ МУЗЕЙ-ЗАПОВЕДНИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ ГОРОДСКОГО ПОСЕЛЕНИЯ СЕРГИЕВ ПОСАД "ВОДОКАНАЛ" (МУП "ВОДОКАНАЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУП "ВОДОКАНАЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141313, Московская область, г. Сергиев Посад, ул. Глинки, д. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8496-551-66-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@spvodokanal.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770603280021000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706032800 21 000162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">373 156,41 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ КУЛЬТУРЫ "ВСЕРОССИЙСКОЕ МУЗЕЙНОЕ ОБЪЕДИНЕНИЕ "ГОСУДАРСТВЕННАЯ ТРЕТЬЯКОВСКАЯ ГАЛЕРЕЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННАЯ ТРЕТЬЯКОВСКАЯ ГАЛЕРЕЯ, ТРЕТЬЯКОВСКАЯ ГАЛЕРЕЯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПЕЦСТРОЙСЕРВИС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СПЕЦСТРОЙСЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СПЕЦСТРОЙСЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117587, Г МОСКВА 77, Ш ВАРШАВСКОЕ, ДОМ 125, КОРПУС 3, КОМНАТА 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-4989828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sabsar05@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3502418146821000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35024181468 21 000046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">747 960,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.08.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ЦЕНТР ОБЕСПЕЧЕНИЯ ДЕЯТЕЛЬНОСТИ ОРГАНОВ МЕСТНОГО САМОУПРАВЛЕНИЯ ГОРОДСКОГО ОКРУГА КРАСНОГОРСК"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ЦОД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИАКС" (ООО "ИАКС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ИАКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143912, ОБЛ МОСКОВСКАЯ 50, Г БАЛАШИХА, УЛ ПЕРВОМАЙСКАЯ, ДОМ 4, ПОМЕЩЕНИЕ 12, ОФИС 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irinatanova1989@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505008153321000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35050081533 21 000037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 840 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АДМИНИСТРАЦИЯ ГОРОДСКОГО ОКРУГА ЗВЁЗДНЫЙ ГОРОДОК МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "РЕМОНТНО-СТРОИТЕЛЬНАЯ КОМПАНИЯ "АГАТ" (ООО "РСК "АГАТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "РСК "АГАТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119313, Г МОСКВА 77, ПР-КТ ЛЕНИНСКИЙ, ДОМ 95, ЭТ ЦОКОЛЬ ПОМ X ОФ 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.shabanof@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770506046721000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17705060467 21 000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 436 500,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ЦЕНТРАЛЬНАЯ СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА МИНИСТЕРСТВА ВНУТРЕННИХ ДЕЛ РОССИЙСКОЙ ФЕДЕРАЦИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУЗ "ЦСП МВД РОССИИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЕРВИС УБОРКИ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЕРВИС УБОРКИ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СЕРВИС УБОРКИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121615, Г МОСКВА 77, Ш РУБЛЁВСКОЕ, ДОМ 22, КОРПУС 2, ЭТ 5 ПОМ LXV КОМ 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-5051219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servisuborki@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1503800814221000271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15038008142 21 000271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 200 445,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФАЛЬКОН" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ФАЛЬКОН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ФАЛЬКОН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115487, Г. МОСКВА 77, УЛ. НАГАТИНСКАЯ, Д. 22, К. 1, КОМ. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-926-0062900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9260062900@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=173974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1772283031720000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17722830317 20 000048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504 071,10 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.02.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.07.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БИЗНЕС-СТРОЙ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "БИЗНЕС-СТРОЙ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "БИЗНЕС-СТРОЙ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142210, ОБЛ МОСКОВСКАЯ 50, Г СЕРПУХОВ, УЛ САДОВАЯ, 13 Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-967-0627570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sip398@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -16520,10 +17069,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q596"/>
+  <dimension ref="A1:Q615"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A551" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A589" activeCellId="0" sqref="589:589"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A580" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A608" activeCellId="0" sqref="608:608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45677,6 +46226,917 @@
         <v>5446</v>
       </c>
     </row>
+    <row r="597" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="6" t="n">
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="1" t="s">
+        <v>5447</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>5448</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>5449</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>5450</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>4643</v>
+      </c>
+      <c r="J598" s="1" t="s">
+        <v>4644</v>
+      </c>
+      <c r="K598" s="1" t="n">
+        <v>7704012037</v>
+      </c>
+      <c r="L598" s="1" t="s">
+        <v>5451</v>
+      </c>
+      <c r="M598" s="1" t="s">
+        <v>5452</v>
+      </c>
+      <c r="N598" s="1" t="n">
+        <v>7709949602</v>
+      </c>
+      <c r="O598" s="1" t="s">
+        <v>5453</v>
+      </c>
+      <c r="P598" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="Q598" s="1" t="s">
+        <v>5455</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="1" t="s">
+        <v>5456</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>5457</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>5458</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>5459</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>5460</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>4953</v>
+      </c>
+      <c r="J599" s="1" t="s">
+        <v>4954</v>
+      </c>
+      <c r="K599" s="1" t="n">
+        <v>7710081367</v>
+      </c>
+      <c r="L599" s="1" t="s">
+        <v>5461</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>5462</v>
+      </c>
+      <c r="N599" s="1" t="n">
+        <v>4029059004</v>
+      </c>
+      <c r="O599" s="1" t="s">
+        <v>5463</v>
+      </c>
+      <c r="P599" s="1" t="s">
+        <v>5464</v>
+      </c>
+      <c r="Q599" s="1" t="s">
+        <v>5465</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="1" t="s">
+        <v>5466</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>5467</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>5468</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>5470</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>5472</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J600" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K600" s="1" t="n">
+        <v>7733231361</v>
+      </c>
+      <c r="L600" s="1" t="s">
+        <v>5473</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="N600" s="1" t="n">
+        <v>5031028809</v>
+      </c>
+      <c r="O600" s="1" t="s">
+        <v>5475</v>
+      </c>
+      <c r="P600" s="1" t="s">
+        <v>5476</v>
+      </c>
+      <c r="Q600" s="1" t="s">
+        <v>5477</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="1" t="s">
+        <v>5478</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>5479</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>5480</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>5036</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>4202</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>4203</v>
+      </c>
+      <c r="K601" s="1" t="n">
+        <v>7725131814</v>
+      </c>
+      <c r="L601" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="M601" s="1" t="s">
+        <v>5483</v>
+      </c>
+      <c r="N601" s="1" t="n">
+        <v>7727444548</v>
+      </c>
+      <c r="O601" s="1" t="s">
+        <v>5484</v>
+      </c>
+      <c r="P601" s="1" t="s">
+        <v>5485</v>
+      </c>
+      <c r="Q601" s="1" t="s">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="1" t="s">
+        <v>5487</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>5490</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>5370</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>4144</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="J602" s="1" t="s">
+        <v>5492</v>
+      </c>
+      <c r="K602" s="1" t="n">
+        <v>5048052687</v>
+      </c>
+      <c r="L602" s="1" t="s">
+        <v>5493</v>
+      </c>
+      <c r="M602" s="1" t="s">
+        <v>5494</v>
+      </c>
+      <c r="N602" s="1" t="n">
+        <v>5045037112</v>
+      </c>
+      <c r="O602" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="P602" s="1" t="n">
+        <v>89688134197</v>
+      </c>
+      <c r="Q602" s="1" t="s">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="1" t="s">
+        <v>5497</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>5498</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>5499</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>5500</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>5501</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="K603" s="1" t="n">
+        <v>5045062581</v>
+      </c>
+      <c r="L603" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="M603" s="1" t="s">
+        <v>5504</v>
+      </c>
+      <c r="N603" s="1" t="n">
+        <v>4401197810</v>
+      </c>
+      <c r="O603" s="1" t="s">
+        <v>5505</v>
+      </c>
+      <c r="P603" s="1" t="s">
+        <v>5506</v>
+      </c>
+      <c r="Q603" s="1" t="s">
+        <v>5507</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="1" t="s">
+        <v>5508</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>5509</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>5510</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>5511</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>4201</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>5512</v>
+      </c>
+      <c r="J604" s="1" t="s">
+        <v>5513</v>
+      </c>
+      <c r="K604" s="1" t="n">
+        <v>7705598840</v>
+      </c>
+      <c r="L604" s="1" t="s">
+        <v>5514</v>
+      </c>
+      <c r="M604" s="1" t="s">
+        <v>5515</v>
+      </c>
+      <c r="N604" s="1" t="n">
+        <v>7839095060</v>
+      </c>
+      <c r="O604" s="1" t="s">
+        <v>5516</v>
+      </c>
+      <c r="P604" s="1" t="s">
+        <v>5517</v>
+      </c>
+      <c r="Q604" s="1" t="s">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="1" t="s">
+        <v>5519</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>5520</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>5521</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>5522</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="J605" s="1" t="s">
+        <v>5526</v>
+      </c>
+      <c r="K605" s="1" t="n">
+        <v>7702798320</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>5527</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>5528</v>
+      </c>
+      <c r="N605" s="1" t="n">
+        <v>2703079640</v>
+      </c>
+      <c r="O605" s="1" t="s">
+        <v>5529</v>
+      </c>
+      <c r="P605" s="1" t="s">
+        <v>5530</v>
+      </c>
+      <c r="Q605" s="1" t="s">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="1" t="s">
+        <v>5532</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>5533</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>5534</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>5535</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>5536</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>4529</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="K606" s="1" t="n">
+        <v>7724044189</v>
+      </c>
+      <c r="L606" s="1" t="s">
+        <v>5537</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>5538</v>
+      </c>
+      <c r="N606" s="1" t="n">
+        <v>1658223512</v>
+      </c>
+      <c r="O606" s="1" t="s">
+        <v>5539</v>
+      </c>
+      <c r="P606" s="1" t="s">
+        <v>5540</v>
+      </c>
+      <c r="Q606" s="1" t="s">
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="1" t="s">
+        <v>5542</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>5544</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>5545</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>4382</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>5546</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>5547</v>
+      </c>
+      <c r="K607" s="1" t="n">
+        <v>5029211275</v>
+      </c>
+      <c r="L607" s="1" t="s">
+        <v>5548</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>5549</v>
+      </c>
+      <c r="N607" s="1" t="n">
+        <v>5027138453</v>
+      </c>
+      <c r="O607" s="1" t="s">
+        <v>5550</v>
+      </c>
+      <c r="P607" s="1" t="s">
+        <v>5551</v>
+      </c>
+      <c r="Q607" s="1" t="s">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="608" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="6" t="n">
+        <v>31.01</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="1" t="s">
+        <v>5553</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>5554</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>5555</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>5556</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>5557</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>5558</v>
+      </c>
+      <c r="J609" s="1" t="s">
+        <v>5559</v>
+      </c>
+      <c r="K609" s="1" t="n">
+        <v>5042013459</v>
+      </c>
+      <c r="L609" s="1" t="s">
+        <v>5560</v>
+      </c>
+      <c r="M609" s="1" t="s">
+        <v>5561</v>
+      </c>
+      <c r="N609" s="1" t="n">
+        <v>5042002584</v>
+      </c>
+      <c r="O609" s="1" t="s">
+        <v>5562</v>
+      </c>
+      <c r="P609" s="1" t="s">
+        <v>5563</v>
+      </c>
+      <c r="Q609" s="1" t="s">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="1" t="s">
+        <v>5565</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>5566</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>5567</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>5568</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>2618</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>5569</v>
+      </c>
+      <c r="J610" s="1" t="s">
+        <v>5570</v>
+      </c>
+      <c r="K610" s="1" t="n">
+        <v>7706032800</v>
+      </c>
+      <c r="L610" s="1" t="s">
+        <v>5571</v>
+      </c>
+      <c r="M610" s="1" t="s">
+        <v>5572</v>
+      </c>
+      <c r="N610" s="1" t="n">
+        <v>7751167503</v>
+      </c>
+      <c r="O610" s="1" t="s">
+        <v>5573</v>
+      </c>
+      <c r="P610" s="1" t="s">
+        <v>5574</v>
+      </c>
+      <c r="Q610" s="1" t="s">
+        <v>5575</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="1" t="s">
+        <v>5576</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>5577</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>5578</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>5579</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>5580</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>5581</v>
+      </c>
+      <c r="J611" s="1" t="s">
+        <v>5582</v>
+      </c>
+      <c r="K611" s="1" t="n">
+        <v>5024181468</v>
+      </c>
+      <c r="L611" s="1" t="s">
+        <v>5583</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>5584</v>
+      </c>
+      <c r="N611" s="1" t="n">
+        <v>5001128732</v>
+      </c>
+      <c r="O611" s="1" t="s">
+        <v>5585</v>
+      </c>
+      <c r="P611" s="1" t="n">
+        <v>79037388204</v>
+      </c>
+      <c r="Q611" s="1" t="s">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="1" t="s">
+        <v>5587</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>5588</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>5590</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>4583</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>5592</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>5593</v>
+      </c>
+      <c r="J612" s="1" t="s">
+        <v>5593</v>
+      </c>
+      <c r="K612" s="1" t="n">
+        <v>5050081533</v>
+      </c>
+      <c r="L612" s="1" t="s">
+        <v>5594</v>
+      </c>
+      <c r="M612" s="1" t="s">
+        <v>5595</v>
+      </c>
+      <c r="N612" s="1" t="n">
+        <v>7724779592</v>
+      </c>
+      <c r="O612" s="1" t="s">
+        <v>5596</v>
+      </c>
+      <c r="P612" s="1" t="n">
+        <v>74959789697</v>
+      </c>
+      <c r="Q612" s="1" t="s">
+        <v>5597</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="1" t="s">
+        <v>5598</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>5599</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>5601</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="J613" s="1" t="s">
+        <v>5603</v>
+      </c>
+      <c r="K613" s="1" t="n">
+        <v>7705060467</v>
+      </c>
+      <c r="L613" s="1" t="s">
+        <v>5604</v>
+      </c>
+      <c r="M613" s="1" t="s">
+        <v>5605</v>
+      </c>
+      <c r="N613" s="1" t="n">
+        <v>9731055386</v>
+      </c>
+      <c r="O613" s="1" t="s">
+        <v>5606</v>
+      </c>
+      <c r="P613" s="1" t="s">
+        <v>5607</v>
+      </c>
+      <c r="Q613" s="1" t="s">
+        <v>5608</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="1" t="s">
+        <v>5609</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>5610</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>5611</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>5612</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J614" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K614" s="1" t="n">
+        <v>5038008142</v>
+      </c>
+      <c r="L614" s="1" t="s">
+        <v>5613</v>
+      </c>
+      <c r="M614" s="1" t="s">
+        <v>5614</v>
+      </c>
+      <c r="N614" s="1" t="n">
+        <v>4711014897</v>
+      </c>
+      <c r="O614" s="1" t="s">
+        <v>5615</v>
+      </c>
+      <c r="P614" s="1" t="s">
+        <v>5616</v>
+      </c>
+      <c r="Q614" s="1" t="s">
+        <v>5617</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="1" t="s">
+        <v>5618</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>5619</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>5620</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>5621</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>5622</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>5623</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>5622</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J615" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K615" s="1" t="n">
+        <v>7722830317</v>
+      </c>
+      <c r="L615" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="M615" s="1" t="s">
+        <v>5626</v>
+      </c>
+      <c r="N615" s="1" t="n">
+        <v>5043037117</v>
+      </c>
+      <c r="O615" s="1" t="s">
+        <v>5627</v>
+      </c>
+      <c r="P615" s="1" t="s">
+        <v>5628</v>
+      </c>
+      <c r="Q615" s="1" t="s">
+        <v>5629</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7331" uniqueCount="5630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7539" uniqueCount="5777">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -16911,6 +16911,447 @@
   </si>
   <si>
     <t xml:space="preserve">sip398@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3505304544521000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35053045445 21 000024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 498 319,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "УПРАВЛЕНИЕ ОБЕСПЕЧЕНИЯ ДЕЯТЕЛЬНОСТИ ОРГАНОВ МЕСТНОГО САМОУПРАВЛЕНИЯ ГОРОДСКОГО ОКРУГА ЭЛЕКТРОСТАЛЬ МОСКОВСКОЙ ОБЛАСТИ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "УПРАВЛЕНИЕ ОБЕСПЕЧЕНИЯ ДЕЯТЕЛЬНОСТИ Г.О. ЭЛЕКТРОСТАЛЬ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДОМОФОН ЭЛЬ СЕРВИС" (ООО "ДОМОФОН ЭЛЬ СЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДОМОФОН ЭЛЬ СЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144000, ОБЛ. МОСКОВСКАЯ 50, Г. Электросталь, ПР-КТ ЛЕНИНА, Д. 38/7, ЭТАЖ/ПОМЕЩ. 1/01Б</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-985-2164354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luckyparty@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773253799921000512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17732537999 21 000512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 920 238,80 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВИСМАРКАПИТАЛ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ВИСМАРКАПИТАЛ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВИСМАРКАПИТАЛ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125424, Г МОСКВА 77, УЛ ЛЁТНАЯ, ДОМ 99, СТРОЕНИЕ 3, ЭТ 2 ПОМXXX КОМ50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-999-5467531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vismarcapital@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2771017777421000112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27710177774 21 000112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 850 110,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ГОРОДА МОСКВЫ "ФИНАНСОВО-ХОЗЯЙСТВЕННОЕ УПРАВЛЕНИЕ МЭРИИ МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГБУ "ФХУ МЭРИИ МОСКВЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ДЖЕТА ТРЕЙД" (ООО "ДЖЕТА ТРЕЙД")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ДЖЕТА ТРЕЙД"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">664047, ОБЛ ИРКУТСКАЯ 38, Г ИРКУТСК, УЛ КАРЛА ЛИБКНЕХТА, ДОМ 202, ОФИС 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+7-950-111-85-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paulpimenovnz@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770233194421000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17702331944 21 000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 150 850,06 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ "ДИРЕКЦИЯ ГОСУДАРСТВЕННОГО ЗАКАЗЧИКА ПО РЕАЛИЗАЦИИ КОМПЛЕКСНЫХ ПРОЕКТОВ РАЗВИТИЯ ТРАНСПОРТНОЙ ИНФРАСТРУКТУРЫ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФКУ "РОСТРАНСМОДЕРНИЗАЦИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">САБИТОВ РУСЛАН ГАЛИАХМЕТОВИЧИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП САБИТОВ РУСЛАН ГАЛИАХМЕТОВИЧ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Г САНКТ-ПЕТЕРБУРГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-921-7494704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">konstantin@tommaster.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2502713007721000494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25027130077 21 000494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">517 142,34 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИЛЮТИНА КРИСТИНА СЕРГЕЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП МИЛЮТИНА КРИСТИНА СЕРГЕЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЛ МОСКОВСКАЯ 50, Г НОГИНСК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-7570002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kri.mil@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770100252021000512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17701002520 21 000512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 579 310,24 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.09.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХНОСЕРВИС" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЕХНОСЕРВИС")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЕХНОСЕРВИС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119619, Г МОСКВА 77, УЛ 6-Я НОВЫЕ САДЫ, ДОМ 2, КОРПУС 1, ЭТ ПОД КОМ 41 ОФ 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-495-7955435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@tehnoservis-msk.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1771812309722000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17718123097 22 000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 863 920,28 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МОСКОВСКИЙ ГОРОДСКОЙ СУД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЕРВИСНАЯ КОМПАНИЯ - ИНТЕГРАЦИЯ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СЕРВИСНАЯ КОМПАНИЯ - ИНТЕГРАЦИЯ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СЕРВИСНАЯ КОМПАНИЯ - ИНТЕГРАЦИЯ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115569, - МОСКВА 77, - ДОМОДЕДОВСКАЯ, Д. 4, ЭТАЖ/ПОМЕЩ. ПОДВАЛ/I КОМ./ОФИС 26/1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-964-6412477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sk-integration@mail.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504016421221000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35040164212 21 000014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 881 287,36 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.09.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ РАМЕНСКОГО ГОРОДСКОГО ОКРУГА "ТЕРРИТОРИАЛЬНОЕ УПРАВЛЕНИЕ "БЫКОВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МКУ "ТУ "БЫКОВО"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ПРАВОВАЯ ЗАЩИТА" (ООО "ПРАВОВАЯ ЗАЩИТА")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПРАВОВАЯ ЗАЩИТА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121354, Г МОСКВА 77, УЛ КУТУЗОВА, ДОМ 11, КОРПУС 2, ОФИС ЭТ.1,ПОМЕЩ.1,КОМ.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advokatdep@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1770675389821000116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17706753898 21 000116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 662 720,71 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "САБА ГРУПП" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "САБА ГРУПП")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "САБА ГРУПП"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105203, Г. МОСКВА 77, УЛ. 14-Я ПАРКОВАЯ, Д. 8, ЭТАЖ 5 ПОМЕЩ./КОМ/ОФИС I/1/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-000-0000000-000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2503800433121000333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25038004331 21 000333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 209 975,30 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ КАЗЕННОЕ УЧРЕЖДЕНИЕ МОСКОВСКОЙ ОБЛАСТИ "МОСОБЛЛЕС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГКУ МО "МОСОБЛЛЕС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛЬТАИР" (ООО "АЛЬТАИР")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛЬТАИР"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">656056, КРАЙ АЛТАЙСКИЙ 22, Г. Барнаул, УЛ. ПУШКИНА, Д. 29, ОФИС 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-385-2717900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-alt@list.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773323136118000259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17733231361 18 000259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 400 000,00 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.12.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.12.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06.12.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колотвин Александр Александрович -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колотвин Александр Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171252, Российская Федерация, Тверская обл., Конаковский р-н, г. Конаково, ул. Учебная, 13, 96, ОКАТО: 28430000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-910-4800320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aleksanderkolotvin@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=3504902442821000017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35049024428 21 000017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">828 268,99 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.02.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МУНИЦИПАЛЬНОЕ АВТОНОМНОЕ УЧРЕЖДЕНИЕ ГОРОДСКОГО ОКРУГА ШАТУРА "УПРАВЛЕНИЕ КАПИТАЛЬНОГО СТРОИТЕЛЬСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МАУ "УКС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ТЛТ" (ООО "ТЛТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ТЛТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445039, ОБЛ САМАРСКАЯ 63, Г ТОЛЬЯТТИ, УЛ ДЗЕРЖИНСКОГО, ДОМ 25А, ОФИС 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-967-6848808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44fdg76@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1500101804921000437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15001018049 21 000437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">477 877,20 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.12.2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТЕН" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "СТЕН")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СТЕН"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115201, Г. МОСКВА 77, УЛ. КОТЛЯКОВСКАЯ, Д. 3, СТР. 13, ПОМЕЩ. 37/1/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-902-1531976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ooocten@rambler.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1773425509021000120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17734255090 21 000120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114 267,20 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ "ЦЕНТР КРОВИ ФЕДЕРАЛЬНОГО МЕДИКО-БИОЛОГИЧЕСКОГО АГЕНТСТВА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГБУЗ ЦЕНТР КРОВИ ФМБА РОССИИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛИТЕТ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "АЛИТЕТ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "АЛИТЕТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156009, ОБЛ КОСТРОМСКАЯ 44, Г КОСТРОМА, УЛ ЮБИЛЕЙНАЯ, ДОМ 24, ЛИТЕР Ю, Ю1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-967-6814502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alitet55@yandex.ru</t>
   </si>
 </sst>
 </file>
@@ -17069,10 +17510,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q615"/>
+  <dimension ref="A1:Q631"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A580" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A608" activeCellId="0" sqref="608:608"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A598" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A625" activeCellId="0" sqref="625:625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47137,6 +47578,755 @@
         <v>5629</v>
       </c>
     </row>
+    <row r="616" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="6" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="1" t="s">
+        <v>5630</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>5631</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>5632</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>5633</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>4287</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>5634</v>
+      </c>
+      <c r="J617" s="1" t="s">
+        <v>5635</v>
+      </c>
+      <c r="K617" s="1" t="n">
+        <v>5053045445</v>
+      </c>
+      <c r="L617" s="1" t="s">
+        <v>5636</v>
+      </c>
+      <c r="M617" s="1" t="s">
+        <v>5637</v>
+      </c>
+      <c r="N617" s="1" t="n">
+        <v>5053062313</v>
+      </c>
+      <c r="O617" s="1" t="s">
+        <v>5638</v>
+      </c>
+      <c r="P617" s="1" t="s">
+        <v>5639</v>
+      </c>
+      <c r="Q617" s="1" t="s">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="1" t="s">
+        <v>5641</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>5642</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>5643</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>5644</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>4735</v>
+      </c>
+      <c r="J618" s="1" t="s">
+        <v>4736</v>
+      </c>
+      <c r="K618" s="1" t="n">
+        <v>7732537999</v>
+      </c>
+      <c r="L618" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="M618" s="1" t="s">
+        <v>5646</v>
+      </c>
+      <c r="N618" s="1" t="n">
+        <v>7733357861</v>
+      </c>
+      <c r="O618" s="1" t="s">
+        <v>5647</v>
+      </c>
+      <c r="P618" s="1" t="s">
+        <v>5648</v>
+      </c>
+      <c r="Q618" s="1" t="s">
+        <v>5649</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="1" t="s">
+        <v>5650</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>5651</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>5652</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>5653</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>4582</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>5654</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>5655</v>
+      </c>
+      <c r="J619" s="1" t="s">
+        <v>5656</v>
+      </c>
+      <c r="K619" s="1" t="n">
+        <v>7710177774</v>
+      </c>
+      <c r="L619" s="1" t="s">
+        <v>5657</v>
+      </c>
+      <c r="M619" s="1" t="s">
+        <v>5658</v>
+      </c>
+      <c r="N619" s="1" t="n">
+        <v>3811470250</v>
+      </c>
+      <c r="O619" s="1" t="s">
+        <v>5659</v>
+      </c>
+      <c r="P619" s="1" t="s">
+        <v>5660</v>
+      </c>
+      <c r="Q619" s="1" t="s">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="1" t="s">
+        <v>5662</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>5663</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>5664</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>5665</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>4794</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>5666</v>
+      </c>
+      <c r="J620" s="1" t="s">
+        <v>5667</v>
+      </c>
+      <c r="K620" s="1" t="n">
+        <v>7702331944</v>
+      </c>
+      <c r="L620" s="1" t="s">
+        <v>5668</v>
+      </c>
+      <c r="M620" s="1" t="s">
+        <v>5669</v>
+      </c>
+      <c r="N620" s="1" t="n">
+        <v>245728170939</v>
+      </c>
+      <c r="O620" s="1" t="s">
+        <v>5670</v>
+      </c>
+      <c r="P620" s="1" t="s">
+        <v>5671</v>
+      </c>
+      <c r="Q620" s="1" t="s">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="1" t="s">
+        <v>5673</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>5674</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>5675</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G621" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="H621" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>4530</v>
+      </c>
+      <c r="J621" s="1" t="s">
+        <v>4531</v>
+      </c>
+      <c r="K621" s="1" t="n">
+        <v>5027130077</v>
+      </c>
+      <c r="L621" s="1" t="s">
+        <v>5677</v>
+      </c>
+      <c r="M621" s="1" t="s">
+        <v>5678</v>
+      </c>
+      <c r="N621" s="1" t="n">
+        <v>503119291719</v>
+      </c>
+      <c r="O621" s="1" t="s">
+        <v>5679</v>
+      </c>
+      <c r="P621" s="1" t="s">
+        <v>5680</v>
+      </c>
+      <c r="Q621" s="1" t="s">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="1" t="s">
+        <v>5682</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>5683</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>5684</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>5685</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>4505</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>5686</v>
+      </c>
+      <c r="G622" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="H622" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="I622" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="J622" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="K622" s="1" t="n">
+        <v>7701002520</v>
+      </c>
+      <c r="L622" s="1" t="s">
+        <v>5687</v>
+      </c>
+      <c r="M622" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="N622" s="1" t="n">
+        <v>9729284357</v>
+      </c>
+      <c r="O622" s="1" t="s">
+        <v>5689</v>
+      </c>
+      <c r="P622" s="1" t="s">
+        <v>5690</v>
+      </c>
+      <c r="Q622" s="1" t="s">
+        <v>5691</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="1" t="s">
+        <v>5692</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>5693</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>5695</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>4632</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>5460</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>5696</v>
+      </c>
+      <c r="K623" s="1" t="n">
+        <v>7718123097</v>
+      </c>
+      <c r="L623" s="1" t="s">
+        <v>5697</v>
+      </c>
+      <c r="M623" s="1" t="s">
+        <v>5698</v>
+      </c>
+      <c r="N623" s="1" t="n">
+        <v>9724051849</v>
+      </c>
+      <c r="O623" s="1" t="s">
+        <v>5699</v>
+      </c>
+      <c r="P623" s="1" t="s">
+        <v>5700</v>
+      </c>
+      <c r="Q623" s="1" t="s">
+        <v>5701</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="1" t="s">
+        <v>5702</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>5703</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>5705</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>5706</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>3470</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>5706</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>5707</v>
+      </c>
+      <c r="J624" s="1" t="s">
+        <v>5708</v>
+      </c>
+      <c r="K624" s="1" t="n">
+        <v>5040164212</v>
+      </c>
+      <c r="L624" s="1" t="s">
+        <v>5709</v>
+      </c>
+      <c r="M624" s="1" t="s">
+        <v>5710</v>
+      </c>
+      <c r="N624" s="1" t="n">
+        <v>7728450015</v>
+      </c>
+      <c r="O624" s="1" t="s">
+        <v>5711</v>
+      </c>
+      <c r="P624" s="1" t="n">
+        <v>79039610346</v>
+      </c>
+      <c r="Q624" s="1" t="s">
+        <v>5712</v>
+      </c>
+    </row>
+    <row r="625" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="6" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="1" t="s">
+        <v>5713</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>4085</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>5654</v>
+      </c>
+      <c r="G626" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H626" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I626" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J626" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="K626" s="1" t="n">
+        <v>7706753898</v>
+      </c>
+      <c r="L626" s="1" t="s">
+        <v>5717</v>
+      </c>
+      <c r="M626" s="1" t="s">
+        <v>5718</v>
+      </c>
+      <c r="N626" s="1" t="n">
+        <v>9719001176</v>
+      </c>
+      <c r="O626" s="1" t="s">
+        <v>5719</v>
+      </c>
+      <c r="P626" s="1" t="s">
+        <v>5720</v>
+      </c>
+      <c r="Q626" s="1" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="1" t="s">
+        <v>5721</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>5722</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H627" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>5725</v>
+      </c>
+      <c r="J627" s="1" t="s">
+        <v>5726</v>
+      </c>
+      <c r="K627" s="1" t="n">
+        <v>5038004331</v>
+      </c>
+      <c r="L627" s="1" t="s">
+        <v>5727</v>
+      </c>
+      <c r="M627" s="1" t="s">
+        <v>5728</v>
+      </c>
+      <c r="N627" s="1" t="n">
+        <v>2225222493</v>
+      </c>
+      <c r="O627" s="1" t="s">
+        <v>5729</v>
+      </c>
+      <c r="P627" s="1" t="s">
+        <v>5730</v>
+      </c>
+      <c r="Q627" s="1" t="s">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="1" t="s">
+        <v>5732</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>5733</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>5735</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>5736</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>5737</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>5738</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>5738</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J628" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K628" s="1" t="n">
+        <v>7733231361</v>
+      </c>
+      <c r="L628" s="1" t="s">
+        <v>5739</v>
+      </c>
+      <c r="M628" s="1" t="s">
+        <v>5740</v>
+      </c>
+      <c r="N628" s="1" t="n">
+        <v>691104851900</v>
+      </c>
+      <c r="O628" s="1" t="s">
+        <v>5741</v>
+      </c>
+      <c r="P628" s="1" t="s">
+        <v>5742</v>
+      </c>
+      <c r="Q628" s="1" t="s">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="1" t="s">
+        <v>5744</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>5745</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G629" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="H629" s="1" t="s">
+        <v>5748</v>
+      </c>
+      <c r="I629" s="1" t="s">
+        <v>5749</v>
+      </c>
+      <c r="J629" s="1" t="s">
+        <v>5750</v>
+      </c>
+      <c r="K629" s="1" t="n">
+        <v>5049024428</v>
+      </c>
+      <c r="L629" s="1" t="s">
+        <v>5751</v>
+      </c>
+      <c r="M629" s="1" t="s">
+        <v>5752</v>
+      </c>
+      <c r="N629" s="1" t="n">
+        <v>6321422894</v>
+      </c>
+      <c r="O629" s="1" t="s">
+        <v>5753</v>
+      </c>
+      <c r="P629" s="1" t="s">
+        <v>5754</v>
+      </c>
+      <c r="Q629" s="1" t="s">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="1" t="s">
+        <v>5756</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>5757</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>5760</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="H630" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="J630" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="K630" s="1" t="n">
+        <v>5001018049</v>
+      </c>
+      <c r="L630" s="1" t="s">
+        <v>5761</v>
+      </c>
+      <c r="M630" s="1" t="s">
+        <v>5762</v>
+      </c>
+      <c r="N630" s="1" t="n">
+        <v>9724034603</v>
+      </c>
+      <c r="O630" s="1" t="s">
+        <v>5763</v>
+      </c>
+      <c r="P630" s="1" t="s">
+        <v>5764</v>
+      </c>
+      <c r="Q630" s="1" t="s">
+        <v>5765</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="s">
+        <v>5766</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>5767</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G631" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="H631" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="I631" s="1" t="s">
+        <v>5770</v>
+      </c>
+      <c r="J631" s="1" t="s">
+        <v>5771</v>
+      </c>
+      <c r="K631" s="1" t="n">
+        <v>7734255090</v>
+      </c>
+      <c r="L631" s="1" t="s">
+        <v>5772</v>
+      </c>
+      <c r="M631" s="1" t="s">
+        <v>5773</v>
+      </c>
+      <c r="N631" s="1" t="n">
+        <v>4401166850</v>
+      </c>
+      <c r="O631" s="1" t="s">
+        <v>5774</v>
+      </c>
+      <c r="P631" s="1" t="s">
+        <v>5775</v>
+      </c>
+      <c r="Q631" s="1" t="s">
+        <v>5776</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>

--- a/zakupki_rastorjenie_base.xlsx
+++ b/zakupki_rastorjenie_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7539" uniqueCount="5777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7569" uniqueCount="5797">
   <si>
     <t xml:space="preserve">Ссылка на Решение об одностороннем отказе от исполнения контракта</t>
   </si>
@@ -17352,6 +17352,66 @@
   </si>
   <si>
     <t xml:space="preserve">Alitet55@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=2500506424721000245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25005064247 21 000245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590 818,50 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГОСУДАРСТВЕННОЕ БЮДЖЕТНОЕ УЧРЕЖДЕНИЕ ЗДРАВООХРАНЕНИЯ МОСКОВСКОЙ ОБЛАСТИ "ВОСКРЕСЕНСКАЯ ПЕРВАЯ РАЙОННАЯ БОЛЬНИЦА"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГАУЗ МО "ВПРБ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОРКИШКО ВЛАДА ДМИТРИЕВНАИндивидуальный предприниматель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП КОРКИШКО ВЛАДА ДМИТРИЕВНА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КРАЙ СТАВРОПОЛЬСКИЙ 26, Р-Н ПРЕДГОРНЫЙ, П. ПЯТИГОРСКИЙ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-929-6493101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volkovavladuschka@yandex.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru//epz/dizk/dizkCard/generalInformation.html?dizkId=174317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakupki.gov.ru/pgz/public/action/contracts/info/common_info/show?source=epz&amp;contractReestrNumber=1471400427021000784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14714004270 21 000784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67 581,90 ₽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДОБОРУДОВАНИЕ" (ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "МЕДОБОРУДОВАНИЕ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "МЕДОБОРУДОВАНИЕ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117105, Г МОСКВА 77, ПРОЕЗД НАГОРНЫЙ, ДОМ 10, КОРПУС 2, ПОД 4 ЭТ 2 ПОМ 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-903-5494451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arudy@list.ru</t>
   </si>
 </sst>
 </file>
@@ -17448,7 +17508,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -17493,6 +17553,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17510,10 +17574,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q631"/>
+  <dimension ref="A1:Q634"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A598" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A625" activeCellId="0" sqref="625:625"/>
+      <selection pane="topLeft" activeCell="A633" activeCellId="0" sqref="A633:Q634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -48327,13 +48391,124 @@
         <v>5776</v>
       </c>
     </row>
+    <row r="632" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="6" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="11" t="s">
+        <v>5777</v>
+      </c>
+      <c r="B633" s="11" t="s">
+        <v>5778</v>
+      </c>
+      <c r="C633" s="11" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D633" s="11" t="s">
+        <v>5780</v>
+      </c>
+      <c r="E633" s="11" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F633" s="11" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G633" s="11" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H633" s="11" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I633" s="11" t="s">
+        <v>5781</v>
+      </c>
+      <c r="J633" s="11" t="s">
+        <v>5782</v>
+      </c>
+      <c r="K633" s="11" t="n">
+        <v>5005064247</v>
+      </c>
+      <c r="L633" s="11" t="s">
+        <v>5783</v>
+      </c>
+      <c r="M633" s="11" t="s">
+        <v>5784</v>
+      </c>
+      <c r="N633" s="11" t="n">
+        <v>263210358105</v>
+      </c>
+      <c r="O633" s="11" t="s">
+        <v>5785</v>
+      </c>
+      <c r="P633" s="11" t="s">
+        <v>5786</v>
+      </c>
+      <c r="Q633" s="11" t="s">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="11" t="s">
+        <v>5788</v>
+      </c>
+      <c r="B634" s="11" t="s">
+        <v>5789</v>
+      </c>
+      <c r="C634" s="11" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D634" s="11" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E634" s="11" t="s">
+        <v>4583</v>
+      </c>
+      <c r="F634" s="11" t="s">
+        <v>3085</v>
+      </c>
+      <c r="G634" s="11" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H634" s="11" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I634" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="J634" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="K634" s="11" t="n">
+        <v>4714004270</v>
+      </c>
+      <c r="L634" s="11" t="s">
+        <v>5792</v>
+      </c>
+      <c r="M634" s="11" t="s">
+        <v>5793</v>
+      </c>
+      <c r="N634" s="11" t="n">
+        <v>7726740400</v>
+      </c>
+      <c r="O634" s="11" t="s">
+        <v>5794</v>
+      </c>
+      <c r="P634" s="11" t="s">
+        <v>5795</v>
+      </c>
+      <c r="Q634" s="11" t="s">
+        <v>5796</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I438" r:id="rId1" display="КОМИТЕТ ЛЕСНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
